--- a/reportes/pagomes/TotalPlano.xlsx
+++ b/reportes/pagomes/TotalPlano.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="PagoTotal20140707" sheetId="1" r:id="rId4"/>
+    <sheet name="PagoPlanta20140801" sheetId="1" r:id="rId4"/>
     <sheet name="Worksheet 1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
   <si>
     <t>C</t>
   </si>
@@ -30,57 +30,120 @@
     <t>AARON GONZALVEZ MARLYN ALICIA</t>
   </si>
   <si>
+    <t>AGUILAR BARROS JOSE BERNARDO</t>
+  </si>
+  <si>
     <t>AGUILAR MEZA ENER MARINA</t>
   </si>
   <si>
+    <t>ALARCON MUNEVAR NATHALIE BEATRIZ</t>
+  </si>
+  <si>
+    <t>ALFARO CAMARGO CARLOS ALBERTO</t>
+  </si>
+  <si>
     <t>ALGUERO AMAYA LUIS ROBERTO</t>
   </si>
   <si>
-    <t xml:space="preserve">ALVAREZ ECHEVERRIA BELINDA </t>
+    <t>ALTURO MENDIGAÑA ADRIANA PATRICIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALVARADO MEJIA MARELIS </t>
+  </si>
+  <si>
+    <t>ALVAREZ ECHEVERRIA BELINDA ESTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAYA LOPEZ NICOLAS </t>
   </si>
   <si>
     <t>AMAYA MENGUAL GILBERTO JOSE</t>
   </si>
   <si>
+    <t>ARAUJO CONTRERAS VIANEIS DE JESUS</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARCINIEGAS GUERRA ARIEL </t>
   </si>
   <si>
+    <t>ARISMENDY ROSADO MARTHA R.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIZA ARIZA DAVID </t>
   </si>
   <si>
-    <t xml:space="preserve">ARREGOCES JUDITH MARIA </t>
+    <t>ARIZA DAZA FERNANDO LUIS</t>
+  </si>
+  <si>
+    <t>ARREGOCES  JUDITH MARIA</t>
   </si>
   <si>
     <t xml:space="preserve">AVILA FUENTES HERIBERTO </t>
   </si>
   <si>
+    <t>AVILA FUENTES MARTHA MILAGRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">BARLIZA GONZALEZ CAYETANO </t>
   </si>
   <si>
+    <t>BARLIZA NUÑEZ GLENDIS ISABEL</t>
+  </si>
+  <si>
+    <t>BARLIZA NUÑEZ ROSA ISMAIRA</t>
+  </si>
+  <si>
     <t>BARRIOS BADILLO WILFRIDO RAFAEL</t>
   </si>
   <si>
+    <t>BARROS FARFAN YIMI YESID</t>
+  </si>
+  <si>
+    <t>BASTIDAS BARRANCO MARLON JOSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEDOYA RESTREPO HERNANDO </t>
   </si>
   <si>
     <t xml:space="preserve">BELAIDES PERALTA CELIA </t>
   </si>
   <si>
+    <t xml:space="preserve">BELTRAN ALVARADO GONZALO </t>
+  </si>
+  <si>
     <t>BELTRAN MARTINEZ GLORIA ISABEL</t>
   </si>
   <si>
     <t>BERMUDEZ BUENO WILLIAM RAFAEL</t>
   </si>
   <si>
+    <t>BERMUDEZ PIMIENTA CARLOS MANUEL</t>
+  </si>
+  <si>
+    <t>BERMUDEZ VILLAMIZAR ROGER DAVID</t>
+  </si>
+  <si>
     <t xml:space="preserve">BERNAL MUÑOZ FELIX </t>
   </si>
   <si>
+    <t xml:space="preserve">BERRIO CABALLERO HOBBER </t>
+  </si>
+  <si>
     <t>BERTEL PALENCIA RAMON DE JESUS</t>
   </si>
   <si>
+    <t xml:space="preserve">BONILLA BLANCHAR EDGAR </t>
+  </si>
+  <si>
     <t>BONIVENTO EPIAYU AURA AMELIA</t>
   </si>
   <si>
+    <t xml:space="preserve">BRAVO MENDOZA ARIANNYS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITO CARRILLO CLARA </t>
+  </si>
+  <si>
     <t xml:space="preserve">BRITO CASTAÑEDA ZENAIDA </t>
   </si>
   <si>
@@ -93,27 +156,54 @@
     <t xml:space="preserve">BRUGES ALARCON NESTOR </t>
   </si>
   <si>
+    <t xml:space="preserve">BUENO GIRALDO ISIDRO </t>
+  </si>
+  <si>
+    <t>BUENO PEREZ LUZ ANGELA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CABALLERO AMADOR JORGE </t>
   </si>
   <si>
+    <t xml:space="preserve">CABRALES BONIVENTO EDWIN </t>
+  </si>
+  <si>
     <t>CABRERA PALACIO RUBEN DARIO</t>
   </si>
   <si>
     <t>CADENA MARTINEZ LAURA MILENA</t>
   </si>
   <si>
+    <t>CAMPO RIVADENEIRA LEDIS ESTHER</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARABALI ANGOLA ALEXIS </t>
   </si>
   <si>
     <t xml:space="preserve">CARCAMO BERRIO ORLANDO </t>
   </si>
   <si>
-    <t xml:space="preserve">CASTELLANOS MARTHA LIGIA </t>
+    <t xml:space="preserve">CARDENAS CARDENAS ALAIN </t>
+  </si>
+  <si>
+    <t>CARDEÑO PORTELA EDWIN JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDEÑO PORTELA NORALBIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRILLO CUJIA VIVIANA </t>
+  </si>
+  <si>
+    <t>CASTELLANOS  MARTHA LIGIA</t>
   </si>
   <si>
     <t>CASTILLO PEREZ JAIME ANTONIO</t>
   </si>
   <si>
+    <t xml:space="preserve">CASTRILLON ROYS MARTHA </t>
+  </si>
+  <si>
     <t>CASTRO ECHAVEZ FERNANDO LUIS</t>
   </si>
   <si>
@@ -123,15 +213,39 @@
     <t>CELEDON MARTINEZ DOGNA MARY</t>
   </si>
   <si>
+    <t>CELEDON MOLINARES ALBERTO PLACIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHIQUILLO RODELO JUANNYS </t>
+  </si>
+  <si>
+    <t>CHOLES ALMAZO HILDA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOLES MEJIA FRANKLIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOLES MONTENEGRO NAYIDIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOLES QUINTERO PATRICIA </t>
+  </si>
+  <si>
     <t>CONSUEGRA TERAN MELISSA PAOLA</t>
   </si>
   <si>
+    <t>COTES SIERRA KARELIS BEATRIZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">COTES SPROCKEL GILBERTO </t>
   </si>
   <si>
     <t>CUAN ROJAS MARIA VICTORIA</t>
   </si>
   <si>
+    <t xml:space="preserve">CUELLO DAZA EDITH </t>
+  </si>
+  <si>
     <t xml:space="preserve">CUENTAS FIGUEROA RAFAEL </t>
   </si>
   <si>
@@ -141,18 +255,36 @@
     <t xml:space="preserve">CURIEL CORREA NEILY </t>
   </si>
   <si>
-    <t>CHOLES ALMAZO HILDA MARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOLES MEJIA FRANKLIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOLES QUINTERO PATRICIA </t>
+    <t>CURIEL GOMEZ REBECA YANETH</t>
+  </si>
+  <si>
+    <t>DAZA AVILA RAFAEL GUILLERMO</t>
+  </si>
+  <si>
+    <t>DAZA DAZA ALCIDES RAFAEL</t>
+  </si>
+  <si>
+    <t>DAZA LUQUE JOSE FRANCISCO</t>
   </si>
   <si>
     <t>DAZA MENDOZA JUAN JOSE</t>
   </si>
   <si>
+    <t>DAZA ORSINI SANDRA MILENA</t>
+  </si>
+  <si>
+    <t>DAZA REINES SAMMY DAVID</t>
+  </si>
+  <si>
+    <t>DELUQUE ATENCIO DAISY E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELUQUE DIAZ CRISPULO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELUQUE NUÑEZ LISBETH </t>
+  </si>
+  <si>
     <t xml:space="preserve">DELUQUE RODRIGUEZ ISIDRO </t>
   </si>
   <si>
@@ -162,27 +294,72 @@
     <t xml:space="preserve">DIAZ ESPITIA NUBIA </t>
   </si>
   <si>
+    <t>DIAZ FUENMAYOR KERRY JOHANA</t>
+  </si>
+  <si>
+    <t>DIAZ MENDOZA DIANA CAROLINA</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIAZ RESTREPO ESPERANZA </t>
   </si>
   <si>
     <t>DORIA ARGUMEDO CARLOS JULIO</t>
   </si>
   <si>
+    <t xml:space="preserve">DUARTE PEÑARANDA EDINA </t>
+  </si>
+  <si>
+    <t>ESPINOSA ROMERO ANA PATRICIA</t>
+  </si>
+  <si>
+    <t>FAJARDO CUADRADO EIDER RAFAEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">FAJARDO GOMEZ REMEDIOS </t>
   </si>
   <si>
+    <t>FINOLL ROYS RICARDO ENRIQUE</t>
+  </si>
+  <si>
     <t>FONSECA GUERRERO JOSE LUIS</t>
   </si>
   <si>
+    <t>FONSECA MENDOZA ALMA LUISA</t>
+  </si>
+  <si>
     <t>FORERO ARREGOCES HERLINDA ISABEL</t>
   </si>
   <si>
     <t>FRIAS ACOSTA EDILMA CECILIA</t>
   </si>
   <si>
+    <t xml:space="preserve">FRIAS PEREZ RAIZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUENTES MOLINA NATALIA </t>
+  </si>
+  <si>
+    <t>FUENTES OROZCO ARINDA DE JESUS</t>
+  </si>
+  <si>
+    <t>FUENTES SANCHEZ LULIA PAULINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALINDO MONTERO ANDRES </t>
+  </si>
+  <si>
     <t xml:space="preserve">GARCES MORELO DAGOBERTO </t>
   </si>
   <si>
+    <t xml:space="preserve">GOMEZ BERMUDEZ LORENA </t>
+  </si>
+  <si>
+    <t>GOMEZ JULIO OLENKA VIRGINIA</t>
+  </si>
+  <si>
+    <t>GOMEZ RAMOS JEINER DE JESUS</t>
+  </si>
+  <si>
     <t>GONZALEZ BERMUDEZ JORGE LUIS</t>
   </si>
   <si>
@@ -210,6 +387,12 @@
     <t xml:space="preserve">GUTIERREZ PACHECO JACQUELIN </t>
   </si>
   <si>
+    <t>GUTIERREZ RAMIREZ GAIL ALBERTO</t>
+  </si>
+  <si>
+    <t>GUTIERREZ SUAREZ EDUARDO ENRIQUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">GUZMAN VALDEBLANQUEZ FRANKLIN </t>
   </si>
   <si>
@@ -249,24 +432,72 @@
     <t>JARAMILLO MENGUAL ROSA MARIA</t>
   </si>
   <si>
+    <t xml:space="preserve">JIMENEZ BELEÑO ANDRES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIMENEZ CARDENAS MEREDITH </t>
+  </si>
+  <si>
+    <t>JIMENEZ PITRE IRIS AGUSTINA</t>
+  </si>
+  <si>
     <t xml:space="preserve">JIMENEZ RUIZ CARLOS </t>
   </si>
   <si>
     <t>JOIRO PACHECO YOLEIDA MARIA</t>
   </si>
   <si>
+    <t xml:space="preserve">KAMMERER DAVID MARTHA </t>
+  </si>
+  <si>
+    <t>LADEUTH OSPINO YELENIS MARIA</t>
+  </si>
+  <si>
+    <t>LEMOS RUIZ CECILIA CONSTANZA</t>
+  </si>
+  <si>
     <t xml:space="preserve">LEON TEJADA PEDRO </t>
   </si>
   <si>
     <t xml:space="preserve">LEON VANEGAS MARITZA </t>
   </si>
   <si>
+    <t>LINDO OÑATE OSCAR JOSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOPEZ ATENCIO ADAULFO </t>
   </si>
   <si>
     <t xml:space="preserve">LOPEZ CORREA JUDITH </t>
   </si>
   <si>
+    <t>LOPEZ CORREA VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>LOPEZ FUENTES EDUIN JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ HERNANDEZ RICARDO </t>
+  </si>
+  <si>
+    <t>LOPEZ JUVINAO DANNY DANIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ RIVADENEIRA CLEIRYS </t>
+  </si>
+  <si>
+    <t>MACHADO CANTILLO ANA BEATRIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAESTRE DAZA BERONICA </t>
+  </si>
+  <si>
+    <t>MAGDANIEL AMAYA OLARYS JUDITH</t>
+  </si>
+  <si>
+    <t>MAGDANIEL HERNANDEZ LIRINA PATRICIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAGDANIEL PABON OLARIS </t>
   </si>
   <si>
@@ -279,6 +510,9 @@
     <t>MARTINEZ CARDONA JOSE CLEMENTE</t>
   </si>
   <si>
+    <t>MARTINEZ GIL JOSE MANUEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">MARTINEZ GOMEZ TATIANA </t>
   </si>
   <si>
@@ -291,12 +525,18 @@
     <t>MAYA PABON RAUL ENRIQUE</t>
   </si>
   <si>
+    <t>MAYA PACHECO CARMEN LUISA</t>
+  </si>
+  <si>
     <t>MEDINA BRITO LUZ LEIDIS</t>
   </si>
   <si>
     <t xml:space="preserve">MEDINA DE FUENTES MARTHA </t>
   </si>
   <si>
+    <t xml:space="preserve">MEDINA PALENCIA YEISON </t>
+  </si>
+  <si>
     <t xml:space="preserve">MEDINA SIERRA ALTAGRACIA </t>
   </si>
   <si>
@@ -309,45 +549,93 @@
     <t>MEJIA CANTILLO MILADIS MARIA</t>
   </si>
   <si>
+    <t xml:space="preserve">MEJIA CURIEL EROTIDA </t>
+  </si>
+  <si>
     <t xml:space="preserve">MEJIA DE LA CRUZ ELIAS </t>
   </si>
   <si>
+    <t xml:space="preserve">MEJIA GONZALEZ LORELEY </t>
+  </si>
+  <si>
     <t xml:space="preserve">MEJIA JIMENEZ MILITZA </t>
   </si>
   <si>
     <t xml:space="preserve">MEJIA MENDOZA OLGA </t>
   </si>
   <si>
+    <t xml:space="preserve">MEJIA RIVEIRA NAYELI </t>
+  </si>
+  <si>
     <t xml:space="preserve">MELENDEZ SURMAY RAFAEL </t>
   </si>
   <si>
+    <t>MELO FREILE GELVIS MANUEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">MENDOZA CABELLO ROBERTO </t>
   </si>
   <si>
     <t>MENDOZA CATAÑO CARMENZA LEONOR</t>
   </si>
   <si>
+    <t>MENDOZA FERNANDEZ DARCY LUZ</t>
+  </si>
+  <si>
+    <t>MENDOZA PEÑARANDA MARBELIA ROSA</t>
+  </si>
+  <si>
     <t>MENGUAL MEZA MARINELA MORELIS</t>
   </si>
   <si>
+    <t xml:space="preserve">MERCADO ROCHA CELIA </t>
+  </si>
+  <si>
     <t xml:space="preserve">MERCADO VILLADIEGO ALEXANDER </t>
   </si>
   <si>
+    <t>MERIÑO MENDOZA DIBER ENRIQUE</t>
+  </si>
+  <si>
+    <t>MOLINA BOLIVAR GEOMAR ENRIQUE</t>
+  </si>
+  <si>
     <t>MOLINA VEGA ALFETT JOSE</t>
   </si>
   <si>
     <t xml:space="preserve">MOLINARES RAFAEL DANILO </t>
   </si>
   <si>
+    <t>MONTAÑO MARIMON DIANA ROSA</t>
+  </si>
+  <si>
+    <t>MONTERO MONTERO MANUEL GERMAN</t>
+  </si>
+  <si>
+    <t>MORALES BUSTAMANTE JOSE GREGORIO</t>
+  </si>
+  <si>
     <t>MORALES MENGUAL LUIS CARLOS</t>
   </si>
   <si>
+    <t>MORENO FERNANDEZ MALKA IRINA</t>
+  </si>
+  <si>
     <t>MOYA CAMACHO FABIO ORLANDO</t>
   </si>
   <si>
+    <t>MUÑIZ RODRIGUEZ ROSA VIRGINIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUÑOZ ROJAS DELVIS </t>
+  </si>
+  <si>
     <t xml:space="preserve">NATERA ESTRADA ANGEL </t>
   </si>
   <si>
+    <t>NUÑEZ VARGAS JULIA ROSA</t>
+  </si>
+  <si>
     <t>OCHOA GARCIA ETILVIA ALICIA</t>
   </si>
   <si>
@@ -357,6 +645,9 @@
     <t>OCHOA SALDARRIAGA CARLOS JULIO</t>
   </si>
   <si>
+    <t>OJEDA CAMARGO EDGAR ENRIQUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">OLIVEROS RICHOL JAQUELIN </t>
   </si>
   <si>
@@ -366,12 +657,36 @@
     <t xml:space="preserve">ORSINI CUADRADO AUGUSTO </t>
   </si>
   <si>
+    <t>ORTEGA HERNANDEZ CARLOS MARIO</t>
+  </si>
+  <si>
+    <t>ORTIZ ROJAS ANGELA NAIR</t>
+  </si>
+  <si>
     <t xml:space="preserve">OSPINO MERIÑO ISIDORO </t>
   </si>
   <si>
     <t xml:space="preserve">PALACIO PIMIENTA DILODIS </t>
   </si>
   <si>
+    <t>PALMEZANO IBARRA YAIRINA IDELKA</t>
+  </si>
+  <si>
+    <t>PANCIERA DI ZOPOLA MARTINEZ MIGUEL J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARRA  YOLANDA </t>
+  </si>
+  <si>
+    <t>PEDRAZA FERNANDEZ MELY LINDON</t>
+  </si>
+  <si>
+    <t>PEDRAZA REYES CARLOS JULIO</t>
+  </si>
+  <si>
+    <t>PEÑA CORTES LUISA FERNANDA</t>
+  </si>
+  <si>
     <t>PEÑALVER VANEGAS CASTA GLORIA</t>
   </si>
   <si>
@@ -381,18 +696,63 @@
     <t>PEREZ CAMARGO CLIMACO ALBERTO</t>
   </si>
   <si>
+    <t>PEREZ GAMEZ BORYS DE JESUS</t>
+  </si>
+  <si>
+    <t>PEREZ JIMENEZ RONALD ANTONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ MONTIEL JHONNY </t>
+  </si>
+  <si>
     <t>PEREZ VAN-LEENDEN FRANCISCO JUSTO</t>
   </si>
   <si>
+    <t xml:space="preserve">PEREZ VAN-LEENDEN MARIANO </t>
+  </si>
+  <si>
+    <t>PIMIENTA PRIETO MARIA MARGARITA</t>
+  </si>
+  <si>
+    <t>PINEDO GUERRA VICTOR MIGUEL</t>
+  </si>
+  <si>
+    <t>PINEDO VANEGAS AIRADIN ALONSO</t>
+  </si>
+  <si>
     <t xml:space="preserve">PINEDO VANEGAS DOMINGA </t>
   </si>
   <si>
-    <t>PINEDO VANEGAS AIRADIN ALONSO</t>
-  </si>
-  <si>
     <t>PINTO ANDRADE JOSE ALFONSO</t>
   </si>
   <si>
+    <t xml:space="preserve">PINTO ARAGON ELVIS </t>
+  </si>
+  <si>
+    <t>PINTO COTES LAURA RITA</t>
+  </si>
+  <si>
+    <t>PINTO MENDOZA YAISY ROSA</t>
+  </si>
+  <si>
+    <t>PINTO MINDIOLA LACIDES RAFAEL</t>
+  </si>
+  <si>
+    <t>PINTO SANTOS ALBA RUTH</t>
+  </si>
+  <si>
+    <t>PITRE REDONDO MIGUEL FRANCISCO</t>
+  </si>
+  <si>
+    <t>PITRE REDONDO REMEDIOS CATALINA</t>
+  </si>
+  <si>
+    <t>PITRE RUIZ LEANETH RAFAELINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PITRE RUIZ LEANIS </t>
+  </si>
+  <si>
     <t xml:space="preserve">POLO PERALTA JESUS </t>
   </si>
   <si>
@@ -411,36 +771,117 @@
     <t xml:space="preserve">QUINTERO FUENTES NARLY </t>
   </si>
   <si>
+    <t>QUINTERO MENDOZA JAIDER JOSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAIGOZA ACUÑA YANETH </t>
   </si>
   <si>
+    <t xml:space="preserve">RAMIREZ AYALA ANDERSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIREZ GONZALEZ RUDECINDO </t>
+  </si>
+  <si>
+    <t>RANGEL LUQUEZ OLIVIA ISABEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDONDO CHOLES MONICA </t>
+  </si>
+  <si>
+    <t>REDONDO SALAS DANNY DEXI</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROBLES BRITO DANIEL </t>
   </si>
   <si>
+    <t>ROBLES CAMARGO NILKA RIQUENA</t>
+  </si>
+  <si>
+    <t>ROBLES JULIO CARLOS ARTURO</t>
+  </si>
+  <si>
     <t>ROBLES RIVEIRA HERMES ORLANDO</t>
   </si>
   <si>
+    <t xml:space="preserve">RODRIGUEZ ACOSTA SAMUEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ CASTRO FREDY </t>
+  </si>
+  <si>
+    <t>RODRIGUEZ LOPEZ CIELO MARGARITA</t>
+  </si>
+  <si>
     <t>RODRIGUEZ RIVERA MARIA EUGENIA</t>
   </si>
   <si>
+    <t xml:space="preserve">ROJANO ALVARADO ROBERTO </t>
+  </si>
+  <si>
+    <t>ROJANO ALVARADO YOLMIS NICOLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJAS CARDENAS MIGDALIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMERO CUELLO SANDY </t>
+  </si>
+  <si>
+    <t>ROMERO MORA BORIS SANDY</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROSADO BOTELLO JHONNY </t>
   </si>
   <si>
+    <t>ROSADO CASTAÑEDA ENEIDA LUZ</t>
+  </si>
+  <si>
     <t>ROSADO VEGA JAIRO RAFAEL</t>
   </si>
   <si>
     <t xml:space="preserve">ROSERO DE LA CRUZ AGUSTIN </t>
   </si>
   <si>
+    <t>ROYS COTES EMA ROSA</t>
+  </si>
+  <si>
+    <t>RUIZ TORO DANIS EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALAZAR ARGEL ALEXIS </t>
+  </si>
+  <si>
     <t xml:space="preserve">SALAZAR GARCIA MIRIAM </t>
   </si>
   <si>
+    <t xml:space="preserve">SALCEDO ANDRADE JAIR </t>
+  </si>
+  <si>
     <t xml:space="preserve">SALCEDO DAVILA JAIRO </t>
   </si>
   <si>
+    <t>SALGADO CHAVEZ JOSE ALBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ CASTELLON EMILSE </t>
+  </si>
+  <si>
+    <t>SANCHEZ GONZALEZ JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>SANCHEZ PARDO FELIX RAMIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ RAMIREZ ABIMAEL </t>
+  </si>
+  <si>
     <t xml:space="preserve">SANCHEZ ROYS DEUSENITH </t>
   </si>
   <si>
+    <t>SANCHEZ ROYS RUSDEN LENIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">SANTIS AGUAS EVELIO </t>
   </si>
   <si>
@@ -450,18 +891,45 @@
     <t xml:space="preserve">SIERRA MEZA EUCADIS </t>
   </si>
   <si>
+    <t xml:space="preserve">SIERRA MONTALVO ARIANNA </t>
+  </si>
+  <si>
+    <t>SIERRA TONCEL JUAN CARLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIERRA TONCEL WILMAR </t>
+  </si>
+  <si>
+    <t>SOCARRAS BERTIZ CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>SOLANO ARIÑO VIVIAN ELIANA</t>
+  </si>
+  <si>
+    <t>SOTO PEROZA VICTOR SEGUNDO</t>
+  </si>
+  <si>
     <t xml:space="preserve">SPROKEL BROCHERO RAFAEL </t>
   </si>
   <si>
     <t>SUAREZ BARROS HORACIO BIENVENIDO</t>
   </si>
   <si>
+    <t xml:space="preserve">TAYLOR HENRIQUEZ SIDNEY </t>
+  </si>
+  <si>
     <t xml:space="preserve">TIRADO MARTINEZ DAMARIS </t>
   </si>
   <si>
     <t xml:space="preserve">TOBAR ORTIZ NUBIA </t>
   </si>
   <si>
+    <t xml:space="preserve">TONCEL PACHECO ENRIQUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES BRUGES WILMER </t>
+  </si>
+  <si>
     <t xml:space="preserve">TORRES SALAZAR MILENIS </t>
   </si>
   <si>
@@ -474,9 +942,21 @@
     <t xml:space="preserve">VALDIVIESO CLAVIJO GIOVANNY </t>
   </si>
   <si>
+    <t xml:space="preserve">VALERO VALERO NELSON </t>
+  </si>
+  <si>
+    <t>VANEGAS PEREZ PAOLA ANDREA</t>
+  </si>
+  <si>
     <t xml:space="preserve">VANEGAS SPROCKEL BELKIS </t>
   </si>
   <si>
+    <t>VARGAS ESCORCIA JOSE JORGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARGAS MUÑOZ LEDYS </t>
+  </si>
+  <si>
     <t xml:space="preserve">VASQUEZ MENDOZA MARIBETH </t>
   </si>
   <si>
@@ -486,12 +966,21 @@
     <t>VEGA GAMEZ YAMIRA ISABEL</t>
   </si>
   <si>
+    <t>VEGA MENDOZA YOLEIDA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIDAL DURAN BETSY </t>
+  </si>
+  <si>
     <t>VIDAL GOMEZ AMPARO CAROLINA</t>
   </si>
   <si>
     <t xml:space="preserve">VIDAL JAIDITH ENETH </t>
   </si>
   <si>
+    <t>VIECCO RIVADENEIRA LUIS RAFAEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">VILLA AMAYA ERNELL </t>
   </si>
   <si>
@@ -504,7 +993,13 @@
     <t xml:space="preserve">ZAMBRANO ROJAS SAMUEL </t>
   </si>
   <si>
+    <t>ZAMORA CORTES LOIDA PATRICIA</t>
+  </si>
+  <si>
     <t>ZUBIRIA VIECCO JAIRO EMILIO</t>
+  </si>
+  <si>
+    <t>ZULETA PEREZ MILVIA JOSE</t>
   </si>
 </sst>
 </file>
@@ -848,7 +1343,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2"/>
@@ -881,7 +1376,7 @@
         <v>40918469</v>
       </c>
       <c r="B2" s="1">
-        <v>7113217</v>
+        <v>5028670</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -892,2233 +1387,4543 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>40939700</v>
+        <v>84039816</v>
       </c>
       <c r="B3" s="1">
-        <v>4386460</v>
+        <v>1109356</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>405179284</v>
+        <v>405048687</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>13348956</v>
+        <v>40939700</v>
       </c>
       <c r="B4" s="1">
-        <v>9002953</v>
+        <v>3589361</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>405055948</v>
+        <v>405179284</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>40916739</v>
+        <v>40939978</v>
       </c>
       <c r="B5" s="1">
-        <v>4273571</v>
+        <v>912534</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>405056011</v>
+        <v>405149600</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>8701267</v>
+        <v>84071030</v>
       </c>
       <c r="B6" s="1">
-        <v>3314898</v>
+        <v>2625380</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>405030826</v>
+        <v>304002546</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>17952855</v>
+        <v>13348956</v>
       </c>
       <c r="B7" s="1">
-        <v>2949803</v>
+        <v>5580245</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>405030388</v>
+        <v>405055948</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>72042242</v>
+        <v>40936721</v>
       </c>
       <c r="B8" s="1">
-        <v>1230927</v>
+        <v>1202236</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>405055468</v>
+        <v>405182627</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>42493216</v>
+        <v>40921929</v>
       </c>
       <c r="B9" s="1">
-        <v>2131004</v>
+        <v>2140416</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>405055740</v>
+        <v>405180050</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>5163080</v>
+        <v>40916739</v>
       </c>
       <c r="B10" s="1">
-        <v>7005561</v>
+        <v>2343887</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>405044595</v>
+        <v>405056011</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>73077183</v>
+        <v>84026931</v>
       </c>
       <c r="B11" s="1">
-        <v>7827671</v>
+        <v>2534117</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>405056052</v>
+        <v>405002007</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>17805887</v>
+        <v>8701267</v>
       </c>
       <c r="B12" s="1">
-        <v>2142821</v>
+        <v>1247638</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>405753203</v>
+        <v>405030826</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>19092691</v>
+        <v>50892018</v>
       </c>
       <c r="B13" s="1">
-        <v>9155428</v>
+        <v>2952349</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>405031378</v>
+        <v>405769027</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>40933413</v>
+        <v>17952855</v>
       </c>
       <c r="B14" s="1">
-        <v>1685744</v>
+        <v>865809</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1">
-        <v>405157488</v>
+        <v>405030388</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>35463698</v>
+        <v>26965887</v>
       </c>
       <c r="B15" s="1">
-        <v>4414370</v>
+        <v>2104383</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>405055823</v>
+        <v>405044371</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>17807444</v>
+        <v>72042242</v>
       </c>
       <c r="B16" s="1">
-        <v>7450983</v>
+        <v>1990606</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>405056441</v>
+        <v>405055468</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>6882304</v>
+        <v>5163377</v>
       </c>
       <c r="B17" s="1">
-        <v>1286653</v>
+        <v>1639476</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="1">
-        <v>405031261</v>
+        <v>405044470</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>92508149</v>
+        <v>42493216</v>
       </c>
       <c r="B18" s="1">
-        <v>7007731</v>
+        <v>1181798</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="1">
-        <v>405030990</v>
+        <v>405055740</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>40912637</v>
+        <v>5163080</v>
       </c>
       <c r="B19" s="1">
-        <v>1954653</v>
+        <v>5046347</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>405055666</v>
+        <v>405044595</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>26963364</v>
+        <v>27004224</v>
       </c>
       <c r="B20" s="1">
-        <v>6544946</v>
+        <v>2707684</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="1">
-        <v>405753161</v>
+        <v>405056383</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>19496929</v>
+        <v>73077183</v>
       </c>
       <c r="B21" s="1">
-        <v>3312494</v>
+        <v>4730099</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="1">
-        <v>405754847</v>
+        <v>405056052</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>6757157</v>
+        <v>40928682</v>
       </c>
       <c r="B22" s="1">
-        <v>7365931</v>
+        <v>1023878</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="1">
-        <v>405750522</v>
+        <v>405048505</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>17802680</v>
+        <v>40931268</v>
       </c>
       <c r="B23" s="1">
-        <v>1187680</v>
+        <v>2425653</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="1">
-        <v>405056276</v>
+        <v>405179870</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>9070606</v>
+        <v>17805887</v>
       </c>
       <c r="B24" s="1">
-        <v>2251452</v>
+        <v>849541</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>405056250</v>
+        <v>405753203</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>72150467</v>
+        <v>84101451</v>
       </c>
       <c r="B25" s="1">
-        <v>2847112</v>
+        <v>2751448</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="1">
-        <v>405066481</v>
+        <v>300211059</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>56090201</v>
+        <v>77033581</v>
       </c>
       <c r="B26" s="1">
-        <v>1742646</v>
+        <v>3888894</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="1">
-        <v>405182403</v>
+        <v>405179961</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>76269701</v>
+        <v>19092691</v>
       </c>
       <c r="B27" s="1">
-        <v>7761831</v>
+        <v>3944217</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="1">
-        <v>405055732</v>
+        <v>405031378</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>84046064</v>
+        <v>40933413</v>
       </c>
       <c r="B28" s="1">
-        <v>5547920</v>
+        <v>696267</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="1">
-        <v>405031063</v>
+        <v>405157488</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>31920603</v>
+        <v>19461331</v>
       </c>
       <c r="B29" s="1">
-        <v>10970039</v>
+        <v>1773473</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="1">
-        <v>405031782</v>
+        <v>405056433</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>92510967</v>
+        <v>35463698</v>
       </c>
       <c r="B30" s="1">
-        <v>9241190</v>
+        <v>3235652</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="1">
-        <v>405031071</v>
+        <v>405055823</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>92511328</v>
+        <v>17807444</v>
       </c>
       <c r="B31" s="1">
-        <v>7248640</v>
+        <v>6560644</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="1">
-        <v>405031121</v>
+        <v>405056441</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>51828780</v>
+        <v>84079431</v>
       </c>
       <c r="B32" s="1">
-        <v>5606352</v>
+        <v>914598</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="1">
-        <v>405044462</v>
+        <v>405090531</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>40926769</v>
+        <v>84029482</v>
       </c>
       <c r="B33" s="1">
-        <v>1685744</v>
+        <v>1857034</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="1">
-        <v>405139726</v>
+        <v>405750373</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>1129577145</v>
+        <v>6882304</v>
       </c>
       <c r="B34" s="1">
-        <v>4367117</v>
+        <v>909870</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="1">
-        <v>405176868</v>
+        <v>405031261</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>84081588</v>
+        <v>84039854</v>
       </c>
       <c r="B35" s="1">
-        <v>3203888</v>
+        <v>2812250</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="1">
-        <v>405126962</v>
+        <v>304002421</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>40919704</v>
+        <v>92508149</v>
       </c>
       <c r="B36" s="1">
-        <v>3193908</v>
+        <v>5062713</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="1">
-        <v>405000548</v>
+        <v>405030990</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>7449339</v>
+        <v>84036737</v>
       </c>
       <c r="B37" s="1">
-        <v>8515756</v>
+        <v>3655450</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="1">
-        <v>405007931</v>
+        <v>405045949</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>33142746</v>
+        <v>40912637</v>
       </c>
       <c r="B38" s="1">
-        <v>11533447</v>
+        <v>943469</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="1">
-        <v>405049156</v>
+        <v>405055666</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>40916635</v>
+        <v>40942508</v>
       </c>
       <c r="B39" s="1">
-        <v>3547891</v>
+        <v>829031</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="1">
-        <v>405031014</v>
+        <v>405102203</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>40919494</v>
+        <v>37314692</v>
       </c>
       <c r="B40" s="1">
-        <v>7052474</v>
+        <v>2836948</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="1">
-        <v>405055500</v>
+        <v>405056912</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>84042850</v>
+        <v>26963364</v>
       </c>
       <c r="B41" s="1">
-        <v>5784939</v>
+        <v>6525660</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="1">
-        <v>405053075</v>
+        <v>405753161</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>40976770</v>
+        <v>19496929</v>
       </c>
       <c r="B42" s="1">
-        <v>7435960</v>
+        <v>2949503</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="1">
-        <v>405056532</v>
+        <v>405754847</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>17975955</v>
+        <v>6757157</v>
       </c>
       <c r="B43" s="1">
-        <v>1685744</v>
+        <v>4252204</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="1">
-        <v>405066309</v>
+        <v>405750522</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>84028941</v>
+        <v>17802680</v>
       </c>
       <c r="B44" s="1">
-        <v>4659964</v>
+        <v>1795516</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="1">
-        <v>405056342</v>
+        <v>405056276</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>40923874</v>
+        <v>12540363</v>
       </c>
       <c r="B45" s="1">
-        <v>2949803</v>
+        <v>2313307</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="1">
-        <v>405055781</v>
+        <v>405056003</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>40916312</v>
+        <v>40927768</v>
       </c>
       <c r="B46" s="1">
-        <v>1286653</v>
+        <v>1202236</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="1">
-        <v>405055575</v>
+        <v>405166901</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>45445337</v>
+        <v>9070606</v>
       </c>
       <c r="B47" s="1">
-        <v>6300198</v>
+        <v>761160</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
       <c r="D47" s="1">
-        <v>405055815</v>
+        <v>405056250</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>10893959</v>
+        <v>84084156</v>
       </c>
       <c r="B48" s="1">
-        <v>4691297</v>
+        <v>2640819</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="1">
-        <v>405055351</v>
+        <v>405140187</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>40792159</v>
+        <v>72150467</v>
       </c>
       <c r="B49" s="1">
-        <v>4584584</v>
+        <v>2050387</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="1">
-        <v>405044611</v>
+        <v>405066481</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>12546959</v>
+        <v>56090201</v>
       </c>
       <c r="B50" s="1">
-        <v>5252231</v>
+        <v>2659387</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="1">
-        <v>405754946</v>
+        <v>405182403</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>40918603</v>
+        <v>36551115</v>
       </c>
       <c r="B51" s="1">
-        <v>986295</v>
+        <v>2716948</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51" s="1">
-        <v>405049784</v>
+        <v>405055989</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>41477972</v>
+        <v>76269701</v>
       </c>
       <c r="B52" s="1">
-        <v>8278211</v>
+        <v>4189375</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
       </c>
       <c r="D52" s="1">
-        <v>405053679</v>
+        <v>405055732</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>15020638</v>
+        <v>84046064</v>
       </c>
       <c r="B53" s="1">
-        <v>1534065</v>
+        <v>1422211</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
       </c>
       <c r="D53" s="1">
-        <v>405031220</v>
+        <v>405031063</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>12544915</v>
+        <v>84087841</v>
       </c>
       <c r="B54" s="1">
-        <v>5093816</v>
+        <v>812142</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="1">
-        <v>405046723</v>
+        <v>405164898</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>84030977</v>
+        <v>84033855</v>
       </c>
       <c r="B55" s="1">
-        <v>2097302</v>
+        <v>3821044</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="1">
-        <v>405054339</v>
+        <v>405137076</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>5158707</v>
+        <v>32689739</v>
       </c>
       <c r="B56" s="1">
-        <v>5974812</v>
+        <v>1752656</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="1">
-        <v>405056540</v>
+        <v>405063934</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>24545047</v>
+        <v>1123998385</v>
       </c>
       <c r="B57" s="1">
-        <v>5597119</v>
+        <v>2098162</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="1">
-        <v>405043985</v>
+        <v>405140229</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>12719194</v>
+        <v>31920603</v>
       </c>
       <c r="B58" s="1">
-        <v>1324980</v>
+        <v>5786129</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
       </c>
       <c r="D58" s="1">
-        <v>405767450</v>
+        <v>405031782</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>57412938</v>
+        <v>92510967</v>
       </c>
       <c r="B59" s="1">
-        <v>6340932</v>
+        <v>6661471</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="1">
-        <v>405056557</v>
+        <v>405031071</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>17806728</v>
+        <v>40922440</v>
       </c>
       <c r="B60" s="1">
-        <v>5252231</v>
+        <v>2522451</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>405071051</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>40942002</v>
+        <v>92511328</v>
       </c>
       <c r="B61" s="1">
-        <v>1068487</v>
+        <v>4281679</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
       </c>
       <c r="D61" s="1">
-        <v>405149733</v>
+        <v>405031121</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>40917742</v>
+        <v>51828780</v>
       </c>
       <c r="B62" s="1">
-        <v>2093010</v>
+        <v>1851721</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
       </c>
       <c r="D62" s="1">
-        <v>405040999</v>
+        <v>405044462</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>17808439</v>
+        <v>40926769</v>
       </c>
       <c r="B63" s="1">
-        <v>2098459</v>
+        <v>696386</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" s="1">
-        <v>405031022</v>
+        <v>405139726</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>84026213</v>
+        <v>12538766</v>
       </c>
       <c r="B64" s="1">
-        <v>1543131</v>
+        <v>4677350</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="1">
-        <v>405048703</v>
+        <v>405049776</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>22977169</v>
+        <v>32741890</v>
       </c>
       <c r="B65" s="1">
-        <v>1286653</v>
+        <v>2113948</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
       </c>
       <c r="D65" s="1">
-        <v>405056102</v>
+        <v>405057506</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>7456239</v>
+        <v>40919494</v>
       </c>
       <c r="B66" s="1">
-        <v>4178054</v>
+        <v>5044778</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
       </c>
       <c r="D66" s="1">
-        <v>405055872</v>
+        <v>405055500</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>84104058</v>
+        <v>84042850</v>
       </c>
       <c r="B67" s="1">
-        <v>1452983</v>
+        <v>2925146</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
       </c>
       <c r="D67" s="1">
-        <v>405055583</v>
+        <v>405053075</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>19225173</v>
+        <v>40924433</v>
       </c>
       <c r="B68" s="1">
-        <v>11781838</v>
+        <v>1513136</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="1">
-        <v>405041542</v>
+        <v>405044587</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>15039137</v>
+        <v>40976770</v>
       </c>
       <c r="B69" s="1">
-        <v>5404843</v>
+        <v>5357287</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
       </c>
       <c r="D69" s="1">
-        <v>405056201</v>
+        <v>405056532</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>40914837</v>
+        <v>1129577145</v>
       </c>
       <c r="B70" s="1">
-        <v>2093010</v>
+        <v>3033491</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
       </c>
       <c r="D70" s="1">
-        <v>405040445</v>
+        <v>405176868</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>40916124</v>
+        <v>40926534</v>
       </c>
       <c r="B71" s="1">
-        <v>6151154</v>
+        <v>3437737</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
       </c>
       <c r="D71" s="1">
-        <v>405020504</v>
+        <v>405076225</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>84005124</v>
+        <v>84081588</v>
       </c>
       <c r="B72" s="1">
-        <v>6670169</v>
+        <v>2836948</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
       </c>
       <c r="D72" s="1">
-        <v>405051285</v>
+        <v>405126962</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>5183086</v>
+        <v>40919704</v>
       </c>
       <c r="B73" s="1">
-        <v>4629202</v>
+        <v>2852797</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
       </c>
       <c r="D73" s="1">
-        <v>405033515</v>
+        <v>405000548</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>24473753</v>
+        <v>27002170</v>
       </c>
       <c r="B74" s="1">
-        <v>10583532</v>
+        <v>2474738</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
       </c>
       <c r="D74" s="1">
-        <v>405750605</v>
+        <v>405059247</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>40837882</v>
+        <v>7449339</v>
       </c>
       <c r="B75" s="1">
-        <v>2750144</v>
+        <v>5385028</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" s="1">
-        <v>405054099</v>
+        <v>405007931</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>8748985</v>
+        <v>33142746</v>
       </c>
       <c r="B76" s="1">
-        <v>8570602</v>
+        <v>7383751</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
       </c>
       <c r="D76" s="1">
-        <v>405031105</v>
+        <v>405049156</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>40983796</v>
+        <v>40916635</v>
       </c>
       <c r="B77" s="1">
-        <v>1068487</v>
+        <v>1000124</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
       </c>
       <c r="D77" s="1">
-        <v>405149626</v>
+        <v>405031014</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>8662135</v>
+        <v>40922614</v>
       </c>
       <c r="B78" s="1">
-        <v>9242626</v>
+        <v>2949503</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
       </c>
       <c r="D78" s="1">
-        <v>405030743</v>
+        <v>405049230</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>26965867</v>
+        <v>84033345</v>
       </c>
       <c r="B79" s="1">
-        <v>7029207</v>
+        <v>1124207</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
       </c>
       <c r="D79" s="1">
-        <v>405041591</v>
+        <v>405031352</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>12720417</v>
+        <v>84088120</v>
       </c>
       <c r="B80" s="1">
-        <v>5778356</v>
+        <v>2698069</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
       </c>
       <c r="D80" s="1">
-        <v>405055914</v>
+        <v>405125113</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>40915007</v>
+        <v>84037627</v>
       </c>
       <c r="B81" s="1">
-        <v>3985181</v>
+        <v>2253336</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
       </c>
       <c r="D81" s="1">
-        <v>405055922</v>
+        <v>405055138</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>40924537</v>
+        <v>17975955</v>
       </c>
       <c r="B82" s="1">
-        <v>1954653</v>
+        <v>827839</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
       </c>
       <c r="D82" s="1">
-        <v>405040064</v>
+        <v>405066309</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>40924429</v>
+        <v>49791756</v>
       </c>
       <c r="B83" s="1">
-        <v>2035225</v>
+        <v>2644613</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
       </c>
       <c r="D83" s="1">
-        <v>405056326</v>
+        <v>405179805</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>56057668</v>
+        <v>17973791</v>
       </c>
       <c r="B84" s="1">
-        <v>4367117</v>
+        <v>2803868</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
       </c>
       <c r="D84" s="1">
-        <v>405176934</v>
+        <v>405770348</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>19082949</v>
+        <v>40913813</v>
       </c>
       <c r="B85" s="1">
-        <v>7362343</v>
+        <v>548564</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
       </c>
       <c r="D85" s="1">
-        <v>405056565</v>
+        <v>405030115</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>32181130</v>
+        <v>84084230</v>
       </c>
       <c r="B86" s="1">
-        <v>5903303</v>
+        <v>482329</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
       </c>
       <c r="D86" s="1">
-        <v>405164013</v>
+        <v>405090036</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>17855558</v>
+        <v>40922080</v>
       </c>
       <c r="B87" s="1">
-        <v>8436491</v>
+        <v>1470114</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
       </c>
       <c r="D87" s="1">
-        <v>405029851</v>
+        <v>405055088</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>4509294</v>
+        <v>84028941</v>
       </c>
       <c r="B88" s="1">
-        <v>10710380</v>
+        <v>1511390</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
       </c>
       <c r="D88" s="1">
-        <v>405030230</v>
+        <v>405056342</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>77017538</v>
+        <v>40923874</v>
       </c>
       <c r="B89" s="1">
-        <v>4072739</v>
+        <v>1195643</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
       </c>
       <c r="D89" s="1">
-        <v>300314994</v>
+        <v>405055781</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>40927723</v>
+        <v>40916312</v>
       </c>
       <c r="B90" s="1">
-        <v>1898071</v>
+        <v>924870</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
       </c>
       <c r="D90" s="1">
-        <v>405182684</v>
+        <v>405055575</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>40917726</v>
+        <v>40927310</v>
       </c>
       <c r="B91" s="1">
-        <v>1286653</v>
+        <v>4955197</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
       </c>
       <c r="D91" s="1">
-        <v>405044330</v>
+        <v>405123787</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>40912575</v>
+        <v>52702655</v>
       </c>
       <c r="B92" s="1">
-        <v>1286653</v>
+        <v>3452492</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
       </c>
       <c r="D92" s="1">
-        <v>405055708</v>
+        <v>310081955</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>84092791</v>
+        <v>45445337</v>
       </c>
       <c r="B93" s="1">
-        <v>3123417</v>
+        <v>4804594</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
       </c>
       <c r="D93" s="1">
-        <v>405124462</v>
+        <v>405055815</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>84032706</v>
+        <v>10893959</v>
       </c>
       <c r="B94" s="1">
-        <v>4641215</v>
+        <v>2727851</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
       </c>
       <c r="D94" s="1">
-        <v>405055435</v>
+        <v>405055351</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>40913846</v>
+        <v>40925745</v>
       </c>
       <c r="B95" s="1">
-        <v>1896741</v>
+        <v>956489</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
       </c>
       <c r="D95" s="1">
-        <v>405031154</v>
+        <v>405041716</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>84031046</v>
+        <v>1118805083</v>
       </c>
       <c r="B96" s="1">
-        <v>4243860</v>
+        <v>3451149</v>
       </c>
       <c r="C96" t="s">
         <v>97</v>
       </c>
       <c r="D96" s="1">
-        <v>405042482</v>
+        <v>405179243</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>57440533</v>
+        <v>84026792</v>
       </c>
       <c r="B97" s="1">
-        <v>4521517</v>
+        <v>1823464</v>
       </c>
       <c r="C97" t="s">
         <v>98</v>
       </c>
       <c r="D97" s="1">
-        <v>405171752</v>
+        <v>405044306</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>40789011</v>
+        <v>40792159</v>
       </c>
       <c r="B98" s="1">
-        <v>6671827</v>
+        <v>2986023</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
       </c>
       <c r="D98" s="1">
-        <v>405126756</v>
+        <v>405044611</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>72134510</v>
+        <v>84089741</v>
       </c>
       <c r="B99" s="1">
-        <v>7688585</v>
+        <v>774236</v>
       </c>
       <c r="C99" t="s">
         <v>100</v>
       </c>
       <c r="D99" s="1">
-        <v>405056722</v>
+        <v>405171984</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>3717537</v>
+        <v>12546959</v>
       </c>
       <c r="B100" s="1">
-        <v>7660507</v>
+        <v>2566345</v>
       </c>
       <c r="C100" t="s">
         <v>101</v>
       </c>
       <c r="D100" s="1">
-        <v>405056508</v>
+        <v>405754946</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>56073872</v>
+        <v>56069985</v>
       </c>
       <c r="B101" s="1">
-        <v>4072739</v>
+        <v>874014</v>
       </c>
       <c r="C101" t="s">
         <v>102</v>
       </c>
       <c r="D101" s="1">
-        <v>405070467</v>
+        <v>405165036</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>32655352</v>
+        <v>40918603</v>
       </c>
       <c r="B102" s="1">
-        <v>5391039</v>
+        <v>428972</v>
       </c>
       <c r="C102" t="s">
         <v>103</v>
       </c>
       <c r="D102" s="1">
-        <v>405056110</v>
+        <v>405049784</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>84078019</v>
+        <v>41477972</v>
       </c>
       <c r="B103" s="1">
-        <v>1206911</v>
+        <v>11207207</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
       </c>
       <c r="D103" s="1">
-        <v>405767534</v>
+        <v>405053679</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>17954966</v>
+        <v>40838476</v>
       </c>
       <c r="B104" s="1">
-        <v>1685744</v>
+        <v>2643593</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
       </c>
       <c r="D104" s="1">
-        <v>405154998</v>
+        <v>405039967</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>8713774</v>
+        <v>56078338</v>
       </c>
       <c r="B105" s="1">
-        <v>5989979</v>
+        <v>2895649</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
       </c>
       <c r="D105" s="1">
-        <v>405056268</v>
+        <v>405180191</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>84034602</v>
+        <v>40915762</v>
       </c>
       <c r="B106" s="1">
-        <v>2750144</v>
+        <v>2044947</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="1">
-        <v>405055690</v>
+        <v>405055724</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>73114368</v>
+        <v>41672425</v>
       </c>
       <c r="B107" s="1">
-        <v>4105320</v>
+        <v>4213821</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
       </c>
       <c r="D107" s="1">
-        <v>405180001</v>
+        <v>405061789</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>84026238</v>
+        <v>77034749</v>
       </c>
       <c r="B108" s="1">
-        <v>1642760</v>
+        <v>4927469</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
       </c>
       <c r="D108" s="1">
-        <v>405056284</v>
+        <v>405020199</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>40925643</v>
+        <v>15020638</v>
       </c>
       <c r="B109" s="1">
-        <v>1685744</v>
+        <v>784553</v>
       </c>
       <c r="C109" t="s">
         <v>110</v>
       </c>
       <c r="D109" s="1">
-        <v>405149253</v>
+        <v>405031220</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>26964861</v>
+        <v>40917947</v>
       </c>
       <c r="B110" s="1">
-        <v>7498835</v>
+        <v>2836948</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
       </c>
       <c r="D110" s="1">
-        <v>405030404</v>
+        <v>405060070</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>70070562</v>
+        <v>32785368</v>
       </c>
       <c r="B111" s="1">
-        <v>7238520</v>
+        <v>3462040</v>
       </c>
       <c r="C111" t="s">
         <v>112</v>
       </c>
       <c r="D111" s="1">
-        <v>405056177</v>
+        <v>405081514</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>32704787</v>
+        <v>1010089455</v>
       </c>
       <c r="B112" s="1">
-        <v>1896741</v>
+        <v>1202236</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
       </c>
       <c r="D112" s="1">
-        <v>405030180</v>
+        <v>405182619</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>40976795</v>
+        <v>12544915</v>
       </c>
       <c r="B113" s="1">
-        <v>5348213</v>
+        <v>2575918</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
       </c>
       <c r="D113" s="1">
-        <v>405030982</v>
+        <v>405046723</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>12712692</v>
+        <v>84030977</v>
       </c>
       <c r="B114" s="1">
-        <v>3803525</v>
+        <v>909664</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
       </c>
       <c r="D114" s="1">
-        <v>405055856</v>
+        <v>405054339</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>73080431</v>
+        <v>5158707</v>
       </c>
       <c r="B115" s="1">
-        <v>8389547</v>
+        <v>3425485</v>
       </c>
       <c r="C115" t="s">
         <v>116</v>
       </c>
       <c r="D115" s="1">
-        <v>405055898</v>
+        <v>405056540</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>40915068</v>
+        <v>24545047</v>
       </c>
       <c r="B116" s="1">
-        <v>3555132</v>
+        <v>1999261</v>
       </c>
       <c r="C116" t="s">
         <v>117</v>
       </c>
       <c r="D116" s="1">
-        <v>405043035</v>
+        <v>405043985</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>40928745</v>
+        <v>12719194</v>
       </c>
       <c r="B117" s="1">
-        <v>4846361</v>
+        <v>1190508</v>
       </c>
       <c r="C117" t="s">
         <v>118</v>
       </c>
       <c r="D117" s="1">
-        <v>405089905</v>
+        <v>405767450</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>72174199</v>
+        <v>57412938</v>
       </c>
       <c r="B118" s="1">
-        <v>5778354</v>
+        <v>3431488</v>
       </c>
       <c r="C118" t="s">
         <v>119</v>
       </c>
       <c r="D118" s="1">
-        <v>405055195</v>
+        <v>405056557</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>19193790</v>
+        <v>17806728</v>
       </c>
       <c r="B119" s="1">
-        <v>8801005</v>
+        <v>3032612</v>
       </c>
       <c r="C119" t="s">
         <v>120</v>
       </c>
       <c r="D119" s="1">
-        <v>405031147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>17802053</v>
+        <v>40942002</v>
       </c>
       <c r="B120" s="1">
-        <v>14963046</v>
+        <v>630121</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
       </c>
       <c r="D120" s="1">
-        <v>405056581</v>
+        <v>405149733</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>40914203</v>
+        <v>40917742</v>
       </c>
       <c r="B121" s="1">
-        <v>3314898</v>
+        <v>830679</v>
       </c>
       <c r="C121" t="s">
         <v>122</v>
       </c>
       <c r="D121" s="1">
-        <v>405055245</v>
+        <v>405040999</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>84026629</v>
+        <v>77172086</v>
       </c>
       <c r="B122" s="1">
-        <v>7052862</v>
+        <v>4080950</v>
       </c>
       <c r="C122" t="s">
         <v>123</v>
       </c>
       <c r="D122" s="1">
-        <v>405055401</v>
+        <v>300125341</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>77022224</v>
+        <v>17974249</v>
       </c>
       <c r="B123" s="1">
-        <v>3727971</v>
+        <v>1163045</v>
       </c>
       <c r="C123" t="s">
         <v>124</v>
       </c>
       <c r="D123" s="1">
-        <v>405158411</v>
+        <v>405028887</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>5159322</v>
+        <v>17808439</v>
       </c>
       <c r="B124" s="1">
-        <v>5252231</v>
+        <v>668334</v>
       </c>
       <c r="C124" t="s">
         <v>125</v>
       </c>
       <c r="D124" s="1">
-        <v>405012113</v>
+        <v>405031022</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>32683605</v>
+        <v>84026213</v>
       </c>
       <c r="B125" s="1">
-        <v>5322411</v>
+        <v>615795</v>
       </c>
       <c r="C125" t="s">
         <v>126</v>
       </c>
       <c r="D125" s="1">
-        <v>405055286</v>
+        <v>405048703</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>42677500</v>
+        <v>22977169</v>
       </c>
       <c r="B126" s="1">
-        <v>8705075</v>
+        <v>662996</v>
       </c>
       <c r="C126" t="s">
         <v>127</v>
       </c>
       <c r="D126" s="1">
-        <v>405056219</v>
+        <v>405056102</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>19456447</v>
+        <v>7456239</v>
       </c>
       <c r="B127" s="1">
-        <v>4169170</v>
+        <v>1791421</v>
       </c>
       <c r="C127" t="s">
         <v>128</v>
       </c>
       <c r="D127" s="1">
-        <v>405753518</v>
+        <v>405055872</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>26962896</v>
+        <v>84104058</v>
       </c>
       <c r="B128" s="1">
-        <v>6946838</v>
+        <v>630631</v>
       </c>
       <c r="C128" t="s">
         <v>129</v>
       </c>
       <c r="D128" s="1">
-        <v>405043977</v>
+        <v>405055583</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>40924637</v>
+        <v>19225173</v>
       </c>
       <c r="B129" s="1">
-        <v>1772897</v>
+        <v>5559948</v>
       </c>
       <c r="C129" t="s">
         <v>130</v>
       </c>
       <c r="D129" s="1">
-        <v>405055476</v>
+        <v>405041542</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>36719109</v>
+        <v>15039137</v>
       </c>
       <c r="B130" s="1">
-        <v>4836531</v>
+        <v>2096956</v>
       </c>
       <c r="C130" t="s">
         <v>131</v>
       </c>
       <c r="D130" s="1">
-        <v>405067208</v>
+        <v>405056201</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>17807106</v>
+        <v>40914837</v>
       </c>
       <c r="B131" s="1">
-        <v>8198283</v>
+        <v>478906</v>
       </c>
       <c r="C131" t="s">
         <v>132</v>
       </c>
       <c r="D131" s="1">
-        <v>405008079</v>
+        <v>405040445</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>8798450</v>
+        <v>40916124</v>
       </c>
       <c r="B132" s="1">
-        <v>652484</v>
+        <v>1512187</v>
       </c>
       <c r="C132" t="s">
         <v>133</v>
       </c>
       <c r="D132" s="1">
-        <v>4051822635</v>
+        <v>405020504</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>40923400</v>
+        <v>84005124</v>
       </c>
       <c r="B133" s="1">
-        <v>4633668</v>
+        <v>2397803</v>
       </c>
       <c r="C133" t="s">
         <v>134</v>
       </c>
       <c r="D133" s="1">
-        <v>405030362</v>
+        <v>405051285</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>10234384</v>
+        <v>5183086</v>
       </c>
       <c r="B134" s="1">
-        <v>4126340</v>
+        <v>2193361</v>
       </c>
       <c r="C134" t="s">
         <v>135</v>
       </c>
       <c r="D134" s="1">
-        <v>405044603</v>
+        <v>405033515</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>8278413</v>
+        <v>24473753</v>
       </c>
       <c r="B135" s="1">
-        <v>10340907</v>
+        <v>7452445</v>
       </c>
       <c r="C135" t="s">
         <v>136</v>
       </c>
       <c r="D135" s="1">
-        <v>405035304</v>
+        <v>405750605</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>4034483</v>
+        <v>40837882</v>
       </c>
       <c r="B136" s="1">
-        <v>7875371</v>
+        <v>1218706</v>
       </c>
       <c r="C136" t="s">
         <v>137</v>
       </c>
       <c r="D136" s="1">
-        <v>405056094</v>
+        <v>405054099</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>40976465</v>
+        <v>12543151</v>
       </c>
       <c r="B137" s="1">
-        <v>2097302</v>
+        <v>4030556</v>
       </c>
       <c r="C137" t="s">
         <v>138</v>
       </c>
       <c r="D137" s="1">
-        <v>405044439</v>
+        <v>405056458</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>17805759</v>
+        <v>49741390</v>
       </c>
       <c r="B138" s="1">
-        <v>9447495</v>
+        <v>2749958</v>
       </c>
       <c r="C138" t="s">
         <v>139</v>
       </c>
       <c r="D138" s="1">
-        <v>405056037</v>
+        <v>300072444</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>40914811</v>
+        <v>56056146</v>
       </c>
       <c r="B139" s="1">
-        <v>8703026</v>
+        <v>2550563</v>
       </c>
       <c r="C139" t="s">
         <v>140</v>
       </c>
       <c r="D139" s="1">
-        <v>405056466</v>
+        <v>405065947</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>70120295</v>
+        <v>8748985</v>
       </c>
       <c r="B140" s="1">
-        <v>10477315</v>
+        <v>6050533</v>
       </c>
       <c r="C140" t="s">
         <v>141</v>
       </c>
       <c r="D140" s="1">
-        <v>405030198</v>
+        <v>405031105</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>9307957</v>
+        <v>40983796</v>
       </c>
       <c r="B141" s="1">
-        <v>6986863</v>
+        <v>446095</v>
       </c>
       <c r="C141" t="s">
         <v>142</v>
       </c>
       <c r="D141" s="1">
-        <v>405030784</v>
+        <v>405149626</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>40912245</v>
+        <v>40797290</v>
       </c>
       <c r="B142" s="1">
-        <v>2138216</v>
+        <v>3442806</v>
       </c>
       <c r="C142" t="s">
         <v>143</v>
       </c>
       <c r="D142" s="1">
-        <v>405056243</v>
+        <v>405085382</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>17807159</v>
+        <v>40938089</v>
       </c>
       <c r="B143" s="1">
-        <v>4659964</v>
+        <v>1286387</v>
       </c>
       <c r="C143" t="s">
         <v>144</v>
       </c>
       <c r="D143" s="1">
-        <v>405040270</v>
+        <v>405179813</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>84035580</v>
+        <v>25271766</v>
       </c>
       <c r="B144" s="1">
-        <v>2977372</v>
+        <v>6035901</v>
       </c>
       <c r="C144" t="s">
         <v>145</v>
       </c>
       <c r="D144" s="1">
-        <v>405078791</v>
+        <v>405056359</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>26995818</v>
+        <v>8662135</v>
       </c>
       <c r="B145" s="1">
-        <v>2097302</v>
+        <v>6524902</v>
       </c>
       <c r="C145" t="s">
         <v>146</v>
       </c>
       <c r="D145" s="1">
-        <v>405055880</v>
+        <v>405030743</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>41693733</v>
+        <v>26965867</v>
       </c>
       <c r="B146" s="1">
-        <v>6883399</v>
+        <v>4230949</v>
       </c>
       <c r="C146" t="s">
         <v>147</v>
       </c>
       <c r="D146" s="1">
-        <v>405056151</v>
+        <v>405041591</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>40930225</v>
+        <v>84035236</v>
       </c>
       <c r="B147" s="1">
-        <v>1556071</v>
+        <v>851842</v>
       </c>
       <c r="C147" t="s">
         <v>148</v>
       </c>
       <c r="D147" s="1">
-        <v>405101643</v>
+        <v>405138199</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>26982790</v>
+        <v>12720417</v>
       </c>
       <c r="B148" s="1">
-        <v>7217764</v>
+        <v>2457252</v>
       </c>
       <c r="C148" t="s">
         <v>149</v>
       </c>
       <c r="D148" s="1">
-        <v>405052515</v>
+        <v>405055914</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>32628773</v>
+        <v>40915007</v>
       </c>
       <c r="B149" s="1">
-        <v>3203888</v>
+        <v>5547986</v>
       </c>
       <c r="C149" t="s">
         <v>150</v>
       </c>
       <c r="D149" s="1">
-        <v>405090432</v>
+        <v>405055922</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>18922505</v>
+        <v>84028500</v>
       </c>
       <c r="B150" s="1">
-        <v>3985181</v>
+        <v>1038775</v>
       </c>
       <c r="C150" t="s">
         <v>151</v>
       </c>
       <c r="D150" s="1">
-        <v>405041161</v>
+        <v>405057985</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>40920939</v>
+        <v>84034370</v>
       </c>
       <c r="B151" s="1">
-        <v>6038786</v>
+        <v>4880805</v>
       </c>
       <c r="C151" t="s">
         <v>152</v>
       </c>
       <c r="D151" s="1">
-        <v>405055765</v>
+        <v>405087438</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>26994996</v>
+        <v>91528139</v>
       </c>
       <c r="B152" s="1">
-        <v>2294068</v>
+        <v>1296332</v>
       </c>
       <c r="C152" t="s">
         <v>153</v>
       </c>
       <c r="D152" s="1">
-        <v>405029844</v>
+        <v>405153487</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>56085314</v>
+        <v>17904729</v>
       </c>
       <c r="B153" s="1">
-        <v>4521517</v>
+        <v>2659387</v>
       </c>
       <c r="C153" t="s">
         <v>154</v>
       </c>
       <c r="D153" s="1">
-        <v>405087362</v>
+        <v>304002454</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>40919703</v>
+        <v>40941561</v>
       </c>
       <c r="B154" s="1">
-        <v>2750144</v>
+        <v>1079036</v>
       </c>
       <c r="C154" t="s">
         <v>155</v>
       </c>
       <c r="D154" s="1">
-        <v>405040858</v>
+        <v>405142209</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>40937619</v>
+        <v>57446153</v>
       </c>
       <c r="B155" s="1">
-        <v>1898071</v>
+        <v>2950906</v>
       </c>
       <c r="C155" t="s">
         <v>156</v>
       </c>
       <c r="D155" s="1">
-        <v>405112095</v>
+        <v>405056193</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>56085519</v>
+        <v>40938567</v>
       </c>
       <c r="B156" s="1">
-        <v>3203888</v>
+        <v>652685</v>
       </c>
       <c r="C156" t="s">
         <v>157</v>
       </c>
       <c r="D156" s="1">
-        <v>304002447</v>
+        <v>405766999</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>6772256</v>
+        <v>32710942</v>
       </c>
       <c r="B157" s="1">
-        <v>3865169</v>
+        <v>1723349</v>
       </c>
       <c r="C157" t="s">
         <v>158</v>
       </c>
       <c r="D157" s="1">
-        <v>300308194</v>
+        <v>405053984</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>40799640</v>
+        <v>40923820</v>
       </c>
       <c r="B158" s="1">
-        <v>2138216</v>
+        <v>1164300</v>
       </c>
       <c r="C158" t="s">
         <v>159</v>
       </c>
       <c r="D158" s="1">
-        <v>405065178</v>
+        <v>405174061</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>27015180</v>
+        <v>40924537</v>
       </c>
       <c r="B159" s="1">
-        <v>4521517</v>
+        <v>2323062</v>
       </c>
       <c r="C159" t="s">
         <v>160</v>
       </c>
       <c r="D159" s="1">
-        <v>300779162</v>
+        <v>405040064</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>7475678</v>
+        <v>40924429</v>
       </c>
       <c r="B160" s="1">
-        <v>8311738</v>
+        <v>1080754</v>
       </c>
       <c r="C160" t="s">
         <v>161</v>
       </c>
       <c r="D160" s="1">
-        <v>405009515</v>
+        <v>405056326</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>12593221</v>
+        <v>56057668</v>
       </c>
       <c r="B161" s="1">
-        <v>3472697</v>
+        <v>3353041</v>
       </c>
       <c r="C161" t="s">
         <v>162</v>
       </c>
       <c r="D161" s="1">
+        <v>405176934</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>19082949</v>
+      </c>
+      <c r="B162" s="1">
+        <v>2762108</v>
+      </c>
+      <c r="C162" t="s">
+        <v>163</v>
+      </c>
+      <c r="D162" s="1">
+        <v>405056565</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>19591473</v>
+      </c>
+      <c r="B163" s="1">
+        <v>3142913</v>
+      </c>
+      <c r="C163" t="s">
+        <v>164</v>
+      </c>
+      <c r="D163" s="1">
+        <v>400120820</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>32181130</v>
+      </c>
+      <c r="B164" s="1">
+        <v>4125589</v>
+      </c>
+      <c r="C164" t="s">
+        <v>165</v>
+      </c>
+      <c r="D164" s="1">
+        <v>405164013</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>17855558</v>
+      </c>
+      <c r="B165" s="1">
+        <v>4694917</v>
+      </c>
+      <c r="C165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D165" s="1">
+        <v>405029851</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>4509294</v>
+      </c>
+      <c r="B166" s="1">
+        <v>6923351</v>
+      </c>
+      <c r="C166" t="s">
+        <v>167</v>
+      </c>
+      <c r="D166" s="1">
+        <v>405030230</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>77017538</v>
+      </c>
+      <c r="B167" s="1">
+        <v>3606290</v>
+      </c>
+      <c r="C167" t="s">
+        <v>168</v>
+      </c>
+      <c r="D167" s="1">
+        <v>300314994</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>40944920</v>
+      </c>
+      <c r="B168" s="1">
+        <v>2201970</v>
+      </c>
+      <c r="C168" t="s">
+        <v>169</v>
+      </c>
+      <c r="D168" s="1">
+        <v>405163890</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>40927723</v>
+      </c>
+      <c r="B169" s="1">
+        <v>3451149</v>
+      </c>
+      <c r="C169" t="s">
+        <v>170</v>
+      </c>
+      <c r="D169" s="1">
+        <v>405182916</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>40917726</v>
+      </c>
+      <c r="B170" s="1">
+        <v>272263</v>
+      </c>
+      <c r="C170" t="s">
+        <v>171</v>
+      </c>
+      <c r="D170" s="1">
+        <v>405044330</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>84085182</v>
+      </c>
+      <c r="B171" s="1">
+        <v>2812648</v>
+      </c>
+      <c r="C171" t="s">
+        <v>172</v>
+      </c>
+      <c r="D171" s="1">
+        <v>405179938</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>40912575</v>
+      </c>
+      <c r="B172" s="1">
+        <v>591544</v>
+      </c>
+      <c r="C172" t="s">
+        <v>173</v>
+      </c>
+      <c r="D172" s="1">
+        <v>405055708</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>84092791</v>
+      </c>
+      <c r="B173" s="1">
+        <v>2214328</v>
+      </c>
+      <c r="C173" t="s">
+        <v>174</v>
+      </c>
+      <c r="D173" s="1">
+        <v>405124462</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>84032706</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1566757</v>
+      </c>
+      <c r="C174" t="s">
+        <v>175</v>
+      </c>
+      <c r="D174" s="1">
+        <v>405055435</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>40913846</v>
+      </c>
+      <c r="B175" s="1">
+        <v>634194</v>
+      </c>
+      <c r="C175" t="s">
+        <v>176</v>
+      </c>
+      <c r="D175" s="1">
+        <v>405031154</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>40924959</v>
+      </c>
+      <c r="B176" s="1">
+        <v>5191940</v>
+      </c>
+      <c r="C176" t="s">
+        <v>177</v>
+      </c>
+      <c r="D176" s="1">
+        <v>405061706</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>84031046</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1160680</v>
+      </c>
+      <c r="C177" t="s">
+        <v>178</v>
+      </c>
+      <c r="D177" s="1">
+        <v>405042482</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>56057030</v>
+      </c>
+      <c r="B178" s="1">
+        <v>2587913</v>
+      </c>
+      <c r="C178" t="s">
+        <v>179</v>
+      </c>
+      <c r="D178" s="1">
+        <v>405180183</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>57440533</v>
+      </c>
+      <c r="B179" s="1">
+        <v>3452492</v>
+      </c>
+      <c r="C179" t="s">
+        <v>180</v>
+      </c>
+      <c r="D179" s="1">
+        <v>405171752</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>40789011</v>
+      </c>
+      <c r="B180" s="1">
+        <v>6642556</v>
+      </c>
+      <c r="C180" t="s">
+        <v>181</v>
+      </c>
+      <c r="D180" s="1">
+        <v>405126756</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>40932743</v>
+      </c>
+      <c r="B181" s="1">
+        <v>2644613</v>
+      </c>
+      <c r="C181" t="s">
+        <v>182</v>
+      </c>
+      <c r="D181" s="1">
+        <v>405179821</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>72134510</v>
+      </c>
+      <c r="B182" s="1">
+        <v>5392003</v>
+      </c>
+      <c r="C182" t="s">
+        <v>183</v>
+      </c>
+      <c r="D182" s="1">
+        <v>405056722</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>84033224</v>
+      </c>
+      <c r="B183" s="1">
+        <v>2644613</v>
+      </c>
+      <c r="C183" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" s="1">
+        <v>405179920</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>3717537</v>
+      </c>
+      <c r="B184" s="1">
+        <v>3090937</v>
+      </c>
+      <c r="C184" t="s">
+        <v>185</v>
+      </c>
+      <c r="D184" s="1">
+        <v>405056508</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>56073872</v>
+      </c>
+      <c r="B185" s="1">
+        <v>3606290</v>
+      </c>
+      <c r="C185" t="s">
+        <v>186</v>
+      </c>
+      <c r="D185" s="1">
+        <v>405070467</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>26995329</v>
+      </c>
+      <c r="B186" s="1">
+        <v>4248265</v>
+      </c>
+      <c r="C186" t="s">
+        <v>187</v>
+      </c>
+      <c r="D186" s="1">
+        <v>405047333</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>40923961</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1202236</v>
+      </c>
+      <c r="C187" t="s">
+        <v>188</v>
+      </c>
+      <c r="D187" s="1">
+        <v>405182643</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>32655352</v>
+      </c>
+      <c r="B188" s="1">
+        <v>7652675</v>
+      </c>
+      <c r="C188" t="s">
+        <v>189</v>
+      </c>
+      <c r="D188" s="1">
+        <v>405056110</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>32632763</v>
+      </c>
+      <c r="B189" s="1">
+        <v>3920823</v>
+      </c>
+      <c r="C189" t="s">
+        <v>190</v>
+      </c>
+      <c r="D189" s="1">
+        <v>405056409</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>84078019</v>
+      </c>
+      <c r="B190" s="1">
+        <v>1093850</v>
+      </c>
+      <c r="C190" t="s">
+        <v>191</v>
+      </c>
+      <c r="D190" s="1">
+        <v>405767534</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>84032581</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2976017</v>
+      </c>
+      <c r="C191" t="s">
+        <v>192</v>
+      </c>
+      <c r="D191" s="1">
+        <v>405055328</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>12560254</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2856371</v>
+      </c>
+      <c r="C192" t="s">
+        <v>193</v>
+      </c>
+      <c r="D192" s="1">
+        <v>405077306</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>17954966</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1064714</v>
+      </c>
+      <c r="C193" t="s">
+        <v>194</v>
+      </c>
+      <c r="D193" s="1">
+        <v>405154998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>8713774</v>
+      </c>
+      <c r="B194" s="1">
+        <v>4214648</v>
+      </c>
+      <c r="C194" t="s">
+        <v>195</v>
+      </c>
+      <c r="D194" s="1">
+        <v>405056268</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>40839704</v>
+      </c>
+      <c r="B195" s="1">
+        <v>2010085</v>
+      </c>
+      <c r="C195" t="s">
+        <v>196</v>
+      </c>
+      <c r="D195" s="1">
+        <v>405033374</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>5171041</v>
+      </c>
+      <c r="B196" s="1">
+        <v>3315960</v>
+      </c>
+      <c r="C196" t="s">
+        <v>197</v>
+      </c>
+      <c r="D196" s="1">
+        <v>405055534</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>84035424</v>
+      </c>
+      <c r="B197" s="1">
+        <v>2852797</v>
+      </c>
+      <c r="C197" t="s">
+        <v>198</v>
+      </c>
+      <c r="D197" s="1">
+        <v>405180035</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>84034602</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1642251</v>
+      </c>
+      <c r="C198" t="s">
+        <v>199</v>
+      </c>
+      <c r="D198" s="1">
+        <v>405055690</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>39490945</v>
+      </c>
+      <c r="B199" s="1">
+        <v>2655763</v>
+      </c>
+      <c r="C199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D199" s="1">
+        <v>405123639</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>73114368</v>
+      </c>
+      <c r="B200" s="1">
+        <v>3655450</v>
+      </c>
+      <c r="C200" t="s">
+        <v>201</v>
+      </c>
+      <c r="D200" s="1">
+        <v>405180001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <v>40942871</v>
+      </c>
+      <c r="B201" s="1">
+        <v>2655762</v>
+      </c>
+      <c r="C201" t="s">
+        <v>202</v>
+      </c>
+      <c r="D201" s="1">
+        <v>405182854</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202">
+        <v>40917736</v>
+      </c>
+      <c r="B202" s="1">
+        <v>2961967</v>
+      </c>
+      <c r="C202" t="s">
+        <v>203</v>
+      </c>
+      <c r="D202" s="1">
+        <v>405180118</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>84026238</v>
+      </c>
+      <c r="B203" s="1">
+        <v>2687252</v>
+      </c>
+      <c r="C203" t="s">
+        <v>204</v>
+      </c>
+      <c r="D203" s="1">
+        <v>405056284</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>40914786</v>
+      </c>
+      <c r="B204" s="1">
+        <v>684627</v>
+      </c>
+      <c r="C204" t="s">
+        <v>205</v>
+      </c>
+      <c r="D204" s="1">
+        <v>405029885</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
+        <v>40925643</v>
+      </c>
+      <c r="B205" s="1">
+        <v>186093</v>
+      </c>
+      <c r="C205" t="s">
+        <v>206</v>
+      </c>
+      <c r="D205" s="1">
+        <v>405149253</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <v>26964861</v>
+      </c>
+      <c r="B206" s="1">
+        <v>4783797</v>
+      </c>
+      <c r="C206" t="s">
+        <v>207</v>
+      </c>
+      <c r="D206" s="1">
+        <v>405030404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <v>70070562</v>
+      </c>
+      <c r="B207" s="1">
+        <v>4112303</v>
+      </c>
+      <c r="C207" t="s">
+        <v>208</v>
+      </c>
+      <c r="D207" s="1">
+        <v>405056177</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <v>84032386</v>
+      </c>
+      <c r="B208" s="1">
+        <v>3192769</v>
+      </c>
+      <c r="C208" t="s">
+        <v>209</v>
+      </c>
+      <c r="D208" s="1">
+        <v>405056375</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>32704787</v>
+      </c>
+      <c r="B209" s="1">
+        <v>2734657</v>
+      </c>
+      <c r="C209" t="s">
+        <v>210</v>
+      </c>
+      <c r="D209" s="1">
+        <v>405030180</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>40976795</v>
+      </c>
+      <c r="B210" s="1">
+        <v>794193</v>
+      </c>
+      <c r="C210" t="s">
+        <v>211</v>
+      </c>
+      <c r="D210" s="1">
+        <v>405030982</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>12712692</v>
+      </c>
+      <c r="B211" s="1">
+        <v>3809651</v>
+      </c>
+      <c r="C211" t="s">
+        <v>212</v>
+      </c>
+      <c r="D211" s="1">
+        <v>405055856</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>71597186</v>
+      </c>
+      <c r="B212" s="1">
+        <v>5679391</v>
+      </c>
+      <c r="C212" t="s">
+        <v>213</v>
+      </c>
+      <c r="D212" s="1">
+        <v>405023334</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>40918605</v>
+      </c>
+      <c r="B213" s="1">
+        <v>3035715</v>
+      </c>
+      <c r="C213" t="s">
+        <v>214</v>
+      </c>
+      <c r="D213" s="1">
+        <v>405028515</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>73080431</v>
+      </c>
+      <c r="B214" s="1">
+        <v>4299507</v>
+      </c>
+      <c r="C214" t="s">
+        <v>215</v>
+      </c>
+      <c r="D214" s="1">
+        <v>405055898</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>40915068</v>
+      </c>
+      <c r="B215" s="1">
+        <v>1911385</v>
+      </c>
+      <c r="C215" t="s">
+        <v>216</v>
+      </c>
+      <c r="D215" s="1">
+        <v>405043035</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>40937339</v>
+      </c>
+      <c r="B216" s="1">
+        <v>2655763</v>
+      </c>
+      <c r="C216" t="s">
+        <v>217</v>
+      </c>
+      <c r="D216" s="1">
+        <v>405182668</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>84080209</v>
+      </c>
+      <c r="B217" s="1">
+        <v>3632845</v>
+      </c>
+      <c r="C217" t="s">
+        <v>218</v>
+      </c>
+      <c r="D217" s="1">
+        <v>405096520</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>21238226</v>
+      </c>
+      <c r="B218" s="1">
+        <v>3205769</v>
+      </c>
+      <c r="C218" t="s">
+        <v>219</v>
+      </c>
+      <c r="D218" s="1">
+        <v>405179854</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>84028958</v>
+      </c>
+      <c r="B219" s="1">
+        <v>837769</v>
+      </c>
+      <c r="C219" t="s">
+        <v>220</v>
+      </c>
+      <c r="D219" s="1">
+        <v>400783940</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>19443502</v>
+      </c>
+      <c r="B220" s="1">
+        <v>3606290</v>
+      </c>
+      <c r="C220" t="s">
+        <v>221</v>
+      </c>
+      <c r="D220" s="1">
+        <v>405179862</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>52266796</v>
+      </c>
+      <c r="B221" s="1">
+        <v>2688400</v>
+      </c>
+      <c r="C221" t="s">
+        <v>222</v>
+      </c>
+      <c r="D221" s="1">
+        <v>405180019</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222">
+        <v>40928745</v>
+      </c>
+      <c r="B222" s="1">
+        <v>1713418</v>
+      </c>
+      <c r="C222" t="s">
+        <v>223</v>
+      </c>
+      <c r="D222" s="1">
+        <v>405089905</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
+        <v>72174199</v>
+      </c>
+      <c r="B223" s="1">
+        <v>2528821</v>
+      </c>
+      <c r="C223" t="s">
+        <v>224</v>
+      </c>
+      <c r="D223" s="1">
+        <v>405055195</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>19193790</v>
+      </c>
+      <c r="B224" s="1">
+        <v>2538667</v>
+      </c>
+      <c r="C224" t="s">
+        <v>225</v>
+      </c>
+      <c r="D224" s="1">
+        <v>405031147</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>17855736</v>
+      </c>
+      <c r="B225" s="1">
+        <v>1506695</v>
+      </c>
+      <c r="C225" t="s">
+        <v>226</v>
+      </c>
+      <c r="D225" s="1">
+        <v>405161464</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226">
+        <v>8534287</v>
+      </c>
+      <c r="B226" s="1">
+        <v>3498126</v>
+      </c>
+      <c r="C226" t="s">
+        <v>227</v>
+      </c>
+      <c r="D226" s="1">
+        <v>405044009</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227">
+        <v>2760943</v>
+      </c>
+      <c r="B227" s="1">
+        <v>7351614</v>
+      </c>
+      <c r="C227" t="s">
+        <v>228</v>
+      </c>
+      <c r="D227" s="1">
+        <v>405055153</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228">
+        <v>17802053</v>
+      </c>
+      <c r="B228" s="1">
+        <v>7003013</v>
+      </c>
+      <c r="C228" t="s">
+        <v>229</v>
+      </c>
+      <c r="D228" s="1">
+        <v>405056581</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229">
+        <v>9078794</v>
+      </c>
+      <c r="B229" s="1">
+        <v>2933117</v>
+      </c>
+      <c r="C229" t="s">
+        <v>230</v>
+      </c>
+      <c r="D229" s="1">
+        <v>405023383</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230">
+        <v>36548894</v>
+      </c>
+      <c r="B230" s="1">
+        <v>3573184</v>
+      </c>
+      <c r="C230" t="s">
+        <v>231</v>
+      </c>
+      <c r="D230" s="1">
+        <v>405043084</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231">
+        <v>17804185</v>
+      </c>
+      <c r="B231" s="1">
+        <v>3347492</v>
+      </c>
+      <c r="C231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D231" s="1">
+        <v>405059361</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>84026629</v>
+      </c>
+      <c r="B232" s="1">
+        <v>4266541</v>
+      </c>
+      <c r="C232" t="s">
+        <v>233</v>
+      </c>
+      <c r="D232" s="1">
+        <v>405055401</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>40914203</v>
+      </c>
+      <c r="B233" s="1">
+        <v>4052852</v>
+      </c>
+      <c r="C233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D233" s="1">
+        <v>405055245</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>77022224</v>
+      </c>
+      <c r="B234" s="1">
+        <v>1239162</v>
+      </c>
+      <c r="C234" t="s">
+        <v>235</v>
+      </c>
+      <c r="D234" s="1">
+        <v>405158411</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235">
+        <v>40978774</v>
+      </c>
+      <c r="B235" s="1">
+        <v>2710207</v>
+      </c>
+      <c r="C235" t="s">
+        <v>236</v>
+      </c>
+      <c r="D235" s="1">
+        <v>405044223</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236">
+        <v>40936726</v>
+      </c>
+      <c r="B236" s="1">
+        <v>2188794</v>
+      </c>
+      <c r="C236" t="s">
+        <v>237</v>
+      </c>
+      <c r="D236" s="1">
+        <v>405179268</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237">
+        <v>40922011</v>
+      </c>
+      <c r="B237" s="1">
+        <v>1106000</v>
+      </c>
+      <c r="C237" t="s">
+        <v>238</v>
+      </c>
+      <c r="D237" s="1">
+        <v>405052903</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>12526163</v>
+      </c>
+      <c r="B238" s="1">
+        <v>3644757</v>
+      </c>
+      <c r="C238" t="s">
+        <v>239</v>
+      </c>
+      <c r="D238" s="1">
+        <v>405179797</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239">
+        <v>32845456</v>
+      </c>
+      <c r="B239" s="1">
+        <v>2635087</v>
+      </c>
+      <c r="C239" t="s">
+        <v>240</v>
+      </c>
+      <c r="D239" s="1">
+        <v>304002520</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240">
+        <v>17804528</v>
+      </c>
+      <c r="B240" s="1">
+        <v>2933117</v>
+      </c>
+      <c r="C240" t="s">
+        <v>241</v>
+      </c>
+      <c r="D240" s="1">
+        <v>405059528</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>40927400</v>
+      </c>
+      <c r="B241" s="1">
+        <v>2836948</v>
+      </c>
+      <c r="C241" t="s">
+        <v>242</v>
+      </c>
+      <c r="D241" s="1">
+        <v>405071242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>49720755</v>
+      </c>
+      <c r="B242" s="1">
+        <v>2881810</v>
+      </c>
+      <c r="C242" t="s">
+        <v>243</v>
+      </c>
+      <c r="D242" s="1">
+        <v>405180092</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>40934523</v>
+      </c>
+      <c r="B243" s="1">
+        <v>3573942</v>
+      </c>
+      <c r="C243" t="s">
+        <v>244</v>
+      </c>
+      <c r="D243" s="1">
+        <v>405104761</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <v>5159322</v>
+      </c>
+      <c r="B244" s="1">
+        <v>3739605</v>
+      </c>
+      <c r="C244" t="s">
+        <v>245</v>
+      </c>
+      <c r="D244" s="1">
+        <v>405012113</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <v>32683605</v>
+      </c>
+      <c r="B245" s="1">
+        <v>3757687</v>
+      </c>
+      <c r="C245" t="s">
+        <v>246</v>
+      </c>
+      <c r="D245" s="1">
+        <v>405055286</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>42677500</v>
+      </c>
+      <c r="B246" s="1">
+        <v>6145453</v>
+      </c>
+      <c r="C246" t="s">
+        <v>247</v>
+      </c>
+      <c r="D246" s="1">
+        <v>405056219</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
+        <v>19456447</v>
+      </c>
+      <c r="B247" s="1">
+        <v>1873117</v>
+      </c>
+      <c r="C247" t="s">
+        <v>248</v>
+      </c>
+      <c r="D247" s="1">
+        <v>405753518</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
+        <v>26962896</v>
+      </c>
+      <c r="B248" s="1">
+        <v>3246127</v>
+      </c>
+      <c r="C248" t="s">
+        <v>249</v>
+      </c>
+      <c r="D248" s="1">
+        <v>405043977</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>40924637</v>
+      </c>
+      <c r="B249" s="1">
+        <v>835663</v>
+      </c>
+      <c r="C249" t="s">
+        <v>250</v>
+      </c>
+      <c r="D249" s="1">
+        <v>405055476</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>84035444</v>
+      </c>
+      <c r="B250" s="1">
+        <v>2836948</v>
+      </c>
+      <c r="C250" t="s">
+        <v>251</v>
+      </c>
+      <c r="D250" s="1">
+        <v>405179946</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>36719109</v>
+      </c>
+      <c r="B251" s="1">
+        <v>3452492</v>
+      </c>
+      <c r="C251" t="s">
+        <v>252</v>
+      </c>
+      <c r="D251" s="1">
+        <v>405067208</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252">
+        <v>77025705</v>
+      </c>
+      <c r="B252" s="1">
+        <v>2717411</v>
+      </c>
+      <c r="C252" t="s">
+        <v>253</v>
+      </c>
+      <c r="D252" s="1">
+        <v>300125432</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253">
+        <v>84039896</v>
+      </c>
+      <c r="B253" s="1">
+        <v>3520592</v>
+      </c>
+      <c r="C253" t="s">
+        <v>254</v>
+      </c>
+      <c r="D253" s="1">
+        <v>405055997</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>49736403</v>
+      </c>
+      <c r="B254" s="1">
+        <v>1953866</v>
+      </c>
+      <c r="C254" t="s">
+        <v>255</v>
+      </c>
+      <c r="D254" s="1">
+        <v>405180076</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>40923678</v>
+      </c>
+      <c r="B255" s="1">
+        <v>2608868</v>
+      </c>
+      <c r="C255" t="s">
+        <v>256</v>
+      </c>
+      <c r="D255" s="1">
+        <v>405031287</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>40926822</v>
+      </c>
+      <c r="B256" s="1">
+        <v>2775948</v>
+      </c>
+      <c r="C256" t="s">
+        <v>257</v>
+      </c>
+      <c r="D256" s="1">
+        <v>405772559</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257">
+        <v>17807106</v>
+      </c>
+      <c r="B257" s="1">
+        <v>5672918</v>
+      </c>
+      <c r="C257" t="s">
+        <v>258</v>
+      </c>
+      <c r="D257" s="1">
+        <v>405008079</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
+        <v>49786864</v>
+      </c>
+      <c r="B258" s="1">
+        <v>2587913</v>
+      </c>
+      <c r="C258" t="s">
+        <v>259</v>
+      </c>
+      <c r="D258" s="1">
+        <v>405180209</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>84032882</v>
+      </c>
+      <c r="B259" s="1">
+        <v>9984744</v>
+      </c>
+      <c r="C259" t="s">
+        <v>260</v>
+      </c>
+      <c r="D259" s="1">
+        <v>405136433</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>8798450</v>
+      </c>
+      <c r="B260" s="1">
+        <v>1127086</v>
+      </c>
+      <c r="C260" t="s">
+        <v>261</v>
+      </c>
+      <c r="D260" s="1">
+        <v>405182635</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>84083636</v>
+      </c>
+      <c r="B261" s="1">
+        <v>756561</v>
+      </c>
+      <c r="C261" t="s">
+        <v>262</v>
+      </c>
+      <c r="D261" s="1">
+        <v>405051269</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>84033695</v>
+      </c>
+      <c r="B262" s="1">
+        <v>2599964</v>
+      </c>
+      <c r="C262" t="s">
+        <v>263</v>
+      </c>
+      <c r="D262" s="1">
+        <v>405067091</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>40936413</v>
+      </c>
+      <c r="B263" s="1">
+        <v>2852797</v>
+      </c>
+      <c r="C263" t="s">
+        <v>264</v>
+      </c>
+      <c r="D263" s="1">
+        <v>304002561</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>40923400</v>
+      </c>
+      <c r="B264" s="1">
+        <v>2496573</v>
+      </c>
+      <c r="C264" t="s">
+        <v>265</v>
+      </c>
+      <c r="D264" s="1">
+        <v>405030362</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
+        <v>85455312</v>
+      </c>
+      <c r="B265" s="1">
+        <v>6127392</v>
+      </c>
+      <c r="C265" t="s">
+        <v>266</v>
+      </c>
+      <c r="D265" s="1">
+        <v>405055179</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266">
+        <v>84035262</v>
+      </c>
+      <c r="B266" s="1">
+        <v>3077368</v>
+      </c>
+      <c r="C266" t="s">
+        <v>267</v>
+      </c>
+      <c r="D266" s="1">
+        <v>405055187</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>42498983</v>
+      </c>
+      <c r="B267" s="1">
+        <v>2793582</v>
+      </c>
+      <c r="C267" t="s">
+        <v>268</v>
+      </c>
+      <c r="D267" s="1">
+        <v>405046657</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268">
+        <v>40927910</v>
+      </c>
+      <c r="B268" s="1">
+        <v>2836948</v>
+      </c>
+      <c r="C268" t="s">
+        <v>269</v>
+      </c>
+      <c r="D268" s="1">
+        <v>405049958</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>17844731</v>
+      </c>
+      <c r="B269" s="1">
+        <v>4413319</v>
+      </c>
+      <c r="C269" t="s">
+        <v>270</v>
+      </c>
+      <c r="D269" s="1">
+        <v>405009267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>10234384</v>
+      </c>
+      <c r="B270" s="1">
+        <v>655884</v>
+      </c>
+      <c r="C270" t="s">
+        <v>271</v>
+      </c>
+      <c r="D270" s="1">
+        <v>405044603</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271">
+        <v>27015139</v>
+      </c>
+      <c r="B271" s="1">
+        <v>3277314</v>
+      </c>
+      <c r="C271" t="s">
+        <v>272</v>
+      </c>
+      <c r="D271" s="1">
+        <v>405056334</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
+        <v>8278413</v>
+      </c>
+      <c r="B272" s="1">
+        <v>6077925</v>
+      </c>
+      <c r="C272" t="s">
+        <v>273</v>
+      </c>
+      <c r="D272" s="1">
+        <v>405035304</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>4034483</v>
+      </c>
+      <c r="B273" s="1">
+        <v>4813063</v>
+      </c>
+      <c r="C273" t="s">
+        <v>274</v>
+      </c>
+      <c r="D273" s="1">
+        <v>405056094</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>40931453</v>
+      </c>
+      <c r="B274" s="1">
+        <v>2187262</v>
+      </c>
+      <c r="C274" t="s">
+        <v>275</v>
+      </c>
+      <c r="D274" s="1">
+        <v>405179169</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>73006038</v>
+      </c>
+      <c r="B275" s="1">
+        <v>2637628</v>
+      </c>
+      <c r="C275" t="s">
+        <v>276</v>
+      </c>
+      <c r="D275" s="1">
+        <v>405180175</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>84084238</v>
+      </c>
+      <c r="B276" s="1">
+        <v>2194751</v>
+      </c>
+      <c r="C276" t="s">
+        <v>277</v>
+      </c>
+      <c r="D276" s="1">
+        <v>405089202</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>40976465</v>
+      </c>
+      <c r="B277" s="1">
+        <v>674393</v>
+      </c>
+      <c r="C277" t="s">
+        <v>278</v>
+      </c>
+      <c r="D277" s="1">
+        <v>405044439</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>84091531</v>
+      </c>
+      <c r="B278" s="1">
+        <v>1999387</v>
+      </c>
+      <c r="C278" t="s">
+        <v>279</v>
+      </c>
+      <c r="D278" s="1">
+        <v>405179839</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>17805759</v>
+      </c>
+      <c r="B279" s="1">
+        <v>5606887</v>
+      </c>
+      <c r="C279" t="s">
+        <v>280</v>
+      </c>
+      <c r="D279" s="1">
+        <v>405056037</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>10781860</v>
+      </c>
+      <c r="B280" s="1">
+        <v>2690664</v>
+      </c>
+      <c r="C280" t="s">
+        <v>281</v>
+      </c>
+      <c r="D280" s="1">
+        <v>405180159</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>36537160</v>
+      </c>
+      <c r="B281" s="1">
+        <v>3626282</v>
+      </c>
+      <c r="C281" t="s">
+        <v>282</v>
+      </c>
+      <c r="D281" s="1">
+        <v>405753450</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>17855825</v>
+      </c>
+      <c r="B282" s="1">
+        <v>2986875</v>
+      </c>
+      <c r="C282" t="s">
+        <v>283</v>
+      </c>
+      <c r="D282" s="1">
+        <v>405054446</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>13015884</v>
+      </c>
+      <c r="B283" s="1">
+        <v>4126842</v>
+      </c>
+      <c r="C283" t="s">
+        <v>284</v>
+      </c>
+      <c r="D283" s="1">
+        <v>405156142</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>7458062</v>
+      </c>
+      <c r="B284" s="1">
+        <v>2914583</v>
+      </c>
+      <c r="C284" t="s">
+        <v>285</v>
+      </c>
+      <c r="D284" s="1">
+        <v>405010976</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>40914811</v>
+      </c>
+      <c r="B285" s="1">
+        <v>3891843</v>
+      </c>
+      <c r="C285" t="s">
+        <v>286</v>
+      </c>
+      <c r="D285" s="1">
+        <v>405056466</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>84078447</v>
+      </c>
+      <c r="B286" s="1">
+        <v>562033</v>
+      </c>
+      <c r="C286" t="s">
+        <v>287</v>
+      </c>
+      <c r="D286" s="1">
+        <v>405112285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>70120295</v>
+      </c>
+      <c r="B287" s="1">
+        <v>4510700</v>
+      </c>
+      <c r="C287" t="s">
+        <v>288</v>
+      </c>
+      <c r="D287" s="1">
+        <v>405030198</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>9307957</v>
+      </c>
+      <c r="B288" s="1">
+        <v>6861993</v>
+      </c>
+      <c r="C288" t="s">
+        <v>289</v>
+      </c>
+      <c r="D288" s="1">
+        <v>405030784</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289">
+        <v>40912245</v>
+      </c>
+      <c r="B289" s="1">
+        <v>2648454</v>
+      </c>
+      <c r="C289" t="s">
+        <v>290</v>
+      </c>
+      <c r="D289" s="1">
+        <v>405056243</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>40942067</v>
+      </c>
+      <c r="B290" s="1">
+        <v>643696</v>
+      </c>
+      <c r="C290" t="s">
+        <v>291</v>
+      </c>
+      <c r="D290" s="1">
+        <v>405149618</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>17955129</v>
+      </c>
+      <c r="B291" s="1">
+        <v>2854955</v>
+      </c>
+      <c r="C291" t="s">
+        <v>292</v>
+      </c>
+      <c r="D291" s="1">
+        <v>405067109</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>17951142</v>
+      </c>
+      <c r="B292" s="1">
+        <v>3257965</v>
+      </c>
+      <c r="C292" t="s">
+        <v>293</v>
+      </c>
+      <c r="D292" s="1">
+        <v>405056417</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>84035760</v>
+      </c>
+      <c r="B293" s="1">
+        <v>2019948</v>
+      </c>
+      <c r="C293" t="s">
+        <v>294</v>
+      </c>
+      <c r="D293" s="1">
+        <v>405067182</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>56056923</v>
+      </c>
+      <c r="B294" s="1">
+        <v>1227538</v>
+      </c>
+      <c r="C294" t="s">
+        <v>295</v>
+      </c>
+      <c r="D294" s="1">
+        <v>405129578</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>84079400</v>
+      </c>
+      <c r="B295" s="1">
+        <v>2569963</v>
+      </c>
+      <c r="C295" t="s">
+        <v>296</v>
+      </c>
+      <c r="D295" s="1">
+        <v>405123563</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>17807159</v>
+      </c>
+      <c r="B296" s="1">
+        <v>2726016</v>
+      </c>
+      <c r="C296" t="s">
+        <v>297</v>
+      </c>
+      <c r="D296" s="1">
+        <v>405040270</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>84035580</v>
+      </c>
+      <c r="B297" s="1">
+        <v>2659387</v>
+      </c>
+      <c r="C297" t="s">
+        <v>298</v>
+      </c>
+      <c r="D297" s="1">
+        <v>405078791</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>17806498</v>
+      </c>
+      <c r="B298" s="1">
+        <v>1850594</v>
+      </c>
+      <c r="C298" t="s">
+        <v>299</v>
+      </c>
+      <c r="D298" s="1">
+        <v>405055955</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>26995818</v>
+      </c>
+      <c r="B299" s="1">
+        <v>412062</v>
+      </c>
+      <c r="C299" t="s">
+        <v>300</v>
+      </c>
+      <c r="D299" s="1">
+        <v>405055880</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>41693733</v>
+      </c>
+      <c r="B300" s="1">
+        <v>2287195</v>
+      </c>
+      <c r="C300" t="s">
+        <v>301</v>
+      </c>
+      <c r="D300" s="1">
+        <v>405056151</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>17953767</v>
+      </c>
+      <c r="B301" s="1">
+        <v>4973412</v>
+      </c>
+      <c r="C301" t="s">
+        <v>302</v>
+      </c>
+      <c r="D301" s="1">
+        <v>405055120</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>84033035</v>
+      </c>
+      <c r="B302" s="1">
+        <v>1584648</v>
+      </c>
+      <c r="C302" t="s">
+        <v>303</v>
+      </c>
+      <c r="D302" s="1">
+        <v>405061763</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>40930225</v>
+      </c>
+      <c r="B303" s="1">
+        <v>848436</v>
+      </c>
+      <c r="C303" t="s">
+        <v>304</v>
+      </c>
+      <c r="D303" s="1">
+        <v>405101643</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <v>26982790</v>
+      </c>
+      <c r="B304" s="1">
+        <v>3097275</v>
+      </c>
+      <c r="C304" t="s">
+        <v>305</v>
+      </c>
+      <c r="D304" s="1">
+        <v>405052515</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <v>32628773</v>
+      </c>
+      <c r="B305" s="1">
+        <v>2836948</v>
+      </c>
+      <c r="C305" t="s">
+        <v>306</v>
+      </c>
+      <c r="D305" s="1">
+        <v>405090432</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>18922505</v>
+      </c>
+      <c r="B306" s="1">
+        <v>2553592</v>
+      </c>
+      <c r="C306" t="s">
+        <v>307</v>
+      </c>
+      <c r="D306" s="1">
+        <v>405041161</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307">
+        <v>79689715</v>
+      </c>
+      <c r="B307" s="1">
+        <v>3433027</v>
+      </c>
+      <c r="C307" t="s">
+        <v>308</v>
+      </c>
+      <c r="D307" s="1">
+        <v>405179953</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308">
+        <v>1118805345</v>
+      </c>
+      <c r="B308" s="1">
+        <v>2831342</v>
+      </c>
+      <c r="C308" t="s">
+        <v>309</v>
+      </c>
+      <c r="D308" s="1">
+        <v>405172016</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309">
+        <v>40920939</v>
+      </c>
+      <c r="B309" s="1">
+        <v>3590667</v>
+      </c>
+      <c r="C309" t="s">
+        <v>310</v>
+      </c>
+      <c r="D309" s="1">
+        <v>405055765</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>77187962</v>
+      </c>
+      <c r="B310" s="1">
+        <v>3342345</v>
+      </c>
+      <c r="C310" t="s">
+        <v>311</v>
+      </c>
+      <c r="D310" s="1">
+        <v>405089103</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311">
+        <v>40917557</v>
+      </c>
+      <c r="B311" s="1">
+        <v>3588833</v>
+      </c>
+      <c r="C311" t="s">
+        <v>312</v>
+      </c>
+      <c r="D311" s="1">
+        <v>405015215</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312">
+        <v>26994996</v>
+      </c>
+      <c r="B312" s="1">
+        <v>639862</v>
+      </c>
+      <c r="C312" t="s">
+        <v>313</v>
+      </c>
+      <c r="D312" s="1">
+        <v>405029844</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313">
+        <v>56085314</v>
+      </c>
+      <c r="B313" s="1">
+        <v>2726163</v>
+      </c>
+      <c r="C313" t="s">
+        <v>314</v>
+      </c>
+      <c r="D313" s="1">
+        <v>405087362</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314">
+        <v>40919703</v>
+      </c>
+      <c r="B314" s="1">
+        <v>1484325</v>
+      </c>
+      <c r="C314" t="s">
+        <v>315</v>
+      </c>
+      <c r="D314" s="1">
+        <v>405040858</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315">
+        <v>27004816</v>
+      </c>
+      <c r="B315" s="1">
+        <v>2659387</v>
+      </c>
+      <c r="C315" t="s">
+        <v>316</v>
+      </c>
+      <c r="D315" s="1">
+        <v>405123522</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>40914803</v>
+      </c>
+      <c r="B316" s="1">
+        <v>2513948</v>
+      </c>
+      <c r="C316" t="s">
+        <v>317</v>
+      </c>
+      <c r="D316" s="1">
+        <v>405083247</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317">
+        <v>40937619</v>
+      </c>
+      <c r="B317" s="1">
+        <v>3451149</v>
+      </c>
+      <c r="C317" t="s">
+        <v>318</v>
+      </c>
+      <c r="D317" s="1">
+        <v>405112095</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318">
+        <v>56085519</v>
+      </c>
+      <c r="B318" s="1">
+        <v>2852797</v>
+      </c>
+      <c r="C318" t="s">
+        <v>319</v>
+      </c>
+      <c r="D318" s="1">
+        <v>304002447</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319">
+        <v>84082367</v>
+      </c>
+      <c r="B319" s="1">
+        <v>2769030</v>
+      </c>
+      <c r="C319" t="s">
+        <v>320</v>
+      </c>
+      <c r="D319" s="1">
+        <v>405102989</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320">
+        <v>6772256</v>
+      </c>
+      <c r="B320" s="1">
+        <v>3452367</v>
+      </c>
+      <c r="C320" t="s">
+        <v>321</v>
+      </c>
+      <c r="D320" s="1">
+        <v>300308194</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321">
+        <v>40799640</v>
+      </c>
+      <c r="B321" s="1">
+        <v>1272408</v>
+      </c>
+      <c r="C321" t="s">
+        <v>322</v>
+      </c>
+      <c r="D321" s="1">
+        <v>405065178</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322">
+        <v>27015180</v>
+      </c>
+      <c r="B322" s="1">
+        <v>2193667</v>
+      </c>
+      <c r="C322" t="s">
+        <v>323</v>
+      </c>
+      <c r="D322" s="1">
+        <v>300779162</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323">
+        <v>7475678</v>
+      </c>
+      <c r="B323" s="1">
+        <v>5847545</v>
+      </c>
+      <c r="C323" t="s">
+        <v>324</v>
+      </c>
+      <c r="D323" s="1">
+        <v>405009515</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324">
+        <v>45518038</v>
+      </c>
+      <c r="B324" s="1">
+        <v>3389049</v>
+      </c>
+      <c r="C324" t="s">
+        <v>325</v>
+      </c>
+      <c r="D324" s="1">
+        <v>405179250</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325">
+        <v>12593221</v>
+      </c>
+      <c r="B325" s="1">
+        <v>1136971</v>
+      </c>
+      <c r="C325" t="s">
+        <v>326</v>
+      </c>
+      <c r="D325" s="1">
         <v>405024092</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="B162" s="1"/>
-      <c r="D162" s="1"/>
+    <row r="326" spans="1:4">
+      <c r="A326">
+        <v>40937690</v>
+      </c>
+      <c r="B326" s="1">
+        <v>3561325</v>
+      </c>
+      <c r="C326" t="s">
+        <v>327</v>
+      </c>
+      <c r="D326" s="1">
+        <v>405179276</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="B327" s="1"/>
+      <c r="D327" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/reportes/pagomes/TotalPlano.xlsx
+++ b/reportes/pagomes/TotalPlano.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="PagoPlanta20140801" sheetId="1" r:id="rId4"/>
+    <sheet name="PagoPlanta20140901" sheetId="1" r:id="rId4"/>
     <sheet name="Worksheet 1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
   <si>
     <t>C</t>
   </si>
@@ -192,7 +192,7 @@
     <t xml:space="preserve">CARDEÑO PORTELA NORALBIS </t>
   </si>
   <si>
-    <t xml:space="preserve">CARRILLO CUJIA VIVIANA </t>
+    <t>CARRILLO CUJIA VIVIANA MILDRETH</t>
   </si>
   <si>
     <t>CASTELLANOS  MARTHA LIGIA</t>
@@ -330,6 +330,9 @@
     <t>FORERO ARREGOCES HERLINDA ISABEL</t>
   </si>
   <si>
+    <t>FREYLE PIMIENTA KEILY JOANA</t>
+  </si>
+  <si>
     <t>FRIAS ACOSTA EDILMA CECILIA</t>
   </si>
   <si>
@@ -790,6 +793,9 @@
   </si>
   <si>
     <t>REDONDO SALAS DANNY DEXI</t>
+  </si>
+  <si>
+    <t>RICCIULLI PEREZ YESLITH VANESSA</t>
   </si>
   <si>
     <t xml:space="preserve">ROBLES BRITO DANIEL </t>
@@ -1343,7 +1349,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D327"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2"/>
@@ -1390,7 +1396,7 @@
         <v>84039816</v>
       </c>
       <c r="B3" s="1">
-        <v>1109356</v>
+        <v>1036880</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1446,7 +1452,7 @@
         <v>13348956</v>
       </c>
       <c r="B7" s="1">
-        <v>5580245</v>
+        <v>3194206</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1544,7 +1550,7 @@
         <v>17952855</v>
       </c>
       <c r="B14" s="1">
-        <v>865809</v>
+        <v>850140</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -1572,7 +1578,7 @@
         <v>72042242</v>
       </c>
       <c r="B16" s="1">
-        <v>1990606</v>
+        <v>961345</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -1586,7 +1592,7 @@
         <v>5163377</v>
       </c>
       <c r="B17" s="1">
-        <v>1639476</v>
+        <v>4214188</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -1782,7 +1788,7 @@
         <v>17807444</v>
       </c>
       <c r="B31" s="1">
-        <v>6560644</v>
+        <v>4584715</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -1810,7 +1816,7 @@
         <v>84029482</v>
       </c>
       <c r="B33" s="1">
-        <v>1857034</v>
+        <v>1449488</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
@@ -1880,7 +1886,7 @@
         <v>40912637</v>
       </c>
       <c r="B38" s="1">
-        <v>943469</v>
+        <v>2564101</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
@@ -1922,7 +1928,7 @@
         <v>26963364</v>
       </c>
       <c r="B41" s="1">
-        <v>6525660</v>
+        <v>4728376</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
@@ -1964,7 +1970,7 @@
         <v>17802680</v>
       </c>
       <c r="B44" s="1">
-        <v>1795516</v>
+        <v>666399</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
@@ -1978,7 +1984,7 @@
         <v>12540363</v>
       </c>
       <c r="B45" s="1">
-        <v>2313307</v>
+        <v>2149007</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
@@ -1992,7 +1998,7 @@
         <v>40927768</v>
       </c>
       <c r="B46" s="1">
-        <v>1202236</v>
+        <v>1157236</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
@@ -2034,7 +2040,7 @@
         <v>72150467</v>
       </c>
       <c r="B49" s="1">
-        <v>2050387</v>
+        <v>1491086</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
@@ -2090,7 +2096,7 @@
         <v>84046064</v>
       </c>
       <c r="B53" s="1">
-        <v>1422211</v>
+        <v>2984380</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
@@ -2118,7 +2124,7 @@
         <v>84033855</v>
       </c>
       <c r="B55" s="1">
-        <v>3821044</v>
+        <v>3968844</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
@@ -2146,7 +2152,7 @@
         <v>1123998385</v>
       </c>
       <c r="B57" s="1">
-        <v>2098162</v>
+        <v>3152434</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
@@ -2216,7 +2222,7 @@
         <v>51828780</v>
       </c>
       <c r="B62" s="1">
-        <v>1851721</v>
+        <v>273099</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -2300,7 +2306,7 @@
         <v>40924433</v>
       </c>
       <c r="B68" s="1">
-        <v>1513136</v>
+        <v>1997868</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
@@ -2356,7 +2362,7 @@
         <v>84081588</v>
       </c>
       <c r="B72" s="1">
-        <v>2836948</v>
+        <v>2276948</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
@@ -2426,7 +2432,7 @@
         <v>40916635</v>
       </c>
       <c r="B77" s="1">
-        <v>1000124</v>
+        <v>811084</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
@@ -2440,7 +2446,7 @@
         <v>40922614</v>
       </c>
       <c r="B78" s="1">
-        <v>2949503</v>
+        <v>2617814</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
@@ -2454,7 +2460,7 @@
         <v>84033345</v>
       </c>
       <c r="B79" s="1">
-        <v>1124207</v>
+        <v>3488111</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
@@ -2510,7 +2516,7 @@
         <v>49791756</v>
       </c>
       <c r="B83" s="1">
-        <v>2644613</v>
+        <v>2081325</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
@@ -2566,7 +2572,7 @@
         <v>40922080</v>
       </c>
       <c r="B87" s="1">
-        <v>1470114</v>
+        <v>3043285</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
@@ -2650,7 +2656,7 @@
         <v>45445337</v>
       </c>
       <c r="B93" s="1">
-        <v>4804594</v>
+        <v>3041727</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
@@ -2664,7 +2670,7 @@
         <v>10893959</v>
       </c>
       <c r="B94" s="1">
-        <v>2727851</v>
+        <v>4048814</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
@@ -2720,7 +2726,7 @@
         <v>40792159</v>
       </c>
       <c r="B98" s="1">
-        <v>2986023</v>
+        <v>1695108</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
@@ -2734,7 +2740,7 @@
         <v>84089741</v>
       </c>
       <c r="B99" s="1">
-        <v>774236</v>
+        <v>558636</v>
       </c>
       <c r="C99" t="s">
         <v>100</v>
@@ -2748,7 +2754,7 @@
         <v>12546959</v>
       </c>
       <c r="B100" s="1">
-        <v>2566345</v>
+        <v>3713783</v>
       </c>
       <c r="C100" t="s">
         <v>101</v>
@@ -2787,3143 +2793,3171 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>41477972</v>
+        <v>40933997</v>
       </c>
       <c r="B103" s="1">
-        <v>11207207</v>
+        <v>2187262</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
       </c>
       <c r="D103" s="1">
-        <v>405053679</v>
+        <v>405183963</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>40838476</v>
+        <v>41477972</v>
       </c>
       <c r="B104" s="1">
-        <v>2643593</v>
+        <v>5853364</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
       </c>
       <c r="D104" s="1">
-        <v>405039967</v>
+        <v>405053679</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>56078338</v>
+        <v>40838476</v>
       </c>
       <c r="B105" s="1">
-        <v>2895649</v>
+        <v>5298670</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
       </c>
       <c r="D105" s="1">
-        <v>405180191</v>
+        <v>405039967</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>40915762</v>
+        <v>56078338</v>
       </c>
       <c r="B106" s="1">
-        <v>2044947</v>
+        <v>2895649</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="1">
-        <v>405055724</v>
+        <v>405180191</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>41672425</v>
+        <v>40915762</v>
       </c>
       <c r="B107" s="1">
-        <v>4213821</v>
+        <v>2160672</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
       </c>
       <c r="D107" s="1">
-        <v>405061789</v>
+        <v>405055724</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>77034749</v>
+        <v>41672425</v>
       </c>
       <c r="B108" s="1">
-        <v>4927469</v>
+        <v>4213821</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
       </c>
       <c r="D108" s="1">
-        <v>405020199</v>
+        <v>405061789</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>15020638</v>
+        <v>77034749</v>
       </c>
       <c r="B109" s="1">
-        <v>784553</v>
+        <v>3196960</v>
       </c>
       <c r="C109" t="s">
         <v>110</v>
       </c>
       <c r="D109" s="1">
-        <v>405031220</v>
+        <v>405020199</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>40917947</v>
+        <v>15020638</v>
       </c>
       <c r="B110" s="1">
-        <v>2836948</v>
+        <v>635048</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
       </c>
       <c r="D110" s="1">
-        <v>405060070</v>
+        <v>405031220</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>32785368</v>
+        <v>40917947</v>
       </c>
       <c r="B111" s="1">
-        <v>3462040</v>
+        <v>2836948</v>
       </c>
       <c r="C111" t="s">
         <v>112</v>
       </c>
       <c r="D111" s="1">
-        <v>405081514</v>
+        <v>405060070</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>1010089455</v>
+        <v>32785368</v>
       </c>
       <c r="B112" s="1">
-        <v>1202236</v>
+        <v>3462040</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
       </c>
       <c r="D112" s="1">
-        <v>405182619</v>
+        <v>405081514</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>12544915</v>
+        <v>1010089455</v>
       </c>
       <c r="B113" s="1">
-        <v>2575918</v>
+        <v>1202236</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
       </c>
       <c r="D113" s="1">
-        <v>405046723</v>
+        <v>405182619</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>84030977</v>
+        <v>12544915</v>
       </c>
       <c r="B114" s="1">
-        <v>909664</v>
+        <v>2575918</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
       </c>
       <c r="D114" s="1">
-        <v>405054339</v>
+        <v>405046723</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>5158707</v>
+        <v>84030977</v>
       </c>
       <c r="B115" s="1">
-        <v>3425485</v>
+        <v>89864</v>
       </c>
       <c r="C115" t="s">
         <v>116</v>
       </c>
       <c r="D115" s="1">
-        <v>405056540</v>
+        <v>405054339</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>24545047</v>
+        <v>5158707</v>
       </c>
       <c r="B116" s="1">
-        <v>1999261</v>
+        <v>5107857</v>
       </c>
       <c r="C116" t="s">
         <v>117</v>
       </c>
       <c r="D116" s="1">
-        <v>405043985</v>
+        <v>405056540</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>12719194</v>
+        <v>24545047</v>
       </c>
       <c r="B117" s="1">
-        <v>1190508</v>
+        <v>1999261</v>
       </c>
       <c r="C117" t="s">
         <v>118</v>
       </c>
       <c r="D117" s="1">
-        <v>405767450</v>
+        <v>405043985</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>57412938</v>
+        <v>12719194</v>
       </c>
       <c r="B118" s="1">
-        <v>3431488</v>
+        <v>1184302</v>
       </c>
       <c r="C118" t="s">
         <v>119</v>
       </c>
       <c r="D118" s="1">
-        <v>405056557</v>
+        <v>405767450</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>17806728</v>
+        <v>57412938</v>
       </c>
       <c r="B119" s="1">
-        <v>3032612</v>
+        <v>3431488</v>
       </c>
       <c r="C119" t="s">
         <v>120</v>
       </c>
       <c r="D119" s="1">
-        <v>0</v>
+        <v>405056557</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>40942002</v>
+        <v>17806728</v>
       </c>
       <c r="B120" s="1">
-        <v>630121</v>
+        <v>3032612</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
       </c>
       <c r="D120" s="1">
-        <v>405149733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>40917742</v>
+        <v>40942002</v>
       </c>
       <c r="B121" s="1">
-        <v>830679</v>
+        <v>630121</v>
       </c>
       <c r="C121" t="s">
         <v>122</v>
       </c>
       <c r="D121" s="1">
-        <v>405040999</v>
+        <v>405149733</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>77172086</v>
+        <v>40917742</v>
       </c>
       <c r="B122" s="1">
-        <v>4080950</v>
+        <v>830679</v>
       </c>
       <c r="C122" t="s">
         <v>123</v>
       </c>
       <c r="D122" s="1">
-        <v>300125341</v>
+        <v>405040999</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>17974249</v>
+        <v>77172086</v>
       </c>
       <c r="B123" s="1">
-        <v>1163045</v>
+        <v>4080950</v>
       </c>
       <c r="C123" t="s">
         <v>124</v>
       </c>
       <c r="D123" s="1">
-        <v>405028887</v>
+        <v>300125341</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>17808439</v>
+        <v>17974249</v>
       </c>
       <c r="B124" s="1">
-        <v>668334</v>
+        <v>1163045</v>
       </c>
       <c r="C124" t="s">
         <v>125</v>
       </c>
       <c r="D124" s="1">
-        <v>405031022</v>
+        <v>405028887</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>84026213</v>
+        <v>17808439</v>
       </c>
       <c r="B125" s="1">
-        <v>615795</v>
+        <v>668334</v>
       </c>
       <c r="C125" t="s">
         <v>126</v>
       </c>
       <c r="D125" s="1">
-        <v>405048703</v>
+        <v>405031022</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>22977169</v>
+        <v>84026213</v>
       </c>
       <c r="B126" s="1">
-        <v>662996</v>
+        <v>622520</v>
       </c>
       <c r="C126" t="s">
         <v>127</v>
       </c>
       <c r="D126" s="1">
-        <v>405056102</v>
+        <v>405048703</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>7456239</v>
+        <v>22977169</v>
       </c>
       <c r="B127" s="1">
-        <v>1791421</v>
+        <v>293396</v>
       </c>
       <c r="C127" t="s">
         <v>128</v>
       </c>
       <c r="D127" s="1">
-        <v>405055872</v>
+        <v>405056102</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>84104058</v>
+        <v>7456239</v>
       </c>
       <c r="B128" s="1">
-        <v>630631</v>
+        <v>1791421</v>
       </c>
       <c r="C128" t="s">
         <v>129</v>
       </c>
       <c r="D128" s="1">
-        <v>405055583</v>
+        <v>405055872</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>19225173</v>
+        <v>84104058</v>
       </c>
       <c r="B129" s="1">
-        <v>5559948</v>
+        <v>630631</v>
       </c>
       <c r="C129" t="s">
         <v>130</v>
       </c>
       <c r="D129" s="1">
-        <v>405041542</v>
+        <v>405055583</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>15039137</v>
+        <v>19225173</v>
       </c>
       <c r="B130" s="1">
-        <v>2096956</v>
+        <v>8326345</v>
       </c>
       <c r="C130" t="s">
         <v>131</v>
       </c>
       <c r="D130" s="1">
-        <v>405056201</v>
+        <v>405041542</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>40914837</v>
+        <v>15039137</v>
       </c>
       <c r="B131" s="1">
-        <v>478906</v>
+        <v>575074</v>
       </c>
       <c r="C131" t="s">
         <v>132</v>
       </c>
       <c r="D131" s="1">
-        <v>405040445</v>
+        <v>405056201</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>40916124</v>
+        <v>40914837</v>
       </c>
       <c r="B132" s="1">
-        <v>1512187</v>
+        <v>478906</v>
       </c>
       <c r="C132" t="s">
         <v>133</v>
       </c>
       <c r="D132" s="1">
-        <v>405020504</v>
+        <v>405040445</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>84005124</v>
+        <v>40916124</v>
       </c>
       <c r="B133" s="1">
-        <v>2397803</v>
+        <v>1512187</v>
       </c>
       <c r="C133" t="s">
         <v>134</v>
       </c>
       <c r="D133" s="1">
-        <v>405051285</v>
+        <v>405020504</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>5183086</v>
+        <v>84005124</v>
       </c>
       <c r="B134" s="1">
-        <v>2193361</v>
+        <v>2274603</v>
       </c>
       <c r="C134" t="s">
         <v>135</v>
       </c>
       <c r="D134" s="1">
-        <v>405033515</v>
+        <v>405051285</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>24473753</v>
+        <v>5183086</v>
       </c>
       <c r="B135" s="1">
-        <v>7452445</v>
+        <v>2193361</v>
       </c>
       <c r="C135" t="s">
         <v>136</v>
       </c>
       <c r="D135" s="1">
-        <v>405750605</v>
+        <v>405033515</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>40837882</v>
+        <v>24473753</v>
       </c>
       <c r="B136" s="1">
-        <v>1218706</v>
+        <v>7452445</v>
       </c>
       <c r="C136" t="s">
         <v>137</v>
       </c>
       <c r="D136" s="1">
-        <v>405054099</v>
+        <v>405750605</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>12543151</v>
+        <v>40837882</v>
       </c>
       <c r="B137" s="1">
-        <v>4030556</v>
+        <v>1218706</v>
       </c>
       <c r="C137" t="s">
         <v>138</v>
       </c>
       <c r="D137" s="1">
-        <v>405056458</v>
+        <v>405054099</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>49741390</v>
+        <v>12543151</v>
       </c>
       <c r="B138" s="1">
-        <v>2749958</v>
+        <v>4030556</v>
       </c>
       <c r="C138" t="s">
         <v>139</v>
       </c>
       <c r="D138" s="1">
-        <v>300072444</v>
+        <v>405056458</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>56056146</v>
+        <v>49741390</v>
       </c>
       <c r="B139" s="1">
-        <v>2550563</v>
+        <v>2749958</v>
       </c>
       <c r="C139" t="s">
         <v>140</v>
       </c>
       <c r="D139" s="1">
-        <v>405065947</v>
+        <v>300072444</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>8748985</v>
+        <v>56056146</v>
       </c>
       <c r="B140" s="1">
-        <v>6050533</v>
+        <v>2550563</v>
       </c>
       <c r="C140" t="s">
         <v>141</v>
       </c>
       <c r="D140" s="1">
-        <v>405031105</v>
+        <v>405065947</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>40983796</v>
+        <v>8748985</v>
       </c>
       <c r="B141" s="1">
-        <v>446095</v>
+        <v>6050533</v>
       </c>
       <c r="C141" t="s">
         <v>142</v>
       </c>
       <c r="D141" s="1">
-        <v>405149626</v>
+        <v>405031105</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>40797290</v>
+        <v>40983796</v>
       </c>
       <c r="B142" s="1">
-        <v>3442806</v>
+        <v>446095</v>
       </c>
       <c r="C142" t="s">
         <v>143</v>
       </c>
       <c r="D142" s="1">
-        <v>405085382</v>
+        <v>405149626</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>40938089</v>
+        <v>40797290</v>
       </c>
       <c r="B143" s="1">
-        <v>1286387</v>
+        <v>3442806</v>
       </c>
       <c r="C143" t="s">
         <v>144</v>
       </c>
       <c r="D143" s="1">
-        <v>405179813</v>
+        <v>405085382</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>25271766</v>
+        <v>40938089</v>
       </c>
       <c r="B144" s="1">
-        <v>6035901</v>
+        <v>1286387</v>
       </c>
       <c r="C144" t="s">
         <v>145</v>
       </c>
       <c r="D144" s="1">
-        <v>405056359</v>
+        <v>405179813</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>8662135</v>
+        <v>25271766</v>
       </c>
       <c r="B145" s="1">
-        <v>6524902</v>
+        <v>6035901</v>
       </c>
       <c r="C145" t="s">
         <v>146</v>
       </c>
       <c r="D145" s="1">
-        <v>405030743</v>
+        <v>405056359</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>26965867</v>
+        <v>8662135</v>
       </c>
       <c r="B146" s="1">
-        <v>4230949</v>
+        <v>6524902</v>
       </c>
       <c r="C146" t="s">
         <v>147</v>
       </c>
       <c r="D146" s="1">
-        <v>405041591</v>
+        <v>405030743</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>84035236</v>
+        <v>26965867</v>
       </c>
       <c r="B147" s="1">
-        <v>851842</v>
+        <v>4230949</v>
       </c>
       <c r="C147" t="s">
         <v>148</v>
       </c>
       <c r="D147" s="1">
-        <v>405138199</v>
+        <v>405041591</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>12720417</v>
+        <v>84035236</v>
       </c>
       <c r="B148" s="1">
-        <v>2457252</v>
+        <v>1590842</v>
       </c>
       <c r="C148" t="s">
         <v>149</v>
       </c>
       <c r="D148" s="1">
-        <v>405055914</v>
+        <v>405138199</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>40915007</v>
+        <v>12720417</v>
       </c>
       <c r="B149" s="1">
-        <v>5547986</v>
+        <v>2457252</v>
       </c>
       <c r="C149" t="s">
         <v>150</v>
       </c>
       <c r="D149" s="1">
-        <v>405055922</v>
+        <v>405055914</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>84028500</v>
+        <v>40915007</v>
       </c>
       <c r="B150" s="1">
-        <v>1038775</v>
+        <v>2535582</v>
       </c>
       <c r="C150" t="s">
         <v>151</v>
       </c>
       <c r="D150" s="1">
-        <v>405057985</v>
+        <v>405055922</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>84034370</v>
+        <v>84028500</v>
       </c>
       <c r="B151" s="1">
-        <v>4880805</v>
+        <v>918760</v>
       </c>
       <c r="C151" t="s">
         <v>152</v>
       </c>
       <c r="D151" s="1">
-        <v>405087438</v>
+        <v>405057985</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>91528139</v>
+        <v>84034370</v>
       </c>
       <c r="B152" s="1">
-        <v>1296332</v>
+        <v>9881629</v>
       </c>
       <c r="C152" t="s">
         <v>153</v>
       </c>
       <c r="D152" s="1">
-        <v>405153487</v>
+        <v>405087438</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>17904729</v>
+        <v>91528139</v>
       </c>
       <c r="B153" s="1">
-        <v>2659387</v>
+        <v>1296332</v>
       </c>
       <c r="C153" t="s">
         <v>154</v>
       </c>
       <c r="D153" s="1">
-        <v>304002454</v>
+        <v>405153487</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>40941561</v>
+        <v>17904729</v>
       </c>
       <c r="B154" s="1">
-        <v>1079036</v>
+        <v>2659387</v>
       </c>
       <c r="C154" t="s">
         <v>155</v>
       </c>
       <c r="D154" s="1">
-        <v>405142209</v>
+        <v>304002454</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>57446153</v>
+        <v>40941561</v>
       </c>
       <c r="B155" s="1">
-        <v>2950906</v>
+        <v>1202236</v>
       </c>
       <c r="C155" t="s">
         <v>156</v>
       </c>
       <c r="D155" s="1">
-        <v>405056193</v>
+        <v>405142209</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>40938567</v>
+        <v>57446153</v>
       </c>
       <c r="B156" s="1">
-        <v>652685</v>
+        <v>2950906</v>
       </c>
       <c r="C156" t="s">
         <v>157</v>
       </c>
       <c r="D156" s="1">
-        <v>405766999</v>
+        <v>405056193</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>32710942</v>
+        <v>40938567</v>
       </c>
       <c r="B157" s="1">
-        <v>1723349</v>
+        <v>652685</v>
       </c>
       <c r="C157" t="s">
         <v>158</v>
       </c>
       <c r="D157" s="1">
-        <v>405053984</v>
+        <v>405766999</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>40923820</v>
+        <v>32710942</v>
       </c>
       <c r="B158" s="1">
-        <v>1164300</v>
+        <v>1723349</v>
       </c>
       <c r="C158" t="s">
         <v>159</v>
       </c>
       <c r="D158" s="1">
-        <v>405174061</v>
+        <v>405053984</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>40924537</v>
+        <v>40923820</v>
       </c>
       <c r="B159" s="1">
-        <v>2323062</v>
+        <v>1164300</v>
       </c>
       <c r="C159" t="s">
         <v>160</v>
       </c>
       <c r="D159" s="1">
-        <v>405040064</v>
+        <v>405174061</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>40924429</v>
+        <v>40924537</v>
       </c>
       <c r="B160" s="1">
-        <v>1080754</v>
+        <v>702430</v>
       </c>
       <c r="C160" t="s">
         <v>161</v>
       </c>
       <c r="D160" s="1">
-        <v>405056326</v>
+        <v>405040064</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>56057668</v>
+        <v>40924429</v>
       </c>
       <c r="B161" s="1">
-        <v>3353041</v>
+        <v>772754</v>
       </c>
       <c r="C161" t="s">
         <v>162</v>
       </c>
       <c r="D161" s="1">
-        <v>405176934</v>
+        <v>405056326</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>19082949</v>
+        <v>56057668</v>
       </c>
       <c r="B162" s="1">
-        <v>2762108</v>
+        <v>3353041</v>
       </c>
       <c r="C162" t="s">
         <v>163</v>
       </c>
       <c r="D162" s="1">
-        <v>405056565</v>
+        <v>405176934</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>19591473</v>
+        <v>19082949</v>
       </c>
       <c r="B163" s="1">
-        <v>3142913</v>
+        <v>2762108</v>
       </c>
       <c r="C163" t="s">
         <v>164</v>
       </c>
       <c r="D163" s="1">
-        <v>400120820</v>
+        <v>405056565</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>32181130</v>
+        <v>19591473</v>
       </c>
       <c r="B164" s="1">
-        <v>4125589</v>
+        <v>3142913</v>
       </c>
       <c r="C164" t="s">
         <v>165</v>
       </c>
       <c r="D164" s="1">
-        <v>405164013</v>
+        <v>400120820</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>17855558</v>
+        <v>32181130</v>
       </c>
       <c r="B165" s="1">
-        <v>4694917</v>
+        <v>4125589</v>
       </c>
       <c r="C165" t="s">
         <v>166</v>
       </c>
       <c r="D165" s="1">
-        <v>405029851</v>
+        <v>405164013</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>4509294</v>
+        <v>17855558</v>
       </c>
       <c r="B166" s="1">
-        <v>6923351</v>
+        <v>6569888</v>
       </c>
       <c r="C166" t="s">
         <v>167</v>
       </c>
       <c r="D166" s="1">
-        <v>405030230</v>
+        <v>405029851</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>77017538</v>
+        <v>4509294</v>
       </c>
       <c r="B167" s="1">
-        <v>3606290</v>
+        <v>6923351</v>
       </c>
       <c r="C167" t="s">
         <v>168</v>
       </c>
       <c r="D167" s="1">
-        <v>300314994</v>
+        <v>405030230</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>40944920</v>
+        <v>77017538</v>
       </c>
       <c r="B168" s="1">
-        <v>2201970</v>
+        <v>3606290</v>
       </c>
       <c r="C168" t="s">
         <v>169</v>
       </c>
       <c r="D168" s="1">
-        <v>405163890</v>
+        <v>300314994</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>40927723</v>
+        <v>40944920</v>
       </c>
       <c r="B169" s="1">
-        <v>3451149</v>
+        <v>2201970</v>
       </c>
       <c r="C169" t="s">
         <v>170</v>
       </c>
       <c r="D169" s="1">
-        <v>405182916</v>
+        <v>405163890</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>40917726</v>
+        <v>40927723</v>
       </c>
       <c r="B170" s="1">
-        <v>272263</v>
+        <v>3403899</v>
       </c>
       <c r="C170" t="s">
         <v>171</v>
       </c>
       <c r="D170" s="1">
-        <v>405044330</v>
+        <v>405182916</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>84085182</v>
+        <v>40917726</v>
       </c>
       <c r="B171" s="1">
-        <v>2812648</v>
+        <v>272263</v>
       </c>
       <c r="C171" t="s">
         <v>172</v>
       </c>
       <c r="D171" s="1">
-        <v>405179938</v>
+        <v>405044330</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>40912575</v>
+        <v>84085182</v>
       </c>
       <c r="B172" s="1">
-        <v>591544</v>
+        <v>2812648</v>
       </c>
       <c r="C172" t="s">
         <v>173</v>
       </c>
       <c r="D172" s="1">
-        <v>405055708</v>
+        <v>405179938</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>84092791</v>
+        <v>40912575</v>
       </c>
       <c r="B173" s="1">
-        <v>2214328</v>
+        <v>591544</v>
       </c>
       <c r="C173" t="s">
         <v>174</v>
       </c>
       <c r="D173" s="1">
-        <v>405124462</v>
+        <v>405055708</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>84032706</v>
+        <v>84092791</v>
       </c>
       <c r="B174" s="1">
-        <v>1566757</v>
+        <v>2214328</v>
       </c>
       <c r="C174" t="s">
         <v>175</v>
       </c>
       <c r="D174" s="1">
-        <v>405055435</v>
+        <v>405124462</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>40913846</v>
+        <v>84032706</v>
       </c>
       <c r="B175" s="1">
-        <v>634194</v>
+        <v>1566757</v>
       </c>
       <c r="C175" t="s">
         <v>176</v>
       </c>
       <c r="D175" s="1">
-        <v>405031154</v>
+        <v>405055435</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>40924959</v>
+        <v>40913846</v>
       </c>
       <c r="B176" s="1">
-        <v>5191940</v>
+        <v>2207365</v>
       </c>
       <c r="C176" t="s">
         <v>177</v>
       </c>
       <c r="D176" s="1">
-        <v>405061706</v>
+        <v>405031154</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>84031046</v>
+        <v>40924959</v>
       </c>
       <c r="B177" s="1">
-        <v>1160680</v>
+        <v>4822340</v>
       </c>
       <c r="C177" t="s">
         <v>178</v>
       </c>
       <c r="D177" s="1">
-        <v>405042482</v>
+        <v>405061706</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>56057030</v>
+        <v>84031046</v>
       </c>
       <c r="B178" s="1">
-        <v>2587913</v>
+        <v>1160680</v>
       </c>
       <c r="C178" t="s">
         <v>179</v>
       </c>
       <c r="D178" s="1">
-        <v>405180183</v>
+        <v>405042482</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>57440533</v>
+        <v>56057030</v>
       </c>
       <c r="B179" s="1">
-        <v>3452492</v>
+        <v>2587913</v>
       </c>
       <c r="C179" t="s">
         <v>180</v>
       </c>
       <c r="D179" s="1">
-        <v>405171752</v>
+        <v>405180183</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>40789011</v>
+        <v>57440533</v>
       </c>
       <c r="B180" s="1">
-        <v>6642556</v>
+        <v>3452492</v>
       </c>
       <c r="C180" t="s">
         <v>181</v>
       </c>
       <c r="D180" s="1">
-        <v>405126756</v>
+        <v>405171752</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>40932743</v>
+        <v>40789011</v>
       </c>
       <c r="B181" s="1">
-        <v>2644613</v>
+        <v>4820043</v>
       </c>
       <c r="C181" t="s">
         <v>182</v>
       </c>
       <c r="D181" s="1">
-        <v>405179821</v>
+        <v>405126756</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>72134510</v>
+        <v>40932743</v>
       </c>
       <c r="B182" s="1">
-        <v>5392003</v>
+        <v>2644613</v>
       </c>
       <c r="C182" t="s">
         <v>183</v>
       </c>
       <c r="D182" s="1">
-        <v>405056722</v>
+        <v>405179821</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>84033224</v>
+        <v>72134510</v>
       </c>
       <c r="B183" s="1">
-        <v>2644613</v>
+        <v>5392003</v>
       </c>
       <c r="C183" t="s">
         <v>184</v>
       </c>
       <c r="D183" s="1">
-        <v>405179920</v>
+        <v>405056722</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>3717537</v>
+        <v>84033224</v>
       </c>
       <c r="B184" s="1">
-        <v>3090937</v>
+        <v>2644613</v>
       </c>
       <c r="C184" t="s">
         <v>185</v>
       </c>
       <c r="D184" s="1">
-        <v>405056508</v>
+        <v>405179920</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>56073872</v>
+        <v>3717537</v>
       </c>
       <c r="B185" s="1">
-        <v>3606290</v>
+        <v>3090937</v>
       </c>
       <c r="C185" t="s">
         <v>186</v>
       </c>
       <c r="D185" s="1">
-        <v>405070467</v>
+        <v>405056508</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>26995329</v>
+        <v>56073872</v>
       </c>
       <c r="B186" s="1">
-        <v>4248265</v>
+        <v>3606290</v>
       </c>
       <c r="C186" t="s">
         <v>187</v>
       </c>
       <c r="D186" s="1">
-        <v>405047333</v>
+        <v>405070467</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>40923961</v>
+        <v>26995329</v>
       </c>
       <c r="B187" s="1">
-        <v>1202236</v>
+        <v>4248265</v>
       </c>
       <c r="C187" t="s">
         <v>188</v>
       </c>
       <c r="D187" s="1">
-        <v>405182643</v>
+        <v>405047333</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>32655352</v>
+        <v>40923961</v>
       </c>
       <c r="B188" s="1">
-        <v>7652675</v>
+        <v>1202236</v>
       </c>
       <c r="C188" t="s">
         <v>189</v>
       </c>
       <c r="D188" s="1">
-        <v>405056110</v>
+        <v>405182643</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>32632763</v>
+        <v>32655352</v>
       </c>
       <c r="B189" s="1">
-        <v>3920823</v>
+        <v>4051779</v>
       </c>
       <c r="C189" t="s">
         <v>190</v>
       </c>
       <c r="D189" s="1">
-        <v>405056409</v>
+        <v>405056110</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>84078019</v>
+        <v>32632763</v>
       </c>
       <c r="B190" s="1">
-        <v>1093850</v>
+        <v>3920823</v>
       </c>
       <c r="C190" t="s">
         <v>191</v>
       </c>
       <c r="D190" s="1">
-        <v>405767534</v>
+        <v>405056409</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>84032581</v>
+        <v>84078019</v>
       </c>
       <c r="B191" s="1">
-        <v>2976017</v>
+        <v>981075</v>
       </c>
       <c r="C191" t="s">
         <v>192</v>
       </c>
       <c r="D191" s="1">
-        <v>405055328</v>
+        <v>405767534</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>12560254</v>
+        <v>84032581</v>
       </c>
       <c r="B192" s="1">
-        <v>2856371</v>
+        <v>2976017</v>
       </c>
       <c r="C192" t="s">
         <v>193</v>
       </c>
       <c r="D192" s="1">
-        <v>405077306</v>
+        <v>405055328</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>17954966</v>
+        <v>12560254</v>
       </c>
       <c r="B193" s="1">
-        <v>1064714</v>
+        <v>2709971</v>
       </c>
       <c r="C193" t="s">
         <v>194</v>
       </c>
       <c r="D193" s="1">
-        <v>405154998</v>
+        <v>405077306</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>8713774</v>
+        <v>17954966</v>
       </c>
       <c r="B194" s="1">
-        <v>4214648</v>
+        <v>1060114</v>
       </c>
       <c r="C194" t="s">
         <v>195</v>
       </c>
       <c r="D194" s="1">
-        <v>405056268</v>
+        <v>405154998</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>40839704</v>
+        <v>8713774</v>
       </c>
       <c r="B195" s="1">
-        <v>2010085</v>
+        <v>4214648</v>
       </c>
       <c r="C195" t="s">
         <v>196</v>
       </c>
       <c r="D195" s="1">
-        <v>405033374</v>
+        <v>405056268</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>5171041</v>
+        <v>40839704</v>
       </c>
       <c r="B196" s="1">
-        <v>3315960</v>
+        <v>2010085</v>
       </c>
       <c r="C196" t="s">
         <v>197</v>
       </c>
       <c r="D196" s="1">
-        <v>405055534</v>
+        <v>405033374</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>84035424</v>
+        <v>5171041</v>
       </c>
       <c r="B197" s="1">
-        <v>2852797</v>
+        <v>3315960</v>
       </c>
       <c r="C197" t="s">
         <v>198</v>
       </c>
       <c r="D197" s="1">
-        <v>405180035</v>
+        <v>405055534</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>84034602</v>
+        <v>84035424</v>
       </c>
       <c r="B198" s="1">
-        <v>1642251</v>
+        <v>2852797</v>
       </c>
       <c r="C198" t="s">
         <v>199</v>
       </c>
       <c r="D198" s="1">
-        <v>405055690</v>
+        <v>405180035</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>39490945</v>
+        <v>84034602</v>
       </c>
       <c r="B199" s="1">
-        <v>2655763</v>
+        <v>3789309</v>
       </c>
       <c r="C199" t="s">
         <v>200</v>
       </c>
       <c r="D199" s="1">
-        <v>405123639</v>
+        <v>405055690</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>73114368</v>
+        <v>39490945</v>
       </c>
       <c r="B200" s="1">
-        <v>3655450</v>
+        <v>2655763</v>
       </c>
       <c r="C200" t="s">
         <v>201</v>
       </c>
       <c r="D200" s="1">
-        <v>405180001</v>
+        <v>405123639</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>40942871</v>
+        <v>73114368</v>
       </c>
       <c r="B201" s="1">
-        <v>2655762</v>
+        <v>3655450</v>
       </c>
       <c r="C201" t="s">
         <v>202</v>
       </c>
       <c r="D201" s="1">
-        <v>405182854</v>
+        <v>405180001</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>40917736</v>
+        <v>40942871</v>
       </c>
       <c r="B202" s="1">
-        <v>2961967</v>
+        <v>2603562</v>
       </c>
       <c r="C202" t="s">
         <v>203</v>
       </c>
       <c r="D202" s="1">
-        <v>405180118</v>
+        <v>405182854</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>84026238</v>
+        <v>40917736</v>
       </c>
       <c r="B203" s="1">
-        <v>2687252</v>
+        <v>2961967</v>
       </c>
       <c r="C203" t="s">
         <v>204</v>
       </c>
       <c r="D203" s="1">
-        <v>405056284</v>
+        <v>405180118</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>40914786</v>
+        <v>84026238</v>
       </c>
       <c r="B204" s="1">
-        <v>684627</v>
+        <v>1484425</v>
       </c>
       <c r="C204" t="s">
         <v>205</v>
       </c>
       <c r="D204" s="1">
-        <v>405029885</v>
+        <v>405056284</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>40925643</v>
+        <v>40914786</v>
       </c>
       <c r="B205" s="1">
-        <v>186093</v>
+        <v>684627</v>
       </c>
       <c r="C205" t="s">
         <v>206</v>
       </c>
       <c r="D205" s="1">
-        <v>405149253</v>
+        <v>405029885</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>26964861</v>
+        <v>40925643</v>
       </c>
       <c r="B206" s="1">
-        <v>4783797</v>
+        <v>186093</v>
       </c>
       <c r="C206" t="s">
         <v>207</v>
       </c>
       <c r="D206" s="1">
-        <v>405030404</v>
+        <v>405149253</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>70070562</v>
+        <v>26964861</v>
       </c>
       <c r="B207" s="1">
-        <v>4112303</v>
+        <v>4783797</v>
       </c>
       <c r="C207" t="s">
         <v>208</v>
       </c>
       <c r="D207" s="1">
-        <v>405056177</v>
+        <v>405030404</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>84032386</v>
+        <v>70070562</v>
       </c>
       <c r="B208" s="1">
-        <v>3192769</v>
+        <v>4112303</v>
       </c>
       <c r="C208" t="s">
         <v>209</v>
       </c>
       <c r="D208" s="1">
-        <v>405056375</v>
+        <v>405056177</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>32704787</v>
+        <v>84032386</v>
       </c>
       <c r="B209" s="1">
-        <v>2734657</v>
+        <v>3192769</v>
       </c>
       <c r="C209" t="s">
         <v>210</v>
       </c>
       <c r="D209" s="1">
-        <v>405030180</v>
+        <v>405056375</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>40976795</v>
+        <v>32704787</v>
       </c>
       <c r="B210" s="1">
-        <v>794193</v>
+        <v>803264</v>
       </c>
       <c r="C210" t="s">
         <v>211</v>
       </c>
       <c r="D210" s="1">
-        <v>405030982</v>
+        <v>405030180</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>12712692</v>
+        <v>40976795</v>
       </c>
       <c r="B211" s="1">
-        <v>3809651</v>
+        <v>794193</v>
       </c>
       <c r="C211" t="s">
         <v>212</v>
       </c>
       <c r="D211" s="1">
-        <v>405055856</v>
+        <v>405030982</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>71597186</v>
+        <v>12712692</v>
       </c>
       <c r="B212" s="1">
-        <v>5679391</v>
+        <v>2738665</v>
       </c>
       <c r="C212" t="s">
         <v>213</v>
       </c>
       <c r="D212" s="1">
-        <v>405023334</v>
+        <v>405055856</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>40918605</v>
+        <v>71597186</v>
       </c>
       <c r="B213" s="1">
-        <v>3035715</v>
+        <v>3803431</v>
       </c>
       <c r="C213" t="s">
         <v>214</v>
       </c>
       <c r="D213" s="1">
-        <v>405028515</v>
+        <v>405023334</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>73080431</v>
+        <v>40918605</v>
       </c>
       <c r="B214" s="1">
-        <v>4299507</v>
+        <v>3035715</v>
       </c>
       <c r="C214" t="s">
         <v>215</v>
       </c>
       <c r="D214" s="1">
-        <v>405055898</v>
+        <v>405028515</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>40915068</v>
+        <v>73080431</v>
       </c>
       <c r="B215" s="1">
-        <v>1911385</v>
+        <v>4299507</v>
       </c>
       <c r="C215" t="s">
         <v>216</v>
       </c>
       <c r="D215" s="1">
-        <v>405043035</v>
+        <v>405055898</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>40937339</v>
+        <v>40915068</v>
       </c>
       <c r="B216" s="1">
-        <v>2655763</v>
+        <v>1911385</v>
       </c>
       <c r="C216" t="s">
         <v>217</v>
       </c>
       <c r="D216" s="1">
-        <v>405182668</v>
+        <v>405043035</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>84080209</v>
+        <v>40937339</v>
       </c>
       <c r="B217" s="1">
-        <v>3632845</v>
+        <v>2603563</v>
       </c>
       <c r="C217" t="s">
         <v>218</v>
       </c>
       <c r="D217" s="1">
-        <v>405096520</v>
+        <v>405182668</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>21238226</v>
+        <v>84080209</v>
       </c>
       <c r="B218" s="1">
-        <v>3205769</v>
+        <v>3632845</v>
       </c>
       <c r="C218" t="s">
         <v>219</v>
       </c>
       <c r="D218" s="1">
-        <v>405179854</v>
+        <v>405096520</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>84028958</v>
+        <v>21238226</v>
       </c>
       <c r="B219" s="1">
-        <v>837769</v>
+        <v>3205769</v>
       </c>
       <c r="C219" t="s">
         <v>220</v>
       </c>
       <c r="D219" s="1">
-        <v>400783940</v>
+        <v>405179854</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>19443502</v>
+        <v>84028958</v>
       </c>
       <c r="B220" s="1">
-        <v>3606290</v>
+        <v>837769</v>
       </c>
       <c r="C220" t="s">
         <v>221</v>
       </c>
       <c r="D220" s="1">
-        <v>405179862</v>
+        <v>400783940</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>52266796</v>
+        <v>19443502</v>
       </c>
       <c r="B221" s="1">
-        <v>2688400</v>
+        <v>2865249</v>
       </c>
       <c r="C221" t="s">
         <v>222</v>
       </c>
       <c r="D221" s="1">
-        <v>405180019</v>
+        <v>405179862</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>40928745</v>
+        <v>52266796</v>
       </c>
       <c r="B222" s="1">
-        <v>1713418</v>
+        <v>2688400</v>
       </c>
       <c r="C222" t="s">
         <v>223</v>
       </c>
       <c r="D222" s="1">
-        <v>405089905</v>
+        <v>405180019</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>72174199</v>
+        <v>40928745</v>
       </c>
       <c r="B223" s="1">
-        <v>2528821</v>
+        <v>1836618</v>
       </c>
       <c r="C223" t="s">
         <v>224</v>
       </c>
       <c r="D223" s="1">
-        <v>405055195</v>
+        <v>405089905</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>19193790</v>
+        <v>72174199</v>
       </c>
       <c r="B224" s="1">
-        <v>2538667</v>
+        <v>2528821</v>
       </c>
       <c r="C224" t="s">
         <v>225</v>
       </c>
       <c r="D224" s="1">
-        <v>405031147</v>
+        <v>405055195</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>17855736</v>
+        <v>19193790</v>
       </c>
       <c r="B225" s="1">
-        <v>1506695</v>
+        <v>2538667</v>
       </c>
       <c r="C225" t="s">
         <v>226</v>
       </c>
       <c r="D225" s="1">
-        <v>405161464</v>
+        <v>405031147</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>8534287</v>
+        <v>17855736</v>
       </c>
       <c r="B226" s="1">
-        <v>3498126</v>
+        <v>1432719</v>
       </c>
       <c r="C226" t="s">
         <v>227</v>
       </c>
       <c r="D226" s="1">
-        <v>405044009</v>
+        <v>405161464</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>2760943</v>
+        <v>8534287</v>
       </c>
       <c r="B227" s="1">
-        <v>7351614</v>
+        <v>3498126</v>
       </c>
       <c r="C227" t="s">
         <v>228</v>
       </c>
       <c r="D227" s="1">
-        <v>405055153</v>
+        <v>405044009</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>17802053</v>
+        <v>2760943</v>
       </c>
       <c r="B228" s="1">
-        <v>7003013</v>
+        <v>5373566</v>
       </c>
       <c r="C228" t="s">
         <v>229</v>
       </c>
       <c r="D228" s="1">
-        <v>405056581</v>
+        <v>405055153</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>9078794</v>
+        <v>17802053</v>
       </c>
       <c r="B229" s="1">
-        <v>2933117</v>
+        <v>7003013</v>
       </c>
       <c r="C229" t="s">
         <v>230</v>
       </c>
       <c r="D229" s="1">
-        <v>405023383</v>
+        <v>405056581</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>36548894</v>
+        <v>9078794</v>
       </c>
       <c r="B230" s="1">
-        <v>3573184</v>
+        <v>2933117</v>
       </c>
       <c r="C230" t="s">
         <v>231</v>
       </c>
       <c r="D230" s="1">
-        <v>405043084</v>
+        <v>405023383</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>17804185</v>
+        <v>36548894</v>
       </c>
       <c r="B231" s="1">
-        <v>3347492</v>
+        <v>1845501</v>
       </c>
       <c r="C231" t="s">
         <v>232</v>
       </c>
       <c r="D231" s="1">
-        <v>405059361</v>
+        <v>405043084</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>84026629</v>
+        <v>17804185</v>
       </c>
       <c r="B232" s="1">
-        <v>4266541</v>
+        <v>3347492</v>
       </c>
       <c r="C232" t="s">
         <v>233</v>
       </c>
       <c r="D232" s="1">
-        <v>405055401</v>
+        <v>405059361</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>40914203</v>
+        <v>84026629</v>
       </c>
       <c r="B233" s="1">
-        <v>4052852</v>
+        <v>4266541</v>
       </c>
       <c r="C233" t="s">
         <v>234</v>
       </c>
       <c r="D233" s="1">
-        <v>405055245</v>
+        <v>405055401</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>77022224</v>
+        <v>40914203</v>
       </c>
       <c r="B234" s="1">
-        <v>1239162</v>
+        <v>1440348</v>
       </c>
       <c r="C234" t="s">
         <v>235</v>
       </c>
       <c r="D234" s="1">
-        <v>405158411</v>
+        <v>405055245</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>40978774</v>
+        <v>77022224</v>
       </c>
       <c r="B235" s="1">
-        <v>2710207</v>
+        <v>1239162</v>
       </c>
       <c r="C235" t="s">
         <v>236</v>
       </c>
       <c r="D235" s="1">
-        <v>405044223</v>
+        <v>405158411</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>40936726</v>
+        <v>40978774</v>
       </c>
       <c r="B236" s="1">
-        <v>2188794</v>
+        <v>2710207</v>
       </c>
       <c r="C236" t="s">
         <v>237</v>
       </c>
       <c r="D236" s="1">
-        <v>405179268</v>
+        <v>405044223</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>40922011</v>
+        <v>40936726</v>
       </c>
       <c r="B237" s="1">
-        <v>1106000</v>
+        <v>2125344</v>
       </c>
       <c r="C237" t="s">
         <v>238</v>
       </c>
       <c r="D237" s="1">
-        <v>405052903</v>
+        <v>405179268</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>12526163</v>
+        <v>40922011</v>
       </c>
       <c r="B238" s="1">
-        <v>3644757</v>
+        <v>2726300</v>
       </c>
       <c r="C238" t="s">
         <v>239</v>
       </c>
       <c r="D238" s="1">
-        <v>405179797</v>
+        <v>405052903</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>32845456</v>
+        <v>12526163</v>
       </c>
       <c r="B239" s="1">
-        <v>2635087</v>
+        <v>3644757</v>
       </c>
       <c r="C239" t="s">
         <v>240</v>
       </c>
       <c r="D239" s="1">
-        <v>304002520</v>
+        <v>405179797</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>17804528</v>
+        <v>32845456</v>
       </c>
       <c r="B240" s="1">
-        <v>2933117</v>
+        <v>2635087</v>
       </c>
       <c r="C240" t="s">
         <v>241</v>
       </c>
       <c r="D240" s="1">
-        <v>405059528</v>
+        <v>304002520</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>40927400</v>
+        <v>17804528</v>
       </c>
       <c r="B241" s="1">
-        <v>2836948</v>
+        <v>2933117</v>
       </c>
       <c r="C241" t="s">
         <v>242</v>
       </c>
       <c r="D241" s="1">
-        <v>405071242</v>
+        <v>405059528</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>49720755</v>
+        <v>40927400</v>
       </c>
       <c r="B242" s="1">
-        <v>2881810</v>
+        <v>2836948</v>
       </c>
       <c r="C242" t="s">
         <v>243</v>
       </c>
       <c r="D242" s="1">
-        <v>405180092</v>
+        <v>405071242</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>40934523</v>
+        <v>49720755</v>
       </c>
       <c r="B243" s="1">
-        <v>3573942</v>
+        <v>2881810</v>
       </c>
       <c r="C243" t="s">
         <v>244</v>
       </c>
       <c r="D243" s="1">
-        <v>405104761</v>
+        <v>405180092</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>5159322</v>
+        <v>40934523</v>
       </c>
       <c r="B244" s="1">
-        <v>3739605</v>
+        <v>3573942</v>
       </c>
       <c r="C244" t="s">
         <v>245</v>
       </c>
       <c r="D244" s="1">
-        <v>405012113</v>
+        <v>405104761</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>32683605</v>
+        <v>5159322</v>
       </c>
       <c r="B245" s="1">
-        <v>3757687</v>
+        <v>3739605</v>
       </c>
       <c r="C245" t="s">
         <v>246</v>
       </c>
       <c r="D245" s="1">
-        <v>405055286</v>
+        <v>405012113</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>42677500</v>
+        <v>32683605</v>
       </c>
       <c r="B246" s="1">
-        <v>6145453</v>
+        <v>3757687</v>
       </c>
       <c r="C246" t="s">
         <v>247</v>
       </c>
       <c r="D246" s="1">
-        <v>405056219</v>
+        <v>405055286</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>19456447</v>
+        <v>42677500</v>
       </c>
       <c r="B247" s="1">
-        <v>1873117</v>
+        <v>6145453</v>
       </c>
       <c r="C247" t="s">
         <v>248</v>
       </c>
       <c r="D247" s="1">
-        <v>405753518</v>
+        <v>405056219</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>26962896</v>
+        <v>19456447</v>
       </c>
       <c r="B248" s="1">
-        <v>3246127</v>
+        <v>1873117</v>
       </c>
       <c r="C248" t="s">
         <v>249</v>
       </c>
       <c r="D248" s="1">
-        <v>405043977</v>
+        <v>405753518</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>40924637</v>
+        <v>26962896</v>
       </c>
       <c r="B249" s="1">
-        <v>835663</v>
+        <v>3246127</v>
       </c>
       <c r="C249" t="s">
         <v>250</v>
       </c>
       <c r="D249" s="1">
-        <v>405055476</v>
+        <v>405043977</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>84035444</v>
+        <v>40924637</v>
       </c>
       <c r="B250" s="1">
-        <v>2836948</v>
+        <v>671863</v>
       </c>
       <c r="C250" t="s">
         <v>251</v>
       </c>
       <c r="D250" s="1">
-        <v>405179946</v>
+        <v>405055476</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>36719109</v>
+        <v>84035444</v>
       </c>
       <c r="B251" s="1">
-        <v>3452492</v>
+        <v>2836948</v>
       </c>
       <c r="C251" t="s">
         <v>252</v>
       </c>
       <c r="D251" s="1">
-        <v>405067208</v>
+        <v>405179946</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>77025705</v>
+        <v>36719109</v>
       </c>
       <c r="B252" s="1">
-        <v>2717411</v>
+        <v>3452492</v>
       </c>
       <c r="C252" t="s">
         <v>253</v>
       </c>
       <c r="D252" s="1">
-        <v>300125432</v>
+        <v>405067208</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>84039896</v>
+        <v>77025705</v>
       </c>
       <c r="B253" s="1">
-        <v>3520592</v>
+        <v>2717411</v>
       </c>
       <c r="C253" t="s">
         <v>254</v>
       </c>
       <c r="D253" s="1">
-        <v>405055997</v>
+        <v>300125432</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>49736403</v>
+        <v>84039896</v>
       </c>
       <c r="B254" s="1">
-        <v>1953866</v>
+        <v>3520592</v>
       </c>
       <c r="C254" t="s">
         <v>255</v>
       </c>
       <c r="D254" s="1">
-        <v>405180076</v>
+        <v>405055997</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>40923678</v>
+        <v>49736403</v>
       </c>
       <c r="B255" s="1">
-        <v>2608868</v>
+        <v>1876866</v>
       </c>
       <c r="C255" t="s">
         <v>256</v>
       </c>
       <c r="D255" s="1">
-        <v>405031287</v>
+        <v>405180076</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>40926822</v>
+        <v>40923678</v>
       </c>
       <c r="B256" s="1">
-        <v>2775948</v>
+        <v>6143522</v>
       </c>
       <c r="C256" t="s">
         <v>257</v>
       </c>
       <c r="D256" s="1">
-        <v>405772559</v>
+        <v>405031287</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <v>17807106</v>
+        <v>40926822</v>
       </c>
       <c r="B257" s="1">
-        <v>5672918</v>
+        <v>2775948</v>
       </c>
       <c r="C257" t="s">
         <v>258</v>
       </c>
       <c r="D257" s="1">
-        <v>405008079</v>
+        <v>405772559</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <v>49786864</v>
+        <v>1118810845</v>
       </c>
       <c r="B258" s="1">
-        <v>2587913</v>
+        <v>3451149</v>
       </c>
       <c r="C258" t="s">
         <v>259</v>
       </c>
       <c r="D258" s="1">
-        <v>405180209</v>
+        <v>405183864</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>84032882</v>
+        <v>17807106</v>
       </c>
       <c r="B259" s="1">
-        <v>9984744</v>
+        <v>5672918</v>
       </c>
       <c r="C259" t="s">
         <v>260</v>
       </c>
       <c r="D259" s="1">
-        <v>405136433</v>
+        <v>405008079</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>8798450</v>
+        <v>49786864</v>
       </c>
       <c r="B260" s="1">
-        <v>1127086</v>
+        <v>2587913</v>
       </c>
       <c r="C260" t="s">
         <v>261</v>
       </c>
       <c r="D260" s="1">
-        <v>405182635</v>
+        <v>405180209</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>84083636</v>
+        <v>84032882</v>
       </c>
       <c r="B261" s="1">
-        <v>756561</v>
+        <v>10486336</v>
       </c>
       <c r="C261" t="s">
         <v>262</v>
       </c>
       <c r="D261" s="1">
-        <v>405051269</v>
+        <v>405136433</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <v>84033695</v>
+        <v>8798450</v>
       </c>
       <c r="B262" s="1">
-        <v>2599964</v>
+        <v>1127086</v>
       </c>
       <c r="C262" t="s">
         <v>263</v>
       </c>
       <c r="D262" s="1">
-        <v>405067091</v>
+        <v>405182635</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <v>40936413</v>
+        <v>84083636</v>
       </c>
       <c r="B263" s="1">
-        <v>2852797</v>
+        <v>360280</v>
       </c>
       <c r="C263" t="s">
         <v>264</v>
       </c>
       <c r="D263" s="1">
-        <v>304002561</v>
+        <v>405051269</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <v>40923400</v>
+        <v>84033695</v>
       </c>
       <c r="B264" s="1">
-        <v>2496573</v>
+        <v>2599964</v>
       </c>
       <c r="C264" t="s">
         <v>265</v>
       </c>
       <c r="D264" s="1">
-        <v>405030362</v>
+        <v>405067091</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265">
-        <v>85455312</v>
+        <v>40936413</v>
       </c>
       <c r="B265" s="1">
-        <v>6127392</v>
+        <v>2852797</v>
       </c>
       <c r="C265" t="s">
         <v>266</v>
       </c>
       <c r="D265" s="1">
-        <v>405055179</v>
+        <v>304002561</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>84035262</v>
+        <v>40923400</v>
       </c>
       <c r="B266" s="1">
-        <v>3077368</v>
+        <v>2496573</v>
       </c>
       <c r="C266" t="s">
         <v>267</v>
       </c>
       <c r="D266" s="1">
-        <v>405055187</v>
+        <v>405030362</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <v>42498983</v>
+        <v>85455312</v>
       </c>
       <c r="B267" s="1">
-        <v>2793582</v>
+        <v>4397665</v>
       </c>
       <c r="C267" t="s">
         <v>268</v>
       </c>
       <c r="D267" s="1">
-        <v>405046657</v>
+        <v>405055179</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268">
-        <v>40927910</v>
+        <v>84035262</v>
       </c>
       <c r="B268" s="1">
-        <v>2836948</v>
+        <v>3077368</v>
       </c>
       <c r="C268" t="s">
         <v>269</v>
       </c>
       <c r="D268" s="1">
-        <v>405049958</v>
+        <v>405055187</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269">
-        <v>17844731</v>
+        <v>42498983</v>
       </c>
       <c r="B269" s="1">
-        <v>4413319</v>
+        <v>2793582</v>
       </c>
       <c r="C269" t="s">
         <v>270</v>
       </c>
       <c r="D269" s="1">
-        <v>405009267</v>
+        <v>405046657</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <v>10234384</v>
+        <v>40927910</v>
       </c>
       <c r="B270" s="1">
-        <v>655884</v>
+        <v>2836948</v>
       </c>
       <c r="C270" t="s">
         <v>271</v>
       </c>
       <c r="D270" s="1">
-        <v>405044603</v>
+        <v>405049958</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <v>27015139</v>
+        <v>17844731</v>
       </c>
       <c r="B271" s="1">
-        <v>3277314</v>
+        <v>4413319</v>
       </c>
       <c r="C271" t="s">
         <v>272</v>
       </c>
       <c r="D271" s="1">
-        <v>405056334</v>
+        <v>405009267</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>8278413</v>
+        <v>10234384</v>
       </c>
       <c r="B272" s="1">
-        <v>6077925</v>
+        <v>1817768</v>
       </c>
       <c r="C272" t="s">
         <v>273</v>
       </c>
       <c r="D272" s="1">
-        <v>405035304</v>
+        <v>405044603</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>4034483</v>
+        <v>27015139</v>
       </c>
       <c r="B273" s="1">
-        <v>4813063</v>
+        <v>3277314</v>
       </c>
       <c r="C273" t="s">
         <v>274</v>
       </c>
       <c r="D273" s="1">
-        <v>405056094</v>
+        <v>405056334</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>40931453</v>
+        <v>8278413</v>
       </c>
       <c r="B274" s="1">
-        <v>2187262</v>
+        <v>6077925</v>
       </c>
       <c r="C274" t="s">
         <v>275</v>
       </c>
       <c r="D274" s="1">
-        <v>405179169</v>
+        <v>405035304</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>73006038</v>
+        <v>4034483</v>
       </c>
       <c r="B275" s="1">
-        <v>2637628</v>
+        <v>4041063</v>
       </c>
       <c r="C275" t="s">
         <v>276</v>
       </c>
       <c r="D275" s="1">
-        <v>405180175</v>
+        <v>405056094</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>84084238</v>
+        <v>40931453</v>
       </c>
       <c r="B276" s="1">
-        <v>2194751</v>
+        <v>2187262</v>
       </c>
       <c r="C276" t="s">
         <v>277</v>
       </c>
       <c r="D276" s="1">
-        <v>405089202</v>
+        <v>405179169</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>40976465</v>
+        <v>73006038</v>
       </c>
       <c r="B277" s="1">
-        <v>674393</v>
+        <v>2613328</v>
       </c>
       <c r="C277" t="s">
         <v>278</v>
       </c>
       <c r="D277" s="1">
-        <v>405044439</v>
+        <v>405180175</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>84091531</v>
+        <v>84084238</v>
       </c>
       <c r="B278" s="1">
-        <v>1999387</v>
+        <v>2194751</v>
       </c>
       <c r="C278" t="s">
         <v>279</v>
       </c>
       <c r="D278" s="1">
-        <v>405179839</v>
+        <v>405089202</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <v>17805759</v>
+        <v>40976465</v>
       </c>
       <c r="B279" s="1">
-        <v>5606887</v>
+        <v>674393</v>
       </c>
       <c r="C279" t="s">
         <v>280</v>
       </c>
       <c r="D279" s="1">
-        <v>405056037</v>
+        <v>405044439</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>10781860</v>
+        <v>84091531</v>
       </c>
       <c r="B280" s="1">
-        <v>2690664</v>
+        <v>1999387</v>
       </c>
       <c r="C280" t="s">
         <v>281</v>
       </c>
       <c r="D280" s="1">
-        <v>405180159</v>
+        <v>405179839</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>36537160</v>
+        <v>17805759</v>
       </c>
       <c r="B281" s="1">
-        <v>3626282</v>
+        <v>5606887</v>
       </c>
       <c r="C281" t="s">
         <v>282</v>
       </c>
       <c r="D281" s="1">
-        <v>405753450</v>
+        <v>405056037</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>17855825</v>
+        <v>10781860</v>
       </c>
       <c r="B282" s="1">
-        <v>2986875</v>
+        <v>2690664</v>
       </c>
       <c r="C282" t="s">
         <v>283</v>
       </c>
       <c r="D282" s="1">
-        <v>405054446</v>
+        <v>405180159</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>13015884</v>
+        <v>36537160</v>
       </c>
       <c r="B283" s="1">
-        <v>4126842</v>
+        <v>5544061</v>
       </c>
       <c r="C283" t="s">
         <v>284</v>
       </c>
       <c r="D283" s="1">
-        <v>405156142</v>
+        <v>405753450</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>7458062</v>
+        <v>17855825</v>
       </c>
       <c r="B284" s="1">
-        <v>2914583</v>
+        <v>3136875</v>
       </c>
       <c r="C284" t="s">
         <v>285</v>
       </c>
       <c r="D284" s="1">
-        <v>405010976</v>
+        <v>405054446</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>40914811</v>
+        <v>13015884</v>
       </c>
       <c r="B285" s="1">
-        <v>3891843</v>
+        <v>4126842</v>
       </c>
       <c r="C285" t="s">
         <v>286</v>
       </c>
       <c r="D285" s="1">
-        <v>405056466</v>
+        <v>405156142</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <v>84078447</v>
+        <v>7458062</v>
       </c>
       <c r="B286" s="1">
-        <v>562033</v>
+        <v>2822183</v>
       </c>
       <c r="C286" t="s">
         <v>287</v>
       </c>
       <c r="D286" s="1">
-        <v>405112285</v>
+        <v>405010976</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287">
-        <v>70120295</v>
+        <v>40914811</v>
       </c>
       <c r="B287" s="1">
-        <v>4510700</v>
+        <v>3799443</v>
       </c>
       <c r="C287" t="s">
         <v>288</v>
       </c>
       <c r="D287" s="1">
-        <v>405030198</v>
+        <v>405056466</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288">
-        <v>9307957</v>
+        <v>84078447</v>
       </c>
       <c r="B288" s="1">
-        <v>6861993</v>
+        <v>562033</v>
       </c>
       <c r="C288" t="s">
         <v>289</v>
       </c>
       <c r="D288" s="1">
-        <v>405030784</v>
+        <v>405112285</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289">
-        <v>40912245</v>
+        <v>70120295</v>
       </c>
       <c r="B289" s="1">
-        <v>2648454</v>
+        <v>4510700</v>
       </c>
       <c r="C289" t="s">
         <v>290</v>
       </c>
       <c r="D289" s="1">
-        <v>405056243</v>
+        <v>405030198</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <v>40942067</v>
+        <v>9307957</v>
       </c>
       <c r="B290" s="1">
-        <v>643696</v>
+        <v>4976838</v>
       </c>
       <c r="C290" t="s">
         <v>291</v>
       </c>
       <c r="D290" s="1">
-        <v>405149618</v>
+        <v>405030784</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <v>17955129</v>
+        <v>40912245</v>
       </c>
       <c r="B291" s="1">
-        <v>2854955</v>
+        <v>877383</v>
       </c>
       <c r="C291" t="s">
         <v>292</v>
       </c>
       <c r="D291" s="1">
-        <v>405067109</v>
+        <v>405056243</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>17951142</v>
+        <v>40942067</v>
       </c>
       <c r="B292" s="1">
-        <v>3257965</v>
+        <v>503155</v>
       </c>
       <c r="C292" t="s">
         <v>293</v>
       </c>
       <c r="D292" s="1">
-        <v>405056417</v>
+        <v>405149618</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293">
-        <v>84035760</v>
+        <v>17955129</v>
       </c>
       <c r="B293" s="1">
-        <v>2019948</v>
+        <v>2854955</v>
       </c>
       <c r="C293" t="s">
         <v>294</v>
       </c>
       <c r="D293" s="1">
-        <v>405067182</v>
+        <v>405067109</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>56056923</v>
+        <v>17951142</v>
       </c>
       <c r="B294" s="1">
-        <v>1227538</v>
+        <v>3257965</v>
       </c>
       <c r="C294" t="s">
         <v>295</v>
       </c>
       <c r="D294" s="1">
-        <v>405129578</v>
+        <v>405056417</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>84079400</v>
+        <v>84035760</v>
       </c>
       <c r="B295" s="1">
-        <v>2569963</v>
+        <v>2019948</v>
       </c>
       <c r="C295" t="s">
         <v>296</v>
       </c>
       <c r="D295" s="1">
-        <v>405123563</v>
+        <v>405067182</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <v>17807159</v>
+        <v>56056923</v>
       </c>
       <c r="B296" s="1">
-        <v>2726016</v>
+        <v>1227538</v>
       </c>
       <c r="C296" t="s">
         <v>297</v>
       </c>
       <c r="D296" s="1">
-        <v>405040270</v>
+        <v>405129578</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <v>84035580</v>
+        <v>84079400</v>
       </c>
       <c r="B297" s="1">
-        <v>2659387</v>
+        <v>2569963</v>
       </c>
       <c r="C297" t="s">
         <v>298</v>
       </c>
       <c r="D297" s="1">
-        <v>405078791</v>
+        <v>405123563</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <v>17806498</v>
+        <v>17807159</v>
       </c>
       <c r="B298" s="1">
-        <v>1850594</v>
+        <v>2726016</v>
       </c>
       <c r="C298" t="s">
         <v>299</v>
       </c>
       <c r="D298" s="1">
-        <v>405055955</v>
+        <v>405040270</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>26995818</v>
+        <v>84035580</v>
       </c>
       <c r="B299" s="1">
-        <v>412062</v>
+        <v>2659387</v>
       </c>
       <c r="C299" t="s">
         <v>300</v>
       </c>
       <c r="D299" s="1">
-        <v>405055880</v>
+        <v>405078791</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <v>41693733</v>
+        <v>17806498</v>
       </c>
       <c r="B300" s="1">
-        <v>2287195</v>
+        <v>1850594</v>
       </c>
       <c r="C300" t="s">
         <v>301</v>
       </c>
       <c r="D300" s="1">
-        <v>405056151</v>
+        <v>405055955</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <v>17953767</v>
+        <v>26995818</v>
       </c>
       <c r="B301" s="1">
-        <v>4973412</v>
+        <v>412062</v>
       </c>
       <c r="C301" t="s">
         <v>302</v>
       </c>
       <c r="D301" s="1">
-        <v>405055120</v>
+        <v>405055880</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>84033035</v>
+        <v>41693733</v>
       </c>
       <c r="B302" s="1">
-        <v>1584648</v>
+        <v>2287195</v>
       </c>
       <c r="C302" t="s">
         <v>303</v>
       </c>
       <c r="D302" s="1">
-        <v>405061763</v>
+        <v>405056151</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <v>40930225</v>
+        <v>17953767</v>
       </c>
       <c r="B303" s="1">
-        <v>848436</v>
+        <v>3571103</v>
       </c>
       <c r="C303" t="s">
         <v>304</v>
       </c>
       <c r="D303" s="1">
-        <v>405101643</v>
+        <v>405055120</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <v>26982790</v>
+        <v>84033035</v>
       </c>
       <c r="B304" s="1">
-        <v>3097275</v>
+        <v>1782948</v>
       </c>
       <c r="C304" t="s">
         <v>305</v>
       </c>
       <c r="D304" s="1">
-        <v>405052515</v>
+        <v>405061763</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <v>32628773</v>
+        <v>40930225</v>
       </c>
       <c r="B305" s="1">
-        <v>2836948</v>
+        <v>848436</v>
       </c>
       <c r="C305" t="s">
         <v>306</v>
       </c>
       <c r="D305" s="1">
-        <v>405090432</v>
+        <v>405101643</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306">
-        <v>18922505</v>
+        <v>26982790</v>
       </c>
       <c r="B306" s="1">
-        <v>2553592</v>
+        <v>3097275</v>
       </c>
       <c r="C306" t="s">
         <v>307</v>
       </c>
       <c r="D306" s="1">
-        <v>405041161</v>
+        <v>405052515</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307">
-        <v>79689715</v>
+        <v>32628773</v>
       </c>
       <c r="B307" s="1">
-        <v>3433027</v>
+        <v>2836948</v>
       </c>
       <c r="C307" t="s">
         <v>308</v>
       </c>
       <c r="D307" s="1">
-        <v>405179953</v>
+        <v>405090432</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <v>1118805345</v>
+        <v>18922505</v>
       </c>
       <c r="B308" s="1">
-        <v>2831342</v>
+        <v>5402210</v>
       </c>
       <c r="C308" t="s">
         <v>309</v>
       </c>
       <c r="D308" s="1">
-        <v>405172016</v>
+        <v>405041161</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>40920939</v>
+        <v>79689715</v>
       </c>
       <c r="B309" s="1">
-        <v>3590667</v>
+        <v>3433027</v>
       </c>
       <c r="C309" t="s">
         <v>310</v>
       </c>
       <c r="D309" s="1">
-        <v>405055765</v>
+        <v>405179953</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <v>77187962</v>
+        <v>1118805345</v>
       </c>
       <c r="B310" s="1">
-        <v>3342345</v>
+        <v>2831342</v>
       </c>
       <c r="C310" t="s">
         <v>311</v>
       </c>
       <c r="D310" s="1">
-        <v>405089103</v>
+        <v>405172016</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <v>40917557</v>
+        <v>40920939</v>
       </c>
       <c r="B311" s="1">
-        <v>3588833</v>
+        <v>3590667</v>
       </c>
       <c r="C311" t="s">
         <v>312</v>
       </c>
       <c r="D311" s="1">
-        <v>405015215</v>
+        <v>405055765</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <v>26994996</v>
+        <v>77187962</v>
       </c>
       <c r="B312" s="1">
-        <v>639862</v>
+        <v>3342345</v>
       </c>
       <c r="C312" t="s">
         <v>313</v>
       </c>
       <c r="D312" s="1">
-        <v>405029844</v>
+        <v>405089103</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <v>56085314</v>
+        <v>40917557</v>
       </c>
       <c r="B313" s="1">
-        <v>2726163</v>
+        <v>7093956</v>
       </c>
       <c r="C313" t="s">
         <v>314</v>
       </c>
       <c r="D313" s="1">
-        <v>405087362</v>
+        <v>405015215</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <v>40919703</v>
+        <v>26994996</v>
       </c>
       <c r="B314" s="1">
-        <v>1484325</v>
+        <v>639862</v>
       </c>
       <c r="C314" t="s">
         <v>315</v>
       </c>
       <c r="D314" s="1">
-        <v>405040858</v>
+        <v>405029844</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
-        <v>27004816</v>
+        <v>56085314</v>
       </c>
       <c r="B315" s="1">
-        <v>2659387</v>
+        <v>2726163</v>
       </c>
       <c r="C315" t="s">
         <v>316</v>
       </c>
       <c r="D315" s="1">
-        <v>405123522</v>
+        <v>405087362</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <v>40914803</v>
+        <v>40919703</v>
       </c>
       <c r="B316" s="1">
-        <v>2513948</v>
+        <v>1484325</v>
       </c>
       <c r="C316" t="s">
         <v>317</v>
       </c>
       <c r="D316" s="1">
-        <v>405083247</v>
+        <v>405040858</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317">
-        <v>40937619</v>
+        <v>27004816</v>
       </c>
       <c r="B317" s="1">
-        <v>3451149</v>
+        <v>2659387</v>
       </c>
       <c r="C317" t="s">
         <v>318</v>
       </c>
       <c r="D317" s="1">
-        <v>405112095</v>
+        <v>405123522</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <v>56085519</v>
+        <v>40914803</v>
       </c>
       <c r="B318" s="1">
-        <v>2852797</v>
+        <v>2513948</v>
       </c>
       <c r="C318" t="s">
         <v>319</v>
       </c>
       <c r="D318" s="1">
-        <v>304002447</v>
+        <v>405083247</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <v>84082367</v>
+        <v>40937619</v>
       </c>
       <c r="B319" s="1">
-        <v>2769030</v>
+        <v>3451149</v>
       </c>
       <c r="C319" t="s">
         <v>320</v>
       </c>
       <c r="D319" s="1">
-        <v>405102989</v>
+        <v>405112095</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <v>6772256</v>
+        <v>56085519</v>
       </c>
       <c r="B320" s="1">
-        <v>3452367</v>
+        <v>2852797</v>
       </c>
       <c r="C320" t="s">
         <v>321</v>
       </c>
       <c r="D320" s="1">
-        <v>300308194</v>
+        <v>304002447</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <v>40799640</v>
+        <v>84082367</v>
       </c>
       <c r="B321" s="1">
-        <v>1272408</v>
+        <v>2769030</v>
       </c>
       <c r="C321" t="s">
         <v>322</v>
       </c>
       <c r="D321" s="1">
-        <v>405065178</v>
+        <v>405102989</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <v>27015180</v>
+        <v>6772256</v>
       </c>
       <c r="B322" s="1">
-        <v>2193667</v>
+        <v>3452367</v>
       </c>
       <c r="C322" t="s">
         <v>323</v>
       </c>
       <c r="D322" s="1">
-        <v>300779162</v>
+        <v>300308194</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <v>7475678</v>
+        <v>40799640</v>
       </c>
       <c r="B323" s="1">
-        <v>5847545</v>
+        <v>2889479</v>
       </c>
       <c r="C323" t="s">
         <v>324</v>
       </c>
       <c r="D323" s="1">
-        <v>405009515</v>
+        <v>405065178</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <v>45518038</v>
+        <v>27015180</v>
       </c>
       <c r="B324" s="1">
-        <v>3389049</v>
+        <v>2035667</v>
       </c>
       <c r="C324" t="s">
         <v>325</v>
       </c>
       <c r="D324" s="1">
-        <v>405179250</v>
+        <v>300779162</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325">
-        <v>12593221</v>
+        <v>7475678</v>
       </c>
       <c r="B325" s="1">
-        <v>1136971</v>
+        <v>5847545</v>
       </c>
       <c r="C325" t="s">
         <v>326</v>
       </c>
       <c r="D325" s="1">
-        <v>405024092</v>
+        <v>405009515</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <v>40937690</v>
+        <v>45518038</v>
       </c>
       <c r="B326" s="1">
-        <v>3561325</v>
+        <v>3389049</v>
       </c>
       <c r="C326" t="s">
         <v>327</v>
       </c>
       <c r="D326" s="1">
+        <v>405179250</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327">
+        <v>12593221</v>
+      </c>
+      <c r="B327" s="1">
+        <v>1109971</v>
+      </c>
+      <c r="C327" t="s">
+        <v>328</v>
+      </c>
+      <c r="D327" s="1">
+        <v>405024092</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328">
+        <v>40937690</v>
+      </c>
+      <c r="B328" s="1">
+        <v>3561325</v>
+      </c>
+      <c r="C328" t="s">
+        <v>329</v>
+      </c>
+      <c r="D328" s="1">
         <v>405179276</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="B327" s="1"/>
-      <c r="D327" s="1"/>
+    <row r="329" spans="1:4">
+      <c r="B329" s="1"/>
+      <c r="D329" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/reportes/pagomes/TotalPlano.xlsx
+++ b/reportes/pagomes/TotalPlano.xlsx
@@ -228,12 +228,12 @@
     <t xml:space="preserve">LOPEZ CONTRERAS JANEJA </t>
   </si>
   <si>
+    <t xml:space="preserve">LOPEZ GONZALEZ ORLANDO </t>
+  </si>
+  <si>
     <t>LOPEZ GONZALEZ YELENIS YANIT</t>
   </si>
   <si>
-    <t xml:space="preserve">LOPEZ GONZALEZ ORLANDO </t>
-  </si>
-  <si>
     <t xml:space="preserve">LOPEZ MARQUEZ YARIANA </t>
   </si>
   <si>
@@ -300,10 +300,10 @@
     <t xml:space="preserve">NAJERA POLO FEDERICO </t>
   </si>
   <si>
+    <t>OCHOA REDONDO ANA JOSEFA</t>
+  </si>
+  <si>
     <t>OCHOA REDONDO YAMILKA KARINA</t>
-  </si>
-  <si>
-    <t>OCHOA REDONDO ANA JOSEFA</t>
   </si>
   <si>
     <t>OLIVO ALVAREZ SOCORRO CLARETH</t>
@@ -1397,7 +1397,7 @@
         <v>45</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>6100909057</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1531,7 +1531,7 @@
         <v>17954352</v>
       </c>
       <c r="B54" s="1">
-        <v>1399125</v>
+        <v>2440738</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
@@ -1545,7 +1545,7 @@
         <v>17955242</v>
       </c>
       <c r="B55" s="1">
-        <v>2770716</v>
+        <v>1729103</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
@@ -1738,30 +1738,30 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>40916440</v>
+        <v>17805992</v>
       </c>
       <c r="B69" s="1">
-        <v>2730202</v>
+        <v>2452277</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
       </c>
       <c r="D69" s="1">
-        <v>236070069976</v>
+        <v>236070213244</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>17805992</v>
+        <v>40916440</v>
       </c>
       <c r="B70" s="1">
-        <v>2452277</v>
+        <v>2730202</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
       </c>
       <c r="D70" s="1">
-        <v>236070213244</v>
+        <v>236070069976</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2074,30 +2074,30 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>40929923</v>
+        <v>40918307</v>
       </c>
       <c r="B93" s="1">
-        <v>2362879</v>
+        <v>2298409</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
       </c>
       <c r="D93" s="1">
-        <v>236070218003</v>
+        <v>236070228622</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>40918307</v>
+        <v>40929923</v>
       </c>
       <c r="B94" s="1">
-        <v>2291640</v>
+        <v>2356110</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
       </c>
       <c r="D94" s="1">
-        <v>236070228622</v>
+        <v>236070218003</v>
       </c>
     </row>
     <row r="95" spans="1:4">

--- a/reportes/pagomes/TotalPlano.xlsx
+++ b/reportes/pagomes/TotalPlano.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="PagoPlanta20141001" sheetId="1" r:id="rId4"/>
+    <sheet name="PagoPlanta20141231" sheetId="1" r:id="rId4"/>
     <sheet name="Worksheet 1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
   <si>
     <t>C</t>
   </si>
@@ -27,406 +27,505 @@
     <t>D</t>
   </si>
   <si>
-    <t>ACUÑA MEDINA DORIS ISABEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACUÑA MENDOZA DORIS </t>
-  </si>
-  <si>
-    <t>ACUÑA VARGAS JULIO CESAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUILAR JUAN DE DIOS </t>
-  </si>
-  <si>
-    <t>ALEAN VALLE JADER DARIO</t>
-  </si>
-  <si>
-    <t>ALFARO ALFARO EDER MANUEL</t>
-  </si>
-  <si>
-    <t>ALFARO FONSECA ANA MILENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANAYA ZABALA ROSARIO </t>
-  </si>
-  <si>
-    <t>ANGULO ARGOTE LUIS CARLOS</t>
-  </si>
-  <si>
-    <t>ANGULO RANGEL FRANKLIN ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAMENDIZ GOMEZ LAURA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARIZA CARLA PATRICIA </t>
-  </si>
-  <si>
-    <t>ARREGOCES JULIO ISABEL CARMENZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRIO SILVIA INES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALLESTEROS MARTINEZ GUSTAVO </t>
-  </si>
-  <si>
-    <t>BARRIOS CARMONA ANIBAL JOAQUIN</t>
-  </si>
-  <si>
-    <t>BARROS LOPEZ JOSE ARTURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONIVENTO RODRIGUEZ JEIMMY </t>
-  </si>
-  <si>
-    <t>BORNACELLI GARCIA EVER AUGUSTO</t>
-  </si>
-  <si>
-    <t>BOTELLO PLATA ASLIN GONZALO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRITO RONCANCIO ALBERTO </t>
-  </si>
-  <si>
-    <t>BRUGES COTES ISIDRO RAFAEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUENO MEJIA ENDER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABRERA RODRIGUEZ ALVARO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTILLO PINTO ELIANA </t>
-  </si>
-  <si>
-    <t>CARABALLO ROBLE YERLIS YANET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARCAMO ESCORCIA TANIA </t>
-  </si>
-  <si>
-    <t>CARRILLO HERNANDEZ HERNAN JOAQUIN</t>
-  </si>
-  <si>
-    <t>CERA REDONDO EDWIN ENRIQUE</t>
-  </si>
-  <si>
-    <t>CORREA HENRIQUEZ GUSTAVO ADOLFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTES SPROCKEL MARITZA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUJIA GUERRA EUCADYS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURIEL CORREA MIRLE </t>
-  </si>
-  <si>
-    <t>CURVELO BECERRA CAROLINA ESTHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE ARMAS PEREZ EUDES </t>
-  </si>
-  <si>
-    <t>DEL CASTILLO SINNING MARIA CAROLINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELUQUE GOMEZ JULIO </t>
-  </si>
-  <si>
-    <t>DELUQUE TORO CRISPULO ENRIQUE</t>
-  </si>
-  <si>
-    <t>DIAZ ARRIETA INGRIS MARIA</t>
-  </si>
-  <si>
-    <t>DIAZ OLMOS DAENA DE JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAZ PEREZ ANDERSON </t>
-  </si>
-  <si>
-    <t>ERAZO FLOREZ JOSE AGUSTIN</t>
-  </si>
-  <si>
-    <t>FERNANDEZ FERNANDEZ JOHANNA CLARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIGUEROA MORENO OMAR </t>
-  </si>
-  <si>
-    <t>FONSECA MUÑOZ JUAN JOSE</t>
-  </si>
-  <si>
-    <t>FORERO BARRERA PAOLA ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAMEZ GAMEZ ALFREDO </t>
-  </si>
-  <si>
-    <t>GARCIA DAVILA MONICA LISETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENES DIAZ JAIDER </t>
-  </si>
-  <si>
-    <t>GIRALDO POLANCO MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>GONZALEZ ORTEGA JESUS ALBERTO</t>
-  </si>
-  <si>
-    <t>GRANADOS MARTINEZ CRISTIAN ENRIQUE</t>
-  </si>
-  <si>
-    <t>GUERRA HERRERA ELKIN TOBIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUERRA HERRERA EMERSON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUERRA ROMERO LICETH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAMBURGER GONZALEZ MARGARITA </t>
-  </si>
-  <si>
-    <t>HERRERA ESTRADA KATY CECILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERRERA VILLAFAÑE ALVARO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HINCAPIE NAVARRETE LUIS </t>
-  </si>
-  <si>
-    <t>JACOME MEJIA JESUS ALFONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JARAMILLO PEÑALOZA YATSIRA </t>
-  </si>
-  <si>
-    <t>JIMENEZ FERBANS LARRY ANTONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JIMENEZ PITRE NORYS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIÑAN CUELLO YULY </t>
-  </si>
-  <si>
-    <t>LIÑAN PANA EDUARDO ARISTIDES</t>
-  </si>
-  <si>
-    <t>LOPESIERRA OROZCO JAIDER JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ CONTRERAS JANEJA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ GONZALEZ ORLANDO </t>
-  </si>
-  <si>
-    <t>LOPEZ GONZALEZ YELENIS YANIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ MARQUEZ YARIANA </t>
-  </si>
-  <si>
-    <t>MADERO NUÑEZ OSVALDO FIDEL</t>
-  </si>
-  <si>
-    <t>MAESTRE MOLINARES CESAR DAVID</t>
-  </si>
-  <si>
-    <t>MAFLA PERALTA MILTON ANTONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGDANIEL RODRIGUEZ KENDRI </t>
-  </si>
-  <si>
-    <t>MARTINEZ IBARRA MARLA YURANIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINEZ LOPEZ BETINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINEZ MANOTAS MARLYN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINEZ TRUJILLO NERYS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA DAZA ANIBAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA GARCES DIANA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA GUERRA YOMA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA RAMIREZ OSMAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA YEISY ELIBETH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENGUAL QUINTERO ATENAIDA </t>
-  </si>
-  <si>
-    <t>MEZA ANDRADE LINA MARCELA</t>
-  </si>
-  <si>
-    <t>MOLINA BECERRA JOSE CARLOS</t>
-  </si>
-  <si>
-    <t>MOLINA RODRIGUEZ EMIRO JOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONROY TORO STELLA </t>
-  </si>
-  <si>
-    <t>MONTOYA ZABALETA TATIANA KATHERINE</t>
-  </si>
-  <si>
-    <t>MUÑOZ ESTRADA EMERITA SOFIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAJERA POLO FEDERICO </t>
-  </si>
-  <si>
-    <t>OCHOA REDONDO ANA JOSEFA</t>
-  </si>
-  <si>
-    <t>OCHOA REDONDO YAMILKA KARINA</t>
-  </si>
-  <si>
-    <t>OLIVO ALVAREZ SOCORRO CLARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLMEDO LARRAZABAL ARMANDO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OROZCO DAZA BERTHA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSPINO GOMEZ EMIRO </t>
-  </si>
-  <si>
-    <t>OTERO MENDOZA OLGA PATRICIA</t>
-  </si>
-  <si>
-    <t>PABA HERRERA LUZ ALBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALACIO SPROCKEL LILIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALENCIA DEL VALLE ZENITH </t>
-  </si>
-  <si>
-    <t>PALENCIA SALAS LUIS CARLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANCIERA DI ZOPPOLA MARTINEZ MARYORI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEÑARANDA PINTO ELKIS </t>
-  </si>
-  <si>
-    <t>PEREZ CAMPO AMALIS PATRICIA</t>
-  </si>
-  <si>
-    <t>PEREZ ILLIDGE NINA ALEJANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEREZ MEDINA ROSMERIS </t>
-  </si>
-  <si>
-    <t>PEREZ QUINTERO HEYLON GUSTAVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEREZ ROJAS SOBEYDIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINTO PINTO BELKIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONTON DELUQUEZ ELIMAR </t>
-  </si>
-  <si>
-    <t>QUINTERO RAMOS MEUDYS PATRICIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDONDO MAESTRE ODILON </t>
-  </si>
-  <si>
-    <t>REDONDO SILVERA PEDRO ANTONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROJAS ORTEGA JANNETH </t>
-  </si>
-  <si>
-    <t>ROMERO ACUÑA MIGUEL HUMBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMERO ZUÑIGA CARMEN </t>
-  </si>
-  <si>
-    <t>ROYS ROMERO NANCY ROSA</t>
-  </si>
-  <si>
-    <t>RUEDA TONCEL LUIS ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALAS SOLANO EDWIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANCHEZ GIL CARMEN </t>
-  </si>
-  <si>
-    <t>SIERRA LLORENTE JOSE GREGORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIERRA PARODI ANGELA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILVA BRITO MARILUZ </t>
-  </si>
-  <si>
-    <t>SIMANCA SAN JUAN LUZ MIRIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOTO CORTEZ ELIZABETH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOTO RODRIGUEZ DERBER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">USTATE PEREZ MARILI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEGA BRITO RAFAEL </t>
-  </si>
-  <si>
-    <t>VEGA GAMEZ MARTA INES</t>
-  </si>
-  <si>
-    <t>VERDECIA MIRANDA JEINER ALBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISCAINO MENDOZA LISETTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">YAGUNA NUÑEZ JOSE </t>
-  </si>
-  <si>
-    <t>YEPEZ AGUILAR FERNANDO ALBERTO</t>
+    <t>AARON GONZALVEZ MARLYN ALICIA</t>
+  </si>
+  <si>
+    <t>ALFARO CAMARGO CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>ALGUERO AMAYA LUIS ROBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALVARADO MEJIA MARELIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAYA LOPEZ NICOLAS </t>
+  </si>
+  <si>
+    <t>ARAUJO CONTRERAS VIANEIS DE JESUS</t>
+  </si>
+  <si>
+    <t>ARIZA DAZA FERNANDO LUIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVILA FUENTES HERIBERTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARLIZA GONZALEZ CAYETANO </t>
+  </si>
+  <si>
+    <t>BARLIZA NUÑEZ ROSA ISMAIRA</t>
+  </si>
+  <si>
+    <t>BARROS FARFAN YIMI YESID</t>
+  </si>
+  <si>
+    <t>BASTIDAS BARRANCO MARLON JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEDOYA RESTREPO HERNANDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELTRAN ALVARADO GONZALO </t>
+  </si>
+  <si>
+    <t>BERMUDEZ BUENO WILLIAM RAFAEL</t>
+  </si>
+  <si>
+    <t>BERMUDEZ VILLAMIZAR ROGER DAVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERRIO CABALLERO HOBBER </t>
+  </si>
+  <si>
+    <t>BERTEL PALENCIA RAMON DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONILLA BLANCHAR EDGAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITO CARRILLO CLARA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITO CASTAÑEDA ZENAIDA </t>
+  </si>
+  <si>
+    <t>BRITO CUADRADO OMAR ALONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITO DAZA ALBERTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUENO GIRALDO ISIDRO </t>
+  </si>
+  <si>
+    <t>CABRERA PALACIO RUBEN DARIO</t>
+  </si>
+  <si>
+    <t>CADENA MARTINEZ LAURA MILENA</t>
+  </si>
+  <si>
+    <t>CAMPO RIVADENEIRA LEDIS ESTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARABALI ANGOLA ALEXIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARCAMO BERRIO ORLANDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDEÑO PORTELA NORALBIS </t>
+  </si>
+  <si>
+    <t>CASTELLANOS  MARTHA LIGIA</t>
+  </si>
+  <si>
+    <t>CASTILLO PEREZ JAIME ANTONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTRILLON ROYS MARTHA </t>
+  </si>
+  <si>
+    <t>CASTRO ECHAVEZ FERNANDO LUIS</t>
+  </si>
+  <si>
+    <t>CEBALLOS MACIA MARIA GISELLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHIQUILLO RODELO JUANNYS </t>
+  </si>
+  <si>
+    <t>CHOLES ALMAZO HILDA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOLES MEJIA FRANKLIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOLES QUINTERO PATRICIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTES SPROCKEL GILBERTO </t>
+  </si>
+  <si>
+    <t>CUAN ROJAS MARIA VICTORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENTAS FIGUEROA RAFAEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUESTA LOPEZ ROSALBA </t>
+  </si>
+  <si>
+    <t>CURIEL GOMEZ REBECA YANETH</t>
+  </si>
+  <si>
+    <t>DAZA DAZA ALCIDES RAFAEL</t>
+  </si>
+  <si>
+    <t>DAZA ORSINI SANDRA MILENA</t>
+  </si>
+  <si>
+    <t>DAZA REINES SAMMY DAVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAZ RESTREPO ESPERANZA </t>
+  </si>
+  <si>
+    <t>DORIA ARGUMEDO CARLOS JULIO</t>
+  </si>
+  <si>
+    <t>FAJARDO CUADRADO EIDER RAFAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAJARDO GOMEZ REMEDIOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUENTES MOLINA NATALIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALINDO MONTERO ANDRES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOMEZ BERMUDEZ LORENA </t>
+  </si>
+  <si>
+    <t>GOMEZ JULIO OLENKA VIRGINIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ BERMUDEZ JORGE LUIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANADILLO AYALA RAMIRO </t>
+  </si>
+  <si>
+    <t>GRISALES HENAO ROSA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUERRERO SARMIENTO MARGARITA </t>
+  </si>
+  <si>
+    <t>GUTIERREZ RAMIREZ GAIL ALBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRERA RIAÑO JORGE </t>
+  </si>
+  <si>
+    <t>HOYOS BENITEZ MARIO EDGAR</t>
+  </si>
+  <si>
+    <t>HOYOS SALGADO JULIO MIGUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGUARAN MANJARREZ VICTOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGUARAN MONTIEL GABRIEL </t>
+  </si>
+  <si>
+    <t>JARAMILLO ACOSTA MARTHA CECILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIMENEZ BELEÑO ANDRES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIMENEZ CARDENAS MEREDITH </t>
+  </si>
+  <si>
+    <t>JIMENEZ PITRE IRIS AGUSTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIMENEZ RUIZ CARLOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMMERER DAVID MARTHA </t>
+  </si>
+  <si>
+    <t>LADEUTH OSPINO YELENIS MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEON TEJADA PEDRO </t>
+  </si>
+  <si>
+    <t>LOPEZ JUVINAO DANNY DANIEL</t>
+  </si>
+  <si>
+    <t>MARTINEZ CARDONA JOSE CLEMENTE</t>
+  </si>
+  <si>
+    <t>MARTINEZ GIL JOSE MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINEZ PINEDO HENITHZO </t>
+  </si>
+  <si>
+    <t>MARULANDA VALENCIA JOSE LUDDEY</t>
+  </si>
+  <si>
+    <t>MAYA PABON RAUL ENRIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDINA PALENCIA YEISON </t>
+  </si>
+  <si>
+    <t>MEJIA CABALLERO JOSE MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJIA GONZALEZ LORELEY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJIA MENDOZA OLGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJIA RIVEIRA NAYELI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELENDEZ SURMAY RAFAEL </t>
+  </si>
+  <si>
+    <t>MELO FREILE GELVIS MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENDOZA CABELLO ROBERTO </t>
+  </si>
+  <si>
+    <t>MENDOZA CATAÑO CARMENZA LEONOR</t>
+  </si>
+  <si>
+    <t>MENDOZA FERNANDEZ DARCY LUZ</t>
+  </si>
+  <si>
+    <t>MERIÑO MENDOZA DIBER ENRIQUE</t>
+  </si>
+  <si>
+    <t>MOLINA BOLIVAR GEOMAR ENRIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLINARES RAFAEL DANILO </t>
+  </si>
+  <si>
+    <t>MONTERO MONTERO MANUEL GERMAN</t>
+  </si>
+  <si>
+    <t>MORALES BUSTAMANTE JOSE GREGORIO</t>
+  </si>
+  <si>
+    <t>MOYA CAMACHO FABIO ORLANDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUÑOZ ROJAS DELVIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCHOA ROMERO CLARIBEL </t>
+  </si>
+  <si>
+    <t>OCHOA SALDARRIAGA CARLOS JULIO</t>
+  </si>
+  <si>
+    <t>OJEDA CAMARGO EDGAR ENRIQUE</t>
+  </si>
+  <si>
+    <t>OÑATE DIAZ GLENIA MERCEDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORSINI CUADRADO AUGUSTO </t>
+  </si>
+  <si>
+    <t>ORTEGA HERNANDEZ CARLOS MARIO</t>
+  </si>
+  <si>
+    <t>ORTIZ ROJAS ANGELA NAIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPINO MERIÑO ISIDORO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARRA  YOLANDA </t>
+  </si>
+  <si>
+    <t>PEDRAZA REYES CARLOS JULIO</t>
+  </si>
+  <si>
+    <t>PEÑA CORTES LUISA FERNANDA</t>
+  </si>
+  <si>
+    <t>PEREZ CAMARGO CLIMACO ALBERTO</t>
+  </si>
+  <si>
+    <t>PEREZ JIMENEZ RONALD ANTONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ MONTIEL JHONNY </t>
+  </si>
+  <si>
+    <t>PEREZ VAN-LEENDEN FRANCISCO JUSTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ VAN-LEENDEN MARIANO </t>
+  </si>
+  <si>
+    <t>PIMIENTA PRIETO MARIA MARGARITA</t>
+  </si>
+  <si>
+    <t>PINTO MINDIOLA LACIDES RAFAEL</t>
+  </si>
+  <si>
+    <t>PINTO SANTOS ALBA RUTH</t>
+  </si>
+  <si>
+    <t>PITRE REDONDO REMEDIOS CATALINA</t>
+  </si>
+  <si>
+    <t>PITRE REDONDO MIGUEL FRANCISCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PITRE RUIZ LEANIS </t>
+  </si>
+  <si>
+    <t>PITRE RUIZ LEANETH RAFAELINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POMARICO PIMIENTA PILAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSADA ORTIZ NORA </t>
+  </si>
+  <si>
+    <t>PUCHE PINTO LUIS ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTERO BUENO ATENAIDA </t>
+  </si>
+  <si>
+    <t>QUINTERO MENDOZA JAIDER JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIREZ AYALA ANDERSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIREZ GONZALEZ RUDECINDO </t>
+  </si>
+  <si>
+    <t>RANGEL LUQUEZ OLIVIA ISABEL</t>
+  </si>
+  <si>
+    <t>REDONDO SALAS DANNY DEXI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBLES BRITO DANIEL </t>
+  </si>
+  <si>
+    <t>ROBLES CAMARGO NILKA RIQUENA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ LOPEZ CIELO MARGARITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJANO ALVARADO ROBERTO </t>
+  </si>
+  <si>
+    <t>ROJANO ALVARADO YOLMIS NICOLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJAS CARDENAS MIGDALIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMERO CUELLO SANDY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSADO BOTELLO JHONNY </t>
+  </si>
+  <si>
+    <t>ROSADO VEGA JAIRO RAFAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSERO DE LA CRUZ AGUSTIN </t>
+  </si>
+  <si>
+    <t>RUIZ TORO DANIS EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALAZAR ARGEL ALEXIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALCEDO ANDRADE JAIR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALCEDO DAVILA JAIRO </t>
+  </si>
+  <si>
+    <t>SALGADO CHAVEZ JOSE ALBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ CASTELLON EMILSE </t>
+  </si>
+  <si>
+    <t>SANCHEZ GONZALEZ JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ RAMIREZ ABIMAEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ ROYS DEUSENITH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTIS AGUAS EVELIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTOS MORENO EDILBERTO </t>
+  </si>
+  <si>
+    <t>SIERRA TONCEL JUAN CARLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIERRA TONCEL WILMAR </t>
+  </si>
+  <si>
+    <t>SOCARRAS BERTIZ CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>SOTO PEROZA VICTOR SEGUNDO</t>
+  </si>
+  <si>
+    <t>SUAREZ BARROS HORACIO BIENVENIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAYLOR HENRIQUEZ SIDNEY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOBAR ORTIZ NUBIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TONCEL PACHECO ENRIQUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES BRUGES WILMER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCROS BRITO MARLENIS </t>
+  </si>
+  <si>
+    <t>URUETA BLANCO ZOILA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALERO VALERO NELSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANEGAS SPROCKEL BELKIS </t>
+  </si>
+  <si>
+    <t>VEGA MENDOZA YOLEIDA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIDAL DURAN BETSY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIDAL JAIDITH ENETH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLA AMAYA ERNELL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAMBRANO ROJAS SAMUEL </t>
   </si>
 </sst>
 </file>
@@ -770,7 +869,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2"/>
@@ -800,1883 +899,2345 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>56083464</v>
+        <v>40918469</v>
       </c>
       <c r="B2" s="1">
-        <v>3017100</v>
+        <v>4367941</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>236070240361</v>
+        <v>405138975</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>40916476</v>
+        <v>84071030</v>
       </c>
       <c r="B3" s="1">
-        <v>2475948</v>
+        <v>2057444</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>236070188305</v>
+        <v>304002546</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>72006262</v>
+        <v>13348956</v>
       </c>
       <c r="B4" s="1">
-        <v>2116574</v>
+        <v>4102597</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>236870000882</v>
+        <v>405055948</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3353189</v>
+        <v>40921929</v>
       </c>
       <c r="B5" s="1">
-        <v>2448047</v>
+        <v>2739975</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>236870008422</v>
+        <v>405180050</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>12436703</v>
+        <v>84026931</v>
       </c>
       <c r="B6" s="1">
-        <v>2693234</v>
+        <v>2184817</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>236070254206</v>
+        <v>405002007</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>85040779</v>
+        <v>50892018</v>
       </c>
       <c r="B7" s="1">
-        <v>2134661</v>
+        <v>2199143</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>236870004520</v>
+        <v>405769027</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>32655910</v>
+        <v>5163377</v>
       </c>
       <c r="B8" s="1">
-        <v>2600010</v>
+        <v>2643777</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>236070165923</v>
+        <v>405044470</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>50928222</v>
+        <v>5163080</v>
       </c>
       <c r="B9" s="1">
-        <v>2218581</v>
+        <v>4402795</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>236070201868</v>
+        <v>405044595</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>77171940</v>
+        <v>73077183</v>
       </c>
       <c r="B10" s="1">
-        <v>2532866</v>
+        <v>4806703</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>236800009045</v>
+        <v>405056052</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>84077038</v>
+        <v>40931268</v>
       </c>
       <c r="B11" s="1">
-        <v>1223394</v>
+        <v>1959816</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>236070228515</v>
+        <v>405179870</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>40975746</v>
+        <v>84101451</v>
       </c>
       <c r="B12" s="1">
-        <v>2727951</v>
+        <v>2113183</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>236070254453</v>
+        <v>300211059</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>56059416</v>
+        <v>77033581</v>
       </c>
       <c r="B13" s="1">
-        <v>2515489</v>
+        <v>2880663</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>256700040726</v>
+        <v>405179961</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>63550003</v>
+        <v>19092691</v>
       </c>
       <c r="B14" s="1">
-        <v>2398962</v>
+        <v>5622642</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1">
-        <v>236070241690</v>
+        <v>405031378</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>241945</v>
+        <v>19461331</v>
       </c>
       <c r="B15" s="1">
-        <v>2442662</v>
+        <v>2837235</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>236070197132</v>
+        <v>405056433</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>84083752</v>
+        <v>17807444</v>
       </c>
       <c r="B16" s="1">
-        <v>2102259</v>
+        <v>4709740</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>236070251392</v>
+        <v>405056441</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>7928182</v>
+        <v>84029482</v>
       </c>
       <c r="B17" s="1">
-        <v>2680759</v>
+        <v>1367981</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="1">
-        <v>256700032749</v>
+        <v>405750373</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>84090118</v>
+        <v>84039854</v>
       </c>
       <c r="B18" s="1">
-        <v>1565107</v>
+        <v>2134673</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="1">
-        <v>236070254552</v>
+        <v>304002421</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>64695644</v>
+        <v>92508149</v>
       </c>
       <c r="B19" s="1">
-        <v>2485317</v>
+        <v>4404159</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>236070244306</v>
+        <v>405030990</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1129567739</v>
+        <v>84036737</v>
       </c>
       <c r="B20" s="1">
-        <v>2102259</v>
+        <v>3063668</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="1">
-        <v>236870031259</v>
+        <v>405045949</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>17977001</v>
+        <v>37314692</v>
       </c>
       <c r="B21" s="1">
-        <v>2211283</v>
+        <v>2125648</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="1">
-        <v>340515303</v>
+        <v>405056912</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>84084498</v>
+        <v>26963364</v>
       </c>
       <c r="B22" s="1">
-        <v>2659387</v>
+        <v>4113159</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="1">
-        <v>176370028209</v>
+        <v>405753161</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>17809167</v>
+        <v>19496929</v>
       </c>
       <c r="B23" s="1">
-        <v>2074325</v>
+        <v>2184817</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="1">
-        <v>236070189287</v>
+        <v>405754847</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>17805480</v>
+        <v>6757157</v>
       </c>
       <c r="B24" s="1">
-        <v>2537867</v>
+        <v>4523204</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>236070227699</v>
+        <v>405750522</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>79433108</v>
+        <v>12540363</v>
       </c>
       <c r="B25" s="1">
-        <v>2688205</v>
+        <v>2113183</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="1">
-        <v>236870019833</v>
+        <v>405056003</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>40928509</v>
+        <v>72150467</v>
       </c>
       <c r="B26" s="1">
-        <v>2452277</v>
+        <v>2072517</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="1">
-        <v>236000127167</v>
+        <v>405066481</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>40931404</v>
+        <v>56090201</v>
       </c>
       <c r="B27" s="1">
-        <v>1351151</v>
+        <v>1969917</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="1">
-        <v>236070251988</v>
+        <v>405182403</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>1129534078</v>
+        <v>36551115</v>
       </c>
       <c r="B28" s="1">
-        <v>1394381</v>
+        <v>2113183</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="1">
-        <v>236070240866</v>
+        <v>405055989</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>77022202</v>
+        <v>76269701</v>
       </c>
       <c r="B29" s="1">
-        <v>1647754</v>
+        <v>4766440</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="1">
-        <v>236070203187</v>
+        <v>405055732</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>72018762</v>
+        <v>84046064</v>
       </c>
       <c r="B30" s="1">
-        <v>2341685</v>
+        <v>2266049</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="1">
-        <v>236870008588</v>
+        <v>405031063</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>84089625</v>
+        <v>32689739</v>
       </c>
       <c r="B31" s="1">
-        <v>2457278</v>
+        <v>2585963</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="1">
-        <v>236070231873</v>
+        <v>405063934</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>40915981</v>
+        <v>31920603</v>
       </c>
       <c r="B32" s="1">
-        <v>2285427</v>
+        <v>6737511</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="1">
-        <v>236070221148</v>
+        <v>405031782</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>40925567</v>
+        <v>92510967</v>
       </c>
       <c r="B33" s="1">
-        <v>2767226</v>
+        <v>5808559</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="1">
-        <v>236070188412</v>
+        <v>405031071</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>40917959</v>
+        <v>40922440</v>
       </c>
       <c r="B34" s="1">
-        <v>2836948</v>
+        <v>2220633</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="1">
-        <v>236070186622</v>
+        <v>405071051</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>40931473</v>
+        <v>92511328</v>
       </c>
       <c r="B35" s="1">
-        <v>2372753</v>
+        <v>4742562</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="1">
-        <v>236070225321</v>
+        <v>405031121</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>17847218</v>
+        <v>51828780</v>
       </c>
       <c r="B36" s="1">
-        <v>3090772</v>
+        <v>3522972</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="1">
-        <v>236070191085</v>
+        <v>405044462</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>1128325680</v>
+        <v>32741890</v>
       </c>
       <c r="B37" s="1">
-        <v>2102259</v>
+        <v>2113183</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="1">
-        <v>236070236385</v>
+        <v>405057506</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>8815886</v>
+        <v>40919494</v>
       </c>
       <c r="B38" s="1">
-        <v>2548446</v>
+        <v>4432294</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="1">
-        <v>236070188834</v>
+        <v>405055500</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>7630378</v>
+        <v>84042850</v>
       </c>
       <c r="B39" s="1">
-        <v>3987340</v>
+        <v>3552179</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="1">
-        <v>236870033438</v>
+        <v>405053075</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>27041971</v>
+        <v>40976770</v>
       </c>
       <c r="B40" s="1">
-        <v>2646138</v>
+        <v>4673429</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="1">
-        <v>236070221387</v>
+        <v>405056532</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>1032389676</v>
+        <v>84081588</v>
       </c>
       <c r="B41" s="1">
-        <v>2371398</v>
+        <v>2113183</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="1">
-        <v>236870019767</v>
+        <v>405126962</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>12646564</v>
+        <v>40919704</v>
       </c>
       <c r="B42" s="1">
-        <v>3251125</v>
+        <v>2223245</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="1">
-        <v>23300007236</v>
+        <v>405000548</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>9080934</v>
+        <v>7449339</v>
       </c>
       <c r="B43" s="1">
-        <v>3110805</v>
+        <v>5229450</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="1">
-        <v>236000684506</v>
+        <v>405007931</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>39492672</v>
+        <v>33142746</v>
       </c>
       <c r="B44" s="1">
-        <v>2102259</v>
+        <v>7083471</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="1">
-        <v>6100909057</v>
+        <v>405049156</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>7573426</v>
+        <v>40922614</v>
       </c>
       <c r="B45" s="1">
-        <v>2825719</v>
+        <v>2298610</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="1">
-        <v>236870033511</v>
+        <v>405049230</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>17807921</v>
+        <v>84088120</v>
       </c>
       <c r="B46" s="1">
-        <v>2319468</v>
+        <v>1998570</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="1">
-        <v>236070248711</v>
+        <v>405125113</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>36695870</v>
+        <v>49791756</v>
       </c>
       <c r="B47" s="1">
-        <v>2301580</v>
+        <v>1969917</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
       <c r="D47" s="1">
-        <v>236870037751</v>
+        <v>405179805</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>84038022</v>
+        <v>17973791</v>
       </c>
       <c r="B48" s="1">
-        <v>2889840</v>
+        <v>2088541</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="1">
-        <v>236070186994</v>
+        <v>405770348</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>40937386</v>
+        <v>45445337</v>
       </c>
       <c r="B49" s="1">
-        <v>1864987</v>
+        <v>3959262</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="1">
-        <v>236000662577</v>
+        <v>405055815</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>84068359</v>
+        <v>10893959</v>
       </c>
       <c r="B50" s="1">
-        <v>2358032</v>
+        <v>2949889</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="1">
-        <v>236070190327</v>
+        <v>405055351</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>52690175</v>
+        <v>84026792</v>
       </c>
       <c r="B51" s="1">
-        <v>2158777</v>
+        <v>2302853</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51" s="1">
-        <v>236800004277</v>
+        <v>405044306</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>1766475</v>
+        <v>40792159</v>
       </c>
       <c r="B52" s="1">
-        <v>2147596</v>
+        <v>3167477</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
       </c>
       <c r="D52" s="1">
-        <v>236870011053</v>
+        <v>405044611</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>7601646</v>
+        <v>56078338</v>
       </c>
       <c r="B53" s="1">
-        <v>2168503</v>
+        <v>2199143</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
       </c>
       <c r="D53" s="1">
-        <v>117100013350</v>
+        <v>405180191</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>17954352</v>
+        <v>77034749</v>
       </c>
       <c r="B54" s="1">
-        <v>2440738</v>
+        <v>3902342</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="1">
-        <v>236070222617</v>
+        <v>405020199</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>17955242</v>
+        <v>40917947</v>
       </c>
       <c r="B55" s="1">
-        <v>1729103</v>
+        <v>2220633</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="1">
-        <v>236870002276</v>
+        <v>405060070</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>56055715</v>
+        <v>32785368</v>
       </c>
       <c r="B56" s="1">
-        <v>2442572</v>
+        <v>2698039</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="1">
-        <v>256700007386</v>
+        <v>405081514</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>22731863</v>
+        <v>12544915</v>
       </c>
       <c r="B57" s="1">
-        <v>2229278</v>
+        <v>3200688</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="1">
-        <v>236870011046</v>
+        <v>405046723</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>36694209</v>
+        <v>5158707</v>
       </c>
       <c r="B58" s="1">
-        <v>2209621</v>
+        <v>3754660</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
       </c>
       <c r="D58" s="1">
-        <v>236000684746</v>
+        <v>405056540</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>8852594</v>
+        <v>24545047</v>
       </c>
       <c r="B59" s="1">
-        <v>2102259</v>
+        <v>3436786</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="1">
-        <v>236800011801</v>
+        <v>405043985</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>19354953</v>
+        <v>57412938</v>
       </c>
       <c r="B60" s="1">
-        <v>2602876</v>
+        <v>3984875</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
       </c>
       <c r="D60" s="1">
-        <v>236070238597</v>
+        <v>405056557</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>84091706</v>
+        <v>77172086</v>
       </c>
       <c r="B61" s="1">
-        <v>2185665</v>
+        <v>3022927</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
       </c>
       <c r="D61" s="1">
-        <v>236870006921</v>
+        <v>300125341</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>56057052</v>
+        <v>7456239</v>
       </c>
       <c r="B62" s="1">
-        <v>2370535</v>
+        <v>1987942</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
       </c>
       <c r="D62" s="1">
-        <v>236070193891</v>
+        <v>405055872</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>84452442</v>
+        <v>19225173</v>
       </c>
       <c r="B63" s="1">
-        <v>2900762</v>
+        <v>7408422</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" s="1">
-        <v>236870034386</v>
+        <v>405041542</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>56055470</v>
+        <v>15039137</v>
       </c>
       <c r="B64" s="1">
-        <v>2272567</v>
+        <v>3396263</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="1">
-        <v>236800017170</v>
+        <v>405056201</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>40801013</v>
+        <v>84005124</v>
       </c>
       <c r="B65" s="1">
-        <v>2375343</v>
+        <v>4096051</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
       </c>
       <c r="D65" s="1">
-        <v>236070193446</v>
+        <v>405051285</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>77169980</v>
+        <v>5183086</v>
       </c>
       <c r="B66" s="1">
-        <v>2680371</v>
+        <v>2841615</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
       </c>
       <c r="D66" s="1">
-        <v>236070196969</v>
+        <v>405033515</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>84026700</v>
+        <v>24473753</v>
       </c>
       <c r="B67" s="1">
-        <v>2378900</v>
+        <v>6503080</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
       </c>
       <c r="D67" s="1">
-        <v>236070244801</v>
+        <v>405750605</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>56097870</v>
+        <v>12543151</v>
       </c>
       <c r="B68" s="1">
-        <v>2149054</v>
+        <v>3612415</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="1">
-        <v>256800011361</v>
+        <v>405056458</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>17805992</v>
+        <v>49741390</v>
       </c>
       <c r="B69" s="1">
-        <v>2452277</v>
+        <v>2223245</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
       </c>
       <c r="D69" s="1">
-        <v>236070213244</v>
+        <v>300072444</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>40916440</v>
+        <v>56056146</v>
       </c>
       <c r="B70" s="1">
-        <v>2730202</v>
+        <v>2645583</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
       </c>
       <c r="D70" s="1">
-        <v>236070069976</v>
+        <v>405065947</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>25786131</v>
+        <v>8748985</v>
       </c>
       <c r="B71" s="1">
-        <v>2102259</v>
+        <v>5370598</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
       </c>
       <c r="D71" s="1">
-        <v>236870015559</v>
+        <v>405031105</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>73098263</v>
+        <v>40797290</v>
       </c>
       <c r="B72" s="1">
-        <v>2491321</v>
+        <v>2564473</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
       </c>
       <c r="D72" s="1">
-        <v>236000132472</v>
+        <v>405085382</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>1065565065</v>
+        <v>40938089</v>
       </c>
       <c r="B73" s="1">
-        <v>2102259</v>
+        <v>1969917</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
       </c>
       <c r="D73" s="1">
-        <v>236000668210</v>
+        <v>405179813</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>84071015</v>
+        <v>8662135</v>
       </c>
       <c r="B74" s="1">
-        <v>2261155</v>
+        <v>5676028</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
       </c>
       <c r="D74" s="1">
-        <v>236070217914</v>
+        <v>405030743</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>84092320</v>
+        <v>17904729</v>
       </c>
       <c r="B75" s="1">
-        <v>1919978</v>
+        <v>2564473</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" s="1">
-        <v>236070218847</v>
+        <v>304002454</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>40944586</v>
+        <v>19082949</v>
       </c>
       <c r="B76" s="1">
-        <v>2144631</v>
+        <v>4521000</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
       </c>
       <c r="D76" s="1">
-        <v>236800012064</v>
+        <v>405056565</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>40925656</v>
+        <v>19591473</v>
       </c>
       <c r="B77" s="1">
-        <v>2550753</v>
+        <v>2328083</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
       </c>
       <c r="D77" s="1">
-        <v>236870005584</v>
+        <v>400120820</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>63543756</v>
+        <v>17855558</v>
       </c>
       <c r="B78" s="1">
-        <v>2356110</v>
+        <v>5436875</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
       </c>
       <c r="D78" s="1">
-        <v>236070203971</v>
+        <v>405029851</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>49762677</v>
+        <v>4509294</v>
       </c>
       <c r="B79" s="1">
-        <v>2839353</v>
+        <v>6577793</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
       </c>
       <c r="D79" s="1">
-        <v>6204549732</v>
+        <v>405030230</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>8702503</v>
+        <v>77017538</v>
       </c>
       <c r="B80" s="1">
-        <v>2571482</v>
+        <v>2851007</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
       </c>
       <c r="D80" s="1">
-        <v>236070189428</v>
+        <v>300314994</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>56075021</v>
+        <v>84085182</v>
       </c>
       <c r="B81" s="1">
-        <v>2214070</v>
+        <v>2113183</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
       </c>
       <c r="D81" s="1">
-        <v>256800034272</v>
+        <v>405179938</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>40933239</v>
+        <v>84032706</v>
       </c>
       <c r="B82" s="1">
-        <v>2847672</v>
+        <v>3015740</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
       </c>
       <c r="D82" s="1">
-        <v>236070196407</v>
+        <v>405055435</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>84029261</v>
+        <v>56057030</v>
       </c>
       <c r="B83" s="1">
-        <v>2471510</v>
+        <v>1969917</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
       </c>
       <c r="D83" s="1">
-        <v>236070159439</v>
+        <v>405180183</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>56074548</v>
+        <v>40789011</v>
       </c>
       <c r="B84" s="1">
-        <v>2090708</v>
+        <v>4192943</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
       </c>
       <c r="D84" s="1">
-        <v>256700012188</v>
+        <v>405126756</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>37864268</v>
+        <v>40932743</v>
       </c>
       <c r="B85" s="1">
-        <v>2578155</v>
+        <v>1969917</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
       </c>
       <c r="D85" s="1">
-        <v>236000678870</v>
+        <v>405179821</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>40939364</v>
+        <v>72134510</v>
       </c>
       <c r="B86" s="1">
-        <v>2568871</v>
+        <v>4721250</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
       </c>
       <c r="D86" s="1">
-        <v>236070217799</v>
+        <v>405056722</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>17848788</v>
+        <v>84033224</v>
       </c>
       <c r="B87" s="1">
-        <v>2551521</v>
+        <v>1969917</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
       </c>
       <c r="D87" s="1">
-        <v>236070167168</v>
+        <v>405179920</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>19289352</v>
+        <v>3717537</v>
       </c>
       <c r="B88" s="1">
-        <v>2542277</v>
+        <v>3225798</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
       </c>
       <c r="D88" s="1">
-        <v>256700008020</v>
+        <v>405056508</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>40912287</v>
+        <v>56073872</v>
       </c>
       <c r="B89" s="1">
-        <v>2423427</v>
+        <v>2686250</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
       </c>
       <c r="D89" s="1">
-        <v>236070122247</v>
+        <v>405070467</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>1118817317</v>
+        <v>26995329</v>
       </c>
       <c r="B90" s="1">
-        <v>2220733</v>
+        <v>3733788</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
       </c>
       <c r="D90" s="1">
-        <v>236000672998</v>
+        <v>405047333</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>40925447</v>
+        <v>84032581</v>
       </c>
       <c r="B91" s="1">
-        <v>2670509</v>
+        <v>2609390</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
       </c>
       <c r="D91" s="1">
-        <v>236070192364</v>
+        <v>405055328</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>17805486</v>
+        <v>12560254</v>
       </c>
       <c r="B92" s="1">
-        <v>2536906</v>
+        <v>2527876</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
       </c>
       <c r="D92" s="1">
-        <v>236070186549</v>
+        <v>405077306</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>40918307</v>
+        <v>8713774</v>
       </c>
       <c r="B93" s="1">
-        <v>2298409</v>
+        <v>3678153</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
       </c>
       <c r="D93" s="1">
-        <v>236070228622</v>
+        <v>405056268</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>40929923</v>
+        <v>5171041</v>
       </c>
       <c r="B94" s="1">
-        <v>2356110</v>
+        <v>2893962</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
       </c>
       <c r="D94" s="1">
-        <v>236070218003</v>
+        <v>405055534</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>45440345</v>
+        <v>84035424</v>
       </c>
       <c r="B95" s="1">
-        <v>2579314</v>
+        <v>2113183</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
       </c>
       <c r="D95" s="1">
-        <v>236870004371</v>
+        <v>405180035</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>5159197</v>
+        <v>73114368</v>
       </c>
       <c r="B96" s="1">
-        <v>3210798</v>
+        <v>2707740</v>
       </c>
       <c r="C96" t="s">
         <v>97</v>
       </c>
       <c r="D96" s="1">
-        <v>256700064858</v>
+        <v>405180001</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>27003218</v>
+        <v>40917736</v>
       </c>
       <c r="B97" s="1">
-        <v>2291878</v>
+        <v>2227797</v>
       </c>
       <c r="C97" t="s">
         <v>98</v>
       </c>
       <c r="D97" s="1">
-        <v>256700003971</v>
+        <v>405180118</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>8532284</v>
+        <v>26964861</v>
       </c>
       <c r="B98" s="1">
-        <v>2243556</v>
+        <v>4593456</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
       </c>
       <c r="D98" s="1">
-        <v>236870011640</v>
+        <v>405030404</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>51560618</v>
+        <v>70070562</v>
       </c>
       <c r="B99" s="1">
-        <v>2877534</v>
+        <v>4444738</v>
       </c>
       <c r="C99" t="s">
         <v>100</v>
       </c>
       <c r="D99" s="1">
-        <v>256800034249</v>
+        <v>405056177</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>55248484</v>
+        <v>84032386</v>
       </c>
       <c r="B100" s="1">
-        <v>1346882</v>
+        <v>2785754</v>
       </c>
       <c r="C100" t="s">
         <v>101</v>
       </c>
       <c r="D100" s="1">
-        <v>236870021243</v>
+        <v>405056375</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>51748053</v>
+        <v>40976795</v>
       </c>
       <c r="B101" s="1">
-        <v>1709613</v>
+        <v>3426630</v>
       </c>
       <c r="C101" t="s">
         <v>102</v>
       </c>
       <c r="D101" s="1">
-        <v>236070222476</v>
+        <v>405030982</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>40978427</v>
+        <v>12712692</v>
       </c>
       <c r="B102" s="1">
-        <v>1096513</v>
+        <v>2389814</v>
       </c>
       <c r="C102" t="s">
         <v>103</v>
       </c>
       <c r="D102" s="1">
-        <v>236870019239</v>
+        <v>405055856</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>1082903902</v>
+        <v>71597186</v>
       </c>
       <c r="B103" s="1">
-        <v>2061759</v>
+        <v>4361958</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
       </c>
       <c r="D103" s="1">
-        <v>0</v>
+        <v>405023334</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>40927309</v>
+        <v>40918605</v>
       </c>
       <c r="B104" s="1">
-        <v>2232530</v>
+        <v>2732812</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
       </c>
       <c r="D104" s="1">
-        <v>236870019726</v>
+        <v>405028515</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>17954528</v>
+        <v>73080431</v>
       </c>
       <c r="B105" s="1">
-        <v>2369273</v>
+        <v>5156067</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
       </c>
       <c r="D105" s="1">
-        <v>236800011785</v>
+        <v>405055898</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>37723525</v>
+        <v>21238226</v>
       </c>
       <c r="B106" s="1">
-        <v>2193975</v>
+        <v>2374645</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="1">
-        <v>236870025863</v>
+        <v>405179854</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>40928757</v>
+        <v>19443502</v>
       </c>
       <c r="B107" s="1">
-        <v>2356700</v>
+        <v>2686250</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
       </c>
       <c r="D107" s="1">
-        <v>236000667303</v>
+        <v>405179862</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>56055080</v>
+        <v>52266796</v>
       </c>
       <c r="B108" s="1">
-        <v>1613565</v>
+        <v>1991407</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
       </c>
       <c r="D108" s="1">
-        <v>256700007345</v>
+        <v>405180019</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>84091745</v>
+        <v>19193790</v>
       </c>
       <c r="B109" s="1">
-        <v>2650877</v>
+        <v>4168314</v>
       </c>
       <c r="C109" t="s">
         <v>110</v>
       </c>
       <c r="D109" s="1">
-        <v>236070253968</v>
+        <v>405031147</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>40924816</v>
+        <v>8534287</v>
       </c>
       <c r="B110" s="1">
-        <v>2591720</v>
+        <v>2072718</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
       </c>
       <c r="D110" s="1">
-        <v>236070238639</v>
+        <v>405044009</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>32607901</v>
+        <v>2760943</v>
       </c>
       <c r="B111" s="1">
-        <v>2168503</v>
+        <v>4754249</v>
       </c>
       <c r="C111" t="s">
         <v>112</v>
       </c>
       <c r="D111" s="1">
-        <v>236070228416</v>
+        <v>405055153</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>45553996</v>
+        <v>17802053</v>
       </c>
       <c r="B112" s="1">
-        <v>2432712</v>
+        <v>9143271</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
       </c>
       <c r="D112" s="1">
-        <v>236070236146</v>
+        <v>405056581</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>39491023</v>
+        <v>9078794</v>
       </c>
       <c r="B113" s="1">
-        <v>2342723</v>
+        <v>2184817</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
       </c>
       <c r="D113" s="1">
-        <v>236870028339</v>
+        <v>405023383</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>17802264</v>
+        <v>36548894</v>
       </c>
       <c r="B114" s="1">
-        <v>2812264</v>
+        <v>3168041</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
       </c>
       <c r="D114" s="1">
-        <v>236070221460</v>
+        <v>405043084</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>72014850</v>
+        <v>12526163</v>
       </c>
       <c r="B115" s="1">
-        <v>2180484</v>
+        <v>2714903</v>
       </c>
       <c r="C115" t="s">
         <v>116</v>
       </c>
       <c r="D115" s="1">
-        <v>236870025673</v>
+        <v>405179797</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>52029926</v>
+        <v>32845456</v>
       </c>
       <c r="B116" s="1">
-        <v>2810827</v>
+        <v>2072517</v>
       </c>
       <c r="C116" t="s">
         <v>117</v>
       </c>
       <c r="D116" s="1">
-        <v>236870015385</v>
+        <v>304002520</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>84092580</v>
+        <v>40927400</v>
       </c>
       <c r="B117" s="1">
-        <v>1817179</v>
+        <v>2113183</v>
       </c>
       <c r="C117" t="s">
         <v>118</v>
       </c>
       <c r="D117" s="1">
-        <v>236800012478</v>
+        <v>405071242</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>64549993</v>
+        <v>17804528</v>
       </c>
       <c r="B118" s="1">
-        <v>2690291</v>
+        <v>2184817</v>
       </c>
       <c r="C118" t="s">
         <v>119</v>
       </c>
       <c r="D118" s="1">
-        <v>236070160668</v>
+        <v>405059528</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>40927027</v>
+        <v>40934523</v>
       </c>
       <c r="B119" s="1">
-        <v>2466702</v>
+        <v>3174544</v>
       </c>
       <c r="C119" t="s">
         <v>120</v>
       </c>
       <c r="D119" s="1">
-        <v>236070236328</v>
+        <v>405104761</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>17958969</v>
+        <v>49720755</v>
       </c>
       <c r="B120" s="1">
-        <v>2090708</v>
+        <v>2134673</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
       </c>
       <c r="D120" s="1">
-        <v>256700010232</v>
+        <v>405180092</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>84078652</v>
+        <v>32683605</v>
       </c>
       <c r="B121" s="1">
-        <v>2771913</v>
+        <v>3267512</v>
       </c>
       <c r="C121" t="s">
         <v>122</v>
       </c>
       <c r="D121" s="1">
-        <v>236070176037</v>
+        <v>405055286</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>40924926</v>
+        <v>42677500</v>
       </c>
       <c r="B122" s="1">
-        <v>2548446</v>
+        <v>5345765</v>
       </c>
       <c r="C122" t="s">
         <v>123</v>
       </c>
       <c r="D122" s="1">
-        <v>236070213699</v>
+        <v>405056219</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>15704097</v>
+        <v>19456447</v>
       </c>
       <c r="B123" s="1">
-        <v>2448622</v>
+        <v>2561471</v>
       </c>
       <c r="C123" t="s">
         <v>124</v>
       </c>
       <c r="D123" s="1">
-        <v>236070220983</v>
+        <v>405753518</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>26985258</v>
+        <v>26962896</v>
       </c>
       <c r="B124" s="1">
-        <v>2841661</v>
+        <v>4266031</v>
       </c>
       <c r="C124" t="s">
         <v>125</v>
       </c>
       <c r="D124" s="1">
-        <v>256700005521</v>
+        <v>405043977</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>56085266</v>
+        <v>84035444</v>
       </c>
       <c r="B125" s="1">
-        <v>2425832</v>
+        <v>2700577</v>
       </c>
       <c r="C125" t="s">
         <v>126</v>
       </c>
       <c r="D125" s="1">
-        <v>236070221312</v>
+        <v>405179946</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>39538146</v>
+        <v>77025705</v>
       </c>
       <c r="B126" s="1">
-        <v>2849162</v>
+        <v>2012897</v>
       </c>
       <c r="C126" t="s">
         <v>127</v>
       </c>
       <c r="D126" s="1">
-        <v>256370002717</v>
+        <v>300125432</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>40923367</v>
+        <v>84039896</v>
       </c>
       <c r="B127" s="1">
-        <v>1361992</v>
+        <v>4751798</v>
       </c>
       <c r="C127" t="s">
         <v>128</v>
       </c>
       <c r="D127" s="1">
-        <v>236870007895</v>
+        <v>405055997</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>84006422</v>
+        <v>49736403</v>
       </c>
       <c r="B128" s="1">
-        <v>2645850</v>
+        <v>2761465</v>
       </c>
       <c r="C128" t="s">
         <v>129</v>
       </c>
       <c r="D128" s="1">
-        <v>256700042631</v>
+        <v>405180076</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>36550740</v>
+        <v>40926822</v>
       </c>
       <c r="B129" s="1">
-        <v>2586913</v>
+        <v>2477487</v>
       </c>
       <c r="C129" t="s">
         <v>130</v>
       </c>
       <c r="D129" s="1">
-        <v>236070225685</v>
+        <v>405772559</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>84103715</v>
+        <v>17807106</v>
       </c>
       <c r="B130" s="1">
-        <v>1161212</v>
+        <v>5034400</v>
       </c>
       <c r="C130" t="s">
         <v>131</v>
       </c>
       <c r="D130" s="1">
-        <v>236070187505</v>
+        <v>405008079</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>40928186</v>
+        <v>49786864</v>
       </c>
       <c r="B131" s="1">
-        <v>2886449</v>
+        <v>1969917</v>
       </c>
       <c r="C131" t="s">
         <v>132</v>
       </c>
       <c r="D131" s="1">
-        <v>236070193842</v>
+        <v>405180209</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>77030133</v>
+        <v>40936413</v>
       </c>
       <c r="B132" s="1">
-        <v>2475067</v>
+        <v>2223245</v>
       </c>
       <c r="C132" t="s">
         <v>133</v>
       </c>
       <c r="D132" s="1">
-        <v>236870034782</v>
+        <v>304002561</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>40944602</v>
+        <v>85455312</v>
       </c>
       <c r="B133" s="1">
-        <v>2110156</v>
+        <v>3925612</v>
       </c>
       <c r="C133" t="s">
         <v>134</v>
       </c>
       <c r="D133" s="1">
-        <v>236800008708</v>
+        <v>405055179</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>12721447</v>
+        <v>84035262</v>
       </c>
       <c r="B134" s="1">
-        <v>3069675</v>
+        <v>2399717</v>
       </c>
       <c r="C134" t="s">
         <v>135</v>
       </c>
       <c r="D134" s="1">
-        <v>256070343361</v>
+        <v>405055187</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>7572198</v>
+        <v>42498983</v>
       </c>
       <c r="B135" s="1">
-        <v>2102259</v>
+        <v>4029548</v>
       </c>
       <c r="C135" t="s">
         <v>136</v>
       </c>
       <c r="D135" s="1">
-        <v>236070225628</v>
+        <v>405046657</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="B136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="A136">
+        <v>40927910</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2385390</v>
+      </c>
+      <c r="C136" t="s">
+        <v>137</v>
+      </c>
+      <c r="D136" s="1">
+        <v>405049958</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>10234384</v>
+      </c>
+      <c r="B137" s="1">
+        <v>2592801</v>
+      </c>
+      <c r="C137" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137" s="1">
+        <v>405044603</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>8278413</v>
+      </c>
+      <c r="B138" s="1">
+        <v>6530066</v>
+      </c>
+      <c r="C138" t="s">
+        <v>139</v>
+      </c>
+      <c r="D138" s="1">
+        <v>405035304</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>4034483</v>
+      </c>
+      <c r="B139" s="1">
+        <v>5155341</v>
+      </c>
+      <c r="C139" t="s">
+        <v>140</v>
+      </c>
+      <c r="D139" s="1">
+        <v>405056094</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>73006038</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1953799</v>
+      </c>
+      <c r="C140" t="s">
+        <v>141</v>
+      </c>
+      <c r="D140" s="1">
+        <v>405180175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>84084238</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2477487</v>
+      </c>
+      <c r="C141" t="s">
+        <v>142</v>
+      </c>
+      <c r="D141" s="1">
+        <v>405089202</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>84091531</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1969917</v>
+      </c>
+      <c r="C142" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142" s="1">
+        <v>405179839</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>17805759</v>
+      </c>
+      <c r="B143" s="1">
+        <v>5794420</v>
+      </c>
+      <c r="C143" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" s="1">
+        <v>405056037</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>10781860</v>
+      </c>
+      <c r="B144" s="1">
+        <v>2034387</v>
+      </c>
+      <c r="C144" t="s">
+        <v>145</v>
+      </c>
+      <c r="D144" s="1">
+        <v>405180159</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>36537160</v>
+      </c>
+      <c r="B145" s="1">
+        <v>4501265</v>
+      </c>
+      <c r="C145" t="s">
+        <v>146</v>
+      </c>
+      <c r="D145" s="1">
+        <v>405753450</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>17855825</v>
+      </c>
+      <c r="B146" s="1">
+        <v>3998630</v>
+      </c>
+      <c r="C146" t="s">
+        <v>147</v>
+      </c>
+      <c r="D146" s="1">
+        <v>405054446</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>7458062</v>
+      </c>
+      <c r="B147" s="1">
+        <v>2927555</v>
+      </c>
+      <c r="C147" t="s">
+        <v>148</v>
+      </c>
+      <c r="D147" s="1">
+        <v>405010976</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>40914811</v>
+      </c>
+      <c r="B148" s="1">
+        <v>5344506</v>
+      </c>
+      <c r="C148" t="s">
+        <v>149</v>
+      </c>
+      <c r="D148" s="1">
+        <v>405056466</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>70120295</v>
+      </c>
+      <c r="B149" s="1">
+        <v>5662449</v>
+      </c>
+      <c r="C149" t="s">
+        <v>150</v>
+      </c>
+      <c r="D149" s="1">
+        <v>405030198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>9307957</v>
+      </c>
+      <c r="B150" s="1">
+        <v>4391037</v>
+      </c>
+      <c r="C150" t="s">
+        <v>151</v>
+      </c>
+      <c r="D150" s="1">
+        <v>405030784</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>17955129</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2542983</v>
+      </c>
+      <c r="C151" t="s">
+        <v>152</v>
+      </c>
+      <c r="D151" s="1">
+        <v>405067109</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>17951142</v>
+      </c>
+      <c r="B152" s="1">
+        <v>4064761</v>
+      </c>
+      <c r="C152" t="s">
+        <v>153</v>
+      </c>
+      <c r="D152" s="1">
+        <v>405056417</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>84035760</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2113183</v>
+      </c>
+      <c r="C153" t="s">
+        <v>154</v>
+      </c>
+      <c r="D153" s="1">
+        <v>405067182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>84079400</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2005733</v>
+      </c>
+      <c r="C154" t="s">
+        <v>155</v>
+      </c>
+      <c r="D154" s="1">
+        <v>405123563</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>84035580</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2542983</v>
+      </c>
+      <c r="C155" t="s">
+        <v>156</v>
+      </c>
+      <c r="D155" s="1">
+        <v>405078791</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>17806498</v>
+      </c>
+      <c r="B156" s="1">
+        <v>3345872</v>
+      </c>
+      <c r="C156" t="s">
+        <v>157</v>
+      </c>
+      <c r="D156" s="1">
+        <v>405055955</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>41693733</v>
+      </c>
+      <c r="B157" s="1">
+        <v>4226746</v>
+      </c>
+      <c r="C157" t="s">
+        <v>158</v>
+      </c>
+      <c r="D157" s="1">
+        <v>405056151</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>17953767</v>
+      </c>
+      <c r="B158" s="1">
+        <v>3129701</v>
+      </c>
+      <c r="C158" t="s">
+        <v>159</v>
+      </c>
+      <c r="D158" s="1">
+        <v>405055120</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>84033035</v>
+      </c>
+      <c r="B159" s="1">
+        <v>2113183</v>
+      </c>
+      <c r="C159" t="s">
+        <v>160</v>
+      </c>
+      <c r="D159" s="1">
+        <v>405061763</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>26982790</v>
+      </c>
+      <c r="B160" s="1">
+        <v>4432484</v>
+      </c>
+      <c r="C160" t="s">
+        <v>161</v>
+      </c>
+      <c r="D160" s="1">
+        <v>405052515</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>32628773</v>
+      </c>
+      <c r="B161" s="1">
+        <v>2113183</v>
+      </c>
+      <c r="C161" t="s">
+        <v>162</v>
+      </c>
+      <c r="D161" s="1">
+        <v>405090432</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>79689715</v>
+      </c>
+      <c r="B162" s="1">
+        <v>3223500</v>
+      </c>
+      <c r="C162" t="s">
+        <v>163</v>
+      </c>
+      <c r="D162" s="1">
+        <v>405179953</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>40920939</v>
+      </c>
+      <c r="B163" s="1">
+        <v>3795347</v>
+      </c>
+      <c r="C163" t="s">
+        <v>164</v>
+      </c>
+      <c r="D163" s="1">
+        <v>405055765</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>27004816</v>
+      </c>
+      <c r="B164" s="1">
+        <v>2113183</v>
+      </c>
+      <c r="C164" t="s">
+        <v>165</v>
+      </c>
+      <c r="D164" s="1">
+        <v>405123522</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>40914803</v>
+      </c>
+      <c r="B165" s="1">
+        <v>2113183</v>
+      </c>
+      <c r="C165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D165" s="1">
+        <v>405083247</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>56085519</v>
+      </c>
+      <c r="B166" s="1">
+        <v>2113183</v>
+      </c>
+      <c r="C166" t="s">
+        <v>167</v>
+      </c>
+      <c r="D166" s="1">
+        <v>304002447</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>6772256</v>
+      </c>
+      <c r="B167" s="1">
+        <v>2557310</v>
+      </c>
+      <c r="C167" t="s">
+        <v>168</v>
+      </c>
+      <c r="D167" s="1">
+        <v>300308194</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>7475678</v>
+      </c>
+      <c r="B168" s="1">
+        <v>5104104</v>
+      </c>
+      <c r="C168" t="s">
+        <v>169</v>
+      </c>
+      <c r="D168" s="1">
+        <v>405009515</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="B169" s="1"/>
+      <c r="D169" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/reportes/pagomes/TotalPlano.xlsx
+++ b/reportes/pagomes/TotalPlano.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="PagoPlanta20141231" sheetId="1" r:id="rId4"/>
+    <sheet name="PagoPlanta20141221" sheetId="1" r:id="rId4"/>
     <sheet name="Worksheet 1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
   <si>
     <t>C</t>
   </si>
@@ -30,33 +30,72 @@
     <t>AARON GONZALVEZ MARLYN ALICIA</t>
   </si>
   <si>
+    <t>AGUILAR BARROS JOSE BERNARDO</t>
+  </si>
+  <si>
+    <t>AGUILAR MEZA ENER MARINA</t>
+  </si>
+  <si>
+    <t>ALARCON MUNEVAR NATHALIE BEATRIZ</t>
+  </si>
+  <si>
     <t>ALFARO CAMARGO CARLOS ALBERTO</t>
   </si>
   <si>
     <t>ALGUERO AMAYA LUIS ROBERTO</t>
   </si>
   <si>
+    <t>ALTURO MENDIGAÑA ADRIANA PATRICIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALVARADO MEJIA MARELIS </t>
   </si>
   <si>
+    <t>ALVAREZ ECHEVERRIA BELINDA ESTHER</t>
+  </si>
+  <si>
     <t xml:space="preserve">AMAYA LOPEZ NICOLAS </t>
   </si>
   <si>
+    <t>AMAYA MENGUAL GILBERTO JOSE</t>
+  </si>
+  <si>
     <t>ARAUJO CONTRERAS VIANEIS DE JESUS</t>
   </si>
   <si>
+    <t xml:space="preserve">ARCINIEGAS GUERRA ARIEL </t>
+  </si>
+  <si>
+    <t>ARISMENDY ROSADO MARTHA R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIZA ARIZA DAVID </t>
+  </si>
+  <si>
     <t>ARIZA DAZA FERNANDO LUIS</t>
   </si>
   <si>
+    <t>ARREGOCES  JUDITH MARIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">AVILA FUENTES HERIBERTO </t>
   </si>
   <si>
+    <t>AVILA FUENTES MARTHA MILAGRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">BARLIZA GONZALEZ CAYETANO </t>
   </si>
   <si>
+    <t>BARLIZA NUÑEZ GLENDIS ISABEL</t>
+  </si>
+  <si>
     <t>BARLIZA NUÑEZ ROSA ISMAIRA</t>
   </si>
   <si>
+    <t>BARRIOS BADILLO WILFRIDO RAFAEL</t>
+  </si>
+  <si>
     <t>BARROS FARFAN YIMI YESID</t>
   </si>
   <si>
@@ -66,15 +105,27 @@
     <t xml:space="preserve">BEDOYA RESTREPO HERNANDO </t>
   </si>
   <si>
+    <t xml:space="preserve">BELAIDES PERALTA CELIA </t>
+  </si>
+  <si>
     <t xml:space="preserve">BELTRAN ALVARADO GONZALO </t>
   </si>
   <si>
+    <t>BELTRAN MARTINEZ GLORIA ISABEL</t>
+  </si>
+  <si>
     <t>BERMUDEZ BUENO WILLIAM RAFAEL</t>
   </si>
   <si>
+    <t>BERMUDEZ PIMIENTA CARLOS MANUEL</t>
+  </si>
+  <si>
     <t>BERMUDEZ VILLAMIZAR ROGER DAVID</t>
   </si>
   <si>
+    <t xml:space="preserve">BERNAL MUÑOZ FELIX </t>
+  </si>
+  <si>
     <t xml:space="preserve">BERRIO CABALLERO HOBBER </t>
   </si>
   <si>
@@ -84,6 +135,12 @@
     <t xml:space="preserve">BONILLA BLANCHAR EDGAR </t>
   </si>
   <si>
+    <t>BONIVENTO EPIAYU AURA AMELIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAVO MENDOZA ARIANNYS </t>
+  </si>
+  <si>
     <t xml:space="preserve">BRITO CARRILLO CLARA </t>
   </si>
   <si>
@@ -96,9 +153,21 @@
     <t xml:space="preserve">BRITO DAZA ALBERTO </t>
   </si>
   <si>
+    <t xml:space="preserve">BRUGES ALARCON NESTOR </t>
+  </si>
+  <si>
     <t xml:space="preserve">BUENO GIRALDO ISIDRO </t>
   </si>
   <si>
+    <t>BUENO PEREZ LUZ ANGELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABALLERO AMADOR JORGE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABRALES BONIVENTO EDWIN </t>
+  </si>
+  <si>
     <t>CABRERA PALACIO RUBEN DARIO</t>
   </si>
   <si>
@@ -114,9 +183,18 @@
     <t xml:space="preserve">CARCAMO BERRIO ORLANDO </t>
   </si>
   <si>
+    <t xml:space="preserve">CARDENAS CARDENAS ALAIN </t>
+  </si>
+  <si>
+    <t>CARDEÑO PORTELA EDWIN JOSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARDEÑO PORTELA NORALBIS </t>
   </si>
   <si>
+    <t>CARRILLO CUJIA VIVIANA MILDRETH</t>
+  </si>
+  <si>
     <t>CASTELLANOS  MARTHA LIGIA</t>
   </si>
   <si>
@@ -132,6 +210,12 @@
     <t>CEBALLOS MACIA MARIA GISELLE</t>
   </si>
   <si>
+    <t>CELEDON MARTINEZ DOGNA MARY</t>
+  </si>
+  <si>
+    <t>CELEDON MOLINARES ALBERTO PLACIDO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHIQUILLO RODELO JUANNYS </t>
   </si>
   <si>
@@ -141,81 +225,204 @@
     <t xml:space="preserve">CHOLES MEJIA FRANKLIN </t>
   </si>
   <si>
+    <t xml:space="preserve">CHOLES MONTENEGRO NAYIDIS </t>
+  </si>
+  <si>
     <t xml:space="preserve">CHOLES QUINTERO PATRICIA </t>
   </si>
   <si>
+    <t>CONSUEGRA TERAN MELISSA PAOLA</t>
+  </si>
+  <si>
+    <t>COTES SIERRA KARELIS BEATRIZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">COTES SPROCKEL GILBERTO </t>
   </si>
   <si>
     <t>CUAN ROJAS MARIA VICTORIA</t>
   </si>
   <si>
+    <t xml:space="preserve">CUELLO DAZA EDITH </t>
+  </si>
+  <si>
     <t xml:space="preserve">CUENTAS FIGUEROA RAFAEL </t>
   </si>
   <si>
     <t xml:space="preserve">CUESTA LOPEZ ROSALBA </t>
   </si>
   <si>
+    <t xml:space="preserve">CURIEL CORREA NEILY </t>
+  </si>
+  <si>
     <t>CURIEL GOMEZ REBECA YANETH</t>
   </si>
   <si>
+    <t>DAZA AVILA RAFAEL GUILLERMO</t>
+  </si>
+  <si>
     <t>DAZA DAZA ALCIDES RAFAEL</t>
   </si>
   <si>
+    <t>DAZA LUQUE JOSE FRANCISCO</t>
+  </si>
+  <si>
+    <t>DAZA MENDOZA JUAN JOSE</t>
+  </si>
+  <si>
     <t>DAZA ORSINI SANDRA MILENA</t>
   </si>
   <si>
     <t>DAZA REINES SAMMY DAVID</t>
   </si>
   <si>
+    <t>DELUQUE ATENCIO DAISY E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELUQUE DIAZ CRISPULO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELUQUE NUÑEZ LISBETH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELUQUE RODRIGUEZ ISIDRO </t>
+  </si>
+  <si>
+    <t>DIAZ BERTY SARA RAQUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAZ ESPITIA NUBIA </t>
+  </si>
+  <si>
+    <t>DIAZ FUENMAYOR KERRY JOHANA</t>
+  </si>
+  <si>
+    <t>DIAZ MENDOZA DIANA CAROLINA</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIAZ RESTREPO ESPERANZA </t>
   </si>
   <si>
     <t>DORIA ARGUMEDO CARLOS JULIO</t>
   </si>
   <si>
+    <t xml:space="preserve">DUARTE PEÑARANDA EDINA </t>
+  </si>
+  <si>
+    <t>ESPINOSA ROMERO ANA PATRICIA</t>
+  </si>
+  <si>
     <t>FAJARDO CUADRADO EIDER RAFAEL</t>
   </si>
   <si>
     <t xml:space="preserve">FAJARDO GOMEZ REMEDIOS </t>
   </si>
   <si>
+    <t>FINOLL ROYS RICARDO ENRIQUE</t>
+  </si>
+  <si>
+    <t>FONSECA GUERRERO JOSE LUIS</t>
+  </si>
+  <si>
+    <t>FONSECA MENDOZA ALMA LUISA</t>
+  </si>
+  <si>
+    <t>FORERO ARREGOCES HERLINDA ISABEL</t>
+  </si>
+  <si>
+    <t>FREYLE PIMIENTA KEILY JOANA</t>
+  </si>
+  <si>
+    <t>FRIAS ACOSTA EDILMA CECILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRIAS PEREZ RAIZA </t>
+  </si>
+  <si>
     <t xml:space="preserve">FUENTES MOLINA NATALIA </t>
   </si>
   <si>
+    <t>FUENTES OROZCO ARINDA DE JESUS</t>
+  </si>
+  <si>
+    <t>FUENTES SANCHEZ LULIA PAULINA</t>
+  </si>
+  <si>
     <t xml:space="preserve">GALINDO MONTERO ANDRES </t>
   </si>
   <si>
+    <t xml:space="preserve">GARCES MORELO DAGOBERTO </t>
+  </si>
+  <si>
     <t xml:space="preserve">GOMEZ BERMUDEZ LORENA </t>
   </si>
   <si>
     <t>GOMEZ JULIO OLENKA VIRGINIA</t>
   </si>
   <si>
+    <t>GOMEZ RAMOS JEINER DE JESUS</t>
+  </si>
+  <si>
     <t>GONZALEZ BERMUDEZ JORGE LUIS</t>
   </si>
   <si>
+    <t xml:space="preserve">GONZALEZ CUESTAS LENIN </t>
+  </si>
+  <si>
     <t xml:space="preserve">GRANADILLO AYALA RAMIRO </t>
   </si>
   <si>
     <t>GRISALES HENAO ROSA MARIA</t>
   </si>
   <si>
+    <t>GUERRA MAESTRE TULIO ENRIQUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">GUERRERO SARMIENTO MARGARITA </t>
   </si>
   <si>
+    <t xml:space="preserve">GUTIERREZ AGUILAR HUGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUTIERREZ MONROY ELVIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUTIERREZ PACHECO JACQUELIN </t>
+  </si>
+  <si>
     <t>GUTIERREZ RAMIREZ GAIL ALBERTO</t>
   </si>
   <si>
+    <t>GUTIERREZ SUAREZ EDUARDO ENRIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUZMAN VALDEBLANQUEZ FRANKLIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERNANDEZ DELUQUE RICARDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRERA ARRIOLA INES </t>
+  </si>
+  <si>
     <t xml:space="preserve">HERRERA RIAÑO JORGE </t>
   </si>
   <si>
+    <t xml:space="preserve">HINOJOSA GUTIERREZ LADIMIRO </t>
+  </si>
+  <si>
     <t>HOYOS BENITEZ MARIO EDGAR</t>
   </si>
   <si>
     <t>HOYOS SALGADO JULIO MIGUEL</t>
   </si>
   <si>
+    <t>IBAÑEZ ROSALES SOL MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBARRA IGUARAN TEOLINDA </t>
+  </si>
+  <si>
     <t xml:space="preserve">IGUARAN MANJARREZ VICTOR </t>
   </si>
   <si>
@@ -225,6 +432,9 @@
     <t>JARAMILLO ACOSTA MARTHA CECILIA</t>
   </si>
   <si>
+    <t>JARAMILLO MENGUAL ROSA MARIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">JIMENEZ BELEÑO ANDRES </t>
   </si>
   <si>
@@ -237,24 +447,78 @@
     <t xml:space="preserve">JIMENEZ RUIZ CARLOS </t>
   </si>
   <si>
+    <t>JOIRO PACHECO YOLEIDA MARIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">KAMMERER DAVID MARTHA </t>
   </si>
   <si>
     <t>LADEUTH OSPINO YELENIS MARIA</t>
   </si>
   <si>
+    <t>LEMOS RUIZ CECILIA CONSTANZA</t>
+  </si>
+  <si>
     <t xml:space="preserve">LEON TEJADA PEDRO </t>
   </si>
   <si>
+    <t xml:space="preserve">LEON VANEGAS MARITZA </t>
+  </si>
+  <si>
+    <t>LINDO OÑATE OSCAR JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ ATENCIO ADAULFO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ CORREA JUDITH </t>
+  </si>
+  <si>
+    <t>LOPEZ CORREA VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>LOPEZ FUENTES EDUIN JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ HERNANDEZ RICARDO </t>
+  </si>
+  <si>
     <t>LOPEZ JUVINAO DANNY DANIEL</t>
   </si>
   <si>
+    <t xml:space="preserve">LOPEZ RIVADENEIRA CLEIRYS </t>
+  </si>
+  <si>
+    <t>MACHADO CANTILLO ANA BEATRIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAESTRE DAZA BERONICA </t>
+  </si>
+  <si>
+    <t>MAGDANIEL AMAYA OLARYS JUDITH</t>
+  </si>
+  <si>
+    <t>MAGDANIEL HERNANDEZ LIRINA PATRICIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGDANIEL PABON OLARIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGDANIEL PALACIO RAQUEL </t>
+  </si>
+  <si>
+    <t>MANJARREZ BRITO MARYORI TARYN</t>
+  </si>
+  <si>
     <t>MARTINEZ CARDONA JOSE CLEMENTE</t>
   </si>
   <si>
     <t>MARTINEZ GIL JOSE MANUEL</t>
   </si>
   <si>
+    <t xml:space="preserve">MARTINEZ GOMEZ TATIANA </t>
+  </si>
+  <si>
     <t xml:space="preserve">MARTINEZ PINEDO HENITHZO </t>
   </si>
   <si>
@@ -264,15 +528,39 @@
     <t>MAYA PABON RAUL ENRIQUE</t>
   </si>
   <si>
+    <t>MEDINA BRITO LUZ LEIDIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDINA DE FUENTES MARTHA </t>
+  </si>
+  <si>
     <t xml:space="preserve">MEDINA PALENCIA YEISON </t>
   </si>
   <si>
+    <t xml:space="preserve">MEDINA SIERRA ALTAGRACIA </t>
+  </si>
+  <si>
+    <t>MEJIA ACOSTA RAUL DAVID</t>
+  </si>
+  <si>
     <t>MEJIA CABALLERO JOSE MARIA</t>
   </si>
   <si>
+    <t>MEJIA CANTILLO MILADIS MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJIA CURIEL EROTIDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJIA DE LA CRUZ ELIAS </t>
+  </si>
+  <si>
     <t xml:space="preserve">MEJIA GONZALEZ LORELEY </t>
   </si>
   <si>
+    <t xml:space="preserve">MEJIA JIMENEZ MILITZA </t>
+  </si>
+  <si>
     <t xml:space="preserve">MEJIA MENDOZA OLGA </t>
   </si>
   <si>
@@ -294,27 +582,63 @@
     <t>MENDOZA FERNANDEZ DARCY LUZ</t>
   </si>
   <si>
+    <t>MENDOZA PEÑARANDA MARBELIA ROSA</t>
+  </si>
+  <si>
+    <t>MENGUAL MEZA MARINELA MORELIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERCADO ROCHA CELIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERCADO VILLADIEGO ALEXANDER </t>
+  </si>
+  <si>
     <t>MERIÑO MENDOZA DIBER ENRIQUE</t>
   </si>
   <si>
     <t>MOLINA BOLIVAR GEOMAR ENRIQUE</t>
   </si>
   <si>
+    <t>MOLINA VEGA ALFETT JOSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOLINARES RAFAEL DANILO </t>
   </si>
   <si>
+    <t>MONTAÑO MARIMON DIANA ROSA</t>
+  </si>
+  <si>
     <t>MONTERO MONTERO MANUEL GERMAN</t>
   </si>
   <si>
     <t>MORALES BUSTAMANTE JOSE GREGORIO</t>
   </si>
   <si>
+    <t>MORALES MENGUAL LUIS CARLOS</t>
+  </si>
+  <si>
+    <t>MORENO FERNANDEZ MALKA IRINA</t>
+  </si>
+  <si>
     <t>MOYA CAMACHO FABIO ORLANDO</t>
   </si>
   <si>
+    <t>MUÑIZ RODRIGUEZ ROSA VIRGINIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MUÑOZ ROJAS DELVIS </t>
   </si>
   <si>
+    <t xml:space="preserve">NATERA ESTRADA ANGEL </t>
+  </si>
+  <si>
+    <t>NUÑEZ VARGAS JULIA ROSA</t>
+  </si>
+  <si>
+    <t>OCHOA GARCIA ETILVIA ALICIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">OCHOA ROMERO CLARIBEL </t>
   </si>
   <si>
@@ -324,6 +648,9 @@
     <t>OJEDA CAMARGO EDGAR ENRIQUE</t>
   </si>
   <si>
+    <t xml:space="preserve">OLIVEROS RICHOL JAQUELIN </t>
+  </si>
+  <si>
     <t>OÑATE DIAZ GLENIA MERCEDES</t>
   </si>
   <si>
@@ -339,18 +666,39 @@
     <t xml:space="preserve">OSPINO MERIÑO ISIDORO </t>
   </si>
   <si>
+    <t xml:space="preserve">PALACIO PIMIENTA DILODIS </t>
+  </si>
+  <si>
+    <t>PALMEZANO IBARRA YAIRINA IDELKA</t>
+  </si>
+  <si>
+    <t>PANCIERA DI ZOPOLA MARTINEZ MIGUEL J.</t>
+  </si>
+  <si>
     <t xml:space="preserve">PARRA  YOLANDA </t>
   </si>
   <si>
+    <t>PEDRAZA FERNANDEZ MELY LINDON</t>
+  </si>
+  <si>
     <t>PEDRAZA REYES CARLOS JULIO</t>
   </si>
   <si>
     <t>PEÑA CORTES LUISA FERNANDA</t>
   </si>
   <si>
+    <t>PEÑALVER VANEGAS CASTA GLORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERALTA SOLANO GUILLERMO </t>
+  </si>
+  <si>
     <t>PEREZ CAMARGO CLIMACO ALBERTO</t>
   </si>
   <si>
+    <t>PEREZ GAMEZ BORYS DE JESUS</t>
+  </si>
+  <si>
     <t>PEREZ JIMENEZ RONALD ANTONIO</t>
   </si>
   <si>
@@ -366,22 +714,46 @@
     <t>PIMIENTA PRIETO MARIA MARGARITA</t>
   </si>
   <si>
+    <t>PINEDO GUERRA VICTOR MIGUEL</t>
+  </si>
+  <si>
+    <t>PINEDO VANEGAS AIRADIN ALONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINEDO VANEGAS DOMINGA </t>
+  </si>
+  <si>
+    <t>PINTO ANDRADE JOSE ALFONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINTO ARAGON ELVIS </t>
+  </si>
+  <si>
+    <t>PINTO COTES LAURA RITA</t>
+  </si>
+  <si>
+    <t>PINTO MENDOZA YAISY ROSA</t>
+  </si>
+  <si>
     <t>PINTO MINDIOLA LACIDES RAFAEL</t>
   </si>
   <si>
     <t>PINTO SANTOS ALBA RUTH</t>
   </si>
   <si>
+    <t>PITRE REDONDO MIGUEL FRANCISCO</t>
+  </si>
+  <si>
     <t>PITRE REDONDO REMEDIOS CATALINA</t>
   </si>
   <si>
-    <t>PITRE REDONDO MIGUEL FRANCISCO</t>
+    <t>PITRE RUIZ LEANETH RAFAELINA</t>
   </si>
   <si>
     <t xml:space="preserve">PITRE RUIZ LEANIS </t>
   </si>
   <si>
-    <t>PITRE RUIZ LEANETH RAFAELINA</t>
+    <t xml:space="preserve">POLO PERALTA JESUS </t>
   </si>
   <si>
     <t xml:space="preserve">POMARICO PIMIENTA PILAR </t>
@@ -396,9 +768,15 @@
     <t xml:space="preserve">QUINTERO BUENO ATENAIDA </t>
   </si>
   <si>
+    <t xml:space="preserve">QUINTERO FUENTES NARLY </t>
+  </si>
+  <si>
     <t>QUINTERO MENDOZA JAIDER JOSE</t>
   </si>
   <si>
+    <t xml:space="preserve">RAIGOZA ACUÑA YANETH </t>
+  </si>
+  <si>
     <t xml:space="preserve">RAMIREZ AYALA ANDERSON </t>
   </si>
   <si>
@@ -408,18 +786,39 @@
     <t>RANGEL LUQUEZ OLIVIA ISABEL</t>
   </si>
   <si>
+    <t xml:space="preserve">REDONDO CHOLES MONICA </t>
+  </si>
+  <si>
     <t>REDONDO SALAS DANNY DEXI</t>
   </si>
   <si>
+    <t>RICCIULLI PEREZ YESLITH VANESSA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROBLES BRITO DANIEL </t>
   </si>
   <si>
     <t>ROBLES CAMARGO NILKA RIQUENA</t>
   </si>
   <si>
+    <t>ROBLES JULIO CARLOS ARTURO</t>
+  </si>
+  <si>
+    <t>ROBLES RIVEIRA HERMES ORLANDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ ACOSTA SAMUEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ CASTRO FREDY </t>
+  </si>
+  <si>
     <t>RODRIGUEZ LOPEZ CIELO MARGARITA</t>
   </si>
   <si>
+    <t>RODRIGUEZ RIVERA MARIA EUGENIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROJANO ALVARADO ROBERTO </t>
   </si>
   <si>
@@ -432,21 +831,33 @@
     <t xml:space="preserve">ROMERO CUELLO SANDY </t>
   </si>
   <si>
+    <t>ROMERO MORA BORIS SANDY</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROSADO BOTELLO JHONNY </t>
   </si>
   <si>
+    <t>ROSADO CASTAÑEDA ENEIDA LUZ</t>
+  </si>
+  <si>
     <t>ROSADO VEGA JAIRO RAFAEL</t>
   </si>
   <si>
     <t xml:space="preserve">ROSERO DE LA CRUZ AGUSTIN </t>
   </si>
   <si>
+    <t>ROYS COTES EMA ROSA</t>
+  </si>
+  <si>
     <t>RUIZ TORO DANIS EDUARDO</t>
   </si>
   <si>
     <t xml:space="preserve">SALAZAR ARGEL ALEXIS </t>
   </si>
   <si>
+    <t xml:space="preserve">SALAZAR GARCIA MIRIAM </t>
+  </si>
+  <si>
     <t xml:space="preserve">SALCEDO ANDRADE JAIR </t>
   </si>
   <si>
@@ -462,18 +873,30 @@
     <t>SANCHEZ GONZALEZ JOSE ANTONIO</t>
   </si>
   <si>
+    <t>SANCHEZ PARDO FELIX RAMIRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">SANCHEZ RAMIREZ ABIMAEL </t>
   </si>
   <si>
     <t xml:space="preserve">SANCHEZ ROYS DEUSENITH </t>
   </si>
   <si>
+    <t>SANCHEZ ROYS RUSDEN LENIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">SANTIS AGUAS EVELIO </t>
   </si>
   <si>
     <t xml:space="preserve">SANTOS MORENO EDILBERTO </t>
   </si>
   <si>
+    <t xml:space="preserve">SIERRA MEZA EUCADIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIERRA MONTALVO ARIANNA </t>
+  </si>
+  <si>
     <t>SIERRA TONCEL JUAN CARLOS</t>
   </si>
   <si>
@@ -483,15 +906,24 @@
     <t>SOCARRAS BERTIZ CARLOS ALBERTO</t>
   </si>
   <si>
+    <t>SOLANO ARIÑO VIVIAN ELIANA</t>
+  </si>
+  <si>
     <t>SOTO PEROZA VICTOR SEGUNDO</t>
   </si>
   <si>
+    <t xml:space="preserve">SPROKEL BROCHERO RAFAEL </t>
+  </si>
+  <si>
     <t>SUAREZ BARROS HORACIO BIENVENIDO</t>
   </si>
   <si>
     <t xml:space="preserve">TAYLOR HENRIQUEZ SIDNEY </t>
   </si>
   <si>
+    <t xml:space="preserve">TIRADO MARTINEZ DAMARIS </t>
+  </si>
+  <si>
     <t xml:space="preserve">TOBAR ORTIZ NUBIA </t>
   </si>
   <si>
@@ -501,31 +933,79 @@
     <t xml:space="preserve">TORRES BRUGES WILMER </t>
   </si>
   <si>
+    <t xml:space="preserve">TORRES SALAZAR MILENIS </t>
+  </si>
+  <si>
+    <t>TOVAR TORO GRIZZLY DAYHANA</t>
+  </si>
+  <si>
     <t xml:space="preserve">UCROS BRITO MARLENIS </t>
   </si>
   <si>
     <t>URUETA BLANCO ZOILA MARIA</t>
   </si>
   <si>
+    <t xml:space="preserve">VALDIVIESO CLAVIJO GIOVANNY </t>
+  </si>
+  <si>
     <t xml:space="preserve">VALERO VALERO NELSON </t>
   </si>
   <si>
+    <t>VANEGAS PEREZ PAOLA ANDREA</t>
+  </si>
+  <si>
     <t xml:space="preserve">VANEGAS SPROCKEL BELKIS </t>
   </si>
   <si>
+    <t>VARGAS ESCORCIA JOSE JORGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARGAS MUÑOZ LEDYS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASQUEZ MENDOZA MARIBETH </t>
+  </si>
+  <si>
+    <t>VASQUEZ SANCHEZ ELIS BEATRIZ</t>
+  </si>
+  <si>
+    <t>VEGA GAMEZ YAMIRA ISABEL</t>
+  </si>
+  <si>
     <t>VEGA MENDOZA YOLEIDA MARIA</t>
   </si>
   <si>
     <t xml:space="preserve">VIDAL DURAN BETSY </t>
   </si>
   <si>
+    <t>VIDAL GOMEZ AMPARO CAROLINA</t>
+  </si>
+  <si>
     <t xml:space="preserve">VIDAL JAIDITH ENETH </t>
   </si>
   <si>
+    <t>VIECCO RIVADENEIRA LUIS RAFAEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">VILLA AMAYA ERNELL </t>
   </si>
   <si>
+    <t>YAGUNA GUERRA MARIA ESTHER</t>
+  </si>
+  <si>
+    <t>ZABALETA MONTERO SOLEDAD MARINA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZAMBRANO ROJAS SAMUEL </t>
+  </si>
+  <si>
+    <t>ZAMORA CORTES LOIDA PATRICIA</t>
+  </si>
+  <si>
+    <t>ZUBIRIA VIECCO JAIRO EMILIO</t>
+  </si>
+  <si>
+    <t>ZULETA PEREZ MILVIA JOSE</t>
   </si>
 </sst>
 </file>
@@ -869,7 +1349,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2"/>
@@ -902,7 +1382,7 @@
         <v>40918469</v>
       </c>
       <c r="B2" s="1">
-        <v>4367941</v>
+        <v>6595746</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -913,2331 +1393,4571 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>84071030</v>
+        <v>84039816</v>
       </c>
       <c r="B3" s="1">
-        <v>2057444</v>
+        <v>1187680</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>304002546</v>
+        <v>405048687</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>13348956</v>
+        <v>40939700</v>
       </c>
       <c r="B4" s="1">
-        <v>4102597</v>
+        <v>3743388</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>405055948</v>
+        <v>405179284</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>40921929</v>
+        <v>40939978</v>
       </c>
       <c r="B5" s="1">
-        <v>2739975</v>
+        <v>1556071</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>405180050</v>
+        <v>405149600</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>84026931</v>
+        <v>84071030</v>
       </c>
       <c r="B6" s="1">
-        <v>2184817</v>
+        <v>2717796</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>405002007</v>
+        <v>304002546</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>50892018</v>
+        <v>13348956</v>
       </c>
       <c r="B7" s="1">
-        <v>2199143</v>
+        <v>6184115</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>405769027</v>
+        <v>405055948</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>5163377</v>
+        <v>40936721</v>
       </c>
       <c r="B8" s="1">
-        <v>2643777</v>
+        <v>549460</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>405044470</v>
+        <v>405182627</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>5163080</v>
+        <v>40921929</v>
       </c>
       <c r="B9" s="1">
-        <v>4402795</v>
+        <v>3653299</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>405044595</v>
+        <v>405180050</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>73077183</v>
+        <v>40916739</v>
       </c>
       <c r="B10" s="1">
-        <v>4806703</v>
+        <v>3896425</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>405056052</v>
+        <v>405056011</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>40931268</v>
+        <v>84026931</v>
       </c>
       <c r="B11" s="1">
-        <v>1959816</v>
+        <v>2913089</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>405179870</v>
+        <v>405002007</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>84101451</v>
+        <v>8701267</v>
       </c>
       <c r="B12" s="1">
-        <v>2113183</v>
+        <v>1120501</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>300211059</v>
+        <v>405030826</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>77033581</v>
+        <v>50892018</v>
       </c>
       <c r="B13" s="1">
-        <v>2880663</v>
+        <v>2932191</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>405179961</v>
+        <v>405769027</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>19092691</v>
+        <v>17952855</v>
       </c>
       <c r="B14" s="1">
-        <v>5622642</v>
+        <v>2722895</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1">
-        <v>405031378</v>
+        <v>405030388</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>19461331</v>
+        <v>26965887</v>
       </c>
       <c r="B15" s="1">
-        <v>2837235</v>
+        <v>2722895</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>405056433</v>
+        <v>405044371</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>17807444</v>
+        <v>72042242</v>
       </c>
       <c r="B16" s="1">
-        <v>4709740</v>
+        <v>986296</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>405056441</v>
+        <v>405055468</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>84029482</v>
+        <v>5163377</v>
       </c>
       <c r="B17" s="1">
-        <v>1367981</v>
+        <v>3992389</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="1">
-        <v>405750373</v>
+        <v>405044470</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>84039854</v>
+        <v>42493216</v>
       </c>
       <c r="B18" s="1">
-        <v>2134673</v>
+        <v>663829</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="1">
-        <v>304002421</v>
+        <v>405055740</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>92508149</v>
+        <v>5163080</v>
       </c>
       <c r="B19" s="1">
-        <v>4404159</v>
+        <v>6648368</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>405030990</v>
+        <v>405044595</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>84036737</v>
+        <v>27004224</v>
       </c>
       <c r="B20" s="1">
-        <v>3063668</v>
+        <v>4204786</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="1">
-        <v>405045949</v>
+        <v>405056383</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>37314692</v>
+        <v>73077183</v>
       </c>
       <c r="B21" s="1">
-        <v>2125648</v>
+        <v>7258527</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="1">
-        <v>405056912</v>
+        <v>405056052</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>26963364</v>
+        <v>40928682</v>
       </c>
       <c r="B22" s="1">
-        <v>4113159</v>
+        <v>2117601</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="1">
-        <v>405753161</v>
+        <v>405048505</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>19496929</v>
+        <v>40931268</v>
       </c>
       <c r="B23" s="1">
-        <v>2184817</v>
+        <v>2613088</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="1">
-        <v>405754847</v>
+        <v>405179870</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>6757157</v>
+        <v>17805887</v>
       </c>
       <c r="B24" s="1">
-        <v>4523204</v>
+        <v>1977989</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>405750522</v>
+        <v>405753203</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>12540363</v>
+        <v>84101451</v>
       </c>
       <c r="B25" s="1">
-        <v>2113183</v>
+        <v>2817578</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="1">
-        <v>405056003</v>
+        <v>300211059</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>72150467</v>
+        <v>77033581</v>
       </c>
       <c r="B26" s="1">
-        <v>2072517</v>
+        <v>3840883</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="1">
-        <v>405066481</v>
+        <v>405179961</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>56090201</v>
+        <v>19092691</v>
       </c>
       <c r="B27" s="1">
-        <v>1969917</v>
+        <v>8482598</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="1">
-        <v>405182403</v>
+        <v>405031378</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>36551115</v>
+        <v>40933413</v>
       </c>
       <c r="B28" s="1">
-        <v>2113183</v>
+        <v>1556071</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="1">
-        <v>405055989</v>
+        <v>405157488</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>76269701</v>
+        <v>19461331</v>
       </c>
       <c r="B29" s="1">
-        <v>4766440</v>
+        <v>4284740</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="1">
-        <v>405055732</v>
+        <v>405056433</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>84046064</v>
+        <v>35463698</v>
       </c>
       <c r="B30" s="1">
-        <v>2266049</v>
+        <v>4262540</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="1">
-        <v>405031063</v>
+        <v>405055823</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>32689739</v>
+        <v>17807444</v>
       </c>
       <c r="B31" s="1">
-        <v>2585963</v>
+        <v>7113771</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="1">
-        <v>405063934</v>
+        <v>405056441</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>31920603</v>
+        <v>84079431</v>
       </c>
       <c r="B32" s="1">
-        <v>6737511</v>
+        <v>1556071</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="1">
-        <v>405031782</v>
+        <v>405090531</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>92510967</v>
+        <v>84029482</v>
       </c>
       <c r="B33" s="1">
-        <v>5808559</v>
+        <v>1823975</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="1">
-        <v>405031071</v>
+        <v>405750373</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>40922440</v>
+        <v>6882304</v>
       </c>
       <c r="B34" s="1">
-        <v>2220633</v>
+        <v>1187680</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="1">
-        <v>405071051</v>
+        <v>405031261</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>92511328</v>
+        <v>84039854</v>
       </c>
       <c r="B35" s="1">
-        <v>4742562</v>
+        <v>2846231</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="1">
-        <v>405031121</v>
+        <v>304002421</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>51828780</v>
+        <v>92508149</v>
       </c>
       <c r="B36" s="1">
-        <v>3522972</v>
+        <v>6650427</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="1">
-        <v>405044462</v>
+        <v>405030990</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>32741890</v>
+        <v>84036737</v>
       </c>
       <c r="B37" s="1">
-        <v>2113183</v>
+        <v>4049634</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="1">
-        <v>405057506</v>
+        <v>405045949</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>40919494</v>
+        <v>40912637</v>
       </c>
       <c r="B38" s="1">
-        <v>4432294</v>
+        <v>1935971</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="1">
-        <v>405055500</v>
+        <v>405055666</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>84042850</v>
+        <v>40942508</v>
       </c>
       <c r="B39" s="1">
-        <v>3552179</v>
+        <v>1556071</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="1">
-        <v>405053075</v>
+        <v>405102203</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>40976770</v>
+        <v>37314692</v>
       </c>
       <c r="B40" s="1">
-        <v>4673429</v>
+        <v>2834197</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="1">
-        <v>405056532</v>
+        <v>405056912</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>84081588</v>
+        <v>26963364</v>
       </c>
       <c r="B41" s="1">
-        <v>2113183</v>
+        <v>6211074</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="1">
-        <v>405126962</v>
+        <v>405753161</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>40919704</v>
+        <v>19496929</v>
       </c>
       <c r="B42" s="1">
-        <v>2223245</v>
+        <v>2913089</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="1">
-        <v>405000548</v>
+        <v>405754847</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>7449339</v>
+        <v>6757157</v>
       </c>
       <c r="B43" s="1">
-        <v>5229450</v>
+        <v>6830165</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="1">
-        <v>405007931</v>
+        <v>405750522</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>33142746</v>
+        <v>17802680</v>
       </c>
       <c r="B44" s="1">
-        <v>7083471</v>
+        <v>1187680</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="1">
-        <v>405049156</v>
+        <v>405056276</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>40922614</v>
+        <v>12540363</v>
       </c>
       <c r="B45" s="1">
-        <v>2298610</v>
+        <v>2817578</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="1">
-        <v>405049230</v>
+        <v>405056003</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>84088120</v>
+        <v>40927768</v>
       </c>
       <c r="B46" s="1">
-        <v>1998570</v>
+        <v>549460</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="1">
-        <v>405125113</v>
+        <v>405166901</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>49791756</v>
+        <v>9070606</v>
       </c>
       <c r="B47" s="1">
-        <v>1969917</v>
+        <v>2078263</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
       <c r="D47" s="1">
-        <v>405179805</v>
+        <v>405056250</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>17973791</v>
+        <v>84084156</v>
       </c>
       <c r="B48" s="1">
-        <v>2088541</v>
+        <v>4352661</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="1">
-        <v>405770348</v>
+        <v>405140187</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>45445337</v>
+        <v>72150467</v>
       </c>
       <c r="B49" s="1">
-        <v>3959262</v>
+        <v>2737706</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="1">
-        <v>405055815</v>
+        <v>405066481</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>10893959</v>
+        <v>56090201</v>
       </c>
       <c r="B50" s="1">
-        <v>2949889</v>
+        <v>1641598</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="1">
-        <v>405055351</v>
+        <v>405182403</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>84026792</v>
+        <v>36551115</v>
       </c>
       <c r="B51" s="1">
-        <v>2302853</v>
+        <v>2817578</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51" s="1">
-        <v>405044306</v>
+        <v>405055989</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>40792159</v>
+        <v>76269701</v>
       </c>
       <c r="B52" s="1">
-        <v>3167477</v>
+        <v>7197403</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
       </c>
       <c r="D52" s="1">
-        <v>405044611</v>
+        <v>405055732</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>56078338</v>
+        <v>84046064</v>
       </c>
       <c r="B53" s="1">
-        <v>2199143</v>
+        <v>3421943</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
       </c>
       <c r="D53" s="1">
-        <v>405180191</v>
+        <v>405031063</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>77034749</v>
+        <v>84087841</v>
       </c>
       <c r="B54" s="1">
-        <v>3902342</v>
+        <v>3441204</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="1">
-        <v>405020199</v>
+        <v>405164898</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>40917947</v>
+        <v>84033855</v>
       </c>
       <c r="B55" s="1">
-        <v>2220633</v>
+        <v>5161807</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="1">
-        <v>405060070</v>
+        <v>405137076</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>32785368</v>
+        <v>32689739</v>
       </c>
       <c r="B56" s="1">
-        <v>2698039</v>
+        <v>3447951</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="1">
-        <v>405081514</v>
+        <v>405063934</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>12544915</v>
+        <v>1123998385</v>
       </c>
       <c r="B57" s="1">
-        <v>3200688</v>
+        <v>3301562</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="1">
-        <v>405046723</v>
+        <v>405140229</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>5158707</v>
+        <v>31920603</v>
       </c>
       <c r="B58" s="1">
-        <v>3754660</v>
+        <v>10064158</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
       </c>
       <c r="D58" s="1">
-        <v>405056540</v>
+        <v>405031782</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>24545047</v>
+        <v>92510967</v>
       </c>
       <c r="B59" s="1">
-        <v>3436786</v>
+        <v>8744078</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="1">
-        <v>405043985</v>
+        <v>405031071</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>57412938</v>
+        <v>40922440</v>
       </c>
       <c r="B60" s="1">
-        <v>3984875</v>
+        <v>2960845</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
       </c>
       <c r="D60" s="1">
-        <v>405056557</v>
+        <v>405071051</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>77172086</v>
+        <v>92511328</v>
       </c>
       <c r="B61" s="1">
-        <v>3022927</v>
+        <v>7171178</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
       </c>
       <c r="D61" s="1">
-        <v>300125341</v>
+        <v>405031121</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>7456239</v>
+        <v>51828780</v>
       </c>
       <c r="B62" s="1">
-        <v>1987942</v>
+        <v>5320002</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
       </c>
       <c r="D62" s="1">
-        <v>405055872</v>
+        <v>405044462</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>19225173</v>
+        <v>40926769</v>
       </c>
       <c r="B63" s="1">
-        <v>7408422</v>
+        <v>1556071</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" s="1">
-        <v>405041542</v>
+        <v>405139726</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>15039137</v>
+        <v>12538766</v>
       </c>
       <c r="B64" s="1">
-        <v>3396263</v>
+        <v>7061980</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="1">
-        <v>405056201</v>
+        <v>405049776</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>84005124</v>
+        <v>32741890</v>
       </c>
       <c r="B65" s="1">
-        <v>4096051</v>
+        <v>2817578</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
       </c>
       <c r="D65" s="1">
-        <v>405051285</v>
+        <v>405057506</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>5183086</v>
+        <v>40919494</v>
       </c>
       <c r="B66" s="1">
-        <v>2841615</v>
+        <v>6692906</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
       </c>
       <c r="D66" s="1">
-        <v>405033515</v>
+        <v>405055500</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>24473753</v>
+        <v>84042850</v>
       </c>
       <c r="B67" s="1">
-        <v>6503080</v>
+        <v>5364170</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
       </c>
       <c r="D67" s="1">
-        <v>405750605</v>
+        <v>405053075</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>12543151</v>
+        <v>40924433</v>
       </c>
       <c r="B68" s="1">
-        <v>3612415</v>
+        <v>3281660</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="1">
-        <v>405056458</v>
+        <v>405044587</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>49741390</v>
+        <v>40976770</v>
       </c>
       <c r="B69" s="1">
-        <v>2223245</v>
+        <v>7056974</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
       </c>
       <c r="D69" s="1">
-        <v>300072444</v>
+        <v>405056532</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>56056146</v>
+        <v>1129577145</v>
       </c>
       <c r="B70" s="1">
-        <v>2645583</v>
+        <v>4195626</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
       </c>
       <c r="D70" s="1">
-        <v>405065947</v>
+        <v>405176868</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>8748985</v>
+        <v>40926534</v>
       </c>
       <c r="B71" s="1">
-        <v>5370598</v>
+        <v>4384321</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
       </c>
       <c r="D71" s="1">
-        <v>405031105</v>
+        <v>405076225</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>40797290</v>
+        <v>84081588</v>
       </c>
       <c r="B72" s="1">
-        <v>2564473</v>
+        <v>2817578</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
       </c>
       <c r="D72" s="1">
-        <v>405085382</v>
+        <v>405126962</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>40938089</v>
+        <v>40919704</v>
       </c>
       <c r="B73" s="1">
-        <v>1969917</v>
+        <v>2936811</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
       </c>
       <c r="D73" s="1">
-        <v>405179813</v>
+        <v>405000548</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>8662135</v>
+        <v>27002170</v>
       </c>
       <c r="B74" s="1">
-        <v>5676028</v>
+        <v>4353133</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
       </c>
       <c r="D74" s="1">
-        <v>405030743</v>
+        <v>405059247</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>17904729</v>
+        <v>7449339</v>
       </c>
       <c r="B75" s="1">
-        <v>2564473</v>
+        <v>7896796</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" s="1">
-        <v>304002454</v>
+        <v>405007931</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>19082949</v>
+        <v>33142746</v>
       </c>
       <c r="B76" s="1">
-        <v>4521000</v>
+        <v>10557803</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
       </c>
       <c r="D76" s="1">
-        <v>405056565</v>
+        <v>405049156</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>19591473</v>
+        <v>40916635</v>
       </c>
       <c r="B77" s="1">
-        <v>2328083</v>
+        <v>181664</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
       </c>
       <c r="D77" s="1">
-        <v>400120820</v>
+        <v>405031014</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>17855558</v>
+        <v>40922614</v>
       </c>
       <c r="B78" s="1">
-        <v>5436875</v>
+        <v>3036365</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
       </c>
       <c r="D78" s="1">
-        <v>405029851</v>
+        <v>405049230</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>4509294</v>
+        <v>84033345</v>
       </c>
       <c r="B79" s="1">
-        <v>6577793</v>
+        <v>3281660</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
       </c>
       <c r="D79" s="1">
-        <v>405030230</v>
+        <v>405031352</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>77017538</v>
+        <v>84088120</v>
       </c>
       <c r="B80" s="1">
-        <v>2851007</v>
+        <v>2664761</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
       </c>
       <c r="D80" s="1">
-        <v>300314994</v>
+        <v>405125113</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>84085182</v>
+        <v>84037627</v>
       </c>
       <c r="B81" s="1">
-        <v>2113183</v>
+        <v>3896425</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
       </c>
       <c r="D81" s="1">
-        <v>405179938</v>
+        <v>405055138</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>84032706</v>
+        <v>17975955</v>
       </c>
       <c r="B82" s="1">
-        <v>3015740</v>
+        <v>1556071</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
       </c>
       <c r="D82" s="1">
-        <v>405055435</v>
+        <v>405066309</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>56057030</v>
+        <v>49791756</v>
       </c>
       <c r="B83" s="1">
-        <v>1969917</v>
+        <v>2626556</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
       </c>
       <c r="D83" s="1">
-        <v>405180183</v>
+        <v>405179805</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>40789011</v>
+        <v>17973791</v>
       </c>
       <c r="B84" s="1">
-        <v>4192943</v>
+        <v>2784722</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
       </c>
       <c r="D84" s="1">
-        <v>405126756</v>
+        <v>405770348</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>40932743</v>
+        <v>40913813</v>
       </c>
       <c r="B85" s="1">
-        <v>1969917</v>
+        <v>1187680</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
       </c>
       <c r="D85" s="1">
-        <v>405179821</v>
+        <v>405030115</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>72134510</v>
+        <v>84084230</v>
       </c>
       <c r="B86" s="1">
-        <v>4721250</v>
+        <v>1556071</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
       </c>
       <c r="D86" s="1">
-        <v>405056722</v>
+        <v>405090036</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>84033224</v>
+        <v>40922080</v>
       </c>
       <c r="B87" s="1">
-        <v>1969917</v>
+        <v>1878669</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
       </c>
       <c r="D87" s="1">
-        <v>405179920</v>
+        <v>405055088</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>3717537</v>
+        <v>84028941</v>
       </c>
       <c r="B88" s="1">
-        <v>3225798</v>
+        <v>4201660</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
       </c>
       <c r="D88" s="1">
-        <v>405056508</v>
+        <v>405056342</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>56073872</v>
+        <v>40923874</v>
       </c>
       <c r="B89" s="1">
-        <v>2686250</v>
+        <v>2722895</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
       </c>
       <c r="D89" s="1">
-        <v>405070467</v>
+        <v>405055781</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>26995329</v>
+        <v>40916312</v>
       </c>
       <c r="B90" s="1">
-        <v>3733788</v>
+        <v>1187680</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
       </c>
       <c r="D90" s="1">
-        <v>405047333</v>
+        <v>405055575</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>84032581</v>
+        <v>40927310</v>
       </c>
       <c r="B91" s="1">
-        <v>2609390</v>
+        <v>6091861</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
       </c>
       <c r="D91" s="1">
-        <v>405055328</v>
+        <v>405123787</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>12560254</v>
+        <v>52702655</v>
       </c>
       <c r="B92" s="1">
-        <v>2527876</v>
+        <v>4473565</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
       </c>
       <c r="D92" s="1">
-        <v>405077306</v>
+        <v>310081955</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>8713774</v>
+        <v>45445337</v>
       </c>
       <c r="B93" s="1">
-        <v>3678153</v>
+        <v>5978718</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
       </c>
       <c r="D93" s="1">
-        <v>405056268</v>
+        <v>405055815</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>5171041</v>
+        <v>10893959</v>
       </c>
       <c r="B94" s="1">
-        <v>2893962</v>
+        <v>4453773</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
       </c>
       <c r="D94" s="1">
-        <v>405055534</v>
+        <v>405055351</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>84035424</v>
+        <v>40925745</v>
       </c>
       <c r="B95" s="1">
-        <v>2113183</v>
+        <v>2722895</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
       </c>
       <c r="D95" s="1">
-        <v>405180035</v>
+        <v>405041716</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>73114368</v>
+        <v>1118805083</v>
       </c>
       <c r="B96" s="1">
-        <v>2707740</v>
+        <v>3511440</v>
       </c>
       <c r="C96" t="s">
         <v>97</v>
       </c>
       <c r="D96" s="1">
-        <v>405180001</v>
+        <v>405179243</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>40917736</v>
+        <v>84026792</v>
       </c>
       <c r="B97" s="1">
-        <v>2227797</v>
+        <v>3477924</v>
       </c>
       <c r="C97" t="s">
         <v>98</v>
       </c>
       <c r="D97" s="1">
-        <v>405180118</v>
+        <v>405044306</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>26964861</v>
+        <v>40792159</v>
       </c>
       <c r="B98" s="1">
-        <v>4593456</v>
+        <v>4804143</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
       </c>
       <c r="D98" s="1">
-        <v>405030404</v>
+        <v>405044611</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>70070562</v>
+        <v>84089741</v>
       </c>
       <c r="B99" s="1">
-        <v>4444738</v>
+        <v>1556071</v>
       </c>
       <c r="C99" t="s">
         <v>100</v>
       </c>
       <c r="D99" s="1">
-        <v>405056177</v>
+        <v>405171984</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>84032386</v>
+        <v>12546959</v>
       </c>
       <c r="B100" s="1">
-        <v>2785754</v>
+        <v>4675302</v>
       </c>
       <c r="C100" t="s">
         <v>101</v>
       </c>
       <c r="D100" s="1">
-        <v>405056375</v>
+        <v>405754946</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>40976795</v>
+        <v>56069985</v>
       </c>
       <c r="B101" s="1">
-        <v>3426630</v>
+        <v>1556071</v>
       </c>
       <c r="C101" t="s">
         <v>102</v>
       </c>
       <c r="D101" s="1">
-        <v>405030982</v>
+        <v>405165036</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>12712692</v>
+        <v>40918603</v>
       </c>
       <c r="B102" s="1">
-        <v>2389814</v>
+        <v>986296</v>
       </c>
       <c r="C102" t="s">
         <v>103</v>
       </c>
       <c r="D102" s="1">
-        <v>405055856</v>
+        <v>405049784</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>71597186</v>
+        <v>40933997</v>
       </c>
       <c r="B103" s="1">
-        <v>4361958</v>
+        <v>796117</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
       </c>
       <c r="D103" s="1">
-        <v>405023334</v>
+        <v>405183963</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>40918605</v>
+        <v>41477972</v>
       </c>
       <c r="B104" s="1">
-        <v>2732812</v>
+        <v>7406468</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
       </c>
       <c r="D104" s="1">
-        <v>405028515</v>
+        <v>405053679</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>73080431</v>
+        <v>40838476</v>
       </c>
       <c r="B105" s="1">
-        <v>5156067</v>
+        <v>3435186</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
       </c>
       <c r="D105" s="1">
-        <v>405055898</v>
+        <v>405039967</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>21238226</v>
+        <v>56078338</v>
       </c>
       <c r="B106" s="1">
-        <v>2374645</v>
+        <v>2932191</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="1">
-        <v>405179854</v>
+        <v>405180191</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>19443502</v>
+        <v>40915762</v>
       </c>
       <c r="B107" s="1">
-        <v>2686250</v>
+        <v>5094870</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
       </c>
       <c r="D107" s="1">
-        <v>405179862</v>
+        <v>405055724</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>52266796</v>
+        <v>41672425</v>
       </c>
       <c r="B108" s="1">
-        <v>1991407</v>
+        <v>4934965</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
       </c>
       <c r="D108" s="1">
-        <v>405180019</v>
+        <v>405061789</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>19193790</v>
+        <v>77034749</v>
       </c>
       <c r="B109" s="1">
-        <v>4168314</v>
+        <v>5892582</v>
       </c>
       <c r="C109" t="s">
         <v>110</v>
       </c>
       <c r="D109" s="1">
-        <v>405031147</v>
+        <v>405020199</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>8534287</v>
+        <v>15020638</v>
       </c>
       <c r="B110" s="1">
-        <v>2072718</v>
+        <v>1187680</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
       </c>
       <c r="D110" s="1">
-        <v>405044009</v>
+        <v>405031220</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>2760943</v>
+        <v>40917947</v>
       </c>
       <c r="B111" s="1">
-        <v>4754249</v>
+        <v>2960845</v>
       </c>
       <c r="C111" t="s">
         <v>112</v>
       </c>
       <c r="D111" s="1">
-        <v>405055153</v>
+        <v>405060070</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>17802053</v>
+        <v>32785368</v>
       </c>
       <c r="B112" s="1">
-        <v>9143271</v>
+        <v>3563995</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
       </c>
       <c r="D112" s="1">
-        <v>405056581</v>
+        <v>405081514</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>9078794</v>
+        <v>1010089455</v>
       </c>
       <c r="B113" s="1">
-        <v>2184817</v>
+        <v>549460</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
       </c>
       <c r="D113" s="1">
-        <v>405023383</v>
+        <v>405182619</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>36548894</v>
+        <v>12544915</v>
       </c>
       <c r="B114" s="1">
-        <v>3168041</v>
+        <v>4833415</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
       </c>
       <c r="D114" s="1">
-        <v>405043084</v>
+        <v>405046723</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>12526163</v>
+        <v>84030977</v>
       </c>
       <c r="B115" s="1">
-        <v>2714903</v>
+        <v>1935971</v>
       </c>
       <c r="C115" t="s">
         <v>116</v>
       </c>
       <c r="D115" s="1">
-        <v>405179797</v>
+        <v>405054339</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>32845456</v>
+        <v>5158707</v>
       </c>
       <c r="B116" s="1">
-        <v>2072517</v>
+        <v>5669806</v>
       </c>
       <c r="C116" t="s">
         <v>117</v>
       </c>
       <c r="D116" s="1">
-        <v>304002520</v>
+        <v>405056540</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>40927400</v>
+        <v>24545047</v>
       </c>
       <c r="B117" s="1">
-        <v>2113183</v>
+        <v>5189949</v>
       </c>
       <c r="C117" t="s">
         <v>118</v>
       </c>
       <c r="D117" s="1">
-        <v>405071242</v>
+        <v>405043985</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>17804528</v>
+        <v>12719194</v>
       </c>
       <c r="B118" s="1">
-        <v>2184817</v>
+        <v>986296</v>
       </c>
       <c r="C118" t="s">
         <v>119</v>
       </c>
       <c r="D118" s="1">
-        <v>405059528</v>
+        <v>405767450</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>40934523</v>
+        <v>57412938</v>
       </c>
       <c r="B119" s="1">
-        <v>3174544</v>
+        <v>6017390</v>
       </c>
       <c r="C119" t="s">
         <v>120</v>
       </c>
       <c r="D119" s="1">
-        <v>405104761</v>
+        <v>405056557</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>49720755</v>
+        <v>17806728</v>
       </c>
       <c r="B120" s="1">
-        <v>2134673</v>
+        <v>4738002</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
       </c>
       <c r="D120" s="1">
-        <v>405180092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>32683605</v>
+        <v>40942002</v>
       </c>
       <c r="B121" s="1">
-        <v>3267512</v>
+        <v>986296</v>
       </c>
       <c r="C121" t="s">
         <v>122</v>
       </c>
       <c r="D121" s="1">
-        <v>405055286</v>
+        <v>405149733</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>42677500</v>
+        <v>40917742</v>
       </c>
       <c r="B122" s="1">
-        <v>5345765</v>
+        <v>1935971</v>
       </c>
       <c r="C122" t="s">
         <v>123</v>
       </c>
       <c r="D122" s="1">
-        <v>405056219</v>
+        <v>405040999</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>19456447</v>
+        <v>77172086</v>
       </c>
       <c r="B123" s="1">
-        <v>2561471</v>
+        <v>4030569</v>
       </c>
       <c r="C123" t="s">
         <v>124</v>
       </c>
       <c r="D123" s="1">
-        <v>405753518</v>
+        <v>300125341</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>26962896</v>
+        <v>17974249</v>
       </c>
       <c r="B124" s="1">
-        <v>4266031</v>
+        <v>1556071</v>
       </c>
       <c r="C124" t="s">
         <v>125</v>
       </c>
       <c r="D124" s="1">
-        <v>405043977</v>
+        <v>405028887</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>84035444</v>
+        <v>17808439</v>
       </c>
       <c r="B125" s="1">
-        <v>2700577</v>
+        <v>2078263</v>
       </c>
       <c r="C125" t="s">
         <v>126</v>
       </c>
       <c r="D125" s="1">
-        <v>405179946</v>
+        <v>405031022</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>77025705</v>
+        <v>84026213</v>
       </c>
       <c r="B126" s="1">
-        <v>2012897</v>
+        <v>1187680</v>
       </c>
       <c r="C126" t="s">
         <v>127</v>
       </c>
       <c r="D126" s="1">
-        <v>300125432</v>
+        <v>405048703</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>84039896</v>
+        <v>22977169</v>
       </c>
       <c r="B127" s="1">
-        <v>4751798</v>
+        <v>1187680</v>
       </c>
       <c r="C127" t="s">
         <v>128</v>
       </c>
       <c r="D127" s="1">
-        <v>405055997</v>
+        <v>405056102</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>49736403</v>
+        <v>7456239</v>
       </c>
       <c r="B128" s="1">
-        <v>2761465</v>
+        <v>3002024</v>
       </c>
       <c r="C128" t="s">
         <v>129</v>
       </c>
       <c r="D128" s="1">
-        <v>405180076</v>
+        <v>405055872</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>40926822</v>
+        <v>84104058</v>
       </c>
       <c r="B129" s="1">
-        <v>2477487</v>
+        <v>1341215</v>
       </c>
       <c r="C129" t="s">
         <v>130</v>
       </c>
       <c r="D129" s="1">
-        <v>405772559</v>
+        <v>405055583</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>17807106</v>
+        <v>19225173</v>
       </c>
       <c r="B130" s="1">
-        <v>5034400</v>
+        <v>11018345</v>
       </c>
       <c r="C130" t="s">
         <v>131</v>
       </c>
       <c r="D130" s="1">
-        <v>405008079</v>
+        <v>405041542</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>49786864</v>
+        <v>15039137</v>
       </c>
       <c r="B131" s="1">
-        <v>1969917</v>
+        <v>5128697</v>
       </c>
       <c r="C131" t="s">
         <v>132</v>
       </c>
       <c r="D131" s="1">
-        <v>405180209</v>
+        <v>405056201</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>40936413</v>
+        <v>40914837</v>
       </c>
       <c r="B132" s="1">
-        <v>2223245</v>
+        <v>1935971</v>
       </c>
       <c r="C132" t="s">
         <v>133</v>
       </c>
       <c r="D132" s="1">
-        <v>304002561</v>
+        <v>405040445</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>85455312</v>
+        <v>40916124</v>
       </c>
       <c r="B133" s="1">
-        <v>3925612</v>
+        <v>5391565</v>
       </c>
       <c r="C133" t="s">
         <v>134</v>
       </c>
       <c r="D133" s="1">
-        <v>405055179</v>
+        <v>405020504</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>84035262</v>
+        <v>84005124</v>
       </c>
       <c r="B134" s="1">
-        <v>2399717</v>
+        <v>6185314</v>
       </c>
       <c r="C134" t="s">
         <v>135</v>
       </c>
       <c r="D134" s="1">
-        <v>405055187</v>
+        <v>405051285</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>42498983</v>
+        <v>5183086</v>
       </c>
       <c r="B135" s="1">
-        <v>4029548</v>
+        <v>4291616</v>
       </c>
       <c r="C135" t="s">
         <v>136</v>
       </c>
       <c r="D135" s="1">
-        <v>405046657</v>
+        <v>405033515</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>40927910</v>
+        <v>24473753</v>
       </c>
       <c r="B136" s="1">
-        <v>2385390</v>
+        <v>9733196</v>
       </c>
       <c r="C136" t="s">
         <v>137</v>
       </c>
       <c r="D136" s="1">
-        <v>405049958</v>
+        <v>405750605</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>10234384</v>
+        <v>40837882</v>
       </c>
       <c r="B137" s="1">
-        <v>2592801</v>
+        <v>2722895</v>
       </c>
       <c r="C137" t="s">
         <v>138</v>
       </c>
       <c r="D137" s="1">
-        <v>405044603</v>
+        <v>405054099</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>8278413</v>
+        <v>12543151</v>
       </c>
       <c r="B138" s="1">
-        <v>6530066</v>
+        <v>5455044</v>
       </c>
       <c r="C138" t="s">
         <v>139</v>
       </c>
       <c r="D138" s="1">
-        <v>405035304</v>
+        <v>405056458</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>4034483</v>
+        <v>49741390</v>
       </c>
       <c r="B139" s="1">
-        <v>5155341</v>
+        <v>2936811</v>
       </c>
       <c r="C139" t="s">
         <v>140</v>
       </c>
       <c r="D139" s="1">
-        <v>405056094</v>
+        <v>300072444</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>73006038</v>
+        <v>56056146</v>
       </c>
       <c r="B140" s="1">
-        <v>1953799</v>
+        <v>3501794</v>
       </c>
       <c r="C140" t="s">
         <v>141</v>
       </c>
       <c r="D140" s="1">
-        <v>405180175</v>
+        <v>405065947</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>84084238</v>
+        <v>8748985</v>
       </c>
       <c r="B141" s="1">
-        <v>2477487</v>
+        <v>8117801</v>
       </c>
       <c r="C141" t="s">
         <v>142</v>
       </c>
       <c r="D141" s="1">
-        <v>405089202</v>
+        <v>405031105</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>84091531</v>
+        <v>40983796</v>
       </c>
       <c r="B142" s="1">
-        <v>1969917</v>
+        <v>986296</v>
       </c>
       <c r="C142" t="s">
         <v>143</v>
       </c>
       <c r="D142" s="1">
-        <v>405179839</v>
+        <v>405149626</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>17805759</v>
+        <v>40797290</v>
       </c>
       <c r="B143" s="1">
-        <v>5794420</v>
+        <v>3419298</v>
       </c>
       <c r="C143" t="s">
         <v>144</v>
       </c>
       <c r="D143" s="1">
-        <v>405056037</v>
+        <v>405085382</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>10781860</v>
+        <v>40938089</v>
       </c>
       <c r="B144" s="1">
-        <v>2034387</v>
+        <v>2626556</v>
       </c>
       <c r="C144" t="s">
         <v>145</v>
       </c>
       <c r="D144" s="1">
-        <v>405180159</v>
+        <v>405179813</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>36537160</v>
+        <v>25271766</v>
       </c>
       <c r="B145" s="1">
-        <v>4501265</v>
+        <v>7741184</v>
       </c>
       <c r="C145" t="s">
         <v>146</v>
       </c>
       <c r="D145" s="1">
-        <v>405753450</v>
+        <v>405056359</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>17855825</v>
+        <v>8662135</v>
       </c>
       <c r="B146" s="1">
-        <v>3998630</v>
+        <v>8556110</v>
       </c>
       <c r="C146" t="s">
         <v>147</v>
       </c>
       <c r="D146" s="1">
-        <v>405054446</v>
+        <v>405030743</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>7458062</v>
+        <v>26965867</v>
       </c>
       <c r="B147" s="1">
-        <v>2927555</v>
+        <v>4776652</v>
       </c>
       <c r="C147" t="s">
         <v>148</v>
       </c>
       <c r="D147" s="1">
-        <v>405010976</v>
+        <v>405041591</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>40914811</v>
+        <v>84035236</v>
       </c>
       <c r="B148" s="1">
-        <v>5344506</v>
+        <v>4353133</v>
       </c>
       <c r="C148" t="s">
         <v>149</v>
       </c>
       <c r="D148" s="1">
-        <v>405056466</v>
+        <v>405138199</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>70120295</v>
+        <v>12720417</v>
       </c>
       <c r="B149" s="1">
-        <v>5662449</v>
+        <v>5333867</v>
       </c>
       <c r="C149" t="s">
         <v>150</v>
       </c>
       <c r="D149" s="1">
-        <v>405030198</v>
+        <v>405055914</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>9307957</v>
+        <v>40915007</v>
       </c>
       <c r="B150" s="1">
-        <v>4391037</v>
+        <v>3944835</v>
       </c>
       <c r="C150" t="s">
         <v>151</v>
       </c>
       <c r="D150" s="1">
-        <v>405030784</v>
+        <v>405055922</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>17955129</v>
+        <v>84028500</v>
       </c>
       <c r="B151" s="1">
-        <v>2542983</v>
+        <v>986296</v>
       </c>
       <c r="C151" t="s">
         <v>152</v>
       </c>
       <c r="D151" s="1">
-        <v>405067109</v>
+        <v>405057985</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>17951142</v>
+        <v>84034370</v>
       </c>
       <c r="B152" s="1">
-        <v>4064761</v>
+        <v>7042352</v>
       </c>
       <c r="C152" t="s">
         <v>153</v>
       </c>
       <c r="D152" s="1">
-        <v>405056417</v>
+        <v>405087438</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>84035760</v>
+        <v>91528139</v>
       </c>
       <c r="B153" s="1">
-        <v>2113183</v>
+        <v>3441204</v>
       </c>
       <c r="C153" t="s">
         <v>154</v>
       </c>
       <c r="D153" s="1">
-        <v>405067182</v>
+        <v>405153487</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>84079400</v>
+        <v>17904729</v>
       </c>
       <c r="B154" s="1">
-        <v>2005733</v>
+        <v>3419298</v>
       </c>
       <c r="C154" t="s">
         <v>155</v>
       </c>
       <c r="D154" s="1">
-        <v>405123563</v>
+        <v>304002454</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>84035580</v>
+        <v>40941561</v>
       </c>
       <c r="B155" s="1">
-        <v>2542983</v>
+        <v>1556071</v>
       </c>
       <c r="C155" t="s">
         <v>156</v>
       </c>
       <c r="D155" s="1">
-        <v>405078791</v>
+        <v>405142209</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>17806498</v>
+        <v>57446153</v>
       </c>
       <c r="B156" s="1">
-        <v>3345872</v>
+        <v>4200461</v>
       </c>
       <c r="C156" t="s">
         <v>157</v>
       </c>
       <c r="D156" s="1">
-        <v>405055955</v>
+        <v>405056193</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>41693733</v>
+        <v>40938567</v>
       </c>
       <c r="B157" s="1">
-        <v>4226746</v>
+        <v>1556071</v>
       </c>
       <c r="C157" t="s">
         <v>158</v>
       </c>
       <c r="D157" s="1">
-        <v>405056151</v>
+        <v>405766999</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>17953767</v>
+        <v>32710942</v>
       </c>
       <c r="B158" s="1">
-        <v>3129701</v>
+        <v>3558754</v>
       </c>
       <c r="C158" t="s">
         <v>159</v>
       </c>
       <c r="D158" s="1">
-        <v>405055120</v>
+        <v>405053984</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>84033035</v>
+        <v>40923820</v>
       </c>
       <c r="B159" s="1">
-        <v>2113183</v>
+        <v>1556071</v>
       </c>
       <c r="C159" t="s">
         <v>160</v>
       </c>
       <c r="D159" s="1">
-        <v>405061763</v>
+        <v>405174061</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>26982790</v>
+        <v>40924537</v>
       </c>
       <c r="B160" s="1">
-        <v>4432484</v>
+        <v>1935971</v>
       </c>
       <c r="C160" t="s">
         <v>161</v>
       </c>
       <c r="D160" s="1">
-        <v>405052515</v>
+        <v>405040064</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>32628773</v>
+        <v>40924429</v>
       </c>
       <c r="B161" s="1">
-        <v>2113183</v>
+        <v>1878669</v>
       </c>
       <c r="C161" t="s">
         <v>162</v>
       </c>
       <c r="D161" s="1">
-        <v>405090432</v>
+        <v>405056326</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>79689715</v>
+        <v>56057668</v>
       </c>
       <c r="B162" s="1">
-        <v>3223500</v>
+        <v>4201999</v>
       </c>
       <c r="C162" t="s">
         <v>163</v>
       </c>
       <c r="D162" s="1">
-        <v>405179953</v>
+        <v>405176934</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>40920939</v>
+        <v>19082949</v>
       </c>
       <c r="B163" s="1">
-        <v>3795347</v>
+        <v>6826837</v>
       </c>
       <c r="C163" t="s">
         <v>164</v>
       </c>
       <c r="D163" s="1">
-        <v>405055765</v>
+        <v>405056565</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>27004816</v>
+        <v>19591473</v>
       </c>
       <c r="B164" s="1">
-        <v>2113183</v>
+        <v>3104111</v>
       </c>
       <c r="C164" t="s">
         <v>165</v>
       </c>
       <c r="D164" s="1">
-        <v>405123522</v>
+        <v>400120820</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>40914803</v>
+        <v>32181130</v>
       </c>
       <c r="B165" s="1">
-        <v>2113183</v>
+        <v>5200953</v>
       </c>
       <c r="C165" t="s">
         <v>166</v>
       </c>
       <c r="D165" s="1">
-        <v>405083247</v>
+        <v>405164013</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>56085519</v>
+        <v>17855558</v>
       </c>
       <c r="B166" s="1">
-        <v>2113183</v>
+        <v>8219510</v>
       </c>
       <c r="C166" t="s">
         <v>167</v>
       </c>
       <c r="D166" s="1">
-        <v>304002447</v>
+        <v>405029851</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>6772256</v>
+        <v>4509294</v>
       </c>
       <c r="B167" s="1">
-        <v>2557310</v>
+        <v>9839590</v>
       </c>
       <c r="C167" t="s">
         <v>168</v>
       </c>
       <c r="D167" s="1">
-        <v>300308194</v>
+        <v>405030230</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>7475678</v>
+        <v>77017538</v>
       </c>
       <c r="B168" s="1">
-        <v>5104104</v>
+        <v>3801342</v>
       </c>
       <c r="C168" t="s">
         <v>169</v>
       </c>
       <c r="D168" s="1">
+        <v>300314994</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>40927723</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1598376</v>
+      </c>
+      <c r="C169" t="s">
+        <v>170</v>
+      </c>
+      <c r="D169" s="1">
+        <v>405182916</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>40917726</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1187680</v>
+      </c>
+      <c r="C170" t="s">
+        <v>171</v>
+      </c>
+      <c r="D170" s="1">
+        <v>405044330</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>84085182</v>
+      </c>
+      <c r="B171" s="1">
+        <v>2817578</v>
+      </c>
+      <c r="C171" t="s">
+        <v>172</v>
+      </c>
+      <c r="D171" s="1">
+        <v>405179938</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>40912575</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1187680</v>
+      </c>
+      <c r="C172" t="s">
+        <v>173</v>
+      </c>
+      <c r="D172" s="1">
+        <v>405055708</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>84092791</v>
+      </c>
+      <c r="B173" s="1">
+        <v>2883154</v>
+      </c>
+      <c r="C173" t="s">
+        <v>174</v>
+      </c>
+      <c r="D173" s="1">
+        <v>405124462</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>84032706</v>
+      </c>
+      <c r="B174" s="1">
+        <v>4511681</v>
+      </c>
+      <c r="C174" t="s">
+        <v>175</v>
+      </c>
+      <c r="D174" s="1">
+        <v>405055435</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>40913846</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1878669</v>
+      </c>
+      <c r="C175" t="s">
+        <v>176</v>
+      </c>
+      <c r="D175" s="1">
+        <v>405031154</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>40924959</v>
+      </c>
+      <c r="B176" s="1">
+        <v>6566784</v>
+      </c>
+      <c r="C176" t="s">
+        <v>177</v>
+      </c>
+      <c r="D176" s="1">
+        <v>405061706</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>84031046</v>
+      </c>
+      <c r="B177" s="1">
+        <v>3847910</v>
+      </c>
+      <c r="C177" t="s">
+        <v>178</v>
+      </c>
+      <c r="D177" s="1">
+        <v>405042482</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>56057030</v>
+      </c>
+      <c r="B178" s="1">
+        <v>2626556</v>
+      </c>
+      <c r="C178" t="s">
+        <v>179</v>
+      </c>
+      <c r="D178" s="1">
+        <v>405180183</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>57440533</v>
+      </c>
+      <c r="B179" s="1">
+        <v>4349461</v>
+      </c>
+      <c r="C179" t="s">
+        <v>180</v>
+      </c>
+      <c r="D179" s="1">
+        <v>405171752</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>40789011</v>
+      </c>
+      <c r="B180" s="1">
+        <v>6331531</v>
+      </c>
+      <c r="C180" t="s">
+        <v>181</v>
+      </c>
+      <c r="D180" s="1">
+        <v>405126756</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>40932743</v>
+      </c>
+      <c r="B181" s="1">
+        <v>2626556</v>
+      </c>
+      <c r="C181" t="s">
+        <v>182</v>
+      </c>
+      <c r="D181" s="1">
+        <v>405179821</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>72134510</v>
+      </c>
+      <c r="B182" s="1">
+        <v>7129509</v>
+      </c>
+      <c r="C182" t="s">
+        <v>183</v>
+      </c>
+      <c r="D182" s="1">
+        <v>405056722</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>84033224</v>
+      </c>
+      <c r="B183" s="1">
+        <v>2626556</v>
+      </c>
+      <c r="C183" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" s="1">
+        <v>405179920</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>3717537</v>
+      </c>
+      <c r="B184" s="1">
+        <v>4871003</v>
+      </c>
+      <c r="C184" t="s">
+        <v>185</v>
+      </c>
+      <c r="D184" s="1">
+        <v>405056508</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>56073872</v>
+      </c>
+      <c r="B185" s="1">
+        <v>3581667</v>
+      </c>
+      <c r="C185" t="s">
+        <v>186</v>
+      </c>
+      <c r="D185" s="1">
+        <v>405070467</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>26995329</v>
+      </c>
+      <c r="B186" s="1">
+        <v>5638098</v>
+      </c>
+      <c r="C186" t="s">
+        <v>187</v>
+      </c>
+      <c r="D186" s="1">
+        <v>405047333</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>40923961</v>
+      </c>
+      <c r="B187" s="1">
+        <v>549460</v>
+      </c>
+      <c r="C187" t="s">
+        <v>188</v>
+      </c>
+      <c r="D187" s="1">
+        <v>405182643</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>32655352</v>
+      </c>
+      <c r="B188" s="1">
+        <v>5094870</v>
+      </c>
+      <c r="C188" t="s">
+        <v>189</v>
+      </c>
+      <c r="D188" s="1">
+        <v>405056110</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>32632763</v>
+      </c>
+      <c r="B189" s="1">
+        <v>4941646</v>
+      </c>
+      <c r="C189" t="s">
+        <v>190</v>
+      </c>
+      <c r="D189" s="1">
+        <v>405056409</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>84078019</v>
+      </c>
+      <c r="B190" s="1">
+        <v>986296</v>
+      </c>
+      <c r="C190" t="s">
+        <v>191</v>
+      </c>
+      <c r="D190" s="1">
+        <v>405767534</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>84032581</v>
+      </c>
+      <c r="B191" s="1">
+        <v>3940737</v>
+      </c>
+      <c r="C191" t="s">
+        <v>192</v>
+      </c>
+      <c r="D191" s="1">
+        <v>405055328</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>12560254</v>
+      </c>
+      <c r="B192" s="1">
+        <v>3816614</v>
+      </c>
+      <c r="C192" t="s">
+        <v>193</v>
+      </c>
+      <c r="D192" s="1">
+        <v>405077306</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>17954966</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1556071</v>
+      </c>
+      <c r="C193" t="s">
+        <v>194</v>
+      </c>
+      <c r="D193" s="1">
+        <v>405154998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>8713774</v>
+      </c>
+      <c r="B194" s="1">
+        <v>5554367</v>
+      </c>
+      <c r="C194" t="s">
+        <v>195</v>
+      </c>
+      <c r="D194" s="1">
+        <v>405056268</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>40839704</v>
+      </c>
+      <c r="B195" s="1">
+        <v>3437785</v>
+      </c>
+      <c r="C195" t="s">
+        <v>196</v>
+      </c>
+      <c r="D195" s="1">
+        <v>405033374</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>5171041</v>
+      </c>
+      <c r="B196" s="1">
+        <v>4370120</v>
+      </c>
+      <c r="C196" t="s">
+        <v>197</v>
+      </c>
+      <c r="D196" s="1">
+        <v>405055534</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>84035424</v>
+      </c>
+      <c r="B197" s="1">
+        <v>2817578</v>
+      </c>
+      <c r="C197" t="s">
+        <v>198</v>
+      </c>
+      <c r="D197" s="1">
+        <v>405180035</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>84034602</v>
+      </c>
+      <c r="B198" s="1">
+        <v>2722895</v>
+      </c>
+      <c r="C198" t="s">
+        <v>199</v>
+      </c>
+      <c r="D198" s="1">
+        <v>405055690</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>39490945</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1229520</v>
+      </c>
+      <c r="C199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D199" s="1">
+        <v>405123639</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>73114368</v>
+      </c>
+      <c r="B200" s="1">
+        <v>3610320</v>
+      </c>
+      <c r="C200" t="s">
+        <v>201</v>
+      </c>
+      <c r="D200" s="1">
+        <v>405180001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <v>40942871</v>
+      </c>
+      <c r="B201" s="1">
+        <v>1229519</v>
+      </c>
+      <c r="C201" t="s">
+        <v>202</v>
+      </c>
+      <c r="D201" s="1">
+        <v>405182854</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202">
+        <v>40917736</v>
+      </c>
+      <c r="B202" s="1">
+        <v>2970396</v>
+      </c>
+      <c r="C202" t="s">
+        <v>203</v>
+      </c>
+      <c r="D202" s="1">
+        <v>405180118</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>84026238</v>
+      </c>
+      <c r="B203" s="1">
+        <v>1631329</v>
+      </c>
+      <c r="C203" t="s">
+        <v>204</v>
+      </c>
+      <c r="D203" s="1">
+        <v>405056284</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>40914786</v>
+      </c>
+      <c r="B204" s="1">
+        <v>1935971</v>
+      </c>
+      <c r="C204" t="s">
+        <v>205</v>
+      </c>
+      <c r="D204" s="1">
+        <v>405029885</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
+        <v>40925643</v>
+      </c>
+      <c r="B205" s="1">
+        <v>1556071</v>
+      </c>
+      <c r="C205" t="s">
+        <v>206</v>
+      </c>
+      <c r="D205" s="1">
+        <v>405149253</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <v>26964861</v>
+      </c>
+      <c r="B206" s="1">
+        <v>6942489</v>
+      </c>
+      <c r="C206" t="s">
+        <v>207</v>
+      </c>
+      <c r="D206" s="1">
+        <v>405030404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <v>70070562</v>
+      </c>
+      <c r="B207" s="1">
+        <v>6712028</v>
+      </c>
+      <c r="C207" t="s">
+        <v>208</v>
+      </c>
+      <c r="D207" s="1">
+        <v>405056177</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <v>84032386</v>
+      </c>
+      <c r="B208" s="1">
+        <v>4207013</v>
+      </c>
+      <c r="C208" t="s">
+        <v>209</v>
+      </c>
+      <c r="D208" s="1">
+        <v>405056375</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>32704787</v>
+      </c>
+      <c r="B209" s="1">
+        <v>1878669</v>
+      </c>
+      <c r="C209" t="s">
+        <v>210</v>
+      </c>
+      <c r="D209" s="1">
+        <v>405030180</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>40976795</v>
+      </c>
+      <c r="B210" s="1">
+        <v>5185412</v>
+      </c>
+      <c r="C210" t="s">
+        <v>211</v>
+      </c>
+      <c r="D210" s="1">
+        <v>405030982</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>12712692</v>
+      </c>
+      <c r="B211" s="1">
+        <v>3608952</v>
+      </c>
+      <c r="C211" t="s">
+        <v>212</v>
+      </c>
+      <c r="D211" s="1">
+        <v>405055856</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>71597186</v>
+      </c>
+      <c r="B212" s="1">
+        <v>6586713</v>
+      </c>
+      <c r="C212" t="s">
+        <v>213</v>
+      </c>
+      <c r="D212" s="1">
+        <v>405023334</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>40918605</v>
+      </c>
+      <c r="B213" s="1">
+        <v>3643749</v>
+      </c>
+      <c r="C213" t="s">
+        <v>214</v>
+      </c>
+      <c r="D213" s="1">
+        <v>405028515</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>73080431</v>
+      </c>
+      <c r="B214" s="1">
+        <v>7786002</v>
+      </c>
+      <c r="C214" t="s">
+        <v>215</v>
+      </c>
+      <c r="D214" s="1">
+        <v>405055898</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>40915068</v>
+      </c>
+      <c r="B215" s="1">
+        <v>3281660</v>
+      </c>
+      <c r="C215" t="s">
+        <v>216</v>
+      </c>
+      <c r="D215" s="1">
+        <v>405043035</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>40937339</v>
+      </c>
+      <c r="B216" s="1">
+        <v>1229520</v>
+      </c>
+      <c r="C216" t="s">
+        <v>217</v>
+      </c>
+      <c r="D216" s="1">
+        <v>405182668</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>84080209</v>
+      </c>
+      <c r="B217" s="1">
+        <v>4649828</v>
+      </c>
+      <c r="C217" t="s">
+        <v>218</v>
+      </c>
+      <c r="D217" s="1">
+        <v>405096520</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>21238226</v>
+      </c>
+      <c r="B218" s="1">
+        <v>3166193</v>
+      </c>
+      <c r="C218" t="s">
+        <v>219</v>
+      </c>
+      <c r="D218" s="1">
+        <v>405179854</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>84028958</v>
+      </c>
+      <c r="B219" s="1">
+        <v>1556071</v>
+      </c>
+      <c r="C219" t="s">
+        <v>220</v>
+      </c>
+      <c r="D219" s="1">
+        <v>400783940</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>19443502</v>
+      </c>
+      <c r="B220" s="1">
+        <v>3581667</v>
+      </c>
+      <c r="C220" t="s">
+        <v>221</v>
+      </c>
+      <c r="D220" s="1">
+        <v>405179862</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>52266796</v>
+      </c>
+      <c r="B221" s="1">
+        <v>2655209</v>
+      </c>
+      <c r="C221" t="s">
+        <v>222</v>
+      </c>
+      <c r="D221" s="1">
+        <v>405180019</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222">
+        <v>40928745</v>
+      </c>
+      <c r="B222" s="1">
+        <v>4604898</v>
+      </c>
+      <c r="C222" t="s">
+        <v>223</v>
+      </c>
+      <c r="D222" s="1">
+        <v>405089905</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
+        <v>72174199</v>
+      </c>
+      <c r="B223" s="1">
+        <v>5094869</v>
+      </c>
+      <c r="C223" t="s">
+        <v>224</v>
+      </c>
+      <c r="D223" s="1">
+        <v>405055195</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>19193790</v>
+      </c>
+      <c r="B224" s="1">
+        <v>6534384</v>
+      </c>
+      <c r="C224" t="s">
+        <v>225</v>
+      </c>
+      <c r="D224" s="1">
+        <v>405031147</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>17855736</v>
+      </c>
+      <c r="B225" s="1">
+        <v>986296</v>
+      </c>
+      <c r="C225" t="s">
+        <v>226</v>
+      </c>
+      <c r="D225" s="1">
+        <v>405161464</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226">
+        <v>8534287</v>
+      </c>
+      <c r="B226" s="1">
+        <v>4769623</v>
+      </c>
+      <c r="C226" t="s">
+        <v>227</v>
+      </c>
+      <c r="D226" s="1">
+        <v>405044009</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227">
+        <v>2760943</v>
+      </c>
+      <c r="B227" s="1">
+        <v>7183462</v>
+      </c>
+      <c r="C227" t="s">
+        <v>228</v>
+      </c>
+      <c r="D227" s="1">
+        <v>405055153</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228">
+        <v>17802053</v>
+      </c>
+      <c r="B228" s="1">
+        <v>11670624</v>
+      </c>
+      <c r="C228" t="s">
+        <v>229</v>
+      </c>
+      <c r="D228" s="1">
+        <v>405056581</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229">
+        <v>9078794</v>
+      </c>
+      <c r="B229" s="1">
+        <v>2913089</v>
+      </c>
+      <c r="C229" t="s">
+        <v>230</v>
+      </c>
+      <c r="D229" s="1">
+        <v>405023383</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230">
+        <v>36548894</v>
+      </c>
+      <c r="B230" s="1">
+        <v>4784123</v>
+      </c>
+      <c r="C230" t="s">
+        <v>231</v>
+      </c>
+      <c r="D230" s="1">
+        <v>405043084</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231">
+        <v>17804185</v>
+      </c>
+      <c r="B231" s="1">
+        <v>4353133</v>
+      </c>
+      <c r="C231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D231" s="1">
+        <v>405059361</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>84026629</v>
+      </c>
+      <c r="B232" s="1">
+        <v>6067607</v>
+      </c>
+      <c r="C232" t="s">
+        <v>233</v>
+      </c>
+      <c r="D232" s="1">
+        <v>405055401</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>40914203</v>
+      </c>
+      <c r="B233" s="1">
+        <v>3281660</v>
+      </c>
+      <c r="C233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D233" s="1">
+        <v>405055245</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>77022224</v>
+      </c>
+      <c r="B234" s="1">
+        <v>2580903</v>
+      </c>
+      <c r="C234" t="s">
+        <v>235</v>
+      </c>
+      <c r="D234" s="1">
+        <v>405158411</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235">
+        <v>40978774</v>
+      </c>
+      <c r="B235" s="1">
+        <v>4306539</v>
+      </c>
+      <c r="C235" t="s">
+        <v>236</v>
+      </c>
+      <c r="D235" s="1">
+        <v>405044223</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236">
+        <v>40936726</v>
+      </c>
+      <c r="B236" s="1">
+        <v>2704943</v>
+      </c>
+      <c r="C236" t="s">
+        <v>237</v>
+      </c>
+      <c r="D236" s="1">
+        <v>405179268</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237">
+        <v>40922011</v>
+      </c>
+      <c r="B237" s="1">
+        <v>1322895</v>
+      </c>
+      <c r="C237" t="s">
+        <v>238</v>
+      </c>
+      <c r="D237" s="1">
+        <v>405052903</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>12526163</v>
+      </c>
+      <c r="B238" s="1">
+        <v>3619871</v>
+      </c>
+      <c r="C238" t="s">
+        <v>239</v>
+      </c>
+      <c r="D238" s="1">
+        <v>405179797</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239">
+        <v>32845456</v>
+      </c>
+      <c r="B239" s="1">
+        <v>2737706</v>
+      </c>
+      <c r="C239" t="s">
+        <v>240</v>
+      </c>
+      <c r="D239" s="1">
+        <v>304002520</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240">
+        <v>17804528</v>
+      </c>
+      <c r="B240" s="1">
+        <v>2913089</v>
+      </c>
+      <c r="C240" t="s">
+        <v>241</v>
+      </c>
+      <c r="D240" s="1">
+        <v>405059528</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>40927400</v>
+      </c>
+      <c r="B241" s="1">
+        <v>2817578</v>
+      </c>
+      <c r="C241" t="s">
+        <v>242</v>
+      </c>
+      <c r="D241" s="1">
+        <v>405071242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>49720755</v>
+      </c>
+      <c r="B242" s="1">
+        <v>2846231</v>
+      </c>
+      <c r="C242" t="s">
+        <v>243</v>
+      </c>
+      <c r="D242" s="1">
+        <v>405180092</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>40934523</v>
+      </c>
+      <c r="B243" s="1">
+        <v>4792959</v>
+      </c>
+      <c r="C243" t="s">
+        <v>244</v>
+      </c>
+      <c r="D243" s="1">
+        <v>405104761</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <v>5159322</v>
+      </c>
+      <c r="B244" s="1">
+        <v>4675302</v>
+      </c>
+      <c r="C244" t="s">
+        <v>245</v>
+      </c>
+      <c r="D244" s="1">
+        <v>405012113</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <v>32683605</v>
+      </c>
+      <c r="B245" s="1">
+        <v>4934640</v>
+      </c>
+      <c r="C245" t="s">
+        <v>246</v>
+      </c>
+      <c r="D245" s="1">
+        <v>405055286</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>42677500</v>
+      </c>
+      <c r="B246" s="1">
+        <v>8072409</v>
+      </c>
+      <c r="C246" t="s">
+        <v>247</v>
+      </c>
+      <c r="D246" s="1">
+        <v>405056219</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
+        <v>19456447</v>
+      </c>
+      <c r="B247" s="1">
+        <v>3867335</v>
+      </c>
+      <c r="C247" t="s">
+        <v>248</v>
+      </c>
+      <c r="D247" s="1">
+        <v>405753518</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
+        <v>26962896</v>
+      </c>
+      <c r="B248" s="1">
+        <v>6441952</v>
+      </c>
+      <c r="C248" t="s">
+        <v>249</v>
+      </c>
+      <c r="D248" s="1">
+        <v>405043977</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>40924637</v>
+      </c>
+      <c r="B249" s="1">
+        <v>1636520</v>
+      </c>
+      <c r="C249" t="s">
+        <v>250</v>
+      </c>
+      <c r="D249" s="1">
+        <v>405055476</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>84035444</v>
+      </c>
+      <c r="B250" s="1">
+        <v>3600769</v>
+      </c>
+      <c r="C250" t="s">
+        <v>251</v>
+      </c>
+      <c r="D250" s="1">
+        <v>405179946</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>36719109</v>
+      </c>
+      <c r="B251" s="1">
+        <v>4351992</v>
+      </c>
+      <c r="C251" t="s">
+        <v>252</v>
+      </c>
+      <c r="D251" s="1">
+        <v>405067208</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252">
+        <v>77025705</v>
+      </c>
+      <c r="B252" s="1">
+        <v>2683862</v>
+      </c>
+      <c r="C252" t="s">
+        <v>253</v>
+      </c>
+      <c r="D252" s="1">
+        <v>300125432</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253">
+        <v>84039896</v>
+      </c>
+      <c r="B253" s="1">
+        <v>2944363</v>
+      </c>
+      <c r="C253" t="s">
+        <v>254</v>
+      </c>
+      <c r="D253" s="1">
+        <v>405055997</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>49736403</v>
+      </c>
+      <c r="B254" s="1">
+        <v>3681953</v>
+      </c>
+      <c r="C254" t="s">
+        <v>255</v>
+      </c>
+      <c r="D254" s="1">
+        <v>405180076</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>40923678</v>
+      </c>
+      <c r="B255" s="1">
+        <v>4369472</v>
+      </c>
+      <c r="C255" t="s">
+        <v>256</v>
+      </c>
+      <c r="D255" s="1">
+        <v>405031287</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>40926822</v>
+      </c>
+      <c r="B256" s="1">
+        <v>3740536</v>
+      </c>
+      <c r="C256" t="s">
+        <v>257</v>
+      </c>
+      <c r="D256" s="1">
+        <v>405772559</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257">
+        <v>1118810845</v>
+      </c>
+      <c r="B257" s="1">
+        <v>1278701</v>
+      </c>
+      <c r="C257" t="s">
+        <v>258</v>
+      </c>
+      <c r="D257" s="1">
+        <v>405183864</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
+        <v>17807106</v>
+      </c>
+      <c r="B258" s="1">
+        <v>7602307</v>
+      </c>
+      <c r="C258" t="s">
+        <v>259</v>
+      </c>
+      <c r="D258" s="1">
+        <v>405008079</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>49786864</v>
+      </c>
+      <c r="B259" s="1">
+        <v>2626556</v>
+      </c>
+      <c r="C259" t="s">
+        <v>260</v>
+      </c>
+      <c r="D259" s="1">
+        <v>405180209</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>84032882</v>
+      </c>
+      <c r="B260" s="1">
+        <v>13190624</v>
+      </c>
+      <c r="C260" t="s">
+        <v>261</v>
+      </c>
+      <c r="D260" s="1">
+        <v>405136433</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>8798450</v>
+      </c>
+      <c r="B261" s="1">
+        <v>549460</v>
+      </c>
+      <c r="C261" t="s">
+        <v>262</v>
+      </c>
+      <c r="D261" s="1">
+        <v>405182635</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>84083636</v>
+      </c>
+      <c r="B262" s="1">
+        <v>1341215</v>
+      </c>
+      <c r="C262" t="s">
+        <v>263</v>
+      </c>
+      <c r="D262" s="1">
+        <v>405051269</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>84033695</v>
+      </c>
+      <c r="B263" s="1">
+        <v>3441204</v>
+      </c>
+      <c r="C263" t="s">
+        <v>264</v>
+      </c>
+      <c r="D263" s="1">
+        <v>405067091</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>40936413</v>
+      </c>
+      <c r="B264" s="1">
+        <v>2936811</v>
+      </c>
+      <c r="C264" t="s">
+        <v>265</v>
+      </c>
+      <c r="D264" s="1">
+        <v>304002561</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
+        <v>40923400</v>
+      </c>
+      <c r="B265" s="1">
+        <v>4159530</v>
+      </c>
+      <c r="C265" t="s">
+        <v>266</v>
+      </c>
+      <c r="D265" s="1">
+        <v>405030362</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266">
+        <v>85455312</v>
+      </c>
+      <c r="B266" s="1">
+        <v>5929217</v>
+      </c>
+      <c r="C266" t="s">
+        <v>267</v>
+      </c>
+      <c r="D266" s="1">
+        <v>405055179</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>84035262</v>
+      </c>
+      <c r="B267" s="1">
+        <v>3199622</v>
+      </c>
+      <c r="C267" t="s">
+        <v>268</v>
+      </c>
+      <c r="D267" s="1">
+        <v>405055187</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268">
+        <v>42498983</v>
+      </c>
+      <c r="B268" s="1">
+        <v>6085170</v>
+      </c>
+      <c r="C268" t="s">
+        <v>269</v>
+      </c>
+      <c r="D268" s="1">
+        <v>405046657</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>40927910</v>
+      </c>
+      <c r="B269" s="1">
+        <v>3180521</v>
+      </c>
+      <c r="C269" t="s">
+        <v>270</v>
+      </c>
+      <c r="D269" s="1">
+        <v>405049958</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>17844731</v>
+      </c>
+      <c r="B270" s="1">
+        <v>7106691</v>
+      </c>
+      <c r="C270" t="s">
+        <v>271</v>
+      </c>
+      <c r="D270" s="1">
+        <v>405009267</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271">
+        <v>10234384</v>
+      </c>
+      <c r="B271" s="1">
+        <v>3915424</v>
+      </c>
+      <c r="C271" t="s">
+        <v>272</v>
+      </c>
+      <c r="D271" s="1">
+        <v>405044603</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
+        <v>27015139</v>
+      </c>
+      <c r="B272" s="1">
+        <v>4204786</v>
+      </c>
+      <c r="C272" t="s">
+        <v>273</v>
+      </c>
+      <c r="D272" s="1">
+        <v>405056334</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>8278413</v>
+      </c>
+      <c r="B273" s="1">
+        <v>9778536</v>
+      </c>
+      <c r="C273" t="s">
+        <v>274</v>
+      </c>
+      <c r="D273" s="1">
+        <v>405035304</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>4034483</v>
+      </c>
+      <c r="B274" s="1">
+        <v>7795380</v>
+      </c>
+      <c r="C274" t="s">
+        <v>275</v>
+      </c>
+      <c r="D274" s="1">
+        <v>405056094</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>40931453</v>
+      </c>
+      <c r="B275" s="1">
+        <v>2189322</v>
+      </c>
+      <c r="C275" t="s">
+        <v>276</v>
+      </c>
+      <c r="D275" s="1">
+        <v>405179169</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>73006038</v>
+      </c>
+      <c r="B276" s="1">
+        <v>2605065</v>
+      </c>
+      <c r="C276" t="s">
+        <v>277</v>
+      </c>
+      <c r="D276" s="1">
+        <v>405180175</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>84084238</v>
+      </c>
+      <c r="B277" s="1">
+        <v>3740536</v>
+      </c>
+      <c r="C277" t="s">
+        <v>278</v>
+      </c>
+      <c r="D277" s="1">
+        <v>405089202</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>40976465</v>
+      </c>
+      <c r="B278" s="1">
+        <v>1935971</v>
+      </c>
+      <c r="C278" t="s">
+        <v>279</v>
+      </c>
+      <c r="D278" s="1">
+        <v>405044439</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>84091531</v>
+      </c>
+      <c r="B279" s="1">
+        <v>2626556</v>
+      </c>
+      <c r="C279" t="s">
+        <v>280</v>
+      </c>
+      <c r="D279" s="1">
+        <v>405179839</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>17805759</v>
+      </c>
+      <c r="B280" s="1">
+        <v>8729966</v>
+      </c>
+      <c r="C280" t="s">
+        <v>281</v>
+      </c>
+      <c r="D280" s="1">
+        <v>405056037</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>10781860</v>
+      </c>
+      <c r="B281" s="1">
+        <v>2712515</v>
+      </c>
+      <c r="C281" t="s">
+        <v>282</v>
+      </c>
+      <c r="D281" s="1">
+        <v>405180159</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>36537160</v>
+      </c>
+      <c r="B282" s="1">
+        <v>6797038</v>
+      </c>
+      <c r="C282" t="s">
+        <v>283</v>
+      </c>
+      <c r="D282" s="1">
+        <v>405753450</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>17855825</v>
+      </c>
+      <c r="B283" s="1">
+        <v>6038227</v>
+      </c>
+      <c r="C283" t="s">
+        <v>284</v>
+      </c>
+      <c r="D283" s="1">
+        <v>405054446</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>13015884</v>
+      </c>
+      <c r="B284" s="1">
+        <v>5202206</v>
+      </c>
+      <c r="C284" t="s">
+        <v>285</v>
+      </c>
+      <c r="D284" s="1">
+        <v>405156142</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>7458062</v>
+      </c>
+      <c r="B285" s="1">
+        <v>4420839</v>
+      </c>
+      <c r="C285" t="s">
+        <v>286</v>
+      </c>
+      <c r="D285" s="1">
+        <v>405010976</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>40914811</v>
+      </c>
+      <c r="B286" s="1">
+        <v>8070508</v>
+      </c>
+      <c r="C286" t="s">
+        <v>287</v>
+      </c>
+      <c r="D286" s="1">
+        <v>405056466</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>84078447</v>
+      </c>
+      <c r="B287" s="1">
+        <v>986296</v>
+      </c>
+      <c r="C287" t="s">
+        <v>288</v>
+      </c>
+      <c r="D287" s="1">
+        <v>405112285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>70120295</v>
+      </c>
+      <c r="B288" s="1">
+        <v>8470251</v>
+      </c>
+      <c r="C288" t="s">
+        <v>289</v>
+      </c>
+      <c r="D288" s="1">
+        <v>405030198</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289">
+        <v>9307957</v>
+      </c>
+      <c r="B289" s="1">
+        <v>6630616</v>
+      </c>
+      <c r="C289" t="s">
+        <v>290</v>
+      </c>
+      <c r="D289" s="1">
+        <v>405030784</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>40912245</v>
+      </c>
+      <c r="B290" s="1">
+        <v>2117601</v>
+      </c>
+      <c r="C290" t="s">
+        <v>291</v>
+      </c>
+      <c r="D290" s="1">
+        <v>405056243</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>40942067</v>
+      </c>
+      <c r="B291" s="1">
+        <v>1556071</v>
+      </c>
+      <c r="C291" t="s">
+        <v>292</v>
+      </c>
+      <c r="D291" s="1">
+        <v>405149618</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>17955129</v>
+      </c>
+      <c r="B292" s="1">
+        <v>3390644</v>
+      </c>
+      <c r="C292" t="s">
+        <v>293</v>
+      </c>
+      <c r="D292" s="1">
+        <v>405067109</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>17951142</v>
+      </c>
+      <c r="B293" s="1">
+        <v>6145972</v>
+      </c>
+      <c r="C293" t="s">
+        <v>294</v>
+      </c>
+      <c r="D293" s="1">
+        <v>405056417</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>84035760</v>
+      </c>
+      <c r="B294" s="1">
+        <v>2817578</v>
+      </c>
+      <c r="C294" t="s">
+        <v>295</v>
+      </c>
+      <c r="D294" s="1">
+        <v>405067182</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>56056923</v>
+      </c>
+      <c r="B295" s="1">
+        <v>3441204</v>
+      </c>
+      <c r="C295" t="s">
+        <v>296</v>
+      </c>
+      <c r="D295" s="1">
+        <v>405129578</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>84079400</v>
+      </c>
+      <c r="B296" s="1">
+        <v>2674311</v>
+      </c>
+      <c r="C296" t="s">
+        <v>297</v>
+      </c>
+      <c r="D296" s="1">
+        <v>405123563</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>17807159</v>
+      </c>
+      <c r="B297" s="1">
+        <v>4204786</v>
+      </c>
+      <c r="C297" t="s">
+        <v>298</v>
+      </c>
+      <c r="D297" s="1">
+        <v>405040270</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>84035580</v>
+      </c>
+      <c r="B298" s="1">
+        <v>3390644</v>
+      </c>
+      <c r="C298" t="s">
+        <v>299</v>
+      </c>
+      <c r="D298" s="1">
+        <v>405078791</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>17806498</v>
+      </c>
+      <c r="B299" s="1">
+        <v>5052419</v>
+      </c>
+      <c r="C299" t="s">
+        <v>300</v>
+      </c>
+      <c r="D299" s="1">
+        <v>405055955</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>26995818</v>
+      </c>
+      <c r="B300" s="1">
+        <v>1935971</v>
+      </c>
+      <c r="C300" t="s">
+        <v>301</v>
+      </c>
+      <c r="D300" s="1">
+        <v>405055880</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>41693733</v>
+      </c>
+      <c r="B301" s="1">
+        <v>6382568</v>
+      </c>
+      <c r="C301" t="s">
+        <v>302</v>
+      </c>
+      <c r="D301" s="1">
+        <v>405056151</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>17953767</v>
+      </c>
+      <c r="B302" s="1">
+        <v>4726041</v>
+      </c>
+      <c r="C302" t="s">
+        <v>303</v>
+      </c>
+      <c r="D302" s="1">
+        <v>405055120</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>84033035</v>
+      </c>
+      <c r="B303" s="1">
+        <v>2817578</v>
+      </c>
+      <c r="C303" t="s">
+        <v>304</v>
+      </c>
+      <c r="D303" s="1">
+        <v>405061763</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <v>40930225</v>
+      </c>
+      <c r="B304" s="1">
+        <v>1556071</v>
+      </c>
+      <c r="C304" t="s">
+        <v>305</v>
+      </c>
+      <c r="D304" s="1">
+        <v>405101643</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <v>40935344</v>
+      </c>
+      <c r="B305" s="1">
+        <v>228016</v>
+      </c>
+      <c r="C305" t="s">
+        <v>306</v>
+      </c>
+      <c r="D305" s="1">
+        <v>405184466</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>26982790</v>
+      </c>
+      <c r="B306" s="1">
+        <v>6693264</v>
+      </c>
+      <c r="C306" t="s">
+        <v>307</v>
+      </c>
+      <c r="D306" s="1">
+        <v>405052515</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307">
+        <v>32628773</v>
+      </c>
+      <c r="B307" s="1">
+        <v>2817578</v>
+      </c>
+      <c r="C307" t="s">
+        <v>308</v>
+      </c>
+      <c r="D307" s="1">
+        <v>405090432</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308">
+        <v>18922505</v>
+      </c>
+      <c r="B308" s="1">
+        <v>3896425</v>
+      </c>
+      <c r="C308" t="s">
+        <v>309</v>
+      </c>
+      <c r="D308" s="1">
+        <v>405041161</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309">
+        <v>79689715</v>
+      </c>
+      <c r="B309" s="1">
+        <v>4298000</v>
+      </c>
+      <c r="C309" t="s">
+        <v>310</v>
+      </c>
+      <c r="D309" s="1">
+        <v>405179953</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>1118805345</v>
+      </c>
+      <c r="B310" s="1">
+        <v>4351861</v>
+      </c>
+      <c r="C310" t="s">
+        <v>311</v>
+      </c>
+      <c r="D310" s="1">
+        <v>405172016</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311">
+        <v>40920939</v>
+      </c>
+      <c r="B311" s="1">
+        <v>5731041</v>
+      </c>
+      <c r="C311" t="s">
+        <v>312</v>
+      </c>
+      <c r="D311" s="1">
+        <v>405055765</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312">
+        <v>77187962</v>
+      </c>
+      <c r="B312" s="1">
+        <v>3511440</v>
+      </c>
+      <c r="C312" t="s">
+        <v>313</v>
+      </c>
+      <c r="D312" s="1">
+        <v>405089103</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313">
+        <v>40917557</v>
+      </c>
+      <c r="B313" s="1">
+        <v>4800702</v>
+      </c>
+      <c r="C313" t="s">
+        <v>314</v>
+      </c>
+      <c r="D313" s="1">
+        <v>405015215</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314">
+        <v>26994996</v>
+      </c>
+      <c r="B314" s="1">
+        <v>817601</v>
+      </c>
+      <c r="C314" t="s">
+        <v>315</v>
+      </c>
+      <c r="D314" s="1">
+        <v>405029844</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315">
+        <v>56085314</v>
+      </c>
+      <c r="B315" s="1">
+        <v>4353133</v>
+      </c>
+      <c r="C315" t="s">
+        <v>316</v>
+      </c>
+      <c r="D315" s="1">
+        <v>405087362</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>40919703</v>
+      </c>
+      <c r="B316" s="1">
+        <v>2722895</v>
+      </c>
+      <c r="C316" t="s">
+        <v>317</v>
+      </c>
+      <c r="D316" s="1">
+        <v>405040858</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317">
+        <v>27004816</v>
+      </c>
+      <c r="B317" s="1">
+        <v>2817578</v>
+      </c>
+      <c r="C317" t="s">
+        <v>318</v>
+      </c>
+      <c r="D317" s="1">
+        <v>405123522</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318">
+        <v>40914803</v>
+      </c>
+      <c r="B318" s="1">
+        <v>2817578</v>
+      </c>
+      <c r="C318" t="s">
+        <v>319</v>
+      </c>
+      <c r="D318" s="1">
+        <v>405083247</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319">
+        <v>40937619</v>
+      </c>
+      <c r="B319" s="1">
+        <v>1598376</v>
+      </c>
+      <c r="C319" t="s">
+        <v>320</v>
+      </c>
+      <c r="D319" s="1">
+        <v>405112095</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320">
+        <v>56085519</v>
+      </c>
+      <c r="B320" s="1">
+        <v>2817578</v>
+      </c>
+      <c r="C320" t="s">
+        <v>321</v>
+      </c>
+      <c r="D320" s="1">
+        <v>304002447</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321">
+        <v>84082367</v>
+      </c>
+      <c r="B321" s="1">
+        <v>4352106</v>
+      </c>
+      <c r="C321" t="s">
+        <v>322</v>
+      </c>
+      <c r="D321" s="1">
+        <v>405102989</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322">
+        <v>6772256</v>
+      </c>
+      <c r="B322" s="1">
+        <v>3409747</v>
+      </c>
+      <c r="C322" t="s">
+        <v>323</v>
+      </c>
+      <c r="D322" s="1">
+        <v>300308194</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323">
+        <v>40799640</v>
+      </c>
+      <c r="B323" s="1">
+        <v>2100031</v>
+      </c>
+      <c r="C323" t="s">
+        <v>324</v>
+      </c>
+      <c r="D323" s="1">
+        <v>405065178</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324">
+        <v>27015180</v>
+      </c>
+      <c r="B324" s="1">
+        <v>4353133</v>
+      </c>
+      <c r="C324" t="s">
+        <v>325</v>
+      </c>
+      <c r="D324" s="1">
+        <v>300779162</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325">
+        <v>7475678</v>
+      </c>
+      <c r="B325" s="1">
+        <v>7707548</v>
+      </c>
+      <c r="C325" t="s">
+        <v>326</v>
+      </c>
+      <c r="D325" s="1">
         <v>405009515</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="B169" s="1"/>
-      <c r="D169" s="1"/>
+    <row r="326" spans="1:4">
+      <c r="A326">
+        <v>45518038</v>
+      </c>
+      <c r="B326" s="1">
+        <v>3511440</v>
+      </c>
+      <c r="C326" t="s">
+        <v>327</v>
+      </c>
+      <c r="D326" s="1">
+        <v>405179250</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327">
+        <v>12593221</v>
+      </c>
+      <c r="B327" s="1">
+        <v>3437785</v>
+      </c>
+      <c r="C327" t="s">
+        <v>328</v>
+      </c>
+      <c r="D327" s="1">
+        <v>405024092</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328">
+        <v>40937690</v>
+      </c>
+      <c r="B328" s="1">
+        <v>5025848</v>
+      </c>
+      <c r="C328" t="s">
+        <v>329</v>
+      </c>
+      <c r="D328" s="1">
+        <v>405179276</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="B329" s="1"/>
+      <c r="D329" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/reportes/pagomes/TotalPlano.xlsx
+++ b/reportes/pagomes/TotalPlano.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="PagoPlanta20141251" sheetId="1" r:id="rId4"/>
+    <sheet name="PagoPlanta20141201" sheetId="1" r:id="rId4"/>
     <sheet name="Worksheet 1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>C</t>
   </si>
@@ -27,478 +27,409 @@
     <t>D</t>
   </si>
   <si>
-    <t>AGUILAR BARROS JOSE BERNARDO</t>
-  </si>
-  <si>
-    <t>AGUILAR MEZA ENER MARINA</t>
-  </si>
-  <si>
-    <t>ALARCON MUNEVAR NATHALIE BEATRIZ</t>
-  </si>
-  <si>
-    <t>ALTURO MENDIGAÑA ADRIANA PATRICIA</t>
-  </si>
-  <si>
-    <t>ALVAREZ ECHEVERRIA BELINDA ESTHER</t>
-  </si>
-  <si>
-    <t>AMAYA MENGUAL GILBERTO JOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARCINIEGAS GUERRA ARIEL </t>
-  </si>
-  <si>
-    <t>ARISMENDY ROSADO MARTHA R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARIZA ARIZA DAVID </t>
-  </si>
-  <si>
-    <t>ARREGOCES  JUDITH MARIA</t>
-  </si>
-  <si>
-    <t>AVILA FUENTES MARTHA MILAGRO</t>
-  </si>
-  <si>
-    <t>BARLIZA NUÑEZ GLENDIS ISABEL</t>
-  </si>
-  <si>
-    <t>BARRIOS BADILLO WILFRIDO RAFAEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BELAIDES PERALTA CELIA </t>
-  </si>
-  <si>
-    <t>BELTRAN MARTINEZ GLORIA ISABEL</t>
-  </si>
-  <si>
-    <t>BERMUDEZ PIMIENTA CARLOS MANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BERNAL MUÑOZ FELIX </t>
-  </si>
-  <si>
-    <t>BONIVENTO EPIAYU AURA AMELIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAVO MENDOZA ARIANNYS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRUGES ALARCON NESTOR </t>
-  </si>
-  <si>
-    <t>BUENO PEREZ LUZ ANGELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABALLERO AMADOR JORGE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABRALES BONIVENTO EDWIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARDENAS CARDENAS ALAIN </t>
-  </si>
-  <si>
-    <t>CARDEÑO PORTELA EDWIN JOSE</t>
-  </si>
-  <si>
-    <t>CARRILLO CUJIA VIVIANA MILDRETH</t>
-  </si>
-  <si>
-    <t>CELEDON MARTINEZ DOGNA MARY</t>
-  </si>
-  <si>
-    <t>CELEDON MOLINARES ALBERTO PLACIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOLES MONTENEGRO NAYIDIS </t>
-  </si>
-  <si>
-    <t>CONSUEGRA TERAN MELISSA PAOLA</t>
-  </si>
-  <si>
-    <t>COTES SIERRA KARELIS BEATRIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUELLO DAZA EDITH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURIEL CORREA NEILY </t>
-  </si>
-  <si>
-    <t>DAZA AVILA RAFAEL GUILLERMO</t>
-  </si>
-  <si>
-    <t>DAZA LUQUE JOSE FRANCISCO</t>
-  </si>
-  <si>
-    <t>DAZA MENDOZA JUAN JOSE</t>
-  </si>
-  <si>
-    <t>DELUQUE ATENCIO DAISY E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELUQUE DIAZ CRISPULO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELUQUE NUÑEZ LISBETH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELUQUE RODRIGUEZ ISIDRO </t>
-  </si>
-  <si>
-    <t>DIAZ BERTY SARA RAQUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAZ ESPITIA NUBIA </t>
-  </si>
-  <si>
-    <t>DIAZ FUENMAYOR KERRY JOHANA</t>
-  </si>
-  <si>
-    <t>DIAZ MENDOZA DIANA CAROLINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUARTE PEÑARANDA EDINA </t>
-  </si>
-  <si>
-    <t>ESPINOSA ROMERO ANA PATRICIA</t>
-  </si>
-  <si>
-    <t>FINOLL ROYS RICARDO ENRIQUE</t>
-  </si>
-  <si>
-    <t>FONSECA GUERRERO JOSE LUIS</t>
-  </si>
-  <si>
-    <t>FONSECA MENDOZA ALMA LUISA</t>
-  </si>
-  <si>
-    <t>FORERO ARREGOCES HERLINDA ISABEL</t>
-  </si>
-  <si>
-    <t>FREYLE PIMIENTA KEILY JOANA</t>
-  </si>
-  <si>
-    <t>FRIAS ACOSTA EDILMA CECILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRIAS PEREZ RAIZA </t>
-  </si>
-  <si>
-    <t>FUENTES OROZCO ARINDA DE JESUS</t>
-  </si>
-  <si>
-    <t>FUENTES SANCHEZ LULIA PAULINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARCES MORELO DAGOBERTO </t>
-  </si>
-  <si>
-    <t>GOMEZ RAMOS JEINER DE JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZALEZ CUESTAS LENIN </t>
-  </si>
-  <si>
-    <t>GUERRA MAESTRE TULIO ENRIQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUTIERREZ AGUILAR HUGO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUTIERREZ MONROY ELVIRA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUTIERREZ PACHECO JACQUELIN </t>
-  </si>
-  <si>
-    <t>GUTIERREZ SUAREZ EDUARDO ENRIQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUZMAN VALDEBLANQUEZ FRANKLIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERNANDEZ DELUQUE RICARDO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERRERA ARRIOLA INES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HINOJOSA GUTIERREZ LADIMIRO </t>
-  </si>
-  <si>
-    <t>IBAÑEZ ROSALES SOL MARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBARRA IGUARAN TEOLINDA </t>
-  </si>
-  <si>
-    <t>JARAMILLO MENGUAL ROSA MARIA</t>
-  </si>
-  <si>
-    <t>JOIRO PACHECO YOLEIDA MARIA</t>
-  </si>
-  <si>
-    <t>LEMOS RUIZ CECILIA CONSTANZA</t>
-  </si>
-  <si>
-    <t>LINDO OÑATE OSCAR JOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ ATENCIO ADAULFO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ CORREA JUDITH </t>
-  </si>
-  <si>
-    <t>LOPEZ CORREA VICTOR MANUEL</t>
-  </si>
-  <si>
-    <t>LOPEZ FUENTES EDUIN JOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ HERNANDEZ RICARDO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ RIVADENEIRA CLEIRYS </t>
-  </si>
-  <si>
-    <t>MACHADO CANTILLO ANA BEATRIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAESTRE DAZA BERONICA </t>
-  </si>
-  <si>
-    <t>MAGDANIEL AMAYA OLARYS JUDITH</t>
-  </si>
-  <si>
-    <t>MAGDANIEL HERNANDEZ LIRINA PATRICIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGDANIEL PABON OLARIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGDANIEL PALACIO RAQUEL </t>
-  </si>
-  <si>
-    <t>MANJARREZ BRITO MARYORI TARYN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINEZ GOMEZ TATIANA </t>
-  </si>
-  <si>
-    <t>MEDINA BRITO LUZ LEIDIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDINA DE FUENTES MARTHA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDINA SIERRA ALTAGRACIA </t>
-  </si>
-  <si>
-    <t>MEJIA ACOSTA RAUL DAVID</t>
-  </si>
-  <si>
-    <t>MEJIA CANTILLO MILADIS MARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEJIA CURIEL EROTIDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEJIA DE LA CRUZ ELIAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEJIA JIMENEZ MILITZA </t>
-  </si>
-  <si>
-    <t>MENDOZA PEÑARANDA MARBELIA ROSA</t>
-  </si>
-  <si>
-    <t>MENGUAL MEZA MARINELA MORELIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MERCADO ROCHA CELIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MERCADO VILLADIEGO ALEXANDER </t>
-  </si>
-  <si>
-    <t>MOLINA VEGA ALFETT JOSE</t>
-  </si>
-  <si>
-    <t>MONTAÑO MARIMON DIANA ROSA</t>
-  </si>
-  <si>
-    <t>MORALES MENGUAL LUIS CARLOS</t>
-  </si>
-  <si>
-    <t>MORENO FERNANDEZ MALKA IRINA</t>
-  </si>
-  <si>
-    <t>MUÑIZ RODRIGUEZ ROSA VIRGINIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NATERA ESTRADA ANGEL </t>
-  </si>
-  <si>
-    <t>NUÑEZ VARGAS JULIA ROSA</t>
-  </si>
-  <si>
-    <t>OCHOA GARCIA ETILVIA ALICIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLIVEROS RICHOL JAQUELIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALACIO PIMIENTA DILODIS </t>
-  </si>
-  <si>
-    <t>PALMEZANO IBARRA YAIRINA IDELKA</t>
-  </si>
-  <si>
-    <t>PANCIERA DI ZOPOLA MARTINEZ MIGUEL J.</t>
-  </si>
-  <si>
-    <t>PEDRAZA FERNANDEZ MELY LINDON</t>
-  </si>
-  <si>
-    <t>PEÑALVER VANEGAS CASTA GLORIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERALTA SOLANO GUILLERMO </t>
-  </si>
-  <si>
-    <t>PEREZ GAMEZ BORYS DE JESUS</t>
-  </si>
-  <si>
-    <t>PINEDO GUERRA VICTOR MIGUEL</t>
-  </si>
-  <si>
-    <t>PINEDO VANEGAS AIRADIN ALONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINEDO VANEGAS DOMINGA </t>
-  </si>
-  <si>
-    <t>PINTO ANDRADE JOSE ALFONSO</t>
-  </si>
-  <si>
-    <t>PINTO COTES LAURA RITA</t>
-  </si>
-  <si>
-    <t>PINTO MENDOZA YAISY ROSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLO PERALTA JESUS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUINTERO FUENTES NARLY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAIGOZA ACUÑA YANETH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDONDO CHOLES MONICA </t>
-  </si>
-  <si>
-    <t>RICCIULLI PEREZ YESLITH VANESSA</t>
-  </si>
-  <si>
-    <t>ROBLES JULIO CARLOS ARTURO</t>
-  </si>
-  <si>
-    <t>ROBLES RIVEIRA HERMES ORLANDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRIGUEZ ACOSTA SAMUEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRIGUEZ CASTRO FREDY </t>
-  </si>
-  <si>
-    <t>RODRIGUEZ RIVERA MARIA EUGENIA</t>
-  </si>
-  <si>
-    <t>ROMERO MORA BORIS SANDY</t>
-  </si>
-  <si>
-    <t>ROSADO CASTAÑEDA ENEIDA LUZ</t>
-  </si>
-  <si>
-    <t>ROYS COTES EMA ROSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALAZAR GARCIA MIRIAM </t>
-  </si>
-  <si>
-    <t>SANCHEZ PARDO FELIX RAMIRO</t>
-  </si>
-  <si>
-    <t>SANCHEZ ROYS RUSDEN LENIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIERRA MEZA EUCADIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIERRA MONTALVO ARIANNA </t>
-  </si>
-  <si>
-    <t>SOLANO ARIÑO VIVIAN ELIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPROKEL BROCHERO RAFAEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIRADO MARTINEZ DAMARIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES SALAZAR MILENIS </t>
-  </si>
-  <si>
-    <t>TOVAR TORO GRIZZLY DAYHANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALDIVIESO CLAVIJO GIOVANNY </t>
-  </si>
-  <si>
-    <t>VANEGAS PEREZ PAOLA ANDREA</t>
-  </si>
-  <si>
-    <t>VARGAS ESCORCIA JOSE JORGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARGAS MUÑOZ LEDYS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASQUEZ MENDOZA MARIBETH </t>
-  </si>
-  <si>
-    <t>VASQUEZ SANCHEZ ELIS BEATRIZ</t>
-  </si>
-  <si>
-    <t>VEGA GAMEZ YAMIRA ISABEL</t>
-  </si>
-  <si>
-    <t>VIDAL GOMEZ AMPARO CAROLINA</t>
-  </si>
-  <si>
-    <t>VIECCO RIVADENEIRA LUIS RAFAEL</t>
-  </si>
-  <si>
-    <t>YAGUNA GUERRA MARIA ESTHER</t>
-  </si>
-  <si>
-    <t>ZABALETA MONTERO SOLEDAD MARINA</t>
-  </si>
-  <si>
-    <t>ZAMORA CORTES LOIDA PATRICIA</t>
-  </si>
-  <si>
-    <t>ZUBIRIA VIECCO JAIRO EMILIO</t>
-  </si>
-  <si>
-    <t>ZULETA PEREZ MILVIA JOSE</t>
+    <t>ACUÑA MEDINA DORIS ISABEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUÑA MENDOZA DORIS </t>
+  </si>
+  <si>
+    <t>ACUÑA VARGAS JULIO CESAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILAR JUAN DE DIOS </t>
+  </si>
+  <si>
+    <t>ALEAN VALLE JADER DARIO</t>
+  </si>
+  <si>
+    <t>ALFARO ALFARO EDER MANUEL</t>
+  </si>
+  <si>
+    <t>ALFARO FONSECA ANA MILENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANAYA ZABALA ROSARIO </t>
+  </si>
+  <si>
+    <t>ANGULO ARGOTE LUIS CARLOS</t>
+  </si>
+  <si>
+    <t>ANGULO RANGEL FRANKLIN ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARAMENDIZ GOMEZ LAURA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIZA CARLA PATRICIA </t>
+  </si>
+  <si>
+    <t>ARREGOCES JULIO ISABEL CARMENZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATRIO SILVIA INES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALLESTEROS MARTINEZ GUSTAVO </t>
+  </si>
+  <si>
+    <t>BARRIOS CARMONA ANIBAL JOAQUIN</t>
+  </si>
+  <si>
+    <t>BARROS LOPEZ JOSE ARTURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONIVENTO RODRIGUEZ JEIMMY </t>
+  </si>
+  <si>
+    <t>BORNACELLI GARCIA EVER AUGUSTO</t>
+  </si>
+  <si>
+    <t>BOTELLO PLATA ASLIN GONZALO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITO RONCANCIO ALBERTO </t>
+  </si>
+  <si>
+    <t>BRUGES COTES ISIDRO RAFAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUENO MEJIA ENDER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABRERA RODRIGUEZ ALVARO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTILLO PINTO ELIANA </t>
+  </si>
+  <si>
+    <t>CARABALLO ROBLE YERLIS YANET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARCAMO ESCORCIA TANIA </t>
+  </si>
+  <si>
+    <t>CARRILLO HERNANDEZ HERNAN JOAQUIN</t>
+  </si>
+  <si>
+    <t>CERA REDONDO EDWIN ENRIQUE</t>
+  </si>
+  <si>
+    <t>CORREA HENRIQUEZ GUSTAVO ADOLFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTES SPROCKEL MARITZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUJIA GUERRA EUCADYS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURIEL CORREA MIRLE </t>
+  </si>
+  <si>
+    <t>CURVELO BECERRA CAROLINA ESTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE ARMAS PEREZ EUDES </t>
+  </si>
+  <si>
+    <t>DEL CASTILLO SINNING MARIA CAROLINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELUQUE GOMEZ JULIO </t>
+  </si>
+  <si>
+    <t>DELUQUE TORO CRISPULO ENRIQUE</t>
+  </si>
+  <si>
+    <t>DIAZ ARRIETA INGRIS MARIA</t>
+  </si>
+  <si>
+    <t>DIAZ OLMOS DAENA DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAZ PEREZ ANDERSON </t>
+  </si>
+  <si>
+    <t>ERAZO FLOREZ JOSE AGUSTIN</t>
+  </si>
+  <si>
+    <t>FERNANDEZ FERNANDEZ JOHANNA CLARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIGUEROA MORENO OMAR </t>
+  </si>
+  <si>
+    <t>FONSECA MUÑOZ JUAN JOSE</t>
+  </si>
+  <si>
+    <t>FORERO BARRERA PAOLA ANDREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMEZ GAMEZ ALFREDO </t>
+  </si>
+  <si>
+    <t>GARCIA DAVILA MONICA LISETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENES DIAZ JAIDER </t>
+  </si>
+  <si>
+    <t>GIRALDO POLANCO MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>GONZALEZ ORTEGA JESUS ALBERTO</t>
+  </si>
+  <si>
+    <t>GRANADOS MARTINEZ CRISTIAN ENRIQUE</t>
+  </si>
+  <si>
+    <t>GUERRA HERRERA ELKIN TOBIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUERRA HERRERA EMERSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUERRA ROMERO LICETH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMBURGER GONZALEZ MARGARITA </t>
+  </si>
+  <si>
+    <t>HERRERA ESTRADA KATY CECILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRERA VILLAFAÑE ALVARO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HINCAPIE NAVARRETE LUIS </t>
+  </si>
+  <si>
+    <t>JACOME MEJIA JESUS ALFONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JARAMILLO PEÑALOZA YATSIRA </t>
+  </si>
+  <si>
+    <t>JIMENEZ FERBANS LARRY ANTONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIMENEZ PITRE NORYS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIÑAN CUELLO YULY </t>
+  </si>
+  <si>
+    <t>LIÑAN PANA EDUARDO ARISTIDES</t>
+  </si>
+  <si>
+    <t>LOPESIERRA OROZCO JAIDER JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ CONTRERAS JANEJA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ GONZALEZ ORLANDO </t>
+  </si>
+  <si>
+    <t>LOPEZ GONZALEZ YELENIS YANIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ MARQUEZ YARIANA </t>
+  </si>
+  <si>
+    <t>MADERO NUÑEZ OSVALDO FIDEL</t>
+  </si>
+  <si>
+    <t>MAESTRE MOLINARES CESAR DAVID</t>
+  </si>
+  <si>
+    <t>MAFLA PERALTA MILTON ANTONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGDANIEL RODRIGUEZ KENDRI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIN RAMOS CARMEN </t>
+  </si>
+  <si>
+    <t>MARTINEZ IBARRA MARLA YURANIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINEZ LOPEZ BETINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINEZ MANOTAS MARLYN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINEZ TRUJILLO NERYS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENDOZA DAZA ANIBAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENDOZA GARCES DIANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENDOZA GUERRA YOMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENDOZA RAMIREZ OSMAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENDOZA YEISY ELIBETH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENGUAL QUINTERO ATENAIDA </t>
+  </si>
+  <si>
+    <t>MEZA ANDRADE LINA MARCELA</t>
+  </si>
+  <si>
+    <t>MOLINA BECERRA JOSE CARLOS</t>
+  </si>
+  <si>
+    <t>MOLINA RODRIGUEZ EMIRO JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONROY TORO STELLA </t>
+  </si>
+  <si>
+    <t>MONTOYA ZABALETA TATIANA KATHERINE</t>
+  </si>
+  <si>
+    <t>MUÑOZ ESTRADA EMERITA SOFIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAJERA POLO FEDERICO </t>
+  </si>
+  <si>
+    <t>OCHOA REDONDO ANA JOSEFA</t>
+  </si>
+  <si>
+    <t>OCHOA REDONDO YAMILKA KARINA</t>
+  </si>
+  <si>
+    <t>OLIVO ALVAREZ SOCORRO CLARETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLMEDO LARRAZABAL ARMANDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OROZCO DAZA BERTHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPINO GOMEZ EMIRO </t>
+  </si>
+  <si>
+    <t>OTERO MENDOZA OLGA PATRICIA</t>
+  </si>
+  <si>
+    <t>PABA HERRERA LUZ ALBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALACIO SPROCKEL LILIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALENCIA DEL VALLE ZENITH </t>
+  </si>
+  <si>
+    <t>PALENCIA SALAS LUIS CARLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANCIERA DI ZOPPOLA MARTINEZ MARYORI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEÑARANDA PINTO ELKIS </t>
+  </si>
+  <si>
+    <t>PEREZ CAMPO AMALIS PATRICIA</t>
+  </si>
+  <si>
+    <t>PEREZ ILLIDGE NINA ALEJANDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ MEDINA ROSMERIS </t>
+  </si>
+  <si>
+    <t>PEREZ QUINTERO HEYLON GUSTAVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ ROJAS SOBEYDIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINTO PINTO BELKIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONTON DELUQUEZ ELIMAR </t>
+  </si>
+  <si>
+    <t>QUINTERO RAMOS MEUDYS PATRICIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDONDO MAESTRE ODILON </t>
+  </si>
+  <si>
+    <t>REDONDO SILVERA PEDRO ANTONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJAS ORTEGA JANNETH </t>
+  </si>
+  <si>
+    <t>ROMERO ACUÑA MIGUEL HUMBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMERO ZUÑIGA CARMEN </t>
+  </si>
+  <si>
+    <t>ROYS ROMERO NANCY ROSA</t>
+  </si>
+  <si>
+    <t>RUEDA TONCEL LUIS ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALAS SOLANO EDWIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ GIL CARMEN </t>
+  </si>
+  <si>
+    <t>SIERRA LLORENTE JOSE GREGORIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIERRA PARODI ANGELA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVA BRITO MARILUZ </t>
+  </si>
+  <si>
+    <t>SIMANCA SAN JUAN LUZ MIRIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOTO CORTEZ ELIZABETH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOTO RODRIGUEZ DERBER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USTATE PEREZ MARILI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEGA BRITO RAFAEL </t>
+  </si>
+  <si>
+    <t>VEGA GAMEZ MARTA INES</t>
+  </si>
+  <si>
+    <t>VERDECIA MIRANDA JEINER ALBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISCAINO MENDOZA LISETTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAGUNA NUÑEZ JOSE </t>
+  </si>
+  <si>
+    <t>YEPEZ AGUILAR FERNANDO ALBERTO</t>
   </si>
 </sst>
 </file>
@@ -842,7 +773,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2"/>
@@ -872,2219 +803,1897 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>84039816</v>
+        <v>56083464</v>
       </c>
       <c r="B2" s="1">
-        <v>45478</v>
+        <v>1932060</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>405048687</v>
+        <v>236070240361</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>40939700</v>
+        <v>40916476</v>
       </c>
       <c r="B3" s="1">
-        <v>196723</v>
+        <v>1455809</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>405179284</v>
+        <v>236070188305</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>40939978</v>
+        <v>72006262</v>
       </c>
       <c r="B4" s="1">
-        <v>77646</v>
+        <v>1340498</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>405149600</v>
+        <v>236870000882</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>40936721</v>
+        <v>3353189</v>
       </c>
       <c r="B5" s="1">
-        <v>77646</v>
+        <v>1567752</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>405182627</v>
+        <v>236870008422</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>40916739</v>
+        <v>12436703</v>
       </c>
       <c r="B6" s="1">
-        <v>172145</v>
+        <v>1724666</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>405056011</v>
+        <v>236070254206</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>8701267</v>
+        <v>85040779</v>
       </c>
       <c r="B7" s="1">
-        <v>141815</v>
+        <v>1351951</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>405030826</v>
+        <v>236870004520</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>17952855</v>
+        <v>32655910</v>
       </c>
       <c r="B8" s="1">
-        <v>116261</v>
+        <v>1664970</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>405030388</v>
+        <v>236070165923</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>26965887</v>
+        <v>50928222</v>
       </c>
       <c r="B9" s="1">
-        <v>116261</v>
+        <v>1405101</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>405044371</v>
+        <v>236070201868</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>72042242</v>
+        <v>77171940</v>
       </c>
       <c r="B10" s="1">
-        <v>45478</v>
+        <v>1622071</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>405055468</v>
+        <v>236800009045</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>42493216</v>
+        <v>84077038</v>
       </c>
       <c r="B11" s="1">
-        <v>82188</v>
+        <v>205860</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>405055740</v>
+        <v>236070228515</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>27004224</v>
+        <v>40975746</v>
       </c>
       <c r="B12" s="1">
-        <v>196723</v>
+        <v>1704148</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>405056383</v>
+        <v>236070254453</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>40928682</v>
+        <v>56059416</v>
       </c>
       <c r="B13" s="1">
-        <v>88572</v>
+        <v>1610845</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>405048505</v>
+        <v>256700040726</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>17805887</v>
+        <v>63550003</v>
       </c>
       <c r="B14" s="1">
-        <v>82188</v>
+        <v>1536223</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1">
-        <v>405753203</v>
+        <v>236070241690</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>40933413</v>
+        <v>241945</v>
       </c>
       <c r="B15" s="1">
-        <v>77646</v>
+        <v>1564304</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>405157488</v>
+        <v>236070197132</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>35463698</v>
+        <v>84083752</v>
       </c>
       <c r="B16" s="1">
-        <v>154488</v>
+        <v>1331431</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>405055823</v>
+        <v>236070251392</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>84079431</v>
+        <v>7928182</v>
       </c>
       <c r="B17" s="1">
-        <v>77646</v>
+        <v>1716678</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="1">
-        <v>405090531</v>
+        <v>256700032749</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>6882304</v>
+        <v>84090118</v>
       </c>
       <c r="B18" s="1">
-        <v>45478</v>
+        <v>780401</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="1">
-        <v>405031261</v>
+        <v>236070254552</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>40912637</v>
+        <v>64695644</v>
       </c>
       <c r="B19" s="1">
-        <v>80266</v>
+        <v>1591524</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>405055666</v>
+        <v>236070244306</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>40942508</v>
+        <v>1129567739</v>
       </c>
       <c r="B20" s="1">
-        <v>77646</v>
+        <v>1331431</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="1">
-        <v>405102203</v>
+        <v>236870031259</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>17802680</v>
+        <v>17977001</v>
       </c>
       <c r="B21" s="1">
-        <v>45478</v>
+        <v>1400477</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="1">
-        <v>405056276</v>
+        <v>340515303</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>40927768</v>
+        <v>84084498</v>
       </c>
       <c r="B22" s="1">
-        <v>77646</v>
+        <v>1702992</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="1">
-        <v>405166901</v>
+        <v>176370028209</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>9070606</v>
+        <v>17809167</v>
       </c>
       <c r="B23" s="1">
-        <v>86773</v>
+        <v>1221903</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="1">
-        <v>405056250</v>
+        <v>236070189287</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>84084156</v>
+        <v>17805480</v>
       </c>
       <c r="B24" s="1">
-        <v>196723</v>
+        <v>1625275</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>405140187</v>
+        <v>236070227699</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>84087841</v>
+        <v>79433108</v>
       </c>
       <c r="B25" s="1">
-        <v>196723</v>
+        <v>1721447</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="1">
-        <v>405164898</v>
+        <v>236870019833</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>84033855</v>
+        <v>40928509</v>
       </c>
       <c r="B26" s="1">
-        <v>196723</v>
+        <v>1570461</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="1">
-        <v>405137076</v>
+        <v>236000127167</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>1123998385</v>
+        <v>40931404</v>
       </c>
       <c r="B27" s="1">
-        <v>240114</v>
+        <v>373263</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="1">
-        <v>405140229</v>
+        <v>236070251988</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>40926769</v>
+        <v>1129534078</v>
       </c>
       <c r="B28" s="1">
-        <v>77646</v>
+        <v>974674</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="1">
-        <v>405139726</v>
+        <v>236070240866</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>12538766</v>
+        <v>77022202</v>
       </c>
       <c r="B29" s="1">
-        <v>240114</v>
+        <v>667082</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="1">
-        <v>405049776</v>
+        <v>236070203187</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>40924433</v>
+        <v>72018762</v>
       </c>
       <c r="B30" s="1">
-        <v>141815</v>
+        <v>1499637</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="1">
-        <v>405044587</v>
+        <v>236870008588</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>1129577145</v>
+        <v>84089625</v>
       </c>
       <c r="B31" s="1">
-        <v>196723</v>
+        <v>1573664</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="1">
-        <v>405176868</v>
+        <v>236070231873</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>40926534</v>
+        <v>40915981</v>
       </c>
       <c r="B32" s="1">
-        <v>196723</v>
+        <v>1463519</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="1">
-        <v>405076225</v>
+        <v>236070221148</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>27002170</v>
+        <v>40925567</v>
       </c>
       <c r="B33" s="1">
-        <v>196723</v>
+        <v>1772159</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="1">
-        <v>405059247</v>
+        <v>236070188412</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>40916635</v>
+        <v>40917959</v>
       </c>
       <c r="B34" s="1">
-        <v>141815</v>
+        <v>1816809</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="1">
-        <v>405031014</v>
+        <v>236070186622</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>84033345</v>
+        <v>40931473</v>
       </c>
       <c r="B35" s="1">
-        <v>141815</v>
+        <v>1519440</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="1">
-        <v>405031352</v>
+        <v>236070225321</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>84037627</v>
+        <v>17847218</v>
       </c>
       <c r="B36" s="1">
-        <v>172145</v>
+        <v>2038522</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="1">
-        <v>405055138</v>
+        <v>236070191085</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>17975955</v>
+        <v>1128325680</v>
       </c>
       <c r="B37" s="1">
-        <v>77646</v>
+        <v>1331431</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="1">
-        <v>405066309</v>
+        <v>236070236385</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>40913813</v>
+        <v>8815886</v>
       </c>
       <c r="B38" s="1">
-        <v>45478</v>
+        <v>1632048</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="1">
-        <v>405030115</v>
+        <v>236070188834</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>84084230</v>
+        <v>7630378</v>
       </c>
       <c r="B39" s="1">
-        <v>77646</v>
+        <v>2525316</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="1">
-        <v>405090036</v>
+        <v>236870033438</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>40922080</v>
+        <v>27041971</v>
       </c>
       <c r="B40" s="1">
-        <v>77646</v>
+        <v>1694508</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="1">
-        <v>405055088</v>
+        <v>236070221387</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>84028941</v>
+        <v>1032389676</v>
       </c>
       <c r="B41" s="1">
-        <v>196723</v>
+        <v>1518574</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="1">
-        <v>405056342</v>
+        <v>236870019767</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>40923874</v>
+        <v>12646564</v>
       </c>
       <c r="B42" s="1">
-        <v>116261</v>
+        <v>2081924</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="1">
-        <v>405055781</v>
+        <v>23300007236</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>40916312</v>
+        <v>9080934</v>
       </c>
       <c r="B43" s="1">
-        <v>45478</v>
+        <v>1992068</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="1">
-        <v>405055575</v>
+        <v>236000684506</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>40927310</v>
+        <v>39492672</v>
       </c>
       <c r="B44" s="1">
-        <v>240114</v>
+        <v>1331431</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="1">
-        <v>405123787</v>
+        <v>6100909057</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>52702655</v>
+        <v>7573426</v>
       </c>
       <c r="B45" s="1">
-        <v>196723</v>
+        <v>1809506</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="1">
-        <v>310081955</v>
+        <v>236870033511</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>40925745</v>
+        <v>17807921</v>
       </c>
       <c r="B46" s="1">
-        <v>116261</v>
+        <v>1485319</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="1">
-        <v>405041716</v>
+        <v>236070248711</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>1118805083</v>
+        <v>36695870</v>
       </c>
       <c r="B47" s="1">
-        <v>196723</v>
+        <v>1579138</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
       <c r="D47" s="1">
-        <v>405179243</v>
+        <v>236870037751</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>84089741</v>
+        <v>84038022</v>
       </c>
       <c r="B48" s="1">
-        <v>77646</v>
+        <v>1850681</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="1">
-        <v>405171984</v>
+        <v>236070186994</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>12546959</v>
+        <v>40937386</v>
       </c>
       <c r="B49" s="1">
-        <v>172145</v>
+        <v>937248</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="1">
-        <v>405754946</v>
+        <v>236000662577</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>56069985</v>
+        <v>84068359</v>
       </c>
       <c r="B50" s="1">
-        <v>77646</v>
+        <v>1320602</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="1">
-        <v>405165036</v>
+        <v>236070190327</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>40918603</v>
+        <v>52690175</v>
       </c>
       <c r="B51" s="1">
-        <v>45478</v>
+        <v>1367226</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51" s="1">
-        <v>405049784</v>
+        <v>236800004277</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>40933997</v>
+        <v>1766475</v>
       </c>
       <c r="B52" s="1">
-        <v>148956</v>
+        <v>1360142</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
       </c>
       <c r="D52" s="1">
-        <v>405183963</v>
+        <v>236870011053</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>41477972</v>
+        <v>7601646</v>
       </c>
       <c r="B53" s="1">
-        <v>240114</v>
+        <v>1373384</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
       </c>
       <c r="D53" s="1">
-        <v>405053679</v>
+        <v>117100013350</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>40838476</v>
+        <v>17954352</v>
       </c>
       <c r="B54" s="1">
-        <v>154488</v>
+        <v>1563071</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="1">
-        <v>405039967</v>
+        <v>236070222617</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>40915762</v>
+        <v>17955242</v>
       </c>
       <c r="B55" s="1">
-        <v>196723</v>
+        <v>739636</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="1">
-        <v>405055724</v>
+        <v>236870002276</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>41672425</v>
+        <v>56055715</v>
       </c>
       <c r="B56" s="1">
-        <v>240114</v>
+        <v>1548064</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="1">
-        <v>405061789</v>
+        <v>256700007386</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>15020638</v>
+        <v>22731863</v>
       </c>
       <c r="B57" s="1">
-        <v>45478</v>
+        <v>1411877</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="1">
-        <v>405031220</v>
+        <v>236870011046</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>1010089455</v>
+        <v>36694209</v>
       </c>
       <c r="B58" s="1">
-        <v>77646</v>
+        <v>1399427</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
       </c>
       <c r="D58" s="1">
-        <v>405182619</v>
+        <v>236000684746</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>84030977</v>
+        <v>8852594</v>
       </c>
       <c r="B59" s="1">
-        <v>80266</v>
+        <v>1331431</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="1">
-        <v>405054339</v>
+        <v>236800011801</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>12719194</v>
+        <v>19354953</v>
       </c>
       <c r="B60" s="1">
-        <v>45478</v>
+        <v>1666907</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
       </c>
       <c r="D60" s="1">
-        <v>405767450</v>
+        <v>236070238597</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>17806728</v>
+        <v>84091706</v>
       </c>
       <c r="B61" s="1">
-        <v>172145</v>
+        <v>1384254</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>236870006921</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>40942002</v>
+        <v>56057052</v>
       </c>
       <c r="B62" s="1">
-        <v>45478</v>
+        <v>1518113</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
       </c>
       <c r="D62" s="1">
-        <v>405149733</v>
+        <v>236070193891</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>40917742</v>
+        <v>84452442</v>
       </c>
       <c r="B63" s="1">
-        <v>80266</v>
+        <v>1857562</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" s="1">
-        <v>405040999</v>
+        <v>236870034386</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>17974249</v>
+        <v>56055470</v>
       </c>
       <c r="B64" s="1">
-        <v>77646</v>
+        <v>1455284</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="1">
-        <v>405028887</v>
+        <v>236800017170</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>17808439</v>
+        <v>40801013</v>
       </c>
       <c r="B65" s="1">
-        <v>86773</v>
+        <v>1521193</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
       </c>
       <c r="D65" s="1">
-        <v>405031022</v>
+        <v>236070193446</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>84026213</v>
+        <v>77169980</v>
       </c>
       <c r="B66" s="1">
-        <v>45478</v>
+        <v>1716429</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
       </c>
       <c r="D66" s="1">
-        <v>405048703</v>
+        <v>236070196969</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>22977169</v>
+        <v>84026700</v>
       </c>
       <c r="B67" s="1">
-        <v>45478</v>
+        <v>1523470</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
       </c>
       <c r="D67" s="1">
-        <v>405056102</v>
+        <v>236070244801</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>84104058</v>
+        <v>56097870</v>
       </c>
       <c r="B68" s="1">
-        <v>65516</v>
+        <v>1361066</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="1">
-        <v>405055583</v>
+        <v>256800011361</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>40914837</v>
+        <v>17805992</v>
       </c>
       <c r="B69" s="1">
-        <v>80266</v>
+        <v>1570461</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
       </c>
       <c r="D69" s="1">
-        <v>405040445</v>
+        <v>236070213244</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>40916124</v>
+        <v>40916440</v>
       </c>
       <c r="B70" s="1">
-        <v>196723</v>
+        <v>1748448</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
       </c>
       <c r="D70" s="1">
-        <v>405020504</v>
+        <v>236070069976</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>40837882</v>
+        <v>25786131</v>
       </c>
       <c r="B71" s="1">
-        <v>116261</v>
+        <v>1331431</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
       </c>
       <c r="D71" s="1">
-        <v>405054099</v>
+        <v>236870015559</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>40983796</v>
+        <v>73098263</v>
       </c>
       <c r="B72" s="1">
-        <v>45478</v>
+        <v>1595466</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
       </c>
       <c r="D72" s="1">
-        <v>405149626</v>
+        <v>236000132472</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>25271766</v>
+        <v>1065565065</v>
       </c>
       <c r="B73" s="1">
-        <v>240114</v>
+        <v>1331431</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
       </c>
       <c r="D73" s="1">
-        <v>405056359</v>
+        <v>236000668210</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>84035236</v>
+        <v>84071015</v>
       </c>
       <c r="B74" s="1">
-        <v>196723</v>
+        <v>1447977</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
       </c>
       <c r="D74" s="1">
-        <v>405138199</v>
+        <v>236070217914</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>12720417</v>
+        <v>84092320</v>
       </c>
       <c r="B75" s="1">
-        <v>196723</v>
+        <v>1599156</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" s="1">
-        <v>405055914</v>
+        <v>236070218847</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>40915007</v>
+        <v>32799776</v>
       </c>
       <c r="B76" s="1">
-        <v>172145</v>
+        <v>870165</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
       </c>
       <c r="D76" s="1">
-        <v>405055922</v>
+        <v>236870023660</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>84028500</v>
+        <v>40944586</v>
       </c>
       <c r="B77" s="1">
-        <v>45478</v>
+        <v>1455284</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
       </c>
       <c r="D77" s="1">
-        <v>405057985</v>
+        <v>236800012064</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>84034370</v>
+        <v>40925656</v>
       </c>
       <c r="B78" s="1">
-        <v>240114</v>
+        <v>1633526</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
       </c>
       <c r="D78" s="1">
-        <v>405087438</v>
+        <v>236870005584</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>91528139</v>
+        <v>63543756</v>
       </c>
       <c r="B79" s="1">
-        <v>196723</v>
+        <v>1508874</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
       </c>
       <c r="D79" s="1">
-        <v>405153487</v>
+        <v>236070203971</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>40941561</v>
+        <v>49762677</v>
       </c>
       <c r="B80" s="1">
-        <v>77646</v>
+        <v>1818349</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
       </c>
       <c r="D80" s="1">
-        <v>405142209</v>
+        <v>6204549732</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>57446153</v>
+        <v>8702503</v>
       </c>
       <c r="B81" s="1">
-        <v>196723</v>
+        <v>1646701</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
       </c>
       <c r="D81" s="1">
-        <v>405056193</v>
+        <v>236070189428</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>40938567</v>
+        <v>56075021</v>
       </c>
       <c r="B82" s="1">
-        <v>77646</v>
+        <v>1417911</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
       </c>
       <c r="D82" s="1">
-        <v>405766999</v>
+        <v>256800034272</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>32710942</v>
+        <v>40933239</v>
       </c>
       <c r="B83" s="1">
-        <v>154488</v>
+        <v>1823564</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
       </c>
       <c r="D83" s="1">
-        <v>405053984</v>
+        <v>236070196407</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>40923820</v>
+        <v>84029261</v>
       </c>
       <c r="B84" s="1">
-        <v>77646</v>
+        <v>1582779</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
       </c>
       <c r="D84" s="1">
-        <v>405174061</v>
+        <v>236070159439</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>40924537</v>
+        <v>56074548</v>
       </c>
       <c r="B85" s="1">
-        <v>80266</v>
+        <v>1324115</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
       </c>
       <c r="D85" s="1">
-        <v>405040064</v>
+        <v>256700012188</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>40924429</v>
+        <v>37864268</v>
       </c>
       <c r="B86" s="1">
-        <v>77646</v>
+        <v>1650974</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
       </c>
       <c r="D86" s="1">
-        <v>405056326</v>
+        <v>236000678870</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>56057668</v>
+        <v>40939364</v>
       </c>
       <c r="B87" s="1">
-        <v>196723</v>
+        <v>1645028</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
       </c>
       <c r="D87" s="1">
-        <v>405176934</v>
+        <v>236070217799</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>32181130</v>
+        <v>17848788</v>
       </c>
       <c r="B88" s="1">
-        <v>240114</v>
+        <v>1634019</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
       </c>
       <c r="D88" s="1">
-        <v>405164013</v>
+        <v>236070167168</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>40927723</v>
+        <v>19289352</v>
       </c>
       <c r="B89" s="1">
-        <v>196723</v>
+        <v>1628000</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
       </c>
       <c r="D89" s="1">
-        <v>405182916</v>
+        <v>256700008020</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>40917726</v>
+        <v>40912287</v>
       </c>
       <c r="B90" s="1">
-        <v>45478</v>
+        <v>1551986</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
       </c>
       <c r="D90" s="1">
-        <v>405044330</v>
+        <v>236070122247</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>40912575</v>
+        <v>1118817317</v>
       </c>
       <c r="B91" s="1">
-        <v>45478</v>
+        <v>1422090</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
       </c>
       <c r="D91" s="1">
-        <v>405055708</v>
+        <v>236000672998</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>84092791</v>
+        <v>40925447</v>
       </c>
       <c r="B92" s="1">
-        <v>154488</v>
+        <v>1710114</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
       </c>
       <c r="D92" s="1">
-        <v>405124462</v>
+        <v>236070192364</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>40913846</v>
+        <v>17805486</v>
       </c>
       <c r="B93" s="1">
-        <v>77646</v>
+        <v>1624658</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
       </c>
       <c r="D93" s="1">
-        <v>405031154</v>
+        <v>236070186549</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>40924959</v>
+        <v>40918307</v>
       </c>
       <c r="B94" s="1">
-        <v>240114</v>
+        <v>1471924</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
       </c>
       <c r="D94" s="1">
-        <v>405061706</v>
+        <v>236070228622</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>84031046</v>
+        <v>40929923</v>
       </c>
       <c r="B95" s="1">
-        <v>172145</v>
+        <v>1508874</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
       </c>
       <c r="D95" s="1">
-        <v>405042482</v>
+        <v>236070218003</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>57440533</v>
+        <v>45440345</v>
       </c>
       <c r="B96" s="1">
-        <v>196723</v>
+        <v>1651817</v>
       </c>
       <c r="C96" t="s">
         <v>97</v>
       </c>
       <c r="D96" s="1">
-        <v>405171752</v>
+        <v>236870004371</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>40923961</v>
+        <v>5159197</v>
       </c>
       <c r="B97" s="1">
-        <v>77646</v>
+        <v>2056099</v>
       </c>
       <c r="C97" t="s">
         <v>98</v>
       </c>
       <c r="D97" s="1">
-        <v>405182643</v>
+        <v>256700064858</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>32655352</v>
+        <v>27003218</v>
       </c>
       <c r="B98" s="1">
-        <v>196723</v>
+        <v>1451558</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
       </c>
       <c r="D98" s="1">
-        <v>405056110</v>
+        <v>256700003971</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>32632763</v>
+        <v>8532284</v>
       </c>
       <c r="B99" s="1">
-        <v>172145</v>
+        <v>1436706</v>
       </c>
       <c r="C99" t="s">
         <v>100</v>
       </c>
       <c r="D99" s="1">
-        <v>405056409</v>
+        <v>236870011640</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>84078019</v>
+        <v>51560618</v>
       </c>
       <c r="B100" s="1">
-        <v>45478</v>
+        <v>1808980</v>
       </c>
       <c r="C100" t="s">
         <v>101</v>
       </c>
       <c r="D100" s="1">
-        <v>405767534</v>
+        <v>256800034249</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>17954966</v>
+        <v>55248484</v>
       </c>
       <c r="B101" s="1">
-        <v>77646</v>
+        <v>569591</v>
       </c>
       <c r="C101" t="s">
         <v>102</v>
       </c>
       <c r="D101" s="1">
-        <v>405154998</v>
+        <v>236870021243</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>40839704</v>
+        <v>51748053</v>
       </c>
       <c r="B102" s="1">
-        <v>148956</v>
+        <v>850597</v>
       </c>
       <c r="C102" t="s">
         <v>103</v>
       </c>
       <c r="D102" s="1">
-        <v>405033374</v>
+        <v>236070222476</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>84034602</v>
+        <v>40978427</v>
       </c>
       <c r="B103" s="1">
-        <v>116261</v>
+        <v>200590</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
       </c>
       <c r="D103" s="1">
-        <v>405055690</v>
+        <v>236870019239</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>39490945</v>
+        <v>1082903902</v>
       </c>
       <c r="B104" s="1">
-        <v>196723</v>
+        <v>1290931</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
       </c>
       <c r="D104" s="1">
-        <v>405123639</v>
+        <v>116270064300</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>40942871</v>
+        <v>40927309</v>
       </c>
       <c r="B105" s="1">
-        <v>196723</v>
+        <v>1429646</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
       </c>
       <c r="D105" s="1">
-        <v>405182854</v>
+        <v>236870019726</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>84026238</v>
+        <v>17954528</v>
       </c>
       <c r="B106" s="1">
-        <v>65516</v>
+        <v>1517210</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="1">
-        <v>405056284</v>
+        <v>236800011785</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>40914786</v>
+        <v>37723525</v>
       </c>
       <c r="B107" s="1">
-        <v>80266</v>
+        <v>1389518</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
       </c>
       <c r="D107" s="1">
-        <v>405029885</v>
+        <v>236870025863</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>40925643</v>
+        <v>40928757</v>
       </c>
       <c r="B108" s="1">
-        <v>77646</v>
+        <v>1509160</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
       </c>
       <c r="D108" s="1">
-        <v>405149253</v>
+        <v>236000667303</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>32704787</v>
+        <v>56055080</v>
       </c>
       <c r="B109" s="1">
-        <v>77646</v>
+        <v>1471297</v>
       </c>
       <c r="C109" t="s">
         <v>110</v>
       </c>
       <c r="D109" s="1">
-        <v>405030180</v>
+        <v>256700007345</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>40915068</v>
+        <v>84091745</v>
       </c>
       <c r="B110" s="1">
-        <v>141815</v>
+        <v>1697544</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
       </c>
       <c r="D110" s="1">
-        <v>405043035</v>
+        <v>236070253968</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>40937339</v>
+        <v>40924816</v>
       </c>
       <c r="B111" s="1">
-        <v>196723</v>
+        <v>1659762</v>
       </c>
       <c r="C111" t="s">
         <v>112</v>
       </c>
       <c r="D111" s="1">
-        <v>405182668</v>
+        <v>236070238639</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>84080209</v>
+        <v>32607901</v>
       </c>
       <c r="B112" s="1">
-        <v>196723</v>
+        <v>1373384</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
       </c>
       <c r="D112" s="1">
-        <v>405096520</v>
+        <v>236070228416</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>84028958</v>
+        <v>45553996</v>
       </c>
       <c r="B113" s="1">
-        <v>77646</v>
+        <v>1557836</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
       </c>
       <c r="D113" s="1">
-        <v>400783940</v>
+        <v>236070236146</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>40928745</v>
+        <v>39491023</v>
       </c>
       <c r="B114" s="1">
-        <v>196723</v>
+        <v>1490660</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
       </c>
       <c r="D114" s="1">
-        <v>405089905</v>
+        <v>236870028339</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>72174199</v>
+        <v>17802264</v>
       </c>
       <c r="B115" s="1">
-        <v>196723</v>
+        <v>1664592</v>
       </c>
       <c r="C115" t="s">
         <v>116</v>
       </c>
       <c r="D115" s="1">
-        <v>405055195</v>
+        <v>236070221460</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>17855736</v>
+        <v>72014850</v>
       </c>
       <c r="B116" s="1">
-        <v>45478</v>
+        <v>1380972</v>
       </c>
       <c r="C116" t="s">
         <v>117</v>
       </c>
       <c r="D116" s="1">
-        <v>405161464</v>
+        <v>236870025673</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>17804185</v>
+        <v>52029926</v>
       </c>
       <c r="B117" s="1">
-        <v>196723</v>
+        <v>1799969</v>
       </c>
       <c r="C117" t="s">
         <v>118</v>
       </c>
       <c r="D117" s="1">
-        <v>405059361</v>
+        <v>236870015385</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>84026629</v>
+        <v>84092580</v>
       </c>
       <c r="B118" s="1">
-        <v>240114</v>
+        <v>988617</v>
       </c>
       <c r="C118" t="s">
         <v>119</v>
       </c>
       <c r="D118" s="1">
-        <v>405055401</v>
+        <v>236800012478</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>40914203</v>
+        <v>64549993</v>
       </c>
       <c r="B119" s="1">
-        <v>141815</v>
+        <v>1722888</v>
       </c>
       <c r="C119" t="s">
         <v>120</v>
       </c>
       <c r="D119" s="1">
-        <v>405055245</v>
+        <v>236070160668</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>77022224</v>
+        <v>40927027</v>
       </c>
       <c r="B120" s="1">
-        <v>196723</v>
+        <v>1579699</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
       </c>
       <c r="D120" s="1">
-        <v>405158411</v>
+        <v>236070236328</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>40936726</v>
+        <v>17958969</v>
       </c>
       <c r="B121" s="1">
-        <v>196723</v>
+        <v>1324115</v>
       </c>
       <c r="C121" t="s">
         <v>122</v>
       </c>
       <c r="D121" s="1">
-        <v>405179268</v>
+        <v>256700010232</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>40922011</v>
+        <v>84078652</v>
       </c>
       <c r="B122" s="1">
-        <v>116261</v>
+        <v>1598961</v>
       </c>
       <c r="C122" t="s">
         <v>123</v>
       </c>
       <c r="D122" s="1">
-        <v>405052903</v>
+        <v>236070176037</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>5159322</v>
+        <v>40924926</v>
       </c>
       <c r="B123" s="1">
-        <v>172145</v>
+        <v>1632048</v>
       </c>
       <c r="C123" t="s">
         <v>124</v>
       </c>
       <c r="D123" s="1">
-        <v>405012113</v>
+        <v>236070213699</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>40924637</v>
+        <v>15704097</v>
       </c>
       <c r="B124" s="1">
-        <v>82188</v>
+        <v>1568121</v>
       </c>
       <c r="C124" t="s">
         <v>125</v>
       </c>
       <c r="D124" s="1">
-        <v>405055476</v>
+        <v>236070220983</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>36719109</v>
+        <v>26985258</v>
       </c>
       <c r="B125" s="1">
-        <v>196723</v>
+        <v>1819827</v>
       </c>
       <c r="C125" t="s">
         <v>126</v>
       </c>
       <c r="D125" s="1">
-        <v>405067208</v>
+        <v>256700005521</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>40923678</v>
+        <v>56085266</v>
       </c>
       <c r="B126" s="1">
-        <v>154488</v>
+        <v>1553526</v>
       </c>
       <c r="C126" t="s">
         <v>127</v>
       </c>
       <c r="D126" s="1">
-        <v>405031287</v>
+        <v>236070221312</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>1118810845</v>
+        <v>39538146</v>
       </c>
       <c r="B127" s="1">
-        <v>196723</v>
+        <v>1824629</v>
       </c>
       <c r="C127" t="s">
         <v>128</v>
       </c>
       <c r="D127" s="1">
-        <v>405183864</v>
+        <v>256370002717</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>84032882</v>
+        <v>40923367</v>
       </c>
       <c r="B128" s="1">
-        <v>418547</v>
+        <v>522709</v>
       </c>
       <c r="C128" t="s">
         <v>129</v>
       </c>
       <c r="D128" s="1">
-        <v>405136433</v>
+        <v>236870007895</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>8798450</v>
+        <v>84006422</v>
       </c>
       <c r="B129" s="1">
-        <v>77646</v>
+        <v>1694322</v>
       </c>
       <c r="C129" t="s">
         <v>130</v>
       </c>
       <c r="D129" s="1">
-        <v>405182635</v>
+        <v>256700042631</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>84083636</v>
+        <v>36550740</v>
       </c>
       <c r="B130" s="1">
-        <v>65516</v>
+        <v>1656682</v>
       </c>
       <c r="C130" t="s">
         <v>131</v>
       </c>
       <c r="D130" s="1">
-        <v>405051269</v>
+        <v>236070225685</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>84033695</v>
+        <v>84103715</v>
       </c>
       <c r="B131" s="1">
-        <v>196723</v>
+        <v>353192</v>
       </c>
       <c r="C131" t="s">
         <v>132</v>
       </c>
       <c r="D131" s="1">
-        <v>405067091</v>
+        <v>236070187505</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>40923400</v>
+        <v>40928186</v>
       </c>
       <c r="B132" s="1">
-        <v>196723</v>
+        <v>1848397</v>
       </c>
       <c r="C132" t="s">
         <v>133</v>
       </c>
       <c r="D132" s="1">
-        <v>405030362</v>
+        <v>236070193842</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>17844731</v>
+        <v>77030133</v>
       </c>
       <c r="B133" s="1">
-        <v>240114</v>
+        <v>1584959</v>
       </c>
       <c r="C133" t="s">
         <v>134</v>
       </c>
       <c r="D133" s="1">
-        <v>405009267</v>
+        <v>236870034782</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>27015139</v>
+        <v>40944602</v>
       </c>
       <c r="B134" s="1">
-        <v>196723</v>
+        <v>1336432</v>
       </c>
       <c r="C134" t="s">
         <v>135</v>
       </c>
       <c r="D134" s="1">
-        <v>405056334</v>
+        <v>236800008708</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>40931453</v>
+        <v>12721447</v>
       </c>
       <c r="B135" s="1">
-        <v>148956</v>
+        <v>1965850</v>
       </c>
       <c r="C135" t="s">
         <v>136</v>
       </c>
       <c r="D135" s="1">
-        <v>405179169</v>
+        <v>256070343361</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>40976465</v>
+        <v>7572198</v>
       </c>
       <c r="B136" s="1">
-        <v>80266</v>
+        <v>1324115</v>
       </c>
       <c r="C136" t="s">
         <v>137</v>
       </c>
       <c r="D136" s="1">
-        <v>405044439</v>
+        <v>236070225628</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137">
-        <v>13015884</v>
-      </c>
-      <c r="B137" s="1">
-        <v>240114</v>
-      </c>
-      <c r="C137" t="s">
-        <v>138</v>
-      </c>
-      <c r="D137" s="1">
-        <v>405156142</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138">
-        <v>84078447</v>
-      </c>
-      <c r="B138" s="1">
-        <v>45478</v>
-      </c>
-      <c r="C138" t="s">
-        <v>139</v>
-      </c>
-      <c r="D138" s="1">
-        <v>405112285</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139">
-        <v>40912245</v>
-      </c>
-      <c r="B139" s="1">
-        <v>88572</v>
-      </c>
-      <c r="C139" t="s">
-        <v>140</v>
-      </c>
-      <c r="D139" s="1">
-        <v>405056243</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140">
-        <v>40942067</v>
-      </c>
-      <c r="B140" s="1">
-        <v>77646</v>
-      </c>
-      <c r="C140" t="s">
-        <v>141</v>
-      </c>
-      <c r="D140" s="1">
-        <v>405149618</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141">
-        <v>56056923</v>
-      </c>
-      <c r="B141" s="1">
-        <v>196723</v>
-      </c>
-      <c r="C141" t="s">
-        <v>142</v>
-      </c>
-      <c r="D141" s="1">
-        <v>405129578</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142">
-        <v>17807159</v>
-      </c>
-      <c r="B142" s="1">
-        <v>196723</v>
-      </c>
-      <c r="C142" t="s">
-        <v>143</v>
-      </c>
-      <c r="D142" s="1">
-        <v>405040270</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143">
-        <v>26995818</v>
-      </c>
-      <c r="B143" s="1">
-        <v>80266</v>
-      </c>
-      <c r="C143" t="s">
-        <v>144</v>
-      </c>
-      <c r="D143" s="1">
-        <v>405055880</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144">
-        <v>40930225</v>
-      </c>
-      <c r="B144" s="1">
-        <v>77646</v>
-      </c>
-      <c r="C144" t="s">
-        <v>145</v>
-      </c>
-      <c r="D144" s="1">
-        <v>405101643</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145">
-        <v>40935344</v>
-      </c>
-      <c r="B145" s="1">
-        <v>172145</v>
-      </c>
-      <c r="C145" t="s">
-        <v>146</v>
-      </c>
-      <c r="D145" s="1">
-        <v>405184466</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146">
-        <v>18922505</v>
-      </c>
-      <c r="B146" s="1">
-        <v>172145</v>
-      </c>
-      <c r="C146" t="s">
-        <v>147</v>
-      </c>
-      <c r="D146" s="1">
-        <v>405041161</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147">
-        <v>1118805345</v>
-      </c>
-      <c r="B147" s="1">
-        <v>196723</v>
-      </c>
-      <c r="C147" t="s">
-        <v>148</v>
-      </c>
-      <c r="D147" s="1">
-        <v>405172016</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148">
-        <v>77187962</v>
-      </c>
-      <c r="B148" s="1">
-        <v>196723</v>
-      </c>
-      <c r="C148" t="s">
-        <v>149</v>
-      </c>
-      <c r="D148" s="1">
-        <v>405089103</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149">
-        <v>40917557</v>
-      </c>
-      <c r="B149" s="1">
-        <v>172145</v>
-      </c>
-      <c r="C149" t="s">
-        <v>150</v>
-      </c>
-      <c r="D149" s="1">
-        <v>405015215</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150">
-        <v>26994996</v>
-      </c>
-      <c r="B150" s="1">
-        <v>88572</v>
-      </c>
-      <c r="C150" t="s">
-        <v>151</v>
-      </c>
-      <c r="D150" s="1">
-        <v>405029844</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151">
-        <v>56085314</v>
-      </c>
-      <c r="B151" s="1">
-        <v>196723</v>
-      </c>
-      <c r="C151" t="s">
-        <v>152</v>
-      </c>
-      <c r="D151" s="1">
-        <v>405087362</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152">
-        <v>40919703</v>
-      </c>
-      <c r="B152" s="1">
-        <v>116261</v>
-      </c>
-      <c r="C152" t="s">
-        <v>153</v>
-      </c>
-      <c r="D152" s="1">
-        <v>405040858</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153">
-        <v>40937619</v>
-      </c>
-      <c r="B153" s="1">
-        <v>196723</v>
-      </c>
-      <c r="C153" t="s">
-        <v>154</v>
-      </c>
-      <c r="D153" s="1">
-        <v>405112095</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154">
-        <v>84082367</v>
-      </c>
-      <c r="B154" s="1">
-        <v>196723</v>
-      </c>
-      <c r="C154" t="s">
-        <v>155</v>
-      </c>
-      <c r="D154" s="1">
-        <v>405102989</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155">
-        <v>40799640</v>
-      </c>
-      <c r="B155" s="1">
-        <v>88572</v>
-      </c>
-      <c r="C155" t="s">
-        <v>156</v>
-      </c>
-      <c r="D155" s="1">
-        <v>405065178</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156">
-        <v>27015180</v>
-      </c>
-      <c r="B156" s="1">
-        <v>196723</v>
-      </c>
-      <c r="C156" t="s">
-        <v>157</v>
-      </c>
-      <c r="D156" s="1">
-        <v>300779162</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157">
-        <v>45518038</v>
-      </c>
-      <c r="B157" s="1">
-        <v>196723</v>
-      </c>
-      <c r="C157" t="s">
-        <v>158</v>
-      </c>
-      <c r="D157" s="1">
-        <v>405179250</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158">
-        <v>12593221</v>
-      </c>
-      <c r="B158" s="1">
-        <v>148956</v>
-      </c>
-      <c r="C158" t="s">
-        <v>159</v>
-      </c>
-      <c r="D158" s="1">
-        <v>405024092</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159">
-        <v>40937690</v>
-      </c>
-      <c r="B159" s="1">
-        <v>240114</v>
-      </c>
-      <c r="C159" t="s">
-        <v>160</v>
-      </c>
-      <c r="D159" s="1">
-        <v>405179276</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="B160" s="1"/>
-      <c r="D160" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="D137" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/reportes/pagomes/TotalPlano.xlsx
+++ b/reportes/pagomes/TotalPlano.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="PagoPlanta20141201" sheetId="1" r:id="rId4"/>
+    <sheet name="PagoTotal20141271" sheetId="1" r:id="rId4"/>
     <sheet name="Worksheet 1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>C</t>
   </si>
@@ -27,409 +27,499 @@
     <t>D</t>
   </si>
   <si>
-    <t>ACUÑA MEDINA DORIS ISABEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACUÑA MENDOZA DORIS </t>
-  </si>
-  <si>
-    <t>ACUÑA VARGAS JULIO CESAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUILAR JUAN DE DIOS </t>
-  </si>
-  <si>
-    <t>ALEAN VALLE JADER DARIO</t>
-  </si>
-  <si>
-    <t>ALFARO ALFARO EDER MANUEL</t>
-  </si>
-  <si>
-    <t>ALFARO FONSECA ANA MILENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANAYA ZABALA ROSARIO </t>
-  </si>
-  <si>
-    <t>ANGULO ARGOTE LUIS CARLOS</t>
-  </si>
-  <si>
-    <t>ANGULO RANGEL FRANKLIN ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAMENDIZ GOMEZ LAURA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARIZA CARLA PATRICIA </t>
-  </si>
-  <si>
-    <t>ARREGOCES JULIO ISABEL CARMENZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRIO SILVIA INES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALLESTEROS MARTINEZ GUSTAVO </t>
-  </si>
-  <si>
-    <t>BARRIOS CARMONA ANIBAL JOAQUIN</t>
-  </si>
-  <si>
-    <t>BARROS LOPEZ JOSE ARTURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONIVENTO RODRIGUEZ JEIMMY </t>
-  </si>
-  <si>
-    <t>BORNACELLI GARCIA EVER AUGUSTO</t>
-  </si>
-  <si>
-    <t>BOTELLO PLATA ASLIN GONZALO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRITO RONCANCIO ALBERTO </t>
-  </si>
-  <si>
-    <t>BRUGES COTES ISIDRO RAFAEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUENO MEJIA ENDER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABRERA RODRIGUEZ ALVARO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTILLO PINTO ELIANA </t>
-  </si>
-  <si>
-    <t>CARABALLO ROBLE YERLIS YANET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARCAMO ESCORCIA TANIA </t>
-  </si>
-  <si>
-    <t>CARRILLO HERNANDEZ HERNAN JOAQUIN</t>
-  </si>
-  <si>
-    <t>CERA REDONDO EDWIN ENRIQUE</t>
-  </si>
-  <si>
-    <t>CORREA HENRIQUEZ GUSTAVO ADOLFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTES SPROCKEL MARITZA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUJIA GUERRA EUCADYS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURIEL CORREA MIRLE </t>
-  </si>
-  <si>
-    <t>CURVELO BECERRA CAROLINA ESTHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE ARMAS PEREZ EUDES </t>
-  </si>
-  <si>
-    <t>DEL CASTILLO SINNING MARIA CAROLINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELUQUE GOMEZ JULIO </t>
-  </si>
-  <si>
-    <t>DELUQUE TORO CRISPULO ENRIQUE</t>
-  </si>
-  <si>
-    <t>DIAZ ARRIETA INGRIS MARIA</t>
-  </si>
-  <si>
-    <t>DIAZ OLMOS DAENA DE JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAZ PEREZ ANDERSON </t>
-  </si>
-  <si>
-    <t>ERAZO FLOREZ JOSE AGUSTIN</t>
-  </si>
-  <si>
-    <t>FERNANDEZ FERNANDEZ JOHANNA CLARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIGUEROA MORENO OMAR </t>
-  </si>
-  <si>
-    <t>FONSECA MUÑOZ JUAN JOSE</t>
-  </si>
-  <si>
-    <t>FORERO BARRERA PAOLA ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAMEZ GAMEZ ALFREDO </t>
-  </si>
-  <si>
-    <t>GARCIA DAVILA MONICA LISETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENES DIAZ JAIDER </t>
-  </si>
-  <si>
-    <t>GIRALDO POLANCO MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>GONZALEZ ORTEGA JESUS ALBERTO</t>
-  </si>
-  <si>
-    <t>GRANADOS MARTINEZ CRISTIAN ENRIQUE</t>
-  </si>
-  <si>
-    <t>GUERRA HERRERA ELKIN TOBIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUERRA HERRERA EMERSON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUERRA ROMERO LICETH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAMBURGER GONZALEZ MARGARITA </t>
-  </si>
-  <si>
-    <t>HERRERA ESTRADA KATY CECILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERRERA VILLAFAÑE ALVARO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HINCAPIE NAVARRETE LUIS </t>
-  </si>
-  <si>
-    <t>JACOME MEJIA JESUS ALFONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JARAMILLO PEÑALOZA YATSIRA </t>
-  </si>
-  <si>
-    <t>JIMENEZ FERBANS LARRY ANTONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JIMENEZ PITRE NORYS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIÑAN CUELLO YULY </t>
-  </si>
-  <si>
-    <t>LIÑAN PANA EDUARDO ARISTIDES</t>
-  </si>
-  <si>
-    <t>LOPESIERRA OROZCO JAIDER JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ CONTRERAS JANEJA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ GONZALEZ ORLANDO </t>
-  </si>
-  <si>
-    <t>LOPEZ GONZALEZ YELENIS YANIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ MARQUEZ YARIANA </t>
-  </si>
-  <si>
-    <t>MADERO NUÑEZ OSVALDO FIDEL</t>
-  </si>
-  <si>
-    <t>MAESTRE MOLINARES CESAR DAVID</t>
-  </si>
-  <si>
-    <t>MAFLA PERALTA MILTON ANTONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGDANIEL RODRIGUEZ KENDRI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIN RAMOS CARMEN </t>
-  </si>
-  <si>
-    <t>MARTINEZ IBARRA MARLA YURANIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINEZ LOPEZ BETINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINEZ MANOTAS MARLYN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINEZ TRUJILLO NERYS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA DAZA ANIBAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA GARCES DIANA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA GUERRA YOMA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA RAMIREZ OSMAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA YEISY ELIBETH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENGUAL QUINTERO ATENAIDA </t>
-  </si>
-  <si>
-    <t>MEZA ANDRADE LINA MARCELA</t>
-  </si>
-  <si>
-    <t>MOLINA BECERRA JOSE CARLOS</t>
-  </si>
-  <si>
-    <t>MOLINA RODRIGUEZ EMIRO JOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONROY TORO STELLA </t>
-  </si>
-  <si>
-    <t>MONTOYA ZABALETA TATIANA KATHERINE</t>
-  </si>
-  <si>
-    <t>MUÑOZ ESTRADA EMERITA SOFIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAJERA POLO FEDERICO </t>
-  </si>
-  <si>
-    <t>OCHOA REDONDO ANA JOSEFA</t>
-  </si>
-  <si>
-    <t>OCHOA REDONDO YAMILKA KARINA</t>
-  </si>
-  <si>
-    <t>OLIVO ALVAREZ SOCORRO CLARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLMEDO LARRAZABAL ARMANDO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OROZCO DAZA BERTHA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSPINO GOMEZ EMIRO </t>
-  </si>
-  <si>
-    <t>OTERO MENDOZA OLGA PATRICIA</t>
-  </si>
-  <si>
-    <t>PABA HERRERA LUZ ALBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALACIO SPROCKEL LILIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALENCIA DEL VALLE ZENITH </t>
-  </si>
-  <si>
-    <t>PALENCIA SALAS LUIS CARLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANCIERA DI ZOPPOLA MARTINEZ MARYORI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEÑARANDA PINTO ELKIS </t>
-  </si>
-  <si>
-    <t>PEREZ CAMPO AMALIS PATRICIA</t>
-  </si>
-  <si>
-    <t>PEREZ ILLIDGE NINA ALEJANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEREZ MEDINA ROSMERIS </t>
-  </si>
-  <si>
-    <t>PEREZ QUINTERO HEYLON GUSTAVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEREZ ROJAS SOBEYDIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINTO PINTO BELKIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONTON DELUQUEZ ELIMAR </t>
-  </si>
-  <si>
-    <t>QUINTERO RAMOS MEUDYS PATRICIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDONDO MAESTRE ODILON </t>
-  </si>
-  <si>
-    <t>REDONDO SILVERA PEDRO ANTONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROJAS ORTEGA JANNETH </t>
-  </si>
-  <si>
-    <t>ROMERO ACUÑA MIGUEL HUMBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMERO ZUÑIGA CARMEN </t>
-  </si>
-  <si>
-    <t>ROYS ROMERO NANCY ROSA</t>
-  </si>
-  <si>
-    <t>RUEDA TONCEL LUIS ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALAS SOLANO EDWIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANCHEZ GIL CARMEN </t>
-  </si>
-  <si>
-    <t>SIERRA LLORENTE JOSE GREGORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIERRA PARODI ANGELA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILVA BRITO MARILUZ </t>
-  </si>
-  <si>
-    <t>SIMANCA SAN JUAN LUZ MIRIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOTO CORTEZ ELIZABETH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOTO RODRIGUEZ DERBER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">USTATE PEREZ MARILI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEGA BRITO RAFAEL </t>
-  </si>
-  <si>
-    <t>VEGA GAMEZ MARTA INES</t>
-  </si>
-  <si>
-    <t>VERDECIA MIRANDA JEINER ALBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISCAINO MENDOZA LISETTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">YAGUNA NUÑEZ JOSE </t>
-  </si>
-  <si>
-    <t>YEPEZ AGUILAR FERNANDO ALBERTO</t>
+    <t>AARON GONZALVEZ MARLYN ALICIA</t>
+  </si>
+  <si>
+    <t>AGUILAR MEZA ENER MARINA</t>
+  </si>
+  <si>
+    <t>ALGUERO AMAYA LUIS ROBERTO</t>
+  </si>
+  <si>
+    <t>ALVAREZ ECHEVERRIA BELINDA ESTHER</t>
+  </si>
+  <si>
+    <t>AMAYA MENGUAL GILBERTO JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCINIEGAS GUERRA ARIEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIZA ARIZA DAVID </t>
+  </si>
+  <si>
+    <t>ARREGOCES  JUDITH MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVILA FUENTES HERIBERTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARLIZA GONZALEZ CAYETANO </t>
+  </si>
+  <si>
+    <t>BARRIOS BADILLO WILFRIDO RAFAEL</t>
+  </si>
+  <si>
+    <t>BARROS FARFAN YIMI YESID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEDOYA RESTREPO HERNANDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELAIDES PERALTA CELIA </t>
+  </si>
+  <si>
+    <t>BELTRAN MARTINEZ GLORIA ISABEL</t>
+  </si>
+  <si>
+    <t>BERMUDEZ BUENO WILLIAM RAFAEL</t>
+  </si>
+  <si>
+    <t>BERMUDEZ VILLAMIZAR ROGER DAVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERNAL MUÑOZ FELIX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERRIO CABALLERO HOBBER </t>
+  </si>
+  <si>
+    <t>BERTEL PALENCIA RAMON DE JESUS</t>
+  </si>
+  <si>
+    <t>BONIVENTO EPIAYU AURA AMELIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITO CASTAÑEDA ZENAIDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITO DAZA ALBERTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUGES ALARCON NESTOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABALLERO AMADOR JORGE </t>
+  </si>
+  <si>
+    <t>CABRERA PALACIO RUBEN DARIO</t>
+  </si>
+  <si>
+    <t>CADENA MARTINEZ LAURA MILENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARABALI ANGOLA ALEXIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARCAMO BERRIO ORLANDO </t>
+  </si>
+  <si>
+    <t>CASTELLANOS  MARTHA LIGIA</t>
+  </si>
+  <si>
+    <t>CASTILLO PEREZ JAIME ANTONIO</t>
+  </si>
+  <si>
+    <t>CASTRO ECHAVEZ FERNANDO LUIS</t>
+  </si>
+  <si>
+    <t>CEBALLOS MACIA MARIA GISELLE</t>
+  </si>
+  <si>
+    <t>CELEDON MARTINEZ DOGNA MARY</t>
+  </si>
+  <si>
+    <t>CELEDON MOLINARES ALBERTO PLACIDO</t>
+  </si>
+  <si>
+    <t>CHOLES ALMAZO HILDA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOLES MEJIA FRANKLIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOLES QUINTERO PATRICIA </t>
+  </si>
+  <si>
+    <t>CONSUEGRA TERAN MELISSA PAOLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTES SPROCKEL GILBERTO </t>
+  </si>
+  <si>
+    <t>CUAN ROJAS MARIA VICTORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENTAS FIGUEROA RAFAEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUESTA LOPEZ ROSALBA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURIEL CORREA NEILY </t>
+  </si>
+  <si>
+    <t>DAZA MENDOZA JUAN JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELUQUE RODRIGUEZ ISIDRO </t>
+  </si>
+  <si>
+    <t>DIAZ BERTY SARA RAQUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAZ ESPITIA NUBIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAZ RESTREPO ESPERANZA </t>
+  </si>
+  <si>
+    <t>DORIA ARGUMEDO CARLOS JULIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUARTE PEÑARANDA EDINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAJARDO GOMEZ REMEDIOS </t>
+  </si>
+  <si>
+    <t>FONSECA GUERRERO JOSE LUIS</t>
+  </si>
+  <si>
+    <t>FORERO ARREGOCES HERLINDA ISABEL</t>
+  </si>
+  <si>
+    <t>FRIAS ACOSTA EDILMA CECILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCES MORELO DAGOBERTO </t>
+  </si>
+  <si>
+    <t>GONZALEZ BERMUDEZ JORGE LUIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALEZ CUESTAS LENIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANADILLO AYALA RAMIRO </t>
+  </si>
+  <si>
+    <t>GRISALES HENAO ROSA MARIA</t>
+  </si>
+  <si>
+    <t>GUERRA MAESTRE TULIO ENRIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUERRERO SARMIENTO MARGARITA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUTIERREZ AGUILAR HUGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUTIERREZ MONROY ELVIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUTIERREZ PACHECO JACQUELIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUZMAN VALDEBLANQUEZ FRANKLIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERNANDEZ DELUQUE RICARDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRERA ARRIOLA INES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRERA RIAÑO JORGE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HINOJOSA GUTIERREZ LADIMIRO </t>
+  </si>
+  <si>
+    <t>HOYOS BENITEZ MARIO EDGAR</t>
+  </si>
+  <si>
+    <t>HOYOS SALGADO JULIO MIGUEL</t>
+  </si>
+  <si>
+    <t>IBAÑEZ ROSALES SOL MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBARRA IGUARAN TEOLINDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGUARAN MANJARREZ VICTOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGUARAN MONTIEL GABRIEL </t>
+  </si>
+  <si>
+    <t>JARAMILLO ACOSTA MARTHA CECILIA</t>
+  </si>
+  <si>
+    <t>JARAMILLO MENGUAL ROSA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIMENEZ RUIZ CARLOS </t>
+  </si>
+  <si>
+    <t>JOIRO PACHECO YOLEIDA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEON TEJADA PEDRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEON VANEGAS MARITZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ ATENCIO ADAULFO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ CORREA JUDITH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGDANIEL PABON OLARIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGDANIEL PALACIO RAQUEL </t>
+  </si>
+  <si>
+    <t>MANJARREZ BRITO MARYORI TARYN</t>
+  </si>
+  <si>
+    <t>MARTINEZ CARDONA JOSE CLEMENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINEZ GOMEZ TATIANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINEZ PINEDO HENITHZO </t>
+  </si>
+  <si>
+    <t>MARULANDA VALENCIA JOSE LUDDEY</t>
+  </si>
+  <si>
+    <t>MAYA PABON RAUL ENRIQUE</t>
+  </si>
+  <si>
+    <t>MEDINA BRITO LUZ LEIDIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDINA DE FUENTES MARTHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDINA SIERRA ALTAGRACIA </t>
+  </si>
+  <si>
+    <t>MEJIA ACOSTA RAUL DAVID</t>
+  </si>
+  <si>
+    <t>MEJIA CABALLERO JOSE MARIA</t>
+  </si>
+  <si>
+    <t>MEJIA CANTILLO MILADIS MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJIA DE LA CRUZ ELIAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJIA JIMENEZ MILITZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJIA MENDOZA OLGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELENDEZ SURMAY RAFAEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENDOZA CABELLO ROBERTO </t>
+  </si>
+  <si>
+    <t>MENDOZA CATAÑO CARMENZA LEONOR</t>
+  </si>
+  <si>
+    <t>MENGUAL MEZA MARINELA MORELIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERCADO VILLADIEGO ALEXANDER </t>
+  </si>
+  <si>
+    <t>MOLINA VEGA ALFETT JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLINARES RAFAEL DANILO </t>
+  </si>
+  <si>
+    <t>MORALES MENGUAL LUIS CARLOS</t>
+  </si>
+  <si>
+    <t>MOYA CAMACHO FABIO ORLANDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATERA ESTRADA ANGEL </t>
+  </si>
+  <si>
+    <t>OCHOA GARCIA ETILVIA ALICIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCHOA ROMERO CLARIBEL </t>
+  </si>
+  <si>
+    <t>OCHOA SALDARRIAGA CARLOS JULIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLIVEROS RICHOL JAQUELIN </t>
+  </si>
+  <si>
+    <t>OÑATE DIAZ GLENIA MERCEDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORSINI CUADRADO AUGUSTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPINO MERIÑO ISIDORO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALACIO PIMIENTA DILODIS </t>
+  </si>
+  <si>
+    <t>PEÑALVER VANEGAS CASTA GLORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERALTA SOLANO GUILLERMO </t>
+  </si>
+  <si>
+    <t>PEREZ CAMARGO CLIMACO ALBERTO</t>
+  </si>
+  <si>
+    <t>PEREZ VAN-LEENDEN FRANCISCO JUSTO</t>
+  </si>
+  <si>
+    <t>PINEDO VANEGAS AIRADIN ALONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINEDO VANEGAS DOMINGA </t>
+  </si>
+  <si>
+    <t>PINTO ANDRADE JOSE ALFONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLO PERALTA JESUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POMARICO PIMIENTA PILAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSADA ORTIZ NORA </t>
+  </si>
+  <si>
+    <t>PUCHE PINTO LUIS ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTERO BUENO ATENAIDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTERO FUENTES NARLY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAIGOZA ACUÑA YANETH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIREZ AYALA ANDERSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBLES BRITO DANIEL </t>
+  </si>
+  <si>
+    <t>ROBLES RIVEIRA HERMES ORLANDO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ RIVERA MARIA EUGENIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSADO BOTELLO JHONNY </t>
+  </si>
+  <si>
+    <t>ROSADO VEGA JAIRO RAFAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSERO DE LA CRUZ AGUSTIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALAZAR GARCIA MIRIAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALCEDO DAVILA JAIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ ROYS DEUSENITH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTIS AGUAS EVELIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTOS MORENO EDILBERTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIERRA MEZA EUCADIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPROKEL BROCHERO RAFAEL </t>
+  </si>
+  <si>
+    <t>SUAREZ BARROS HORACIO BIENVENIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRADO MARTINEZ DAMARIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOBAR ORTIZ NUBIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES SALAZAR MILENIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCROS BRITO MARLENIS </t>
+  </si>
+  <si>
+    <t>URUETA BLANCO ZOILA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALDIVIESO CLAVIJO GIOVANNY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANEGAS SPROCKEL BELKIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASQUEZ MENDOZA MARIBETH </t>
+  </si>
+  <si>
+    <t>VASQUEZ SANCHEZ ELIS BEATRIZ</t>
+  </si>
+  <si>
+    <t>VEGA GAMEZ YAMIRA ISABEL</t>
+  </si>
+  <si>
+    <t>VIDAL GOMEZ AMPARO CAROLINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIDAL JAIDITH ENETH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLA AMAYA ERNELL </t>
+  </si>
+  <si>
+    <t>YAGUNA GUERRA MARIA ESTHER</t>
+  </si>
+  <si>
+    <t>ZABALETA MONTERO SOLEDAD MARINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAMBRANO ROJAS SAMUEL </t>
+  </si>
+  <si>
+    <t>ZUBIRIA VIECCO JAIRO EMILIO</t>
   </si>
 </sst>
 </file>
@@ -773,7 +863,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2"/>
@@ -803,1897 +893,2317 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>56083464</v>
+        <v>40918469</v>
       </c>
       <c r="B2" s="1">
-        <v>1932060</v>
+        <v>7145392</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>236070240361</v>
+        <v>405138975</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>40916476</v>
+        <v>40939700</v>
       </c>
       <c r="B3" s="1">
-        <v>1455809</v>
+        <v>4175015</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>236070188305</v>
+        <v>405179284</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>72006262</v>
+        <v>13348956</v>
       </c>
       <c r="B4" s="1">
-        <v>1340498</v>
+        <v>9256683</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>236870000882</v>
+        <v>405055948</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3353189</v>
+        <v>40916739</v>
       </c>
       <c r="B5" s="1">
-        <v>1567752</v>
+        <v>4273571</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>236870008422</v>
+        <v>405056011</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>12436703</v>
+        <v>8701267</v>
       </c>
       <c r="B6" s="1">
-        <v>1724666</v>
+        <v>3555132</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>236070254206</v>
+        <v>405030826</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>85040779</v>
+        <v>17952855</v>
       </c>
       <c r="B7" s="1">
-        <v>1351951</v>
+        <v>2703987</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>236870004520</v>
+        <v>405030388</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>32655910</v>
+        <v>72042242</v>
       </c>
       <c r="B8" s="1">
-        <v>1664970</v>
+        <v>1591909</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>236070165923</v>
+        <v>405055468</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>50928222</v>
+        <v>42493216</v>
       </c>
       <c r="B9" s="1">
-        <v>1405101</v>
+        <v>2127481</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>236070201868</v>
+        <v>405055740</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>77171940</v>
+        <v>5163080</v>
       </c>
       <c r="B10" s="1">
-        <v>1622071</v>
+        <v>7202399</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>236800009045</v>
+        <v>405044595</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>84077038</v>
+        <v>73077183</v>
       </c>
       <c r="B11" s="1">
-        <v>205860</v>
+        <v>7863404</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>236070228515</v>
+        <v>405056052</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>40975746</v>
+        <v>17805887</v>
       </c>
       <c r="B12" s="1">
-        <v>1704148</v>
+        <v>2142821</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>236070254453</v>
+        <v>405753203</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>56059416</v>
+        <v>84101451</v>
       </c>
       <c r="B13" s="1">
-        <v>1610845</v>
+        <v>3192766</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>256700040726</v>
+        <v>300211059</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>63550003</v>
+        <v>19092691</v>
       </c>
       <c r="B14" s="1">
-        <v>1536223</v>
+        <v>9197617</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1">
-        <v>236070241690</v>
+        <v>405031378</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>241945</v>
+        <v>40933413</v>
       </c>
       <c r="B15" s="1">
-        <v>1564304</v>
+        <v>1685744</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>236070197132</v>
+        <v>405157488</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>84083752</v>
+        <v>35463698</v>
       </c>
       <c r="B16" s="1">
-        <v>1331431</v>
+        <v>4733595</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>236070251392</v>
+        <v>405055823</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>7928182</v>
+        <v>17807444</v>
       </c>
       <c r="B17" s="1">
-        <v>1716678</v>
+        <v>7706585</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="1">
-        <v>256700032749</v>
+        <v>405056441</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>84090118</v>
+        <v>84029482</v>
       </c>
       <c r="B18" s="1">
-        <v>780401</v>
+        <v>2021784</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="1">
-        <v>236070254552</v>
+        <v>405750373</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>64695644</v>
+        <v>6882304</v>
       </c>
       <c r="B19" s="1">
-        <v>1591524</v>
+        <v>1286653</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>236070244306</v>
+        <v>405031261</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1129567739</v>
+        <v>84039854</v>
       </c>
       <c r="B20" s="1">
-        <v>1331431</v>
+        <v>3225235</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="1">
-        <v>236870031259</v>
+        <v>304002421</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>17977001</v>
+        <v>92508149</v>
       </c>
       <c r="B21" s="1">
-        <v>1400477</v>
+        <v>7204629</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="1">
-        <v>340515303</v>
+        <v>405030990</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>84084498</v>
+        <v>40912637</v>
       </c>
       <c r="B22" s="1">
-        <v>1702992</v>
+        <v>2097302</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="1">
-        <v>176370028209</v>
+        <v>405055666</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>17809167</v>
+        <v>26963364</v>
       </c>
       <c r="B23" s="1">
-        <v>1221903</v>
+        <v>6728664</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="1">
-        <v>236070189287</v>
+        <v>405753161</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>17805480</v>
+        <v>6757157</v>
       </c>
       <c r="B24" s="1">
-        <v>1625275</v>
+        <v>7399345</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>236070227699</v>
+        <v>405750522</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>79433108</v>
+        <v>17802680</v>
       </c>
       <c r="B25" s="1">
-        <v>1721447</v>
+        <v>1286653</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="1">
-        <v>236870019833</v>
+        <v>405056276</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>40928509</v>
+        <v>9070606</v>
       </c>
       <c r="B26" s="1">
-        <v>1570461</v>
+        <v>2251452</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="1">
-        <v>236000127167</v>
+        <v>405056250</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>40931404</v>
+        <v>72150467</v>
       </c>
       <c r="B27" s="1">
-        <v>373263</v>
+        <v>2939578</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="1">
-        <v>236070251988</v>
+        <v>405066481</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>1129534078</v>
+        <v>56090201</v>
       </c>
       <c r="B28" s="1">
-        <v>974674</v>
+        <v>1736445</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="1">
-        <v>236070240866</v>
+        <v>405182403</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>77022202</v>
+        <v>76269701</v>
       </c>
       <c r="B29" s="1">
-        <v>667082</v>
+        <v>7797187</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="1">
-        <v>236070203187</v>
+        <v>405055732</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>72018762</v>
+        <v>84046064</v>
       </c>
       <c r="B30" s="1">
-        <v>1499637</v>
+        <v>5703239</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="1">
-        <v>236870008588</v>
+        <v>405031063</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>84089625</v>
+        <v>31920603</v>
       </c>
       <c r="B31" s="1">
-        <v>1573664</v>
+        <v>11021125</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="1">
-        <v>236070231873</v>
+        <v>405031782</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>40915981</v>
+        <v>92510967</v>
       </c>
       <c r="B32" s="1">
-        <v>1463519</v>
+        <v>9501707</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="1">
-        <v>236070221148</v>
+        <v>405031071</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>40925567</v>
+        <v>92511328</v>
       </c>
       <c r="B33" s="1">
-        <v>1772159</v>
+        <v>7768776</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="1">
-        <v>236070188412</v>
+        <v>405031121</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>40917959</v>
+        <v>51828780</v>
       </c>
       <c r="B34" s="1">
-        <v>1816809</v>
+        <v>5763336</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="1">
-        <v>236070186622</v>
+        <v>405044462</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>40931473</v>
+        <v>40926769</v>
       </c>
       <c r="B35" s="1">
-        <v>1519440</v>
+        <v>1685744</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="1">
-        <v>236070225321</v>
+        <v>405139726</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>17847218</v>
+        <v>12538766</v>
       </c>
       <c r="B36" s="1">
-        <v>2038522</v>
+        <v>8417933</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="1">
-        <v>236070191085</v>
+        <v>405049776</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>1128325680</v>
+        <v>40919494</v>
       </c>
       <c r="B37" s="1">
-        <v>1331431</v>
+        <v>7250648</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="1">
-        <v>236070236385</v>
+        <v>405055500</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>8815886</v>
+        <v>84042850</v>
       </c>
       <c r="B38" s="1">
-        <v>1632048</v>
+        <v>5811184</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="1">
-        <v>236070188834</v>
+        <v>405053075</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>7630378</v>
+        <v>40976770</v>
       </c>
       <c r="B39" s="1">
-        <v>2525316</v>
+        <v>7645055</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="1">
-        <v>236870033438</v>
+        <v>405056532</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>27041971</v>
+        <v>1129577145</v>
       </c>
       <c r="B40" s="1">
-        <v>1694508</v>
+        <v>4663103</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="1">
-        <v>236070221387</v>
+        <v>405176868</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>1032389676</v>
+        <v>84081588</v>
       </c>
       <c r="B41" s="1">
-        <v>1518574</v>
+        <v>3192766</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="1">
-        <v>236870019767</v>
+        <v>405126962</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>12646564</v>
+        <v>40919704</v>
       </c>
       <c r="B42" s="1">
-        <v>2081924</v>
+        <v>3297638</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="1">
-        <v>23300007236</v>
+        <v>405000548</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>9080934</v>
+        <v>7449339</v>
       </c>
       <c r="B43" s="1">
-        <v>1992068</v>
+        <v>8554862</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="1">
-        <v>236000684506</v>
+        <v>405007931</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>39492672</v>
+        <v>33142746</v>
       </c>
       <c r="B44" s="1">
-        <v>1331431</v>
+        <v>11587350</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="1">
-        <v>6100909057</v>
+        <v>405049156</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>7573426</v>
+        <v>40916635</v>
       </c>
       <c r="B45" s="1">
-        <v>1809506</v>
+        <v>3555136</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="1">
-        <v>236870033511</v>
+        <v>405031014</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>17807921</v>
+        <v>17975955</v>
       </c>
       <c r="B46" s="1">
-        <v>1485319</v>
+        <v>1685744</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="1">
-        <v>236070248711</v>
+        <v>405066309</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>36695870</v>
+        <v>84028941</v>
       </c>
       <c r="B47" s="1">
-        <v>1579138</v>
+        <v>4659964</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
       <c r="D47" s="1">
-        <v>236870037751</v>
+        <v>405056342</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>84038022</v>
+        <v>40923874</v>
       </c>
       <c r="B48" s="1">
-        <v>1850681</v>
+        <v>2949803</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="1">
-        <v>236070186994</v>
+        <v>405055781</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>40937386</v>
+        <v>40916312</v>
       </c>
       <c r="B49" s="1">
-        <v>937248</v>
+        <v>1286653</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="1">
-        <v>236000662577</v>
+        <v>405055575</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>84068359</v>
+        <v>45445337</v>
       </c>
       <c r="B50" s="1">
-        <v>1320602</v>
+        <v>6476945</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="1">
-        <v>236070190327</v>
+        <v>405055815</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>52690175</v>
+        <v>10893959</v>
       </c>
       <c r="B51" s="1">
-        <v>1367226</v>
+        <v>4824921</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51" s="1">
-        <v>236800004277</v>
+        <v>405055351</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>1766475</v>
+        <v>40925745</v>
       </c>
       <c r="B52" s="1">
-        <v>1360142</v>
+        <v>2458170</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
       </c>
       <c r="D52" s="1">
-        <v>236870011053</v>
+        <v>405041716</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>7601646</v>
+        <v>40792159</v>
       </c>
       <c r="B53" s="1">
-        <v>1373384</v>
+        <v>5204488</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
       </c>
       <c r="D53" s="1">
-        <v>117100013350</v>
+        <v>405044611</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>17954352</v>
+        <v>12546959</v>
       </c>
       <c r="B54" s="1">
-        <v>1563071</v>
+        <v>5252231</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="1">
-        <v>236070222617</v>
+        <v>405754946</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>17955242</v>
+        <v>40918603</v>
       </c>
       <c r="B55" s="1">
-        <v>739636</v>
+        <v>1068487</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="1">
-        <v>236870002276</v>
+        <v>405049784</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>56055715</v>
+        <v>41477972</v>
       </c>
       <c r="B56" s="1">
-        <v>1548064</v>
+        <v>8872955</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="1">
-        <v>256700007386</v>
+        <v>405053679</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>22731863</v>
+        <v>15020638</v>
       </c>
       <c r="B57" s="1">
-        <v>1411877</v>
+        <v>1786439</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="1">
-        <v>236870011046</v>
+        <v>405031220</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>36694209</v>
+        <v>12544915</v>
       </c>
       <c r="B58" s="1">
-        <v>1399427</v>
+        <v>5236200</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
       </c>
       <c r="D58" s="1">
-        <v>236000684746</v>
+        <v>405046723</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>8852594</v>
+        <v>84030977</v>
       </c>
       <c r="B59" s="1">
-        <v>1331431</v>
+        <v>2097302</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="1">
-        <v>236800011801</v>
+        <v>405054339</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>19354953</v>
+        <v>5158707</v>
       </c>
       <c r="B60" s="1">
-        <v>1666907</v>
+        <v>6142290</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
       </c>
       <c r="D60" s="1">
-        <v>236070238597</v>
+        <v>405056540</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>84091706</v>
+        <v>24545047</v>
       </c>
       <c r="B61" s="1">
-        <v>1384254</v>
+        <v>5622445</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
       </c>
       <c r="D61" s="1">
-        <v>236870006921</v>
+        <v>405043985</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>56057052</v>
+        <v>12719194</v>
       </c>
       <c r="B62" s="1">
-        <v>1518113</v>
+        <v>1592969</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
       </c>
       <c r="D62" s="1">
-        <v>236070193891</v>
+        <v>405767450</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>84452442</v>
+        <v>57412938</v>
       </c>
       <c r="B63" s="1">
-        <v>1857562</v>
+        <v>6518839</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" s="1">
-        <v>236870034386</v>
+        <v>405056557</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>56055470</v>
+        <v>17806728</v>
       </c>
       <c r="B64" s="1">
-        <v>1455284</v>
+        <v>5252231</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="1">
-        <v>236800017170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>40801013</v>
+        <v>40942002</v>
       </c>
       <c r="B65" s="1">
-        <v>1521193</v>
+        <v>1068487</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
       </c>
       <c r="D65" s="1">
-        <v>236070193446</v>
+        <v>405149733</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>77169980</v>
+        <v>40917742</v>
       </c>
       <c r="B66" s="1">
-        <v>1716429</v>
+        <v>2097302</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
       </c>
       <c r="D66" s="1">
-        <v>236070196969</v>
+        <v>405040999</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>84026700</v>
+        <v>17808439</v>
       </c>
       <c r="B67" s="1">
-        <v>1523470</v>
+        <v>2251452</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
       </c>
       <c r="D67" s="1">
-        <v>236070244801</v>
+        <v>405031022</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>56097870</v>
+        <v>84026213</v>
       </c>
       <c r="B68" s="1">
-        <v>1361066</v>
+        <v>1781607</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="1">
-        <v>256800011361</v>
+        <v>405048703</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>17805992</v>
+        <v>22977169</v>
       </c>
       <c r="B69" s="1">
-        <v>1570461</v>
+        <v>1286653</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
       </c>
       <c r="D69" s="1">
-        <v>236070213244</v>
+        <v>405056102</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>40916440</v>
+        <v>7456239</v>
       </c>
       <c r="B70" s="1">
-        <v>1748448</v>
+        <v>4196377</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
       </c>
       <c r="D70" s="1">
-        <v>236070069976</v>
+        <v>405055872</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>25786131</v>
+        <v>84104058</v>
       </c>
       <c r="B71" s="1">
-        <v>1331431</v>
+        <v>1452983</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
       </c>
       <c r="D71" s="1">
-        <v>236870015559</v>
+        <v>405055583</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>73098263</v>
+        <v>19225173</v>
       </c>
       <c r="B72" s="1">
-        <v>1595466</v>
+        <v>12117424</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
       </c>
       <c r="D72" s="1">
-        <v>236000132472</v>
+        <v>405041542</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>1065565065</v>
+        <v>15039137</v>
       </c>
       <c r="B73" s="1">
-        <v>1331431</v>
+        <v>5556088</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
       </c>
       <c r="D73" s="1">
-        <v>236000668210</v>
+        <v>405056201</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>84071015</v>
+        <v>40914837</v>
       </c>
       <c r="B74" s="1">
-        <v>1447977</v>
+        <v>2097302</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
       </c>
       <c r="D74" s="1">
-        <v>236070217914</v>
+        <v>405040445</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>84092320</v>
+        <v>40916124</v>
       </c>
       <c r="B75" s="1">
-        <v>1599156</v>
+        <v>6151154</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" s="1">
-        <v>236070218847</v>
+        <v>405020504</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>32799776</v>
+        <v>84005124</v>
       </c>
       <c r="B76" s="1">
-        <v>870165</v>
+        <v>6700757</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
       </c>
       <c r="D76" s="1">
-        <v>236870023660</v>
+        <v>405051285</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>40944586</v>
+        <v>5183086</v>
       </c>
       <c r="B77" s="1">
-        <v>1455284</v>
+        <v>4649251</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
       </c>
       <c r="D77" s="1">
-        <v>236800012064</v>
+        <v>405033515</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>40925656</v>
+        <v>24473753</v>
       </c>
       <c r="B78" s="1">
-        <v>1633526</v>
+        <v>10708146</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
       </c>
       <c r="D78" s="1">
-        <v>236870005584</v>
+        <v>405750605</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>63543756</v>
+        <v>40837882</v>
       </c>
       <c r="B79" s="1">
-        <v>1508874</v>
+        <v>2949803</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
       </c>
       <c r="D79" s="1">
-        <v>236070203971</v>
+        <v>405054099</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>49762677</v>
+        <v>8748985</v>
       </c>
       <c r="B80" s="1">
-        <v>1818349</v>
+        <v>8794284</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
       </c>
       <c r="D80" s="1">
-        <v>6204549732</v>
+        <v>405031105</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>8702503</v>
+        <v>40983796</v>
       </c>
       <c r="B81" s="1">
-        <v>1646701</v>
+        <v>1068487</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
       </c>
       <c r="D81" s="1">
-        <v>236070189428</v>
+        <v>405149626</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>56075021</v>
+        <v>8662135</v>
       </c>
       <c r="B82" s="1">
-        <v>1417911</v>
+        <v>9285297</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
       </c>
       <c r="D82" s="1">
-        <v>256800034272</v>
+        <v>405030743</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>40933239</v>
+        <v>26965867</v>
       </c>
       <c r="B83" s="1">
-        <v>1823564</v>
+        <v>5190359</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
       </c>
       <c r="D83" s="1">
-        <v>236070196407</v>
+        <v>405041591</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>84029261</v>
+        <v>12720417</v>
       </c>
       <c r="B84" s="1">
-        <v>1582779</v>
+        <v>5778356</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
       </c>
       <c r="D84" s="1">
-        <v>236070159439</v>
+        <v>405055914</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>56074548</v>
+        <v>40915007</v>
       </c>
       <c r="B85" s="1">
-        <v>1324115</v>
+        <v>4273571</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
       </c>
       <c r="D85" s="1">
-        <v>256700012188</v>
+        <v>405055922</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>37864268</v>
+        <v>40924537</v>
       </c>
       <c r="B86" s="1">
-        <v>1650974</v>
+        <v>2097302</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
       </c>
       <c r="D86" s="1">
-        <v>236000678870</v>
+        <v>405040064</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>40939364</v>
+        <v>40924429</v>
       </c>
       <c r="B87" s="1">
-        <v>1645028</v>
+        <v>2035225</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
       </c>
       <c r="D87" s="1">
-        <v>236070217799</v>
+        <v>405056326</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>17848788</v>
+        <v>56057668</v>
       </c>
       <c r="B88" s="1">
-        <v>1634019</v>
+        <v>4663103</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
       </c>
       <c r="D88" s="1">
-        <v>236070167168</v>
+        <v>405176934</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>19289352</v>
+        <v>19082949</v>
       </c>
       <c r="B89" s="1">
-        <v>1628000</v>
+        <v>7395740</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
       </c>
       <c r="D89" s="1">
-        <v>256700008020</v>
+        <v>405056565</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>40912287</v>
+        <v>32181130</v>
       </c>
       <c r="B90" s="1">
-        <v>1551986</v>
+        <v>5915304</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
       </c>
       <c r="D90" s="1">
-        <v>236070122247</v>
+        <v>405164013</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>1118817317</v>
+        <v>17855558</v>
       </c>
       <c r="B91" s="1">
-        <v>1422090</v>
+        <v>8904469</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
       </c>
       <c r="D91" s="1">
-        <v>236000672998</v>
+        <v>405029851</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>40925447</v>
+        <v>4509294</v>
       </c>
       <c r="B92" s="1">
-        <v>1710114</v>
+        <v>10760247</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
       </c>
       <c r="D92" s="1">
-        <v>236070192364</v>
+        <v>405030230</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>17805486</v>
+        <v>77017538</v>
       </c>
       <c r="B93" s="1">
-        <v>1624658</v>
+        <v>4307528</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
       </c>
       <c r="D93" s="1">
-        <v>236070186549</v>
+        <v>300314994</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>40918307</v>
+        <v>40927723</v>
       </c>
       <c r="B94" s="1">
-        <v>1471924</v>
+        <v>1885417</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
       </c>
       <c r="D94" s="1">
-        <v>236070228622</v>
+        <v>405182916</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>40929923</v>
+        <v>40917726</v>
       </c>
       <c r="B95" s="1">
-        <v>1508874</v>
+        <v>1286653</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
       </c>
       <c r="D95" s="1">
-        <v>236070218003</v>
+        <v>405044330</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>45440345</v>
+        <v>40912575</v>
       </c>
       <c r="B96" s="1">
-        <v>1651817</v>
+        <v>1286653</v>
       </c>
       <c r="C96" t="s">
         <v>97</v>
       </c>
       <c r="D96" s="1">
-        <v>236870004371</v>
+        <v>405055708</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>5159197</v>
+        <v>84092791</v>
       </c>
       <c r="B97" s="1">
-        <v>2056099</v>
+        <v>3123417</v>
       </c>
       <c r="C97" t="s">
         <v>98</v>
       </c>
       <c r="D97" s="1">
-        <v>256700064858</v>
+        <v>405124462</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>27003218</v>
+        <v>84032706</v>
       </c>
       <c r="B98" s="1">
-        <v>1451558</v>
+        <v>4887654</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
       </c>
       <c r="D98" s="1">
-        <v>256700003971</v>
+        <v>405055435</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>8532284</v>
+        <v>40913846</v>
       </c>
       <c r="B99" s="1">
-        <v>1436706</v>
+        <v>2035225</v>
       </c>
       <c r="C99" t="s">
         <v>100</v>
       </c>
       <c r="D99" s="1">
-        <v>236870011640</v>
+        <v>405031154</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>51560618</v>
+        <v>84031046</v>
       </c>
       <c r="B100" s="1">
-        <v>1808980</v>
+        <v>4213973</v>
       </c>
       <c r="C100" t="s">
         <v>101</v>
       </c>
       <c r="D100" s="1">
-        <v>256800034249</v>
+        <v>405042482</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>55248484</v>
+        <v>57440533</v>
       </c>
       <c r="B101" s="1">
-        <v>569591</v>
+        <v>4846362</v>
       </c>
       <c r="C101" t="s">
         <v>102</v>
       </c>
       <c r="D101" s="1">
-        <v>236870021243</v>
+        <v>405171752</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>51748053</v>
+        <v>40789011</v>
       </c>
       <c r="B102" s="1">
-        <v>850597</v>
+        <v>6859159</v>
       </c>
       <c r="C102" t="s">
         <v>103</v>
       </c>
       <c r="D102" s="1">
-        <v>236070222476</v>
+        <v>405126756</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>40978427</v>
+        <v>72134510</v>
       </c>
       <c r="B103" s="1">
-        <v>200590</v>
+        <v>7723635</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
       </c>
       <c r="D103" s="1">
-        <v>236870019239</v>
+        <v>405056722</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>1082903902</v>
+        <v>3717537</v>
       </c>
       <c r="B104" s="1">
-        <v>1290931</v>
+        <v>7875999</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
       </c>
       <c r="D104" s="1">
-        <v>116270064300</v>
+        <v>405056508</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>40927309</v>
+        <v>56073872</v>
       </c>
       <c r="B105" s="1">
-        <v>1429646</v>
+        <v>4058600</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
       </c>
       <c r="D105" s="1">
-        <v>236870019726</v>
+        <v>405070467</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>17954528</v>
+        <v>32655352</v>
       </c>
       <c r="B106" s="1">
-        <v>1517210</v>
+        <v>5778356</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="1">
-        <v>236800011785</v>
+        <v>405056110</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>37723525</v>
+        <v>84078019</v>
       </c>
       <c r="B107" s="1">
-        <v>1389518</v>
+        <v>1566662</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
       </c>
       <c r="D107" s="1">
-        <v>236870025863</v>
+        <v>405767534</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>40928757</v>
+        <v>17954966</v>
       </c>
       <c r="B108" s="1">
-        <v>1509160</v>
+        <v>1685744</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
       </c>
       <c r="D108" s="1">
-        <v>236000667303</v>
+        <v>405154998</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>56055080</v>
+        <v>8713774</v>
       </c>
       <c r="B109" s="1">
-        <v>1471297</v>
+        <v>6017231</v>
       </c>
       <c r="C109" t="s">
         <v>110</v>
       </c>
       <c r="D109" s="1">
-        <v>256700007345</v>
+        <v>405056268</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>84091745</v>
+        <v>84034602</v>
       </c>
       <c r="B110" s="1">
-        <v>1697544</v>
+        <v>2949803</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
       </c>
       <c r="D110" s="1">
-        <v>236070253968</v>
+        <v>405055690</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>40924816</v>
+        <v>73114368</v>
       </c>
       <c r="B111" s="1">
-        <v>1659762</v>
+        <v>4091069</v>
       </c>
       <c r="C111" t="s">
         <v>112</v>
       </c>
       <c r="D111" s="1">
-        <v>236070238639</v>
+        <v>405180001</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>32607901</v>
+        <v>84026238</v>
       </c>
       <c r="B112" s="1">
-        <v>1373384</v>
+        <v>1976446</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
       </c>
       <c r="D112" s="1">
-        <v>236070228416</v>
+        <v>405056284</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>45553996</v>
+        <v>40925643</v>
       </c>
       <c r="B113" s="1">
-        <v>1557836</v>
+        <v>1685744</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
       </c>
       <c r="D113" s="1">
-        <v>236070236146</v>
+        <v>405149253</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>39491023</v>
+        <v>26964861</v>
       </c>
       <c r="B114" s="1">
-        <v>1490660</v>
+        <v>7521030</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
       </c>
       <c r="D114" s="1">
-        <v>236870028339</v>
+        <v>405030404</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>17802264</v>
+        <v>70070562</v>
       </c>
       <c r="B115" s="1">
-        <v>1664592</v>
+        <v>7271364</v>
       </c>
       <c r="C115" t="s">
         <v>116</v>
       </c>
       <c r="D115" s="1">
-        <v>236070221460</v>
+        <v>405056177</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>72014850</v>
+        <v>32704787</v>
       </c>
       <c r="B116" s="1">
-        <v>1380972</v>
+        <v>2035225</v>
       </c>
       <c r="C116" t="s">
         <v>117</v>
       </c>
       <c r="D116" s="1">
-        <v>236870025673</v>
+        <v>405030180</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>52029926</v>
+        <v>40976795</v>
       </c>
       <c r="B117" s="1">
-        <v>1799969</v>
+        <v>5617530</v>
       </c>
       <c r="C117" t="s">
         <v>118</v>
       </c>
       <c r="D117" s="1">
-        <v>236870015385</v>
+        <v>405030982</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>84092580</v>
+        <v>12712692</v>
       </c>
       <c r="B118" s="1">
-        <v>988617</v>
+        <v>3909698</v>
       </c>
       <c r="C118" t="s">
         <v>119</v>
       </c>
       <c r="D118" s="1">
-        <v>236800012478</v>
+        <v>405055856</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>64549993</v>
+        <v>73080431</v>
       </c>
       <c r="B119" s="1">
-        <v>1722888</v>
+        <v>8434836</v>
       </c>
       <c r="C119" t="s">
         <v>120</v>
       </c>
       <c r="D119" s="1">
-        <v>236070160668</v>
+        <v>405055898</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>40927027</v>
+        <v>40915068</v>
       </c>
       <c r="B120" s="1">
-        <v>1579699</v>
+        <v>3555132</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
       </c>
       <c r="D120" s="1">
-        <v>236070236328</v>
+        <v>405043035</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>17958969</v>
+        <v>40928745</v>
       </c>
       <c r="B121" s="1">
-        <v>1324115</v>
+        <v>5166036</v>
       </c>
       <c r="C121" t="s">
         <v>122</v>
       </c>
       <c r="D121" s="1">
-        <v>256700010232</v>
+        <v>405089905</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>84078652</v>
+        <v>72174199</v>
       </c>
       <c r="B122" s="1">
-        <v>1598961</v>
+        <v>5778354</v>
       </c>
       <c r="C122" t="s">
         <v>123</v>
       </c>
       <c r="D122" s="1">
-        <v>236070176037</v>
+        <v>405055195</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>40924926</v>
+        <v>19193790</v>
       </c>
       <c r="B123" s="1">
-        <v>1632048</v>
+        <v>8848645</v>
       </c>
       <c r="C123" t="s">
         <v>124</v>
       </c>
       <c r="D123" s="1">
-        <v>236070213699</v>
+        <v>405031147</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>15704097</v>
+        <v>17802053</v>
       </c>
       <c r="B124" s="1">
-        <v>1568121</v>
+        <v>15033711</v>
       </c>
       <c r="C124" t="s">
         <v>125</v>
       </c>
       <c r="D124" s="1">
-        <v>236070220983</v>
+        <v>405056581</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>26985258</v>
+        <v>84026629</v>
       </c>
       <c r="B125" s="1">
-        <v>1819827</v>
+        <v>7052862</v>
       </c>
       <c r="C125" t="s">
         <v>126</v>
       </c>
       <c r="D125" s="1">
-        <v>256700005521</v>
+        <v>405055401</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>56085266</v>
+        <v>40914203</v>
       </c>
       <c r="B126" s="1">
-        <v>1553526</v>
+        <v>3555132</v>
       </c>
       <c r="C126" t="s">
         <v>127</v>
       </c>
       <c r="D126" s="1">
-        <v>236070221312</v>
+        <v>405055245</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>39538146</v>
+        <v>77022224</v>
       </c>
       <c r="B127" s="1">
-        <v>1824629</v>
+        <v>3727971</v>
       </c>
       <c r="C127" t="s">
         <v>128</v>
       </c>
       <c r="D127" s="1">
-        <v>256370002717</v>
+        <v>405158411</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>40923367</v>
+        <v>5159322</v>
       </c>
       <c r="B128" s="1">
-        <v>522709</v>
+        <v>5252231</v>
       </c>
       <c r="C128" t="s">
         <v>129</v>
       </c>
       <c r="D128" s="1">
-        <v>236870007895</v>
+        <v>405012113</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>84006422</v>
+        <v>32683605</v>
       </c>
       <c r="B129" s="1">
-        <v>1694322</v>
+        <v>5345860</v>
       </c>
       <c r="C129" t="s">
         <v>130</v>
       </c>
       <c r="D129" s="1">
-        <v>256700042631</v>
+        <v>405055286</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>36550740</v>
+        <v>42677500</v>
       </c>
       <c r="B130" s="1">
-        <v>1656682</v>
+        <v>8745110</v>
       </c>
       <c r="C130" t="s">
         <v>131</v>
       </c>
       <c r="D130" s="1">
-        <v>236070225685</v>
+        <v>405056219</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>84103715</v>
+        <v>19456447</v>
       </c>
       <c r="B131" s="1">
-        <v>353192</v>
+        <v>4189613</v>
       </c>
       <c r="C131" t="s">
         <v>132</v>
       </c>
       <c r="D131" s="1">
-        <v>236070187505</v>
+        <v>405753518</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>40928186</v>
+        <v>26962896</v>
       </c>
       <c r="B132" s="1">
-        <v>1848397</v>
+        <v>6978781</v>
       </c>
       <c r="C132" t="s">
         <v>133</v>
       </c>
       <c r="D132" s="1">
-        <v>236070193842</v>
+        <v>405043977</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>77030133</v>
+        <v>40924637</v>
       </c>
       <c r="B133" s="1">
-        <v>1584959</v>
+        <v>1772897</v>
       </c>
       <c r="C133" t="s">
         <v>134</v>
       </c>
       <c r="D133" s="1">
-        <v>236870034782</v>
+        <v>405055476</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>40944602</v>
+        <v>36719109</v>
       </c>
       <c r="B134" s="1">
-        <v>1336432</v>
+        <v>4846362</v>
       </c>
       <c r="C134" t="s">
         <v>135</v>
       </c>
       <c r="D134" s="1">
-        <v>236800008708</v>
+        <v>405067208</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>12721447</v>
+        <v>77025705</v>
       </c>
       <c r="B135" s="1">
-        <v>1965850</v>
+        <v>3031770</v>
       </c>
       <c r="C135" t="s">
         <v>136</v>
       </c>
       <c r="D135" s="1">
-        <v>256070343361</v>
+        <v>300125432</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>7572198</v>
+        <v>17807106</v>
       </c>
       <c r="B136" s="1">
-        <v>1324115</v>
+        <v>8235833</v>
       </c>
       <c r="C136" t="s">
         <v>137</v>
       </c>
       <c r="D136" s="1">
-        <v>236070225628</v>
+        <v>405008079</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="B137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="A137">
+        <v>8798450</v>
+      </c>
+      <c r="B137" s="1">
+        <v>648134</v>
+      </c>
+      <c r="C137" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137" s="1">
+        <v>405182635</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>40923400</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4605968</v>
+      </c>
+      <c r="C138" t="s">
+        <v>139</v>
+      </c>
+      <c r="D138" s="1">
+        <v>405030362</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>10234384</v>
+      </c>
+      <c r="B139" s="1">
+        <v>4241709</v>
+      </c>
+      <c r="C139" t="s">
+        <v>140</v>
+      </c>
+      <c r="D139" s="1">
+        <v>405044603</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>8278413</v>
+      </c>
+      <c r="B140" s="1">
+        <v>10696087</v>
+      </c>
+      <c r="C140" t="s">
+        <v>141</v>
+      </c>
+      <c r="D140" s="1">
+        <v>405035304</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>4034483</v>
+      </c>
+      <c r="B141" s="1">
+        <v>8444995</v>
+      </c>
+      <c r="C141" t="s">
+        <v>142</v>
+      </c>
+      <c r="D141" s="1">
+        <v>405056094</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>40976465</v>
+      </c>
+      <c r="B142" s="1">
+        <v>2097302</v>
+      </c>
+      <c r="C142" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142" s="1">
+        <v>405044439</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>17805759</v>
+      </c>
+      <c r="B143" s="1">
+        <v>9483219</v>
+      </c>
+      <c r="C143" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" s="1">
+        <v>405056037</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>40914811</v>
+      </c>
+      <c r="B144" s="1">
+        <v>8743050</v>
+      </c>
+      <c r="C144" t="s">
+        <v>145</v>
+      </c>
+      <c r="D144" s="1">
+        <v>405056466</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>70120295</v>
+      </c>
+      <c r="B145" s="1">
+        <v>10526039</v>
+      </c>
+      <c r="C145" t="s">
+        <v>146</v>
+      </c>
+      <c r="D145" s="1">
+        <v>405030198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>9307957</v>
+      </c>
+      <c r="B146" s="1">
+        <v>7183167</v>
+      </c>
+      <c r="C146" t="s">
+        <v>147</v>
+      </c>
+      <c r="D146" s="1">
+        <v>405030784</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>40912245</v>
+      </c>
+      <c r="B147" s="1">
+        <v>2294068</v>
+      </c>
+      <c r="C147" t="s">
+        <v>148</v>
+      </c>
+      <c r="D147" s="1">
+        <v>405056243</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>17807159</v>
+      </c>
+      <c r="B148" s="1">
+        <v>4659964</v>
+      </c>
+      <c r="C148" t="s">
+        <v>149</v>
+      </c>
+      <c r="D148" s="1">
+        <v>405040270</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>84035580</v>
+      </c>
+      <c r="B149" s="1">
+        <v>3830172</v>
+      </c>
+      <c r="C149" t="s">
+        <v>150</v>
+      </c>
+      <c r="D149" s="1">
+        <v>405078791</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>26995818</v>
+      </c>
+      <c r="B150" s="1">
+        <v>2097302</v>
+      </c>
+      <c r="C150" t="s">
+        <v>151</v>
+      </c>
+      <c r="D150" s="1">
+        <v>405055880</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>41693733</v>
+      </c>
+      <c r="B151" s="1">
+        <v>6914449</v>
+      </c>
+      <c r="C151" t="s">
+        <v>152</v>
+      </c>
+      <c r="D151" s="1">
+        <v>405056151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>40930225</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1685744</v>
+      </c>
+      <c r="C152" t="s">
+        <v>153</v>
+      </c>
+      <c r="D152" s="1">
+        <v>405101643</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>26982790</v>
+      </c>
+      <c r="B153" s="1">
+        <v>7251036</v>
+      </c>
+      <c r="C153" t="s">
+        <v>154</v>
+      </c>
+      <c r="D153" s="1">
+        <v>405052515</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>32628773</v>
+      </c>
+      <c r="B154" s="1">
+        <v>3192766</v>
+      </c>
+      <c r="C154" t="s">
+        <v>155</v>
+      </c>
+      <c r="D154" s="1">
+        <v>405090432</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>18922505</v>
+      </c>
+      <c r="B155" s="1">
+        <v>4273571</v>
+      </c>
+      <c r="C155" t="s">
+        <v>156</v>
+      </c>
+      <c r="D155" s="1">
+        <v>405041161</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>40920939</v>
+      </c>
+      <c r="B156" s="1">
+        <v>6208628</v>
+      </c>
+      <c r="C156" t="s">
+        <v>157</v>
+      </c>
+      <c r="D156" s="1">
+        <v>405055765</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>26994996</v>
+      </c>
+      <c r="B157" s="1">
+        <v>2294068</v>
+      </c>
+      <c r="C157" t="s">
+        <v>158</v>
+      </c>
+      <c r="D157" s="1">
+        <v>405029844</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>56085314</v>
+      </c>
+      <c r="B158" s="1">
+        <v>4846362</v>
+      </c>
+      <c r="C158" t="s">
+        <v>159</v>
+      </c>
+      <c r="D158" s="1">
+        <v>405087362</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>40919703</v>
+      </c>
+      <c r="B159" s="1">
+        <v>2949803</v>
+      </c>
+      <c r="C159" t="s">
+        <v>160</v>
+      </c>
+      <c r="D159" s="1">
+        <v>405040858</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>40937619</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1885417</v>
+      </c>
+      <c r="C160" t="s">
+        <v>161</v>
+      </c>
+      <c r="D160" s="1">
+        <v>405112095</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>56085519</v>
+      </c>
+      <c r="B161" s="1">
+        <v>3192766</v>
+      </c>
+      <c r="C161" t="s">
+        <v>162</v>
+      </c>
+      <c r="D161" s="1">
+        <v>304002447</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>6772256</v>
+      </c>
+      <c r="B162" s="1">
+        <v>3851751</v>
+      </c>
+      <c r="C162" t="s">
+        <v>163</v>
+      </c>
+      <c r="D162" s="1">
+        <v>300308194</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>40799640</v>
+      </c>
+      <c r="B163" s="1">
+        <v>2275034</v>
+      </c>
+      <c r="C163" t="s">
+        <v>164</v>
+      </c>
+      <c r="D163" s="1">
+        <v>405065178</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>27015180</v>
+      </c>
+      <c r="B164" s="1">
+        <v>4846362</v>
+      </c>
+      <c r="C164" t="s">
+        <v>165</v>
+      </c>
+      <c r="D164" s="1">
+        <v>300779162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>7475678</v>
+      </c>
+      <c r="B165" s="1">
+        <v>8349844</v>
+      </c>
+      <c r="C165" t="s">
+        <v>166</v>
+      </c>
+      <c r="D165" s="1">
+        <v>405009515</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>12593221</v>
+      </c>
+      <c r="B166" s="1">
+        <v>3724267</v>
+      </c>
+      <c r="C166" t="s">
+        <v>167</v>
+      </c>
+      <c r="D166" s="1">
+        <v>405024092</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="B167" s="1"/>
+      <c r="D167" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/reportes/pagomes/TotalPlano.xlsx
+++ b/reportes/pagomes/TotalPlano.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="PagoTotal20141271" sheetId="1" r:id="rId4"/>
+    <sheet name="PagoPlanta20150101" sheetId="1" r:id="rId4"/>
     <sheet name="Worksheet 1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
   <si>
     <t>C</t>
   </si>
@@ -30,51 +30,96 @@
     <t>AARON GONZALVEZ MARLYN ALICIA</t>
   </si>
   <si>
+    <t>AGUILAR BARROS JOSE BERNARDO</t>
+  </si>
+  <si>
     <t>AGUILAR MEZA ENER MARINA</t>
   </si>
   <si>
+    <t>ALARCON MUNEVAR NATHALIE BEATRIZ</t>
+  </si>
+  <si>
+    <t>ALFARO CAMARGO CARLOS ALBERTO</t>
+  </si>
+  <si>
     <t>ALGUERO AMAYA LUIS ROBERTO</t>
   </si>
   <si>
+    <t>ALTURO MENDIGAÑA ADRIANA PATRICIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALVARADO MEJIA MARELIS </t>
+  </si>
+  <si>
     <t>ALVAREZ ECHEVERRIA BELINDA ESTHER</t>
   </si>
   <si>
+    <t xml:space="preserve">AMAYA LOPEZ NICOLAS </t>
+  </si>
+  <si>
     <t>AMAYA MENGUAL GILBERTO JOSE</t>
   </si>
   <si>
+    <t>ARAUJO CONTRERAS VIANEIS DE JESUS</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARCINIEGAS GUERRA ARIEL </t>
   </si>
   <si>
+    <t>ARISMENDY ROSADO MARTHA R.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARIZA ARIZA DAVID </t>
   </si>
   <si>
+    <t>ARIZA DAZA FERNANDO LUIS</t>
+  </si>
+  <si>
     <t>ARREGOCES  JUDITH MARIA</t>
   </si>
   <si>
     <t xml:space="preserve">AVILA FUENTES HERIBERTO </t>
   </si>
   <si>
+    <t>AVILA FUENTES MARTHA MILAGRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">BARLIZA GONZALEZ CAYETANO </t>
   </si>
   <si>
+    <t>BARLIZA NUÑEZ GLENDIS ISABEL</t>
+  </si>
+  <si>
+    <t>BARLIZA NUÑEZ ROSA ISMAIRA</t>
+  </si>
+  <si>
     <t>BARRIOS BADILLO WILFRIDO RAFAEL</t>
   </si>
   <si>
     <t>BARROS FARFAN YIMI YESID</t>
   </si>
   <si>
+    <t>BASTIDAS BARRANCO MARLON JOSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEDOYA RESTREPO HERNANDO </t>
   </si>
   <si>
     <t xml:space="preserve">BELAIDES PERALTA CELIA </t>
   </si>
   <si>
+    <t xml:space="preserve">BELTRAN ALVARADO GONZALO </t>
+  </si>
+  <si>
     <t>BELTRAN MARTINEZ GLORIA ISABEL</t>
   </si>
   <si>
     <t>BERMUDEZ BUENO WILLIAM RAFAEL</t>
   </si>
   <si>
+    <t>BERMUDEZ PIMIENTA CARLOS MANUEL</t>
+  </si>
+  <si>
     <t>BERMUDEZ VILLAMIZAR ROGER DAVID</t>
   </si>
   <si>
@@ -87,39 +132,78 @@
     <t>BERTEL PALENCIA RAMON DE JESUS</t>
   </si>
   <si>
+    <t xml:space="preserve">BONILLA BLANCHAR EDGAR </t>
+  </si>
+  <si>
     <t>BONIVENTO EPIAYU AURA AMELIA</t>
   </si>
   <si>
+    <t xml:space="preserve">BRAVO MENDOZA ARIANNYS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITO CARRILLO CLARA </t>
+  </si>
+  <si>
     <t xml:space="preserve">BRITO CASTAÑEDA ZENAIDA </t>
   </si>
   <si>
+    <t>BRITO CUADRADO OMAR ALONSO</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRITO DAZA ALBERTO </t>
   </si>
   <si>
     <t xml:space="preserve">BRUGES ALARCON NESTOR </t>
   </si>
   <si>
+    <t xml:space="preserve">BUENO GIRALDO ISIDRO </t>
+  </si>
+  <si>
+    <t>BUENO PEREZ LUZ ANGELA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CABALLERO AMADOR JORGE </t>
   </si>
   <si>
+    <t xml:space="preserve">CABRALES BONIVENTO EDWIN </t>
+  </si>
+  <si>
     <t>CABRERA PALACIO RUBEN DARIO</t>
   </si>
   <si>
     <t>CADENA MARTINEZ LAURA MILENA</t>
   </si>
   <si>
+    <t>CAMPO RIVADENEIRA LEDIS ESTHER</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARABALI ANGOLA ALEXIS </t>
   </si>
   <si>
     <t xml:space="preserve">CARCAMO BERRIO ORLANDO </t>
   </si>
   <si>
+    <t xml:space="preserve">CARDENAS CARDENAS ALAIN </t>
+  </si>
+  <si>
+    <t>CARDEÑO PORTELA EDWIN JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDEÑO PORTELA NORALBIS </t>
+  </si>
+  <si>
+    <t>CARRILLO CUJIA VIVIANA MILDRETH</t>
+  </si>
+  <si>
     <t>CASTELLANOS  MARTHA LIGIA</t>
   </si>
   <si>
     <t>CASTILLO PEREZ JAIME ANTONIO</t>
   </si>
   <si>
+    <t xml:space="preserve">CASTRILLON ROYS MARTHA </t>
+  </si>
+  <si>
     <t>CASTRO ECHAVEZ FERNANDO LUIS</t>
   </si>
   <si>
@@ -132,24 +216,36 @@
     <t>CELEDON MOLINARES ALBERTO PLACIDO</t>
   </si>
   <si>
+    <t xml:space="preserve">CHIQUILLO RODELO JUANNYS </t>
+  </si>
+  <si>
     <t>CHOLES ALMAZO HILDA MARIA</t>
   </si>
   <si>
     <t xml:space="preserve">CHOLES MEJIA FRANKLIN </t>
   </si>
   <si>
+    <t xml:space="preserve">CHOLES MONTENEGRO NAYIDIS </t>
+  </si>
+  <si>
     <t xml:space="preserve">CHOLES QUINTERO PATRICIA </t>
   </si>
   <si>
     <t>CONSUEGRA TERAN MELISSA PAOLA</t>
   </si>
   <si>
+    <t>COTES SIERRA KARELIS BEATRIZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">COTES SPROCKEL GILBERTO </t>
   </si>
   <si>
     <t>CUAN ROJAS MARIA VICTORIA</t>
   </si>
   <si>
+    <t xml:space="preserve">CUELLO DAZA EDITH </t>
+  </si>
+  <si>
     <t xml:space="preserve">CUENTAS FIGUEROA RAFAEL </t>
   </si>
   <si>
@@ -159,9 +255,36 @@
     <t xml:space="preserve">CURIEL CORREA NEILY </t>
   </si>
   <si>
+    <t>CURIEL GOMEZ REBECA YANETH</t>
+  </si>
+  <si>
+    <t>DAZA AVILA RAFAEL GUILLERMO</t>
+  </si>
+  <si>
+    <t>DAZA DAZA ALCIDES RAFAEL</t>
+  </si>
+  <si>
+    <t>DAZA LUQUE JOSE FRANCISCO</t>
+  </si>
+  <si>
     <t>DAZA MENDOZA JUAN JOSE</t>
   </si>
   <si>
+    <t>DAZA ORSINI SANDRA MILENA</t>
+  </si>
+  <si>
+    <t>DAZA REINES SAMMY DAVID</t>
+  </si>
+  <si>
+    <t>DELUQUE ATENCIO DAISY E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELUQUE DIAZ CRISPULO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELUQUE NUÑEZ LISBETH </t>
+  </si>
+  <si>
     <t xml:space="preserve">DELUQUE RODRIGUEZ ISIDRO </t>
   </si>
   <si>
@@ -171,6 +294,12 @@
     <t xml:space="preserve">DIAZ ESPITIA NUBIA </t>
   </si>
   <si>
+    <t>DIAZ FUENMAYOR KERRY JOHANA</t>
+  </si>
+  <si>
+    <t>DIAZ MENDOZA DIANA CAROLINA</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIAZ RESTREPO ESPERANZA </t>
   </si>
   <si>
@@ -180,21 +309,60 @@
     <t xml:space="preserve">DUARTE PEÑARANDA EDINA </t>
   </si>
   <si>
+    <t>ESPINOSA ROMERO ANA PATRICIA</t>
+  </si>
+  <si>
+    <t>FAJARDO CUADRADO EIDER RAFAEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">FAJARDO GOMEZ REMEDIOS </t>
   </si>
   <si>
+    <t>FINOLL ROYS RICARDO ENRIQUE</t>
+  </si>
+  <si>
     <t>FONSECA GUERRERO JOSE LUIS</t>
   </si>
   <si>
+    <t>FONSECA MENDOZA ALMA LUISA</t>
+  </si>
+  <si>
     <t>FORERO ARREGOCES HERLINDA ISABEL</t>
   </si>
   <si>
+    <t>FREYLE PIMIENTA KEILY JOANA</t>
+  </si>
+  <si>
     <t>FRIAS ACOSTA EDILMA CECILIA</t>
   </si>
   <si>
+    <t xml:space="preserve">FRIAS PEREZ RAIZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUENTES MOLINA NATALIA </t>
+  </si>
+  <si>
+    <t>FUENTES OROZCO ARINDA DE JESUS</t>
+  </si>
+  <si>
+    <t>FUENTES SANCHEZ LULIA PAULINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALINDO MONTERO ANDRES </t>
+  </si>
+  <si>
     <t xml:space="preserve">GARCES MORELO DAGOBERTO </t>
   </si>
   <si>
+    <t xml:space="preserve">GOMEZ BERMUDEZ LORENA </t>
+  </si>
+  <si>
+    <t>GOMEZ JULIO OLENKA VIRGINIA</t>
+  </si>
+  <si>
+    <t>GOMEZ RAMOS JEINER DE JESUS</t>
+  </si>
+  <si>
     <t>GONZALEZ BERMUDEZ JORGE LUIS</t>
   </si>
   <si>
@@ -222,6 +390,12 @@
     <t xml:space="preserve">GUTIERREZ PACHECO JACQUELIN </t>
   </si>
   <si>
+    <t>GUTIERREZ RAMIREZ GAIL ALBERTO</t>
+  </si>
+  <si>
+    <t>GUTIERREZ SUAREZ EDUARDO ENRIQUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">GUZMAN VALDEBLANQUEZ FRANKLIN </t>
   </si>
   <si>
@@ -261,16 +435,34 @@
     <t>JARAMILLO MENGUAL ROSA MARIA</t>
   </si>
   <si>
+    <t xml:space="preserve">JIMENEZ BELEÑO ANDRES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIMENEZ CARDENAS MEREDITH </t>
+  </si>
+  <si>
+    <t>JIMENEZ PITRE IRIS AGUSTINA</t>
+  </si>
+  <si>
     <t xml:space="preserve">JIMENEZ RUIZ CARLOS </t>
   </si>
   <si>
     <t>JOIRO PACHECO YOLEIDA MARIA</t>
   </si>
   <si>
+    <t xml:space="preserve">KAMMERER DAVID MARTHA </t>
+  </si>
+  <si>
+    <t>LADEUTH OSPINO YELENIS MARIA</t>
+  </si>
+  <si>
+    <t>LEMOS RUIZ CECILIA CONSTANZA</t>
+  </si>
+  <si>
     <t xml:space="preserve">LEON TEJADA PEDRO </t>
   </si>
   <si>
-    <t xml:space="preserve">LEON VANEGAS MARITZA </t>
+    <t>LINDO OÑATE OSCAR JOSE</t>
   </si>
   <si>
     <t xml:space="preserve">LOPEZ ATENCIO ADAULFO </t>
@@ -279,6 +471,33 @@
     <t xml:space="preserve">LOPEZ CORREA JUDITH </t>
   </si>
   <si>
+    <t>LOPEZ CORREA VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>LOPEZ FUENTES EDUIN JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ HERNANDEZ RICARDO </t>
+  </si>
+  <si>
+    <t>LOPEZ JUVINAO DANNY DANIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ RIVADENEIRA CLEIRYS </t>
+  </si>
+  <si>
+    <t>MACHADO CANTILLO ANA BEATRIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAESTRE DAZA BERONICA </t>
+  </si>
+  <si>
+    <t>MAGDANIEL AMAYA OLARYS JUDITH</t>
+  </si>
+  <si>
+    <t>MAGDANIEL HERNANDEZ LIRINA PATRICIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAGDANIEL PABON OLARIS </t>
   </si>
   <si>
@@ -291,6 +510,9 @@
     <t>MARTINEZ CARDONA JOSE CLEMENTE</t>
   </si>
   <si>
+    <t>MARTINEZ GIL JOSE MANUEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">MARTINEZ GOMEZ TATIANA </t>
   </si>
   <si>
@@ -309,6 +531,9 @@
     <t xml:space="preserve">MEDINA DE FUENTES MARTHA </t>
   </si>
   <si>
+    <t xml:space="preserve">MEDINA PALENCIA YEISON </t>
+  </si>
+  <si>
     <t xml:space="preserve">MEDINA SIERRA ALTAGRACIA </t>
   </si>
   <si>
@@ -321,45 +546,96 @@
     <t>MEJIA CANTILLO MILADIS MARIA</t>
   </si>
   <si>
+    <t xml:space="preserve">MEJIA CURIEL EROTIDA </t>
+  </si>
+  <si>
     <t xml:space="preserve">MEJIA DE LA CRUZ ELIAS </t>
   </si>
   <si>
+    <t xml:space="preserve">MEJIA GONZALEZ LORELEY </t>
+  </si>
+  <si>
     <t xml:space="preserve">MEJIA JIMENEZ MILITZA </t>
   </si>
   <si>
     <t xml:space="preserve">MEJIA MENDOZA OLGA </t>
   </si>
   <si>
+    <t xml:space="preserve">MEJIA RIVEIRA NAYELI </t>
+  </si>
+  <si>
     <t xml:space="preserve">MELENDEZ SURMAY RAFAEL </t>
   </si>
   <si>
+    <t>MELO FREILE GELVIS MANUEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">MENDOZA CABELLO ROBERTO </t>
   </si>
   <si>
     <t>MENDOZA CATAÑO CARMENZA LEONOR</t>
   </si>
   <si>
+    <t>MENDOZA FERNANDEZ DARCY LUZ</t>
+  </si>
+  <si>
+    <t>MENDOZA PEÑARANDA MARBELIA ROSA</t>
+  </si>
+  <si>
     <t>MENGUAL MEZA MARINELA MORELIS</t>
   </si>
   <si>
+    <t xml:space="preserve">MERCADO ROCHA CELIA </t>
+  </si>
+  <si>
     <t xml:space="preserve">MERCADO VILLADIEGO ALEXANDER </t>
   </si>
   <si>
+    <t>MERIÑO MENDOZA DIBER ENRIQUE</t>
+  </si>
+  <si>
+    <t>MOLINA BOLIVAR GEOMAR ENRIQUE</t>
+  </si>
+  <si>
     <t>MOLINA VEGA ALFETT JOSE</t>
   </si>
   <si>
     <t xml:space="preserve">MOLINARES RAFAEL DANILO </t>
   </si>
   <si>
+    <t>MONTAÑO MARIMON DIANA ROSA</t>
+  </si>
+  <si>
+    <t>MONTERO MONTERO MANUEL GERMAN</t>
+  </si>
+  <si>
+    <t>MORALES BUSTAMANTE JOSE GREGORIO</t>
+  </si>
+  <si>
     <t>MORALES MENGUAL LUIS CARLOS</t>
   </si>
   <si>
+    <t>MORENO FERNANDEZ MALKA IRINA</t>
+  </si>
+  <si>
+    <t>MOSCARELLA ALMENAREZ MILENA PAOLA</t>
+  </si>
+  <si>
     <t>MOYA CAMACHO FABIO ORLANDO</t>
   </si>
   <si>
+    <t>MUÑIZ RODRIGUEZ ROSA VIRGINIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUÑOZ ROJAS DELVIS </t>
+  </si>
+  <si>
     <t xml:space="preserve">NATERA ESTRADA ANGEL </t>
   </si>
   <si>
+    <t>NUÑEZ VARGAS JULIA ROSA</t>
+  </si>
+  <si>
     <t>OCHOA GARCIA ETILVIA ALICIA</t>
   </si>
   <si>
@@ -369,6 +645,9 @@
     <t>OCHOA SALDARRIAGA CARLOS JULIO</t>
   </si>
   <si>
+    <t>OJEDA CAMARGO EDGAR ENRIQUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">OLIVEROS RICHOL JAQUELIN </t>
   </si>
   <si>
@@ -378,12 +657,36 @@
     <t xml:space="preserve">ORSINI CUADRADO AUGUSTO </t>
   </si>
   <si>
+    <t>ORTEGA HERNANDEZ CARLOS MARIO</t>
+  </si>
+  <si>
+    <t>ORTIZ ROJAS ANGELA NAIR</t>
+  </si>
+  <si>
     <t xml:space="preserve">OSPINO MERIÑO ISIDORO </t>
   </si>
   <si>
     <t xml:space="preserve">PALACIO PIMIENTA DILODIS </t>
   </si>
   <si>
+    <t>PALMEZANO IBARRA YAIRINA IDELKA</t>
+  </si>
+  <si>
+    <t>PANCIERA DI ZOPOLA MARTINEZ MIGUEL J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARRA  YOLANDA </t>
+  </si>
+  <si>
+    <t>PEDRAZA FERNANDEZ MELY LINDON</t>
+  </si>
+  <si>
+    <t>PEDRAZA REYES CARLOS JULIO</t>
+  </si>
+  <si>
+    <t>PEÑA CORTES LUISA FERNANDA</t>
+  </si>
+  <si>
     <t>PEÑALVER VANEGAS CASTA GLORIA</t>
   </si>
   <si>
@@ -393,9 +696,27 @@
     <t>PEREZ CAMARGO CLIMACO ALBERTO</t>
   </si>
   <si>
+    <t>PEREZ GAMEZ BORYS DE JESUS</t>
+  </si>
+  <si>
+    <t>PEREZ JIMENEZ RONALD ANTONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ MONTIEL JHONNY </t>
+  </si>
+  <si>
     <t>PEREZ VAN-LEENDEN FRANCISCO JUSTO</t>
   </si>
   <si>
+    <t xml:space="preserve">PEREZ VAN-LEENDEN MARIANO </t>
+  </si>
+  <si>
+    <t>PIMIENTA PRIETO MARIA MARGARITA</t>
+  </si>
+  <si>
+    <t>PINEDO GUERRA VICTOR MIGUEL</t>
+  </si>
+  <si>
     <t>PINEDO VANEGAS AIRADIN ALONSO</t>
   </si>
   <si>
@@ -405,6 +726,33 @@
     <t>PINTO ANDRADE JOSE ALFONSO</t>
   </si>
   <si>
+    <t xml:space="preserve">PINTO ARAGON ELVIS </t>
+  </si>
+  <si>
+    <t>PINTO COTES LAURA RITA</t>
+  </si>
+  <si>
+    <t>PINTO MENDOZA YAISY ROSA</t>
+  </si>
+  <si>
+    <t>PINTO MINDIOLA LACIDES RAFAEL</t>
+  </si>
+  <si>
+    <t>PINTO SANTOS ALBA RUTH</t>
+  </si>
+  <si>
+    <t>PITRE REDONDO MIGUEL FRANCISCO</t>
+  </si>
+  <si>
+    <t>PITRE REDONDO REMEDIOS CATALINA</t>
+  </si>
+  <si>
+    <t>PITRE RUIZ LEANETH RAFAELINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PITRE RUIZ LEANIS </t>
+  </si>
+  <si>
     <t xml:space="preserve">POLO PERALTA JESUS </t>
   </si>
   <si>
@@ -423,39 +771,120 @@
     <t xml:space="preserve">QUINTERO FUENTES NARLY </t>
   </si>
   <si>
+    <t>QUINTERO MENDOZA JAIDER JOSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAIGOZA ACUÑA YANETH </t>
   </si>
   <si>
     <t xml:space="preserve">RAMIREZ AYALA ANDERSON </t>
   </si>
   <si>
+    <t xml:space="preserve">RAMIREZ GONZALEZ RUDECINDO </t>
+  </si>
+  <si>
+    <t>RANGEL LUQUEZ OLIVIA ISABEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDONDO CHOLES MONICA </t>
+  </si>
+  <si>
+    <t>REDONDO SALAS DANNY DEXI</t>
+  </si>
+  <si>
+    <t>RICCIULLI PEREZ YESLITH VANESSA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROBLES BRITO DANIEL </t>
   </si>
   <si>
+    <t>ROBLES CAMARGO NILKA RIQUENA</t>
+  </si>
+  <si>
+    <t>ROBLES JULIO CARLOS ARTURO</t>
+  </si>
+  <si>
     <t>ROBLES RIVEIRA HERMES ORLANDO</t>
   </si>
   <si>
+    <t xml:space="preserve">RODRIGUEZ ACOSTA SAMUEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ CASTRO FREDY </t>
+  </si>
+  <si>
+    <t>RODRIGUEZ LOPEZ CIELO MARGARITA</t>
+  </si>
+  <si>
     <t>RODRIGUEZ RIVERA MARIA EUGENIA</t>
   </si>
   <si>
+    <t xml:space="preserve">ROJANO ALVARADO ROBERTO </t>
+  </si>
+  <si>
+    <t>ROJANO ALVARADO YOLMIS NICOLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJAS CARDENAS MIGDALIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMERO CUELLO SANDY </t>
+  </si>
+  <si>
+    <t>ROMERO MORA BORIS SANDY</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROSADO BOTELLO JHONNY </t>
   </si>
   <si>
+    <t>ROSADO CASTAÑEDA ENEIDA LUZ</t>
+  </si>
+  <si>
     <t>ROSADO VEGA JAIRO RAFAEL</t>
   </si>
   <si>
     <t xml:space="preserve">ROSERO DE LA CRUZ AGUSTIN </t>
   </si>
   <si>
+    <t>ROYS COTES EMA ROSA</t>
+  </si>
+  <si>
+    <t>RUIZ TORO DANIS EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALAZAR ARGEL ALEXIS </t>
+  </si>
+  <si>
     <t xml:space="preserve">SALAZAR GARCIA MIRIAM </t>
   </si>
   <si>
+    <t xml:space="preserve">SALCEDO ANDRADE JAIR </t>
+  </si>
+  <si>
     <t xml:space="preserve">SALCEDO DAVILA JAIRO </t>
   </si>
   <si>
+    <t>SALGADO CHAVEZ JOSE ALBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ CASTELLON EMILSE </t>
+  </si>
+  <si>
+    <t>SANCHEZ GONZALEZ JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>SANCHEZ PARDO FELIX RAMIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ RAMIREZ ABIMAEL </t>
+  </si>
+  <si>
     <t xml:space="preserve">SANCHEZ ROYS DEUSENITH </t>
   </si>
   <si>
+    <t>SANCHEZ ROYS RUSDEN LENIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">SANTIS AGUAS EVELIO </t>
   </si>
   <si>
@@ -465,21 +894,51 @@
     <t xml:space="preserve">SIERRA MEZA EUCADIS </t>
   </si>
   <si>
+    <t xml:space="preserve">SIERRA MONTALVO ARIANNA </t>
+  </si>
+  <si>
+    <t>SIERRA TONCEL JUAN CARLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIERRA TONCEL WILMAR </t>
+  </si>
+  <si>
+    <t>SOCARRAS BERTIZ CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>SOLANO ARIÑO VIVIAN ELIANA</t>
+  </si>
+  <si>
+    <t>SOTO PEROZA VICTOR SEGUNDO</t>
+  </si>
+  <si>
     <t xml:space="preserve">SPROKEL BROCHERO RAFAEL </t>
   </si>
   <si>
     <t>SUAREZ BARROS HORACIO BIENVENIDO</t>
   </si>
   <si>
+    <t xml:space="preserve">TAYLOR HENRIQUEZ SIDNEY </t>
+  </si>
+  <si>
     <t xml:space="preserve">TIRADO MARTINEZ DAMARIS </t>
   </si>
   <si>
     <t xml:space="preserve">TOBAR ORTIZ NUBIA </t>
   </si>
   <si>
+    <t xml:space="preserve">TONCEL PACHECO ENRIQUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES BRUGES WILMER </t>
+  </si>
+  <si>
     <t xml:space="preserve">TORRES SALAZAR MILENIS </t>
   </si>
   <si>
+    <t>TOVAR TORO GRIZZLY DAYHANA</t>
+  </si>
+  <si>
     <t xml:space="preserve">UCROS BRITO MARLENIS </t>
   </si>
   <si>
@@ -489,9 +948,21 @@
     <t xml:space="preserve">VALDIVIESO CLAVIJO GIOVANNY </t>
   </si>
   <si>
+    <t xml:space="preserve">VALERO VALERO NELSON </t>
+  </si>
+  <si>
+    <t>VANEGAS PEREZ PAOLA ANDREA</t>
+  </si>
+  <si>
     <t xml:space="preserve">VANEGAS SPROCKEL BELKIS </t>
   </si>
   <si>
+    <t>VARGAS ESCORCIA JOSE JORGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARGAS MUÑOZ LEDYS </t>
+  </si>
+  <si>
     <t xml:space="preserve">VASQUEZ MENDOZA MARIBETH </t>
   </si>
   <si>
@@ -501,12 +972,21 @@
     <t>VEGA GAMEZ YAMIRA ISABEL</t>
   </si>
   <si>
+    <t>VEGA MENDOZA YOLEIDA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIDAL DURAN BETSY </t>
+  </si>
+  <si>
     <t>VIDAL GOMEZ AMPARO CAROLINA</t>
   </si>
   <si>
     <t xml:space="preserve">VIDAL JAIDITH ENETH </t>
   </si>
   <si>
+    <t>VIECCO RIVADENEIRA LUIS RAFAEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">VILLA AMAYA ERNELL </t>
   </si>
   <si>
@@ -519,7 +999,16 @@
     <t xml:space="preserve">ZAMBRANO ROJAS SAMUEL </t>
   </si>
   <si>
+    <t>ZAMORA CORTES LOIDA PATRICIA</t>
+  </si>
+  <si>
     <t>ZUBIRIA VIECCO JAIRO EMILIO</t>
+  </si>
+  <si>
+    <t>ZULETA PEREZ MILVIA JOSE</t>
+  </si>
+  <si>
+    <t>ZULETA PEREZ VERA CECILIA</t>
   </si>
 </sst>
 </file>
@@ -863,7 +1352,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2"/>
@@ -896,7 +1385,7 @@
         <v>40918469</v>
       </c>
       <c r="B2" s="1">
-        <v>7145392</v>
+        <v>1571674</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -907,2303 +1396,4581 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>40939700</v>
+        <v>84039816</v>
       </c>
       <c r="B3" s="1">
-        <v>4175015</v>
+        <v>114081</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>405179284</v>
+        <v>405048687</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>13348956</v>
+        <v>40939700</v>
       </c>
       <c r="B4" s="1">
-        <v>9256683</v>
+        <v>4847578</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>405055948</v>
+        <v>405179284</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>40916739</v>
+        <v>40939978</v>
       </c>
       <c r="B5" s="1">
-        <v>4273571</v>
+        <v>213576</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>405056011</v>
+        <v>405149600</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>8701267</v>
+        <v>84071030</v>
       </c>
       <c r="B6" s="1">
-        <v>3555132</v>
+        <v>169863</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>405030826</v>
+        <v>304002546</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>17952855</v>
+        <v>13348956</v>
       </c>
       <c r="B7" s="1">
-        <v>2703987</v>
+        <v>69408</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>405030388</v>
+        <v>405055948</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>72042242</v>
+        <v>40936721</v>
       </c>
       <c r="B8" s="1">
-        <v>1591909</v>
+        <v>315541</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>405055468</v>
+        <v>405182627</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>42493216</v>
+        <v>40921929</v>
       </c>
       <c r="B9" s="1">
-        <v>2127481</v>
+        <v>1155585</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>405055740</v>
+        <v>405180050</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>5163080</v>
+        <v>40916739</v>
       </c>
       <c r="B10" s="1">
-        <v>7202399</v>
+        <v>942796</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>405044595</v>
+        <v>405056011</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>73077183</v>
+        <v>84026931</v>
       </c>
       <c r="B11" s="1">
-        <v>7863404</v>
+        <v>522447</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>405056052</v>
+        <v>405002007</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>17805887</v>
+        <v>8701267</v>
       </c>
       <c r="B12" s="1">
-        <v>2142821</v>
+        <v>623179</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>405753203</v>
+        <v>405030826</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>84101451</v>
+        <v>50892018</v>
       </c>
       <c r="B13" s="1">
-        <v>3192766</v>
+        <v>927487</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>300211059</v>
+        <v>405769027</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>19092691</v>
+        <v>17952855</v>
       </c>
       <c r="B14" s="1">
-        <v>9197617</v>
+        <v>104967</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1">
-        <v>405031378</v>
+        <v>405030388</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>40933413</v>
+        <v>26965887</v>
       </c>
       <c r="B15" s="1">
-        <v>1685744</v>
+        <v>2918627</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>405157488</v>
+        <v>405044371</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>35463698</v>
+        <v>72042242</v>
       </c>
       <c r="B16" s="1">
-        <v>4733595</v>
+        <v>8560</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>405055823</v>
+        <v>405055468</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>17807444</v>
+        <v>5163377</v>
       </c>
       <c r="B17" s="1">
-        <v>7706585</v>
+        <v>951717</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="1">
-        <v>405056441</v>
+        <v>405044470</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>84029482</v>
+        <v>42493216</v>
       </c>
       <c r="B18" s="1">
-        <v>2021784</v>
+        <v>1779323</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="1">
-        <v>405750373</v>
+        <v>405055740</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>6882304</v>
+        <v>5163080</v>
       </c>
       <c r="B19" s="1">
-        <v>1286653</v>
+        <v>1576060</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>405031261</v>
+        <v>405044595</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>84039854</v>
+        <v>27004224</v>
       </c>
       <c r="B20" s="1">
-        <v>3225235</v>
+        <v>444522</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="1">
-        <v>304002421</v>
+        <v>405056383</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>92508149</v>
+        <v>73077183</v>
       </c>
       <c r="B21" s="1">
-        <v>7204629</v>
+        <v>941000</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="1">
-        <v>405030990</v>
+        <v>405056052</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>40912637</v>
+        <v>40928682</v>
       </c>
       <c r="B22" s="1">
-        <v>2097302</v>
+        <v>45957</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="1">
-        <v>405055666</v>
+        <v>405048505</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>26963364</v>
+        <v>40931268</v>
       </c>
       <c r="B23" s="1">
-        <v>6728664</v>
+        <v>573040</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="1">
-        <v>405753161</v>
+        <v>405179870</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>6757157</v>
+        <v>17805887</v>
       </c>
       <c r="B24" s="1">
-        <v>7399345</v>
+        <v>377511</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>405750522</v>
+        <v>405753203</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>17802680</v>
+        <v>84101451</v>
       </c>
       <c r="B25" s="1">
-        <v>1286653</v>
+        <v>805734</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="1">
-        <v>405056276</v>
+        <v>300211059</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>9070606</v>
+        <v>77033581</v>
       </c>
       <c r="B26" s="1">
-        <v>2251452</v>
+        <v>1222840</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="1">
-        <v>405056250</v>
+        <v>405179961</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>72150467</v>
+        <v>19092691</v>
       </c>
       <c r="B27" s="1">
-        <v>2939578</v>
+        <v>1890860</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="1">
-        <v>405066481</v>
+        <v>405031378</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>56090201</v>
+        <v>40933413</v>
       </c>
       <c r="B28" s="1">
-        <v>1736445</v>
+        <v>117919</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="1">
-        <v>405182403</v>
+        <v>405157488</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>76269701</v>
+        <v>19461331</v>
       </c>
       <c r="B29" s="1">
-        <v>7797187</v>
+        <v>1028197</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="1">
-        <v>405055732</v>
+        <v>405056433</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>84046064</v>
+        <v>35463698</v>
       </c>
       <c r="B30" s="1">
-        <v>5703239</v>
+        <v>931911</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="1">
-        <v>405031063</v>
+        <v>405055823</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>31920603</v>
+        <v>17807444</v>
       </c>
       <c r="B31" s="1">
-        <v>11021125</v>
+        <v>890033</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="1">
-        <v>405031782</v>
+        <v>405056441</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>92510967</v>
+        <v>84079431</v>
       </c>
       <c r="B32" s="1">
-        <v>9501707</v>
+        <v>1574376</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="1">
-        <v>405031071</v>
+        <v>405090531</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>92511328</v>
+        <v>84029482</v>
       </c>
       <c r="B33" s="1">
-        <v>7768776</v>
+        <v>169399</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="1">
-        <v>405031121</v>
+        <v>405750373</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>51828780</v>
+        <v>6882304</v>
       </c>
       <c r="B34" s="1">
-        <v>5763336</v>
+        <v>397954</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="1">
-        <v>405044462</v>
+        <v>405031261</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>40926769</v>
+        <v>84039854</v>
       </c>
       <c r="B35" s="1">
-        <v>1685744</v>
+        <v>846749</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="1">
-        <v>405139726</v>
+        <v>304002421</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>12538766</v>
+        <v>92508149</v>
       </c>
       <c r="B36" s="1">
-        <v>8417933</v>
+        <v>1591352</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="1">
-        <v>405049776</v>
+        <v>405030990</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>40919494</v>
+        <v>84036737</v>
       </c>
       <c r="B37" s="1">
-        <v>7250648</v>
+        <v>1240661</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="1">
-        <v>405055500</v>
+        <v>405045949</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>84042850</v>
+        <v>40912637</v>
       </c>
       <c r="B38" s="1">
-        <v>5811184</v>
+        <v>464273</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="1">
-        <v>405053075</v>
+        <v>405055666</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>40976770</v>
+        <v>40942508</v>
       </c>
       <c r="B39" s="1">
-        <v>7645055</v>
+        <v>8603</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="1">
-        <v>405056532</v>
+        <v>405102203</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>1129577145</v>
+        <v>37314692</v>
       </c>
       <c r="B40" s="1">
-        <v>4663103</v>
+        <v>896491</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="1">
-        <v>405176868</v>
+        <v>405056912</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>84081588</v>
+        <v>26963364</v>
       </c>
       <c r="B41" s="1">
-        <v>3192766</v>
+        <v>1486261</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="1">
-        <v>405126962</v>
+        <v>405753161</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>40919704</v>
+        <v>19496929</v>
       </c>
       <c r="B42" s="1">
-        <v>3297638</v>
+        <v>927455</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="1">
-        <v>405000548</v>
+        <v>405754847</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>7449339</v>
+        <v>6757157</v>
       </c>
       <c r="B43" s="1">
-        <v>8554862</v>
+        <v>672392</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="1">
-        <v>405007931</v>
+        <v>405750522</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>33142746</v>
+        <v>17802680</v>
       </c>
       <c r="B44" s="1">
-        <v>11587350</v>
+        <v>307789</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="1">
-        <v>405049156</v>
+        <v>405056276</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>40916635</v>
+        <v>12540363</v>
       </c>
       <c r="B45" s="1">
-        <v>3555136</v>
+        <v>367593</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="1">
-        <v>405031014</v>
+        <v>405056003</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>17975955</v>
+        <v>40927768</v>
       </c>
       <c r="B46" s="1">
-        <v>1685744</v>
+        <v>336808</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="1">
-        <v>405066309</v>
+        <v>405166901</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>84028941</v>
+        <v>9070606</v>
       </c>
       <c r="B47" s="1">
-        <v>4659964</v>
+        <v>167355</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
       <c r="D47" s="1">
-        <v>405056342</v>
+        <v>405056250</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>40923874</v>
+        <v>84084156</v>
       </c>
       <c r="B48" s="1">
-        <v>2949803</v>
+        <v>458743</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="1">
-        <v>405055781</v>
+        <v>405140187</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>40916312</v>
+        <v>72150467</v>
       </c>
       <c r="B49" s="1">
-        <v>1286653</v>
+        <v>836229</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="1">
-        <v>405055575</v>
+        <v>405066481</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>45445337</v>
+        <v>56090201</v>
       </c>
       <c r="B50" s="1">
-        <v>6476945</v>
+        <v>836229</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="1">
-        <v>405055815</v>
+        <v>405182403</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>10893959</v>
+        <v>36551115</v>
       </c>
       <c r="B51" s="1">
-        <v>4824921</v>
+        <v>891234</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51" s="1">
-        <v>405055351</v>
+        <v>405055989</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>40925745</v>
+        <v>76269701</v>
       </c>
       <c r="B52" s="1">
-        <v>2458170</v>
+        <v>417156</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
       </c>
       <c r="D52" s="1">
-        <v>405041716</v>
+        <v>405055732</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>40792159</v>
+        <v>84046064</v>
       </c>
       <c r="B53" s="1">
-        <v>5204488</v>
+        <v>89340</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
       </c>
       <c r="D53" s="1">
-        <v>405044611</v>
+        <v>405031063</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>12546959</v>
+        <v>84087841</v>
       </c>
       <c r="B54" s="1">
-        <v>5252231</v>
+        <v>775126</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="1">
-        <v>405754946</v>
+        <v>405164898</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>40918603</v>
+        <v>84033855</v>
       </c>
       <c r="B55" s="1">
-        <v>1068487</v>
+        <v>1237834</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="1">
-        <v>405049784</v>
+        <v>405137076</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>41477972</v>
+        <v>32689739</v>
       </c>
       <c r="B56" s="1">
-        <v>8872955</v>
+        <v>1090629</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="1">
-        <v>405053679</v>
+        <v>405063934</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>15020638</v>
+        <v>1123998385</v>
       </c>
       <c r="B57" s="1">
-        <v>1786439</v>
+        <v>4272143</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="1">
-        <v>405031220</v>
+        <v>405140229</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>12544915</v>
+        <v>31920603</v>
       </c>
       <c r="B58" s="1">
-        <v>5236200</v>
+        <v>444962</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
       </c>
       <c r="D58" s="1">
-        <v>405046723</v>
+        <v>405031782</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>84030977</v>
+        <v>92510967</v>
       </c>
       <c r="B59" s="1">
-        <v>2097302</v>
+        <v>2056480</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="1">
-        <v>405054339</v>
+        <v>405031071</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>5158707</v>
+        <v>40922440</v>
       </c>
       <c r="B60" s="1">
-        <v>6142290</v>
+        <v>936552</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
       </c>
       <c r="D60" s="1">
-        <v>405056540</v>
+        <v>405071051</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>24545047</v>
+        <v>92511328</v>
       </c>
       <c r="B61" s="1">
-        <v>5622445</v>
+        <v>766804</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
       </c>
       <c r="D61" s="1">
-        <v>405043985</v>
+        <v>405031121</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>12719194</v>
+        <v>51828780</v>
       </c>
       <c r="B62" s="1">
-        <v>1592969</v>
+        <v>373121</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
       </c>
       <c r="D62" s="1">
-        <v>405767450</v>
+        <v>405044462</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>57412938</v>
+        <v>40926769</v>
       </c>
       <c r="B63" s="1">
-        <v>6518839</v>
+        <v>365958</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" s="1">
-        <v>405056557</v>
+        <v>405139726</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>17806728</v>
+        <v>12538766</v>
       </c>
       <c r="B64" s="1">
-        <v>5252231</v>
+        <v>933256</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>405049776</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>40942002</v>
+        <v>32741890</v>
       </c>
       <c r="B65" s="1">
-        <v>1068487</v>
+        <v>168234</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
       </c>
       <c r="D65" s="1">
-        <v>405149733</v>
+        <v>405057506</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>40917742</v>
+        <v>40919494</v>
       </c>
       <c r="B66" s="1">
-        <v>2097302</v>
+        <v>1551252</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
       </c>
       <c r="D66" s="1">
-        <v>405040999</v>
+        <v>405055500</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>17808439</v>
+        <v>84042850</v>
       </c>
       <c r="B67" s="1">
-        <v>2251452</v>
+        <v>133474</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
       </c>
       <c r="D67" s="1">
-        <v>405031022</v>
+        <v>405053075</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>84026213</v>
+        <v>40924433</v>
       </c>
       <c r="B68" s="1">
-        <v>1781607</v>
+        <v>751790</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="1">
-        <v>405048703</v>
+        <v>405044587</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>22977169</v>
+        <v>40976770</v>
       </c>
       <c r="B69" s="1">
-        <v>1286653</v>
+        <v>1673797</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
       </c>
       <c r="D69" s="1">
-        <v>405056102</v>
+        <v>405056532</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>7456239</v>
+        <v>1129577145</v>
       </c>
       <c r="B70" s="1">
-        <v>4196377</v>
+        <v>666616</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
       </c>
       <c r="D70" s="1">
-        <v>405055872</v>
+        <v>405176868</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>84104058</v>
+        <v>40926534</v>
       </c>
       <c r="B71" s="1">
-        <v>1452983</v>
+        <v>1080206</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
       </c>
       <c r="D71" s="1">
-        <v>405055583</v>
+        <v>405076225</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>19225173</v>
+        <v>84081588</v>
       </c>
       <c r="B72" s="1">
-        <v>12117424</v>
+        <v>331234</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
       </c>
       <c r="D72" s="1">
-        <v>405041542</v>
+        <v>405126962</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>15039137</v>
+        <v>40919704</v>
       </c>
       <c r="B73" s="1">
-        <v>5556088</v>
+        <v>897045</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
       </c>
       <c r="D73" s="1">
-        <v>405056201</v>
+        <v>405000548</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>40914837</v>
+        <v>27002170</v>
       </c>
       <c r="B74" s="1">
-        <v>2097302</v>
+        <v>117206</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
       </c>
       <c r="D74" s="1">
-        <v>405040445</v>
+        <v>405059247</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>40916124</v>
+        <v>7449339</v>
       </c>
       <c r="B75" s="1">
-        <v>6151154</v>
+        <v>1262087</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" s="1">
-        <v>405020504</v>
+        <v>405007931</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>84005124</v>
+        <v>33142746</v>
       </c>
       <c r="B76" s="1">
-        <v>6700757</v>
+        <v>1767796</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
       </c>
       <c r="D76" s="1">
-        <v>405051285</v>
+        <v>405049156</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>5183086</v>
+        <v>40916635</v>
       </c>
       <c r="B77" s="1">
-        <v>4649251</v>
+        <v>2033505</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
       </c>
       <c r="D77" s="1">
-        <v>405033515</v>
+        <v>405031014</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>24473753</v>
+        <v>40922614</v>
       </c>
       <c r="B78" s="1">
-        <v>10708146</v>
+        <v>595766</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
       </c>
       <c r="D78" s="1">
-        <v>405750605</v>
+        <v>405049230</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>40837882</v>
+        <v>84033345</v>
       </c>
       <c r="B79" s="1">
-        <v>2949803</v>
+        <v>60132</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
       </c>
       <c r="D79" s="1">
-        <v>405054099</v>
+        <v>405031352</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>8748985</v>
+        <v>84088120</v>
       </c>
       <c r="B80" s="1">
-        <v>8794284</v>
+        <v>848393</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
       </c>
       <c r="D80" s="1">
-        <v>405031105</v>
+        <v>405125113</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>40983796</v>
+        <v>84037627</v>
       </c>
       <c r="B81" s="1">
-        <v>1068487</v>
+        <v>176557</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
       </c>
       <c r="D81" s="1">
-        <v>405149626</v>
+        <v>405055138</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>8662135</v>
+        <v>17975955</v>
       </c>
       <c r="B82" s="1">
-        <v>9285297</v>
+        <v>7411</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
       </c>
       <c r="D82" s="1">
-        <v>405030743</v>
+        <v>405066309</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>26965867</v>
+        <v>49791756</v>
       </c>
       <c r="B83" s="1">
-        <v>5190359</v>
+        <v>267524</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
       </c>
       <c r="D83" s="1">
-        <v>405041591</v>
+        <v>405179805</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>12720417</v>
+        <v>17973791</v>
       </c>
       <c r="B84" s="1">
-        <v>5778356</v>
+        <v>880843</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
       </c>
       <c r="D84" s="1">
-        <v>405055914</v>
+        <v>405770348</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>40915007</v>
+        <v>40913813</v>
       </c>
       <c r="B85" s="1">
-        <v>4273571</v>
+        <v>36141</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
       </c>
       <c r="D85" s="1">
-        <v>405055922</v>
+        <v>405030115</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>40924537</v>
+        <v>84084230</v>
       </c>
       <c r="B86" s="1">
-        <v>2097302</v>
+        <v>8201</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
       </c>
       <c r="D86" s="1">
-        <v>405040064</v>
+        <v>405090036</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>40924429</v>
+        <v>40922080</v>
       </c>
       <c r="B87" s="1">
-        <v>2035225</v>
+        <v>465277</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
       </c>
       <c r="D87" s="1">
-        <v>405056326</v>
+        <v>405055088</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>56057668</v>
+        <v>84028941</v>
       </c>
       <c r="B88" s="1">
-        <v>4663103</v>
+        <v>96563</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
       </c>
       <c r="D88" s="1">
-        <v>405176934</v>
+        <v>405056342</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>19082949</v>
+        <v>40923874</v>
       </c>
       <c r="B89" s="1">
-        <v>7395740</v>
+        <v>668587</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
       </c>
       <c r="D89" s="1">
-        <v>405056565</v>
+        <v>405055781</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>32181130</v>
+        <v>40916312</v>
       </c>
       <c r="B90" s="1">
-        <v>5915304</v>
+        <v>412954</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
       </c>
       <c r="D90" s="1">
-        <v>405164013</v>
+        <v>405055575</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>17855558</v>
+        <v>40927310</v>
       </c>
       <c r="B91" s="1">
-        <v>8904469</v>
+        <v>6601334</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
       </c>
       <c r="D91" s="1">
-        <v>405029851</v>
+        <v>405123787</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>4509294</v>
+        <v>52702655</v>
       </c>
       <c r="B92" s="1">
-        <v>10760247</v>
+        <v>1085616</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
       </c>
       <c r="D92" s="1">
-        <v>405030230</v>
+        <v>310081955</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>77017538</v>
+        <v>45445337</v>
       </c>
       <c r="B93" s="1">
-        <v>4307528</v>
+        <v>152751</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
       </c>
       <c r="D93" s="1">
-        <v>300314994</v>
+        <v>405055815</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>40927723</v>
+        <v>10893959</v>
       </c>
       <c r="B94" s="1">
-        <v>1885417</v>
+        <v>412584</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
       </c>
       <c r="D94" s="1">
-        <v>405182916</v>
+        <v>405055351</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>40917726</v>
+        <v>40925745</v>
       </c>
       <c r="B95" s="1">
-        <v>1286653</v>
+        <v>72806</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
       </c>
       <c r="D95" s="1">
-        <v>405044330</v>
+        <v>405041716</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>40912575</v>
+        <v>1118805083</v>
       </c>
       <c r="B96" s="1">
-        <v>1286653</v>
+        <v>4619519</v>
       </c>
       <c r="C96" t="s">
         <v>97</v>
       </c>
       <c r="D96" s="1">
-        <v>405055708</v>
+        <v>405179243</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>84092791</v>
+        <v>84026792</v>
       </c>
       <c r="B97" s="1">
-        <v>3123417</v>
+        <v>11137</v>
       </c>
       <c r="C97" t="s">
         <v>98</v>
       </c>
       <c r="D97" s="1">
-        <v>405124462</v>
+        <v>405044306</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>84032706</v>
+        <v>40792159</v>
       </c>
       <c r="B98" s="1">
-        <v>4887654</v>
+        <v>831933</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
       </c>
       <c r="D98" s="1">
-        <v>405055435</v>
+        <v>405044611</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>40913846</v>
+        <v>84089741</v>
       </c>
       <c r="B99" s="1">
-        <v>2035225</v>
+        <v>1034233</v>
       </c>
       <c r="C99" t="s">
         <v>100</v>
       </c>
       <c r="D99" s="1">
-        <v>405031154</v>
+        <v>405171984</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>84031046</v>
+        <v>12546959</v>
       </c>
       <c r="B100" s="1">
-        <v>4213973</v>
+        <v>1182040</v>
       </c>
       <c r="C100" t="s">
         <v>101</v>
       </c>
       <c r="D100" s="1">
-        <v>405042482</v>
+        <v>405754946</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>57440533</v>
+        <v>56069985</v>
       </c>
       <c r="B101" s="1">
-        <v>4846362</v>
+        <v>27457</v>
       </c>
       <c r="C101" t="s">
         <v>102</v>
       </c>
       <c r="D101" s="1">
-        <v>405171752</v>
+        <v>405165036</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>40789011</v>
+        <v>40918603</v>
       </c>
       <c r="B102" s="1">
-        <v>6859159</v>
+        <v>270410</v>
       </c>
       <c r="C102" t="s">
         <v>103</v>
       </c>
       <c r="D102" s="1">
-        <v>405126756</v>
+        <v>405049784</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>72134510</v>
+        <v>40933997</v>
       </c>
       <c r="B103" s="1">
-        <v>7723635</v>
+        <v>650117</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
       </c>
       <c r="D103" s="1">
-        <v>405056722</v>
+        <v>405183963</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>3717537</v>
+        <v>41477972</v>
       </c>
       <c r="B104" s="1">
-        <v>7875999</v>
+        <v>1906045</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
       </c>
       <c r="D104" s="1">
-        <v>405056508</v>
+        <v>405053679</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>56073872</v>
+        <v>40838476</v>
       </c>
       <c r="B105" s="1">
-        <v>4058600</v>
+        <v>878347</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
       </c>
       <c r="D105" s="1">
-        <v>405070467</v>
+        <v>405039967</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>32655352</v>
+        <v>56078338</v>
       </c>
       <c r="B106" s="1">
-        <v>5778356</v>
+        <v>870787</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="1">
-        <v>405056110</v>
+        <v>405180191</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>84078019</v>
+        <v>40915762</v>
       </c>
       <c r="B107" s="1">
-        <v>1566662</v>
+        <v>781954</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
       </c>
       <c r="D107" s="1">
-        <v>405767534</v>
+        <v>405055724</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>17954966</v>
+        <v>41672425</v>
       </c>
       <c r="B108" s="1">
-        <v>1685744</v>
+        <v>876917</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
       </c>
       <c r="D108" s="1">
-        <v>405154998</v>
+        <v>405061789</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>8713774</v>
+        <v>77034749</v>
       </c>
       <c r="B109" s="1">
-        <v>6017231</v>
+        <v>130778</v>
       </c>
       <c r="C109" t="s">
         <v>110</v>
       </c>
       <c r="D109" s="1">
-        <v>405056268</v>
+        <v>405020199</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>84034602</v>
+        <v>15020638</v>
       </c>
       <c r="B110" s="1">
-        <v>2949803</v>
+        <v>1300996</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
       </c>
       <c r="D110" s="1">
-        <v>405055690</v>
+        <v>405031220</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>73114368</v>
+        <v>40917947</v>
       </c>
       <c r="B111" s="1">
-        <v>4091069</v>
+        <v>936552</v>
       </c>
       <c r="C111" t="s">
         <v>112</v>
       </c>
       <c r="D111" s="1">
-        <v>405180001</v>
+        <v>405060070</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>84026238</v>
+        <v>32785368</v>
       </c>
       <c r="B112" s="1">
-        <v>1976446</v>
+        <v>1088619</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
       </c>
       <c r="D112" s="1">
-        <v>405056284</v>
+        <v>405081514</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>40925643</v>
+        <v>1010089455</v>
       </c>
       <c r="B113" s="1">
-        <v>1685744</v>
+        <v>316748</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
       </c>
       <c r="D113" s="1">
-        <v>405149253</v>
+        <v>405182619</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>26964861</v>
+        <v>12544915</v>
       </c>
       <c r="B114" s="1">
-        <v>7521030</v>
+        <v>52637</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
       </c>
       <c r="D114" s="1">
-        <v>405030404</v>
+        <v>405046723</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>70070562</v>
+        <v>84030977</v>
       </c>
       <c r="B115" s="1">
-        <v>7271364</v>
+        <v>433323</v>
       </c>
       <c r="C115" t="s">
         <v>116</v>
       </c>
       <c r="D115" s="1">
-        <v>405056177</v>
+        <v>405054339</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>32704787</v>
+        <v>5158707</v>
       </c>
       <c r="B116" s="1">
-        <v>2035225</v>
+        <v>465792</v>
       </c>
       <c r="C116" t="s">
         <v>117</v>
       </c>
       <c r="D116" s="1">
-        <v>405030180</v>
+        <v>405056540</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>40976795</v>
+        <v>24545047</v>
       </c>
       <c r="B117" s="1">
-        <v>5617530</v>
+        <v>1237215</v>
       </c>
       <c r="C117" t="s">
         <v>118</v>
       </c>
       <c r="D117" s="1">
-        <v>405030982</v>
+        <v>405043985</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>12712692</v>
+        <v>12719194</v>
       </c>
       <c r="B118" s="1">
-        <v>3909698</v>
+        <v>276948</v>
       </c>
       <c r="C118" t="s">
         <v>119</v>
       </c>
       <c r="D118" s="1">
-        <v>405055856</v>
+        <v>405767450</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>73080431</v>
+        <v>57412938</v>
       </c>
       <c r="B119" s="1">
-        <v>8434836</v>
+        <v>290432</v>
       </c>
       <c r="C119" t="s">
         <v>120</v>
       </c>
       <c r="D119" s="1">
-        <v>405055898</v>
+        <v>405056557</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>40915068</v>
+        <v>17806728</v>
       </c>
       <c r="B120" s="1">
-        <v>3555132</v>
+        <v>1105790</v>
       </c>
       <c r="C120" t="s">
         <v>121</v>
       </c>
       <c r="D120" s="1">
-        <v>405043035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>40928745</v>
+        <v>40942002</v>
       </c>
       <c r="B121" s="1">
-        <v>5166036</v>
+        <v>166266</v>
       </c>
       <c r="C121" t="s">
         <v>122</v>
       </c>
       <c r="D121" s="1">
-        <v>405089905</v>
+        <v>405149733</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>72174199</v>
+        <v>40917742</v>
       </c>
       <c r="B122" s="1">
-        <v>5778354</v>
+        <v>1415855</v>
       </c>
       <c r="C122" t="s">
         <v>123</v>
       </c>
       <c r="D122" s="1">
-        <v>405055195</v>
+        <v>405040999</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>19193790</v>
+        <v>77172086</v>
       </c>
       <c r="B123" s="1">
-        <v>8848645</v>
+        <v>1283231</v>
       </c>
       <c r="C123" t="s">
         <v>124</v>
       </c>
       <c r="D123" s="1">
-        <v>405031147</v>
+        <v>300125341</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>17802053</v>
+        <v>17974249</v>
       </c>
       <c r="B124" s="1">
-        <v>15033711</v>
+        <v>329818</v>
       </c>
       <c r="C124" t="s">
         <v>125</v>
       </c>
       <c r="D124" s="1">
-        <v>405056581</v>
+        <v>405028887</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>84026629</v>
+        <v>17808439</v>
       </c>
       <c r="B125" s="1">
-        <v>7052862</v>
+        <v>69017</v>
       </c>
       <c r="C125" t="s">
         <v>126</v>
       </c>
       <c r="D125" s="1">
-        <v>405055401</v>
+        <v>405031022</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>40914203</v>
+        <v>84026213</v>
       </c>
       <c r="B126" s="1">
-        <v>3555132</v>
+        <v>161428</v>
       </c>
       <c r="C126" t="s">
         <v>127</v>
       </c>
       <c r="D126" s="1">
-        <v>405055245</v>
+        <v>405048703</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>77022224</v>
+        <v>22977169</v>
       </c>
       <c r="B127" s="1">
-        <v>3727971</v>
+        <v>150878</v>
       </c>
       <c r="C127" t="s">
         <v>128</v>
       </c>
       <c r="D127" s="1">
-        <v>405158411</v>
+        <v>405056102</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>5159322</v>
+        <v>7456239</v>
       </c>
       <c r="B128" s="1">
-        <v>5252231</v>
+        <v>243463</v>
       </c>
       <c r="C128" t="s">
         <v>129</v>
       </c>
       <c r="D128" s="1">
-        <v>405012113</v>
+        <v>405055872</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>32683605</v>
+        <v>84104058</v>
       </c>
       <c r="B129" s="1">
-        <v>5345860</v>
+        <v>355707</v>
       </c>
       <c r="C129" t="s">
         <v>130</v>
       </c>
       <c r="D129" s="1">
-        <v>405055286</v>
+        <v>405055583</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>42677500</v>
+        <v>19225173</v>
       </c>
       <c r="B130" s="1">
-        <v>8745110</v>
+        <v>2616504</v>
       </c>
       <c r="C130" t="s">
         <v>131</v>
       </c>
       <c r="D130" s="1">
-        <v>405056219</v>
+        <v>405041542</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>19456447</v>
+        <v>15039137</v>
       </c>
       <c r="B131" s="1">
-        <v>4189613</v>
+        <v>187061</v>
       </c>
       <c r="C131" t="s">
         <v>132</v>
       </c>
       <c r="D131" s="1">
-        <v>405753518</v>
+        <v>405056201</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>26962896</v>
+        <v>40914837</v>
       </c>
       <c r="B132" s="1">
-        <v>6978781</v>
+        <v>1064082</v>
       </c>
       <c r="C132" t="s">
         <v>133</v>
       </c>
       <c r="D132" s="1">
-        <v>405043977</v>
+        <v>405040445</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>40924637</v>
+        <v>40916124</v>
       </c>
       <c r="B133" s="1">
-        <v>1772897</v>
+        <v>515497</v>
       </c>
       <c r="C133" t="s">
         <v>134</v>
       </c>
       <c r="D133" s="1">
-        <v>405055476</v>
+        <v>405020504</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>36719109</v>
+        <v>84005124</v>
       </c>
       <c r="B134" s="1">
-        <v>4846362</v>
+        <v>356645</v>
       </c>
       <c r="C134" t="s">
         <v>135</v>
       </c>
       <c r="D134" s="1">
-        <v>405067208</v>
+        <v>405051285</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>77025705</v>
+        <v>5183086</v>
       </c>
       <c r="B135" s="1">
-        <v>3031770</v>
+        <v>402338</v>
       </c>
       <c r="C135" t="s">
         <v>136</v>
       </c>
       <c r="D135" s="1">
-        <v>300125432</v>
+        <v>405033515</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>17807106</v>
+        <v>24473753</v>
       </c>
       <c r="B136" s="1">
-        <v>8235833</v>
+        <v>5249925</v>
       </c>
       <c r="C136" t="s">
         <v>137</v>
       </c>
       <c r="D136" s="1">
-        <v>405008079</v>
+        <v>405750605</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>8798450</v>
+        <v>40837882</v>
       </c>
       <c r="B137" s="1">
-        <v>648134</v>
+        <v>637407</v>
       </c>
       <c r="C137" t="s">
         <v>138</v>
       </c>
       <c r="D137" s="1">
-        <v>405182635</v>
+        <v>405054099</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>40923400</v>
+        <v>12543151</v>
       </c>
       <c r="B138" s="1">
-        <v>4605968</v>
+        <v>1182922</v>
       </c>
       <c r="C138" t="s">
         <v>139</v>
       </c>
       <c r="D138" s="1">
-        <v>405030362</v>
+        <v>405056458</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>10234384</v>
+        <v>49741390</v>
       </c>
       <c r="B139" s="1">
-        <v>4241709</v>
+        <v>891234</v>
       </c>
       <c r="C139" t="s">
         <v>140</v>
       </c>
       <c r="D139" s="1">
-        <v>405044603</v>
+        <v>300072444</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>8278413</v>
+        <v>56056146</v>
       </c>
       <c r="B140" s="1">
-        <v>10696087</v>
+        <v>978453</v>
       </c>
       <c r="C140" t="s">
         <v>141</v>
       </c>
       <c r="D140" s="1">
-        <v>405035304</v>
+        <v>405065947</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>4034483</v>
+        <v>8748985</v>
       </c>
       <c r="B141" s="1">
-        <v>8444995</v>
+        <v>1922052</v>
       </c>
       <c r="C141" t="s">
         <v>142</v>
       </c>
       <c r="D141" s="1">
-        <v>405056094</v>
+        <v>405031105</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>40976465</v>
+        <v>40983796</v>
       </c>
       <c r="B142" s="1">
-        <v>2097302</v>
+        <v>17559</v>
       </c>
       <c r="C142" t="s">
         <v>143</v>
       </c>
       <c r="D142" s="1">
-        <v>405044439</v>
+        <v>405149626</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>17805759</v>
+        <v>40797290</v>
       </c>
       <c r="B143" s="1">
-        <v>9483219</v>
+        <v>1081567</v>
       </c>
       <c r="C143" t="s">
         <v>144</v>
       </c>
       <c r="D143" s="1">
-        <v>405056037</v>
+        <v>405085382</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>40914811</v>
+        <v>40938089</v>
       </c>
       <c r="B144" s="1">
-        <v>8743050</v>
+        <v>793479</v>
       </c>
       <c r="C144" t="s">
         <v>145</v>
       </c>
       <c r="D144" s="1">
-        <v>405056466</v>
+        <v>405179813</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>70120295</v>
+        <v>25271766</v>
       </c>
       <c r="B145" s="1">
-        <v>10526039</v>
+        <v>1917742</v>
       </c>
       <c r="C145" t="s">
         <v>146</v>
       </c>
       <c r="D145" s="1">
-        <v>405030198</v>
+        <v>405056359</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>9307957</v>
+        <v>8662135</v>
       </c>
       <c r="B146" s="1">
-        <v>7183167</v>
+        <v>2024317</v>
       </c>
       <c r="C146" t="s">
         <v>147</v>
       </c>
       <c r="D146" s="1">
-        <v>405030784</v>
+        <v>405030743</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>40912245</v>
+        <v>84035236</v>
       </c>
       <c r="B147" s="1">
-        <v>2294068</v>
+        <v>173966</v>
       </c>
       <c r="C147" t="s">
         <v>148</v>
       </c>
       <c r="D147" s="1">
-        <v>405056243</v>
+        <v>405138199</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>17807159</v>
+        <v>12720417</v>
       </c>
       <c r="B148" s="1">
-        <v>4659964</v>
+        <v>1185604</v>
       </c>
       <c r="C148" t="s">
         <v>149</v>
       </c>
       <c r="D148" s="1">
-        <v>405040270</v>
+        <v>405055914</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>84035580</v>
+        <v>40915007</v>
       </c>
       <c r="B149" s="1">
-        <v>3830172</v>
+        <v>461201</v>
       </c>
       <c r="C149" t="s">
         <v>150</v>
       </c>
       <c r="D149" s="1">
-        <v>405078791</v>
+        <v>405055922</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>26995818</v>
+        <v>84028500</v>
       </c>
       <c r="B150" s="1">
-        <v>2097302</v>
+        <v>301818</v>
       </c>
       <c r="C150" t="s">
         <v>151</v>
       </c>
       <c r="D150" s="1">
-        <v>405055880</v>
+        <v>405057985</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>41693733</v>
+        <v>84034370</v>
       </c>
       <c r="B151" s="1">
-        <v>6914449</v>
+        <v>1102978</v>
       </c>
       <c r="C151" t="s">
         <v>152</v>
       </c>
       <c r="D151" s="1">
-        <v>405056151</v>
+        <v>405087438</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>40930225</v>
+        <v>91528139</v>
       </c>
       <c r="B152" s="1">
-        <v>1685744</v>
+        <v>428657</v>
       </c>
       <c r="C152" t="s">
         <v>153</v>
       </c>
       <c r="D152" s="1">
-        <v>405101643</v>
+        <v>405153487</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>26982790</v>
+        <v>17904729</v>
       </c>
       <c r="B153" s="1">
-        <v>7251036</v>
+        <v>637972</v>
       </c>
       <c r="C153" t="s">
         <v>154</v>
       </c>
       <c r="D153" s="1">
-        <v>405052515</v>
+        <v>304002454</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>32628773</v>
+        <v>40941561</v>
       </c>
       <c r="B154" s="1">
-        <v>3192766</v>
+        <v>357508</v>
       </c>
       <c r="C154" t="s">
         <v>155</v>
       </c>
       <c r="D154" s="1">
-        <v>405090432</v>
+        <v>405142209</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>18922505</v>
+        <v>57446153</v>
       </c>
       <c r="B155" s="1">
-        <v>4273571</v>
+        <v>689080</v>
       </c>
       <c r="C155" t="s">
         <v>156</v>
       </c>
       <c r="D155" s="1">
-        <v>405041161</v>
+        <v>405056193</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>40920939</v>
+        <v>40938567</v>
       </c>
       <c r="B156" s="1">
-        <v>6208628</v>
+        <v>343137</v>
       </c>
       <c r="C156" t="s">
         <v>157</v>
       </c>
       <c r="D156" s="1">
-        <v>405055765</v>
+        <v>405766999</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>26994996</v>
+        <v>32710942</v>
       </c>
       <c r="B157" s="1">
-        <v>2294068</v>
+        <v>299549</v>
       </c>
       <c r="C157" t="s">
         <v>158</v>
       </c>
       <c r="D157" s="1">
-        <v>405029844</v>
+        <v>405053984</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>56085314</v>
+        <v>40923820</v>
       </c>
       <c r="B158" s="1">
-        <v>4846362</v>
+        <v>343136</v>
       </c>
       <c r="C158" t="s">
         <v>159</v>
       </c>
       <c r="D158" s="1">
-        <v>405087362</v>
+        <v>405174061</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>40919703</v>
+        <v>40924537</v>
       </c>
       <c r="B159" s="1">
-        <v>2949803</v>
+        <v>243273</v>
       </c>
       <c r="C159" t="s">
         <v>160</v>
       </c>
       <c r="D159" s="1">
-        <v>405040858</v>
+        <v>405040064</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>40937619</v>
+        <v>40924429</v>
       </c>
       <c r="B160" s="1">
-        <v>1885417</v>
+        <v>376044</v>
       </c>
       <c r="C160" t="s">
         <v>161</v>
       </c>
       <c r="D160" s="1">
-        <v>405112095</v>
+        <v>405056326</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>56085519</v>
+        <v>56057668</v>
       </c>
       <c r="B161" s="1">
-        <v>3192766</v>
+        <v>985939</v>
       </c>
       <c r="C161" t="s">
         <v>162</v>
       </c>
       <c r="D161" s="1">
-        <v>304002447</v>
+        <v>405176934</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>6772256</v>
+        <v>19082949</v>
       </c>
       <c r="B162" s="1">
-        <v>3851751</v>
+        <v>1587700</v>
       </c>
       <c r="C162" t="s">
         <v>163</v>
       </c>
       <c r="D162" s="1">
-        <v>300308194</v>
+        <v>405056565</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>40799640</v>
+        <v>19591473</v>
       </c>
       <c r="B163" s="1">
-        <v>2275034</v>
+        <v>988271</v>
       </c>
       <c r="C163" t="s">
         <v>164</v>
       </c>
       <c r="D163" s="1">
-        <v>405065178</v>
+        <v>400120820</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>27015180</v>
+        <v>32181130</v>
       </c>
       <c r="B164" s="1">
-        <v>4846362</v>
+        <v>5529484</v>
       </c>
       <c r="C164" t="s">
         <v>165</v>
       </c>
       <c r="D164" s="1">
-        <v>300779162</v>
+        <v>405164013</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>7475678</v>
+        <v>17855558</v>
       </c>
       <c r="B165" s="1">
-        <v>8349844</v>
+        <v>251084</v>
       </c>
       <c r="C165" t="s">
         <v>166</v>
       </c>
       <c r="D165" s="1">
-        <v>405009515</v>
+        <v>405029851</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>12593221</v>
+        <v>4509294</v>
       </c>
       <c r="B166" s="1">
-        <v>3724267</v>
+        <v>2308251</v>
       </c>
       <c r="C166" t="s">
         <v>167</v>
       </c>
       <c r="D166" s="1">
+        <v>405030230</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>77017538</v>
+      </c>
+      <c r="B167" s="1">
+        <v>29935</v>
+      </c>
+      <c r="C167" t="s">
+        <v>168</v>
+      </c>
+      <c r="D167" s="1">
+        <v>300314994</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>40927723</v>
+      </c>
+      <c r="B168" s="1">
+        <v>1038366</v>
+      </c>
+      <c r="C168" t="s">
+        <v>169</v>
+      </c>
+      <c r="D168" s="1">
+        <v>405182916</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>40917726</v>
+      </c>
+      <c r="B169" s="1">
+        <v>32347</v>
+      </c>
+      <c r="C169" t="s">
+        <v>170</v>
+      </c>
+      <c r="D169" s="1">
+        <v>405044330</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>84085182</v>
+      </c>
+      <c r="B170" s="1">
+        <v>866934</v>
+      </c>
+      <c r="C170" t="s">
+        <v>171</v>
+      </c>
+      <c r="D170" s="1">
+        <v>405179938</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>40912575</v>
+      </c>
+      <c r="B171" s="1">
+        <v>361511</v>
+      </c>
+      <c r="C171" t="s">
+        <v>172</v>
+      </c>
+      <c r="D171" s="1">
+        <v>405055708</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>84092791</v>
+      </c>
+      <c r="B172" s="1">
+        <v>662884</v>
+      </c>
+      <c r="C172" t="s">
+        <v>173</v>
+      </c>
+      <c r="D172" s="1">
+        <v>405124462</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>84032706</v>
+      </c>
+      <c r="B173" s="1">
+        <v>95135</v>
+      </c>
+      <c r="C173" t="s">
+        <v>174</v>
+      </c>
+      <c r="D173" s="1">
+        <v>405055435</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>40913846</v>
+      </c>
+      <c r="B174" s="1">
+        <v>439557</v>
+      </c>
+      <c r="C174" t="s">
+        <v>175</v>
+      </c>
+      <c r="D174" s="1">
+        <v>405031154</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>40924959</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1679512</v>
+      </c>
+      <c r="C175" t="s">
+        <v>176</v>
+      </c>
+      <c r="D175" s="1">
+        <v>405061706</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>84031046</v>
+      </c>
+      <c r="B176" s="1">
+        <v>871758</v>
+      </c>
+      <c r="C176" t="s">
+        <v>177</v>
+      </c>
+      <c r="D176" s="1">
+        <v>405042482</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>56057030</v>
+      </c>
+      <c r="B177" s="1">
+        <v>774112</v>
+      </c>
+      <c r="C177" t="s">
+        <v>178</v>
+      </c>
+      <c r="D177" s="1">
+        <v>405180183</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>57440533</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1085616</v>
+      </c>
+      <c r="C178" t="s">
+        <v>179</v>
+      </c>
+      <c r="D178" s="1">
+        <v>405171752</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>40789011</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1515075</v>
+      </c>
+      <c r="C179" t="s">
+        <v>180</v>
+      </c>
+      <c r="D179" s="1">
+        <v>405126756</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>40932743</v>
+      </c>
+      <c r="B180" s="1">
+        <v>830812</v>
+      </c>
+      <c r="C180" t="s">
+        <v>181</v>
+      </c>
+      <c r="D180" s="1">
+        <v>405179821</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>72134510</v>
+      </c>
+      <c r="B181" s="1">
+        <v>1670226</v>
+      </c>
+      <c r="C181" t="s">
+        <v>182</v>
+      </c>
+      <c r="D181" s="1">
+        <v>405056722</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>84033224</v>
+      </c>
+      <c r="B182" s="1">
+        <v>830812</v>
+      </c>
+      <c r="C182" t="s">
+        <v>183</v>
+      </c>
+      <c r="D182" s="1">
+        <v>405179920</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>3717537</v>
+      </c>
+      <c r="B183" s="1">
+        <v>584268</v>
+      </c>
+      <c r="C183" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" s="1">
+        <v>405056508</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>56073872</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1132926</v>
+      </c>
+      <c r="C184" t="s">
+        <v>185</v>
+      </c>
+      <c r="D184" s="1">
+        <v>405070467</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>26995329</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1313889</v>
+      </c>
+      <c r="C185" t="s">
+        <v>186</v>
+      </c>
+      <c r="D185" s="1">
+        <v>405047333</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>40923961</v>
+      </c>
+      <c r="B186" s="1">
+        <v>381808</v>
+      </c>
+      <c r="C186" t="s">
+        <v>187</v>
+      </c>
+      <c r="D186" s="1">
+        <v>405182643</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>32655352</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1297092</v>
+      </c>
+      <c r="C187" t="s">
+        <v>188</v>
+      </c>
+      <c r="D187" s="1">
+        <v>405056110</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>32632763</v>
+      </c>
+      <c r="B188" s="1">
+        <v>1255116</v>
+      </c>
+      <c r="C188" t="s">
+        <v>189</v>
+      </c>
+      <c r="D188" s="1">
+        <v>405056409</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>84078019</v>
+      </c>
+      <c r="B189" s="1">
+        <v>70618</v>
+      </c>
+      <c r="C189" t="s">
+        <v>190</v>
+      </c>
+      <c r="D189" s="1">
+        <v>405767534</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>84032581</v>
+      </c>
+      <c r="B190" s="1">
+        <v>924773</v>
+      </c>
+      <c r="C190" t="s">
+        <v>191</v>
+      </c>
+      <c r="D190" s="1">
+        <v>405055328</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>12560254</v>
+      </c>
+      <c r="B191" s="1">
+        <v>860840</v>
+      </c>
+      <c r="C191" t="s">
+        <v>192</v>
+      </c>
+      <c r="D191" s="1">
+        <v>405077306</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>17954966</v>
+      </c>
+      <c r="B192" s="1">
+        <v>238675</v>
+      </c>
+      <c r="C192" t="s">
+        <v>193</v>
+      </c>
+      <c r="D192" s="1">
+        <v>405154998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>8713774</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1324043</v>
+      </c>
+      <c r="C193" t="s">
+        <v>194</v>
+      </c>
+      <c r="D193" s="1">
+        <v>405056268</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>40839704</v>
+      </c>
+      <c r="B194" s="1">
+        <v>199922</v>
+      </c>
+      <c r="C194" t="s">
+        <v>195</v>
+      </c>
+      <c r="D194" s="1">
+        <v>405033374</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>5171041</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1041718</v>
+      </c>
+      <c r="C195" t="s">
+        <v>196</v>
+      </c>
+      <c r="D195" s="1">
+        <v>405055534</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>84035424</v>
+      </c>
+      <c r="B196" s="1">
+        <v>897045</v>
+      </c>
+      <c r="C196" t="s">
+        <v>197</v>
+      </c>
+      <c r="D196" s="1">
+        <v>405180035</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>84034602</v>
+      </c>
+      <c r="B197" s="1">
+        <v>621245</v>
+      </c>
+      <c r="C197" t="s">
+        <v>198</v>
+      </c>
+      <c r="D197" s="1">
+        <v>405055690</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>39490945</v>
+      </c>
+      <c r="B198" s="1">
+        <v>835089</v>
+      </c>
+      <c r="C198" t="s">
+        <v>199</v>
+      </c>
+      <c r="D198" s="1">
+        <v>405123639</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>53011597</v>
+      </c>
+      <c r="B199" s="1">
+        <v>663546</v>
+      </c>
+      <c r="C199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>73114368</v>
+      </c>
+      <c r="B200" s="1">
+        <v>1149436</v>
+      </c>
+      <c r="C200" t="s">
+        <v>201</v>
+      </c>
+      <c r="D200" s="1">
+        <v>405180001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <v>40942871</v>
+      </c>
+      <c r="B201" s="1">
+        <v>782888</v>
+      </c>
+      <c r="C201" t="s">
+        <v>202</v>
+      </c>
+      <c r="D201" s="1">
+        <v>405182854</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202">
+        <v>40917736</v>
+      </c>
+      <c r="B202" s="1">
+        <v>939573</v>
+      </c>
+      <c r="C202" t="s">
+        <v>203</v>
+      </c>
+      <c r="D202" s="1">
+        <v>405180118</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>84026238</v>
+      </c>
+      <c r="B203" s="1">
+        <v>41351</v>
+      </c>
+      <c r="C203" t="s">
+        <v>204</v>
+      </c>
+      <c r="D203" s="1">
+        <v>405056284</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>40914786</v>
+      </c>
+      <c r="B204" s="1">
+        <v>31223</v>
+      </c>
+      <c r="C204" t="s">
+        <v>205</v>
+      </c>
+      <c r="D204" s="1">
+        <v>405029885</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
+        <v>40925643</v>
+      </c>
+      <c r="B205" s="1">
+        <v>301599</v>
+      </c>
+      <c r="C205" t="s">
+        <v>206</v>
+      </c>
+      <c r="D205" s="1">
+        <v>405149253</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <v>26964861</v>
+      </c>
+      <c r="B206" s="1">
+        <v>249804</v>
+      </c>
+      <c r="C206" t="s">
+        <v>207</v>
+      </c>
+      <c r="D206" s="1">
+        <v>405030404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <v>70070562</v>
+      </c>
+      <c r="B207" s="1">
+        <v>608357</v>
+      </c>
+      <c r="C207" t="s">
+        <v>208</v>
+      </c>
+      <c r="D207" s="1">
+        <v>405056177</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <v>84032386</v>
+      </c>
+      <c r="B208" s="1">
+        <v>1003016</v>
+      </c>
+      <c r="C208" t="s">
+        <v>209</v>
+      </c>
+      <c r="D208" s="1">
+        <v>405056375</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>32704787</v>
+      </c>
+      <c r="B209" s="1">
+        <v>449427</v>
+      </c>
+      <c r="C209" t="s">
+        <v>210</v>
+      </c>
+      <c r="D209" s="1">
+        <v>405030180</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>40976795</v>
+      </c>
+      <c r="B210" s="1">
+        <v>510427</v>
+      </c>
+      <c r="C210" t="s">
+        <v>211</v>
+      </c>
+      <c r="D210" s="1">
+        <v>405030982</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>12712692</v>
+      </c>
+      <c r="B211" s="1">
+        <v>860359</v>
+      </c>
+      <c r="C211" t="s">
+        <v>212</v>
+      </c>
+      <c r="D211" s="1">
+        <v>405055856</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>71597186</v>
+      </c>
+      <c r="B212" s="1">
+        <v>365314</v>
+      </c>
+      <c r="C212" t="s">
+        <v>213</v>
+      </c>
+      <c r="D212" s="1">
+        <v>405023334</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>40918605</v>
+      </c>
+      <c r="B213" s="1">
+        <v>369563</v>
+      </c>
+      <c r="C213" t="s">
+        <v>214</v>
+      </c>
+      <c r="D213" s="1">
+        <v>405028515</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>73080431</v>
+      </c>
+      <c r="B214" s="1">
+        <v>2545457</v>
+      </c>
+      <c r="C214" t="s">
+        <v>215</v>
+      </c>
+      <c r="D214" s="1">
+        <v>405055898</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>40915068</v>
+      </c>
+      <c r="B215" s="1">
+        <v>183316</v>
+      </c>
+      <c r="C215" t="s">
+        <v>216</v>
+      </c>
+      <c r="D215" s="1">
+        <v>405043035</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>40937339</v>
+      </c>
+      <c r="B216" s="1">
+        <v>782889</v>
+      </c>
+      <c r="C216" t="s">
+        <v>217</v>
+      </c>
+      <c r="D216" s="1">
+        <v>405182668</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>84080209</v>
+      </c>
+      <c r="B217" s="1">
+        <v>1100951</v>
+      </c>
+      <c r="C217" t="s">
+        <v>218</v>
+      </c>
+      <c r="D217" s="1">
+        <v>405096520</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>21238226</v>
+      </c>
+      <c r="B218" s="1">
+        <v>1008035</v>
+      </c>
+      <c r="C218" t="s">
+        <v>219</v>
+      </c>
+      <c r="D218" s="1">
+        <v>405179854</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>84028958</v>
+      </c>
+      <c r="B219" s="1">
+        <v>17341</v>
+      </c>
+      <c r="C219" t="s">
+        <v>220</v>
+      </c>
+      <c r="D219" s="1">
+        <v>400783940</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>19443502</v>
+      </c>
+      <c r="B220" s="1">
+        <v>391885</v>
+      </c>
+      <c r="C220" t="s">
+        <v>221</v>
+      </c>
+      <c r="D220" s="1">
+        <v>405179862</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>52266796</v>
+      </c>
+      <c r="B221" s="1">
+        <v>845352</v>
+      </c>
+      <c r="C221" t="s">
+        <v>222</v>
+      </c>
+      <c r="D221" s="1">
+        <v>405180019</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222">
+        <v>40928745</v>
+      </c>
+      <c r="B222" s="1">
+        <v>1153276</v>
+      </c>
+      <c r="C222" t="s">
+        <v>223</v>
+      </c>
+      <c r="D222" s="1">
+        <v>405089905</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
+        <v>72174199</v>
+      </c>
+      <c r="B223" s="1">
+        <v>307898</v>
+      </c>
+      <c r="C223" t="s">
+        <v>224</v>
+      </c>
+      <c r="D223" s="1">
+        <v>405055195</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>19193790</v>
+      </c>
+      <c r="B224" s="1">
+        <v>346750</v>
+      </c>
+      <c r="C224" t="s">
+        <v>225</v>
+      </c>
+      <c r="D224" s="1">
+        <v>405031147</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>17855736</v>
+      </c>
+      <c r="B225" s="1">
+        <v>340168</v>
+      </c>
+      <c r="C225" t="s">
+        <v>226</v>
+      </c>
+      <c r="D225" s="1">
+        <v>405161464</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226">
+        <v>8534287</v>
+      </c>
+      <c r="B226" s="1">
+        <v>1145053</v>
+      </c>
+      <c r="C226" t="s">
+        <v>227</v>
+      </c>
+      <c r="D226" s="1">
+        <v>405044009</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227">
+        <v>2760943</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1714857</v>
+      </c>
+      <c r="C227" t="s">
+        <v>228</v>
+      </c>
+      <c r="D227" s="1">
+        <v>405055153</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228">
+        <v>17802053</v>
+      </c>
+      <c r="B228" s="1">
+        <v>656992</v>
+      </c>
+      <c r="C228" t="s">
+        <v>229</v>
+      </c>
+      <c r="D228" s="1">
+        <v>405056581</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229">
+        <v>9078794</v>
+      </c>
+      <c r="B229" s="1">
+        <v>921447</v>
+      </c>
+      <c r="C229" t="s">
+        <v>230</v>
+      </c>
+      <c r="D229" s="1">
+        <v>405023383</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230">
+        <v>36548894</v>
+      </c>
+      <c r="B230" s="1">
+        <v>1144939</v>
+      </c>
+      <c r="C230" t="s">
+        <v>231</v>
+      </c>
+      <c r="D230" s="1">
+        <v>405043084</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231">
+        <v>17804185</v>
+      </c>
+      <c r="B231" s="1">
+        <v>980616</v>
+      </c>
+      <c r="C231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D231" s="1">
+        <v>405059361</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>84026629</v>
+      </c>
+      <c r="B232" s="1">
+        <v>1139223</v>
+      </c>
+      <c r="C232" t="s">
+        <v>233</v>
+      </c>
+      <c r="D232" s="1">
+        <v>405055401</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>40914203</v>
+      </c>
+      <c r="B233" s="1">
+        <v>787279</v>
+      </c>
+      <c r="C233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D233" s="1">
+        <v>405055245</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>77022224</v>
+      </c>
+      <c r="B234" s="1">
+        <v>564594</v>
+      </c>
+      <c r="C234" t="s">
+        <v>235</v>
+      </c>
+      <c r="D234" s="1">
+        <v>405158411</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235">
+        <v>40978774</v>
+      </c>
+      <c r="B235" s="1">
+        <v>443701</v>
+      </c>
+      <c r="C235" t="s">
+        <v>236</v>
+      </c>
+      <c r="D235" s="1">
+        <v>405044223</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236">
+        <v>40936726</v>
+      </c>
+      <c r="B236" s="1">
+        <v>3137626</v>
+      </c>
+      <c r="C236" t="s">
+        <v>237</v>
+      </c>
+      <c r="D236" s="1">
+        <v>405179268</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237">
+        <v>40922011</v>
+      </c>
+      <c r="B237" s="1">
+        <v>22410</v>
+      </c>
+      <c r="C237" t="s">
+        <v>238</v>
+      </c>
+      <c r="D237" s="1">
+        <v>405052903</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>12526163</v>
+      </c>
+      <c r="B238" s="1">
+        <v>204010</v>
+      </c>
+      <c r="C238" t="s">
+        <v>239</v>
+      </c>
+      <c r="D238" s="1">
+        <v>405179797</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239">
+        <v>32845456</v>
+      </c>
+      <c r="B239" s="1">
+        <v>811929</v>
+      </c>
+      <c r="C239" t="s">
+        <v>240</v>
+      </c>
+      <c r="D239" s="1">
+        <v>304002520</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240">
+        <v>17804528</v>
+      </c>
+      <c r="B240" s="1">
+        <v>921447</v>
+      </c>
+      <c r="C240" t="s">
+        <v>241</v>
+      </c>
+      <c r="D240" s="1">
+        <v>405059528</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>40927400</v>
+      </c>
+      <c r="B241" s="1">
+        <v>891234</v>
+      </c>
+      <c r="C241" t="s">
+        <v>242</v>
+      </c>
+      <c r="D241" s="1">
+        <v>405071242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>49720755</v>
+      </c>
+      <c r="B242" s="1">
+        <v>906169</v>
+      </c>
+      <c r="C242" t="s">
+        <v>243</v>
+      </c>
+      <c r="D242" s="1">
+        <v>405180092</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>40934523</v>
+      </c>
+      <c r="B243" s="1">
+        <v>1080790</v>
+      </c>
+      <c r="C243" t="s">
+        <v>244</v>
+      </c>
+      <c r="D243" s="1">
+        <v>405104761</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <v>5159322</v>
+      </c>
+      <c r="B244" s="1">
+        <v>1182040</v>
+      </c>
+      <c r="C244" t="s">
+        <v>245</v>
+      </c>
+      <c r="D244" s="1">
+        <v>405012113</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <v>32683605</v>
+      </c>
+      <c r="B245" s="1">
+        <v>1181147</v>
+      </c>
+      <c r="C245" t="s">
+        <v>246</v>
+      </c>
+      <c r="D245" s="1">
+        <v>405055286</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>42677500</v>
+      </c>
+      <c r="B246" s="1">
+        <v>1906595</v>
+      </c>
+      <c r="C246" t="s">
+        <v>247</v>
+      </c>
+      <c r="D246" s="1">
+        <v>405056219</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
+        <v>19456447</v>
+      </c>
+      <c r="B247" s="1">
+        <v>921447</v>
+      </c>
+      <c r="C247" t="s">
+        <v>248</v>
+      </c>
+      <c r="D247" s="1">
+        <v>405753518</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
+        <v>26962896</v>
+      </c>
+      <c r="B248" s="1">
+        <v>1545534</v>
+      </c>
+      <c r="C248" t="s">
+        <v>249</v>
+      </c>
+      <c r="D248" s="1">
+        <v>405043977</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>40924637</v>
+      </c>
+      <c r="B249" s="1">
+        <v>338058</v>
+      </c>
+      <c r="C249" t="s">
+        <v>250</v>
+      </c>
+      <c r="D249" s="1">
+        <v>405055476</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>84035444</v>
+      </c>
+      <c r="B250" s="1">
+        <v>1138967</v>
+      </c>
+      <c r="C250" t="s">
+        <v>251</v>
+      </c>
+      <c r="D250" s="1">
+        <v>405179946</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>36719109</v>
+      </c>
+      <c r="B251" s="1">
+        <v>4619984</v>
+      </c>
+      <c r="C251" t="s">
+        <v>252</v>
+      </c>
+      <c r="D251" s="1">
+        <v>405067208</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252">
+        <v>77025705</v>
+      </c>
+      <c r="B252" s="1">
+        <v>854474</v>
+      </c>
+      <c r="C252" t="s">
+        <v>253</v>
+      </c>
+      <c r="D252" s="1">
+        <v>300125432</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253">
+        <v>84039896</v>
+      </c>
+      <c r="B253" s="1">
+        <v>141746</v>
+      </c>
+      <c r="C253" t="s">
+        <v>254</v>
+      </c>
+      <c r="D253" s="1">
+        <v>405055997</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>49736403</v>
+      </c>
+      <c r="B254" s="1">
+        <v>1164647</v>
+      </c>
+      <c r="C254" t="s">
+        <v>255</v>
+      </c>
+      <c r="D254" s="1">
+        <v>405180076</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>40923678</v>
+      </c>
+      <c r="B255" s="1">
+        <v>441395</v>
+      </c>
+      <c r="C255" t="s">
+        <v>256</v>
+      </c>
+      <c r="D255" s="1">
+        <v>405031287</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>40926822</v>
+      </c>
+      <c r="B256" s="1">
+        <v>830234</v>
+      </c>
+      <c r="C256" t="s">
+        <v>257</v>
+      </c>
+      <c r="D256" s="1">
+        <v>405772559</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257">
+        <v>1118810845</v>
+      </c>
+      <c r="B257" s="1">
+        <v>1085616</v>
+      </c>
+      <c r="C257" t="s">
+        <v>258</v>
+      </c>
+      <c r="D257" s="1">
+        <v>405183864</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
+        <v>17807106</v>
+      </c>
+      <c r="B258" s="1">
+        <v>1704441</v>
+      </c>
+      <c r="C258" t="s">
+        <v>259</v>
+      </c>
+      <c r="D258" s="1">
+        <v>405008079</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>49786864</v>
+      </c>
+      <c r="B259" s="1">
+        <v>774112</v>
+      </c>
+      <c r="C259" t="s">
+        <v>260</v>
+      </c>
+      <c r="D259" s="1">
+        <v>405180209</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>84032882</v>
+      </c>
+      <c r="B260" s="1">
+        <v>3332052</v>
+      </c>
+      <c r="C260" t="s">
+        <v>261</v>
+      </c>
+      <c r="D260" s="1">
+        <v>405136433</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>8798450</v>
+      </c>
+      <c r="B261" s="1">
+        <v>306658</v>
+      </c>
+      <c r="C261" t="s">
+        <v>262</v>
+      </c>
+      <c r="D261" s="1">
+        <v>405182635</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>84083636</v>
+      </c>
+      <c r="B262" s="1">
+        <v>155356</v>
+      </c>
+      <c r="C262" t="s">
+        <v>263</v>
+      </c>
+      <c r="D262" s="1">
+        <v>405051269</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>84033695</v>
+      </c>
+      <c r="B263" s="1">
+        <v>45469</v>
+      </c>
+      <c r="C263" t="s">
+        <v>264</v>
+      </c>
+      <c r="D263" s="1">
+        <v>405067091</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>40936413</v>
+      </c>
+      <c r="B264" s="1">
+        <v>897045</v>
+      </c>
+      <c r="C264" t="s">
+        <v>265</v>
+      </c>
+      <c r="D264" s="1">
+        <v>304002561</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
+        <v>40923400</v>
+      </c>
+      <c r="B265" s="1">
+        <v>234747</v>
+      </c>
+      <c r="C265" t="s">
+        <v>266</v>
+      </c>
+      <c r="D265" s="1">
+        <v>405030362</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266">
+        <v>85455312</v>
+      </c>
+      <c r="B266" s="1">
+        <v>1337853</v>
+      </c>
+      <c r="C266" t="s">
+        <v>267</v>
+      </c>
+      <c r="D266" s="1">
+        <v>405055179</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>84035262</v>
+      </c>
+      <c r="B267" s="1">
+        <v>1012081</v>
+      </c>
+      <c r="C267" t="s">
+        <v>268</v>
+      </c>
+      <c r="D267" s="1">
+        <v>405055187</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268">
+        <v>42498983</v>
+      </c>
+      <c r="B268" s="1">
+        <v>1152661</v>
+      </c>
+      <c r="C268" t="s">
+        <v>269</v>
+      </c>
+      <c r="D268" s="1">
+        <v>405046657</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>40927910</v>
+      </c>
+      <c r="B269" s="1">
+        <v>1006038</v>
+      </c>
+      <c r="C269" t="s">
+        <v>270</v>
+      </c>
+      <c r="D269" s="1">
+        <v>405049958</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>17844731</v>
+      </c>
+      <c r="B270" s="1">
+        <v>899940</v>
+      </c>
+      <c r="C270" t="s">
+        <v>271</v>
+      </c>
+      <c r="D270" s="1">
+        <v>405009267</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271">
+        <v>10234384</v>
+      </c>
+      <c r="B271" s="1">
+        <v>276161</v>
+      </c>
+      <c r="C271" t="s">
+        <v>272</v>
+      </c>
+      <c r="D271" s="1">
+        <v>405044603</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
+        <v>27015139</v>
+      </c>
+      <c r="B272" s="1">
+        <v>1015487</v>
+      </c>
+      <c r="C272" t="s">
+        <v>273</v>
+      </c>
+      <c r="D272" s="1">
+        <v>405056334</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>8278413</v>
+      </c>
+      <c r="B273" s="1">
+        <v>1117913</v>
+      </c>
+      <c r="C273" t="s">
+        <v>274</v>
+      </c>
+      <c r="D273" s="1">
+        <v>405035304</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>4034483</v>
+      </c>
+      <c r="B274" s="1">
+        <v>206633</v>
+      </c>
+      <c r="C274" t="s">
+        <v>275</v>
+      </c>
+      <c r="D274" s="1">
+        <v>405056094</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>40931453</v>
+      </c>
+      <c r="B275" s="1">
+        <v>2282531</v>
+      </c>
+      <c r="C275" t="s">
+        <v>276</v>
+      </c>
+      <c r="D275" s="1">
+        <v>405179169</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>73006038</v>
+      </c>
+      <c r="B276" s="1">
+        <v>127055</v>
+      </c>
+      <c r="C276" t="s">
+        <v>277</v>
+      </c>
+      <c r="D276" s="1">
+        <v>405180175</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>84084238</v>
+      </c>
+      <c r="B277" s="1">
+        <v>249037</v>
+      </c>
+      <c r="C277" t="s">
+        <v>278</v>
+      </c>
+      <c r="D277" s="1">
+        <v>405089202</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>40976465</v>
+      </c>
+      <c r="B278" s="1">
+        <v>164063</v>
+      </c>
+      <c r="C278" t="s">
+        <v>279</v>
+      </c>
+      <c r="D278" s="1">
+        <v>405044439</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>84091531</v>
+      </c>
+      <c r="B279" s="1">
+        <v>176229</v>
+      </c>
+      <c r="C279" t="s">
+        <v>280</v>
+      </c>
+      <c r="D279" s="1">
+        <v>405179839</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>17805759</v>
+      </c>
+      <c r="B280" s="1">
+        <v>1005141</v>
+      </c>
+      <c r="C280" t="s">
+        <v>281</v>
+      </c>
+      <c r="D280" s="1">
+        <v>405056037</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>10781860</v>
+      </c>
+      <c r="B281" s="1">
+        <v>817502</v>
+      </c>
+      <c r="C281" t="s">
+        <v>282</v>
+      </c>
+      <c r="D281" s="1">
+        <v>405180159</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>36537160</v>
+      </c>
+      <c r="B282" s="1">
+        <v>78422</v>
+      </c>
+      <c r="C282" t="s">
+        <v>283</v>
+      </c>
+      <c r="D282" s="1">
+        <v>405753450</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>17855825</v>
+      </c>
+      <c r="B283" s="1">
+        <v>1393580</v>
+      </c>
+      <c r="C283" t="s">
+        <v>284</v>
+      </c>
+      <c r="D283" s="1">
+        <v>405054446</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>13015884</v>
+      </c>
+      <c r="B284" s="1">
+        <v>1325065</v>
+      </c>
+      <c r="C284" t="s">
+        <v>285</v>
+      </c>
+      <c r="D284" s="1">
+        <v>405156142</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>7458062</v>
+      </c>
+      <c r="B285" s="1">
+        <v>612934</v>
+      </c>
+      <c r="C285" t="s">
+        <v>286</v>
+      </c>
+      <c r="D285" s="1">
+        <v>405010976</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>40914811</v>
+      </c>
+      <c r="B286" s="1">
+        <v>1906147</v>
+      </c>
+      <c r="C286" t="s">
+        <v>287</v>
+      </c>
+      <c r="D286" s="1">
+        <v>405056466</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>84078447</v>
+      </c>
+      <c r="B287" s="1">
+        <v>133494</v>
+      </c>
+      <c r="C287" t="s">
+        <v>288</v>
+      </c>
+      <c r="D287" s="1">
+        <v>405112285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>70120295</v>
+      </c>
+      <c r="B288" s="1">
+        <v>14077</v>
+      </c>
+      <c r="C288" t="s">
+        <v>289</v>
+      </c>
+      <c r="D288" s="1">
+        <v>405030198</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289">
+        <v>9307957</v>
+      </c>
+      <c r="B289" s="1">
+        <v>1515815</v>
+      </c>
+      <c r="C289" t="s">
+        <v>290</v>
+      </c>
+      <c r="D289" s="1">
+        <v>405030784</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>40912245</v>
+      </c>
+      <c r="B290" s="1">
+        <v>32228</v>
+      </c>
+      <c r="C290" t="s">
+        <v>291</v>
+      </c>
+      <c r="D290" s="1">
+        <v>405056243</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>40942067</v>
+      </c>
+      <c r="B291" s="1">
+        <v>195517</v>
+      </c>
+      <c r="C291" t="s">
+        <v>292</v>
+      </c>
+      <c r="D291" s="1">
+        <v>405149618</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>17955129</v>
+      </c>
+      <c r="B292" s="1">
+        <v>513503</v>
+      </c>
+      <c r="C292" t="s">
+        <v>293</v>
+      </c>
+      <c r="D292" s="1">
+        <v>405067109</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>17951142</v>
+      </c>
+      <c r="B293" s="1">
+        <v>193439</v>
+      </c>
+      <c r="C293" t="s">
+        <v>294</v>
+      </c>
+      <c r="D293" s="1">
+        <v>405056417</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>84035760</v>
+      </c>
+      <c r="B294" s="1">
+        <v>74234</v>
+      </c>
+      <c r="C294" t="s">
+        <v>295</v>
+      </c>
+      <c r="D294" s="1">
+        <v>405067182</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>56056923</v>
+      </c>
+      <c r="B295" s="1">
+        <v>370345</v>
+      </c>
+      <c r="C295" t="s">
+        <v>296</v>
+      </c>
+      <c r="D295" s="1">
+        <v>405129578</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>84079400</v>
+      </c>
+      <c r="B296" s="1">
+        <v>771267</v>
+      </c>
+      <c r="C296" t="s">
+        <v>297</v>
+      </c>
+      <c r="D296" s="1">
+        <v>405123563</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>17807159</v>
+      </c>
+      <c r="B297" s="1">
+        <v>445501</v>
+      </c>
+      <c r="C297" t="s">
+        <v>298</v>
+      </c>
+      <c r="D297" s="1">
+        <v>405040270</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>84035580</v>
+      </c>
+      <c r="B298" s="1">
+        <v>1079496</v>
+      </c>
+      <c r="C298" t="s">
+        <v>299</v>
+      </c>
+      <c r="D298" s="1">
+        <v>405078791</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>17806498</v>
+      </c>
+      <c r="B299" s="1">
+        <v>1191877</v>
+      </c>
+      <c r="C299" t="s">
+        <v>300</v>
+      </c>
+      <c r="D299" s="1">
+        <v>405055955</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>26995818</v>
+      </c>
+      <c r="B300" s="1">
+        <v>132273</v>
+      </c>
+      <c r="C300" t="s">
+        <v>301</v>
+      </c>
+      <c r="D300" s="1">
+        <v>405055880</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>41693733</v>
+      </c>
+      <c r="B301" s="1">
+        <v>863883</v>
+      </c>
+      <c r="C301" t="s">
+        <v>302</v>
+      </c>
+      <c r="D301" s="1">
+        <v>405056151</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>17953767</v>
+      </c>
+      <c r="B302" s="1">
+        <v>1111721</v>
+      </c>
+      <c r="C302" t="s">
+        <v>303</v>
+      </c>
+      <c r="D302" s="1">
+        <v>405055120</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>84033035</v>
+      </c>
+      <c r="B303" s="1">
+        <v>891234</v>
+      </c>
+      <c r="C303" t="s">
+        <v>304</v>
+      </c>
+      <c r="D303" s="1">
+        <v>405061763</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <v>40930225</v>
+      </c>
+      <c r="B304" s="1">
+        <v>28008</v>
+      </c>
+      <c r="C304" t="s">
+        <v>305</v>
+      </c>
+      <c r="D304" s="1">
+        <v>405101643</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <v>40935344</v>
+      </c>
+      <c r="B305" s="1">
+        <v>787226</v>
+      </c>
+      <c r="C305" t="s">
+        <v>306</v>
+      </c>
+      <c r="D305" s="1">
+        <v>405184466</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>26982790</v>
+      </c>
+      <c r="B306" s="1">
+        <v>1488650</v>
+      </c>
+      <c r="C306" t="s">
+        <v>307</v>
+      </c>
+      <c r="D306" s="1">
+        <v>405052515</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307">
+        <v>32628773</v>
+      </c>
+      <c r="B307" s="1">
+        <v>891234</v>
+      </c>
+      <c r="C307" t="s">
+        <v>308</v>
+      </c>
+      <c r="D307" s="1">
+        <v>405090432</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308">
+        <v>18922505</v>
+      </c>
+      <c r="B308" s="1">
+        <v>476813</v>
+      </c>
+      <c r="C308" t="s">
+        <v>309</v>
+      </c>
+      <c r="D308" s="1">
+        <v>405041161</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309">
+        <v>79689715</v>
+      </c>
+      <c r="B309" s="1">
+        <v>1368375</v>
+      </c>
+      <c r="C309" t="s">
+        <v>310</v>
+      </c>
+      <c r="D309" s="1">
+        <v>405179953</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>1118805345</v>
+      </c>
+      <c r="B310" s="1">
+        <v>3997666</v>
+      </c>
+      <c r="C310" t="s">
+        <v>311</v>
+      </c>
+      <c r="D310" s="1">
+        <v>405172016</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311">
+        <v>40920939</v>
+      </c>
+      <c r="B311" s="1">
+        <v>593129</v>
+      </c>
+      <c r="C311" t="s">
+        <v>312</v>
+      </c>
+      <c r="D311" s="1">
+        <v>405055765</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312">
+        <v>77187962</v>
+      </c>
+      <c r="B312" s="1">
+        <v>4521058</v>
+      </c>
+      <c r="C312" t="s">
+        <v>313</v>
+      </c>
+      <c r="D312" s="1">
+        <v>405089103</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313">
+        <v>40917557</v>
+      </c>
+      <c r="B313" s="1">
+        <v>1061854</v>
+      </c>
+      <c r="C313" t="s">
+        <v>314</v>
+      </c>
+      <c r="D313" s="1">
+        <v>405015215</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314">
+        <v>26994996</v>
+      </c>
+      <c r="B314" s="1">
+        <v>52207</v>
+      </c>
+      <c r="C314" t="s">
+        <v>315</v>
+      </c>
+      <c r="D314" s="1">
+        <v>405029844</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315">
+        <v>56085314</v>
+      </c>
+      <c r="B315" s="1">
+        <v>359287</v>
+      </c>
+      <c r="C315" t="s">
+        <v>316</v>
+      </c>
+      <c r="D315" s="1">
+        <v>405087362</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>40919703</v>
+      </c>
+      <c r="B316" s="1">
+        <v>27230</v>
+      </c>
+      <c r="C316" t="s">
+        <v>317</v>
+      </c>
+      <c r="D316" s="1">
+        <v>405040858</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317">
+        <v>27004816</v>
+      </c>
+      <c r="B317" s="1">
+        <v>897045</v>
+      </c>
+      <c r="C317" t="s">
+        <v>318</v>
+      </c>
+      <c r="D317" s="1">
+        <v>405123522</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318">
+        <v>40914803</v>
+      </c>
+      <c r="B318" s="1">
+        <v>568234</v>
+      </c>
+      <c r="C318" t="s">
+        <v>319</v>
+      </c>
+      <c r="D318" s="1">
+        <v>405083247</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319">
+        <v>40937619</v>
+      </c>
+      <c r="B319" s="1">
+        <v>995</v>
+      </c>
+      <c r="C319" t="s">
+        <v>320</v>
+      </c>
+      <c r="D319" s="1">
+        <v>405112095</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320">
+        <v>56085519</v>
+      </c>
+      <c r="B320" s="1">
+        <v>897045</v>
+      </c>
+      <c r="C320" t="s">
+        <v>321</v>
+      </c>
+      <c r="D320" s="1">
+        <v>304002447</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321">
+        <v>84082367</v>
+      </c>
+      <c r="B321" s="1">
+        <v>4554679</v>
+      </c>
+      <c r="C321" t="s">
+        <v>322</v>
+      </c>
+      <c r="D321" s="1">
+        <v>405102989</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322">
+        <v>6772256</v>
+      </c>
+      <c r="B322" s="1">
+        <v>1085577</v>
+      </c>
+      <c r="C322" t="s">
+        <v>323</v>
+      </c>
+      <c r="D322" s="1">
+        <v>300308194</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323">
+        <v>40799640</v>
+      </c>
+      <c r="B323" s="1">
+        <v>139898</v>
+      </c>
+      <c r="C323" t="s">
+        <v>324</v>
+      </c>
+      <c r="D323" s="1">
+        <v>405065178</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324">
+        <v>27015180</v>
+      </c>
+      <c r="B324" s="1">
+        <v>1004791</v>
+      </c>
+      <c r="C324" t="s">
+        <v>325</v>
+      </c>
+      <c r="D324" s="1">
+        <v>300779162</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325">
+        <v>7475678</v>
+      </c>
+      <c r="B325" s="1">
+        <v>1824155</v>
+      </c>
+      <c r="C325" t="s">
+        <v>326</v>
+      </c>
+      <c r="D325" s="1">
+        <v>405009515</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326">
+        <v>45518038</v>
+      </c>
+      <c r="B326" s="1">
+        <v>4557419</v>
+      </c>
+      <c r="C326" t="s">
+        <v>327</v>
+      </c>
+      <c r="D326" s="1">
+        <v>405179250</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327">
+        <v>12593221</v>
+      </c>
+      <c r="B327" s="1">
+        <v>139808</v>
+      </c>
+      <c r="C327" t="s">
+        <v>328</v>
+      </c>
+      <c r="D327" s="1">
         <v>405024092</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="B167" s="1"/>
-      <c r="D167" s="1"/>
+    <row r="328" spans="1:4">
+      <c r="A328">
+        <v>40937690</v>
+      </c>
+      <c r="B328" s="1">
+        <v>5226186</v>
+      </c>
+      <c r="C328" t="s">
+        <v>329</v>
+      </c>
+      <c r="D328" s="1">
+        <v>405179276</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329">
+        <v>40858003</v>
+      </c>
+      <c r="B329" s="1">
+        <v>366581</v>
+      </c>
+      <c r="C329" t="s">
+        <v>330</v>
+      </c>
+      <c r="D329" s="1"/>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="B330" s="1"/>
+      <c r="D330" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/reportes/pagomes/TotalPlano.xlsx
+++ b/reportes/pagomes/TotalPlano.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="PagoPlanta20141101" sheetId="1" r:id="rId4"/>
+    <sheet name="PagoPlanta20150201" sheetId="1" r:id="rId4"/>
     <sheet name="Worksheet 1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
   <si>
     <t>C</t>
   </si>
@@ -27,409 +27,976 @@
     <t>D</t>
   </si>
   <si>
-    <t>ACUÑA MEDINA DORIS ISABEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACUÑA MENDOZA DORIS </t>
-  </si>
-  <si>
-    <t>ACUÑA VARGAS JULIO CESAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUILAR JUAN DE DIOS </t>
-  </si>
-  <si>
-    <t>ALEAN VALLE JADER DARIO</t>
-  </si>
-  <si>
-    <t>ALFARO ALFARO EDER MANUEL</t>
-  </si>
-  <si>
-    <t>ALFARO FONSECA ANA MILENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANAYA ZABALA ROSARIO </t>
-  </si>
-  <si>
-    <t>ANGULO ARGOTE LUIS CARLOS</t>
-  </si>
-  <si>
-    <t>ANGULO RANGEL FRANKLIN ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAMENDIZ GOMEZ LAURA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARIZA CARLA PATRICIA </t>
-  </si>
-  <si>
-    <t>ARREGOCES JULIO ISABEL CARMENZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRIO SILVIA INES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALLESTEROS MARTINEZ GUSTAVO </t>
-  </si>
-  <si>
-    <t>BARRIOS CARMONA ANIBAL JOAQUIN</t>
-  </si>
-  <si>
-    <t>BARROS LOPEZ JOSE ARTURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONIVENTO RODRIGUEZ JEIMMY </t>
-  </si>
-  <si>
-    <t>BORNACELLI GARCIA EVER AUGUSTO</t>
-  </si>
-  <si>
-    <t>BOTELLO PLATA ASLIN GONZALO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRITO RONCANCIO ALBERTO </t>
-  </si>
-  <si>
-    <t>BRUGES COTES ISIDRO RAFAEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUENO MEJIA ENDER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABRERA RODRIGUEZ ALVARO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTILLO PINTO ELIANA </t>
-  </si>
-  <si>
-    <t>CARABALLO ROBLE YERLIS YANET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARCAMO ESCORCIA TANIA </t>
-  </si>
-  <si>
-    <t>CARRILLO HERNANDEZ HERNAN JOAQUIN</t>
-  </si>
-  <si>
-    <t>CERA REDONDO EDWIN ENRIQUE</t>
-  </si>
-  <si>
-    <t>CORREA HENRIQUEZ GUSTAVO ADOLFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTES SPROCKEL MARITZA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUJIA GUERRA EUCADYS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURIEL CORREA MIRLE </t>
-  </si>
-  <si>
-    <t>CURVELO BECERRA CAROLINA ESTHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE ARMAS PEREZ EUDES </t>
-  </si>
-  <si>
-    <t>DEL CASTILLO SINNING MARIA CAROLINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELUQUE GOMEZ JULIO </t>
-  </si>
-  <si>
-    <t>DELUQUE TORO CRISPULO ENRIQUE</t>
-  </si>
-  <si>
-    <t>DIAZ ARRIETA INGRIS MARIA</t>
-  </si>
-  <si>
-    <t>DIAZ OLMOS DAENA DE JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAZ PEREZ ANDERSON </t>
-  </si>
-  <si>
-    <t>ERAZO FLOREZ JOSE AGUSTIN</t>
-  </si>
-  <si>
-    <t>FERNANDEZ FERNANDEZ JOHANNA CLARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIGUEROA MORENO OMAR </t>
-  </si>
-  <si>
-    <t>FONSECA MUÑOZ JUAN JOSE</t>
-  </si>
-  <si>
-    <t>FORERO BARRERA PAOLA ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAMEZ GAMEZ ALFREDO </t>
-  </si>
-  <si>
-    <t>GARCIA DAVILA MONICA LISETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENES DIAZ JAIDER </t>
-  </si>
-  <si>
-    <t>GIRALDO POLANCO MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>GONZALEZ ORTEGA JESUS ALBERTO</t>
-  </si>
-  <si>
-    <t>GRANADOS MARTINEZ CRISTIAN ENRIQUE</t>
-  </si>
-  <si>
-    <t>GUERRA HERRERA ELKIN TOBIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUERRA HERRERA EMERSON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUERRA ROMERO LICETH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAMBURGER GONZALEZ MARGARITA </t>
-  </si>
-  <si>
-    <t>HERRERA ESTRADA KATY CECILIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERRERA VILLAFAÑE ALVARO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HINCAPIE NAVARRETE LUIS </t>
-  </si>
-  <si>
-    <t>JACOME MEJIA JESUS ALFONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JARAMILLO PEÑALOZA YATSIRA </t>
-  </si>
-  <si>
-    <t>JIMENEZ FERBANS LARRY ANTONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JIMENEZ PITRE NORYS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIÑAN CUELLO YULY </t>
-  </si>
-  <si>
-    <t>LIÑAN PANA EDUARDO ARISTIDES</t>
-  </si>
-  <si>
-    <t>LOPESIERRA OROZCO JAIDER JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ CONTRERAS JANEJA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ GONZALEZ ORLANDO </t>
-  </si>
-  <si>
-    <t>LOPEZ GONZALEZ YELENIS YANIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ MARQUEZ YARIANA </t>
-  </si>
-  <si>
-    <t>MADERO NUÑEZ OSVALDO FIDEL</t>
-  </si>
-  <si>
-    <t>MAESTRE MOLINARES CESAR DAVID</t>
-  </si>
-  <si>
-    <t>MAFLA PERALTA MILTON ANTONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGDANIEL RODRIGUEZ KENDRI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIN RAMOS CARMEN </t>
-  </si>
-  <si>
-    <t>MARTINEZ IBARRA MARLA YURANIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINEZ LOPEZ BETINA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINEZ MANOTAS MARLYN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINEZ TRUJILLO NERYS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA DAZA ANIBAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA GARCES DIANA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA GUERRA YOMA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA RAMIREZ OSMAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA YEISY ELIBETH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENGUAL QUINTERO ATENAIDA </t>
-  </si>
-  <si>
-    <t>MEZA ANDRADE LINA MARCELA</t>
-  </si>
-  <si>
-    <t>MOLINA BECERRA JOSE CARLOS</t>
-  </si>
-  <si>
-    <t>MOLINA RODRIGUEZ EMIRO JOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONROY TORO STELLA </t>
-  </si>
-  <si>
-    <t>MONTOYA ZABALETA TATIANA KATHERINE</t>
-  </si>
-  <si>
-    <t>MUÑOZ ESTRADA EMERITA SOFIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAJERA POLO FEDERICO </t>
-  </si>
-  <si>
-    <t>OCHOA REDONDO ANA JOSEFA</t>
-  </si>
-  <si>
-    <t>OCHOA REDONDO YAMILKA KARINA</t>
-  </si>
-  <si>
-    <t>OLIVO ALVAREZ SOCORRO CLARETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLMEDO LARRAZABAL ARMANDO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OROZCO DAZA BERTHA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSPINO GOMEZ EMIRO </t>
-  </si>
-  <si>
-    <t>OTERO MENDOZA OLGA PATRICIA</t>
-  </si>
-  <si>
-    <t>PABA HERRERA LUZ ALBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALACIO SPROCKEL LILIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALENCIA DEL VALLE ZENITH </t>
-  </si>
-  <si>
-    <t>PALENCIA SALAS LUIS CARLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANCIERA DI ZOPPOLA MARTINEZ MARYORI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEÑARANDA PINTO ELKIS </t>
-  </si>
-  <si>
-    <t>PEREZ CAMPO AMALIS PATRICIA</t>
-  </si>
-  <si>
-    <t>PEREZ ILLIDGE NINA ALEJANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEREZ MEDINA ROSMERIS </t>
-  </si>
-  <si>
-    <t>PEREZ QUINTERO HEYLON GUSTAVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEREZ ROJAS SOBEYDIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINTO PINTO BELKIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONTON DELUQUEZ ELIMAR </t>
-  </si>
-  <si>
-    <t>QUINTERO RAMOS MEUDYS PATRICIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDONDO MAESTRE ODILON </t>
-  </si>
-  <si>
-    <t>REDONDO SILVERA PEDRO ANTONIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROJAS ORTEGA JANNETH </t>
-  </si>
-  <si>
-    <t>ROMERO ACUÑA MIGUEL HUMBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMERO ZUÑIGA CARMEN </t>
-  </si>
-  <si>
-    <t>ROYS ROMERO NANCY ROSA</t>
-  </si>
-  <si>
-    <t>RUEDA TONCEL LUIS ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALAS SOLANO EDWIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANCHEZ GIL CARMEN </t>
-  </si>
-  <si>
-    <t>SIERRA LLORENTE JOSE GREGORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIERRA PARODI ANGELA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILVA BRITO MARILUZ </t>
-  </si>
-  <si>
-    <t>SIMANCA SAN JUAN LUZ MIRIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOTO CORTEZ ELIZABETH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOTO RODRIGUEZ DERBER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">USTATE PEREZ MARILI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEGA BRITO RAFAEL </t>
-  </si>
-  <si>
-    <t>VEGA GAMEZ MARTA INES</t>
-  </si>
-  <si>
-    <t>VERDECIA MIRANDA JEINER ALBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISCAINO MENDOZA LISETTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">YAGUNA NUÑEZ JOSE </t>
-  </si>
-  <si>
-    <t>YEPEZ AGUILAR FERNANDO ALBERTO</t>
+    <t>AARON GONZALVEZ MARLYN ALICIA</t>
+  </si>
+  <si>
+    <t>AGUILAR BARROS JOSE BERNARDO</t>
+  </si>
+  <si>
+    <t>AGUILAR MEZA ENER MARINA</t>
+  </si>
+  <si>
+    <t>ALARCON MUNEVAR NATHALIE BEATRIZ</t>
+  </si>
+  <si>
+    <t>ALFARO CAMARGO CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>ALGUERO AMAYA LUIS ROBERTO</t>
+  </si>
+  <si>
+    <t>ALTURO MENDIGAÑA ADRIANA PATRICIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALVARADO MEJIA MARELIS </t>
+  </si>
+  <si>
+    <t>ALVAREZ ECHEVERRIA BELINDA ESTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAYA LOPEZ NICOLAS </t>
+  </si>
+  <si>
+    <t>AMAYA MENGUAL GILBERTO JOSE</t>
+  </si>
+  <si>
+    <t>ARAUJO CONTRERAS VIANEIS DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCINIEGAS GUERRA ARIEL </t>
+  </si>
+  <si>
+    <t>ARISMENDY ROSADO MARTHA R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIZA ARIZA DAVID </t>
+  </si>
+  <si>
+    <t>ARIZA DAZA FERNANDO LUIS</t>
+  </si>
+  <si>
+    <t>ARREGOCES  JUDITH MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVILA FUENTES HERIBERTO </t>
+  </si>
+  <si>
+    <t>AVILA FUENTES MARTHA MILAGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARLIZA GONZALEZ CAYETANO </t>
+  </si>
+  <si>
+    <t>BARLIZA NUÑEZ GLENDIS ISABEL</t>
+  </si>
+  <si>
+    <t>BARLIZA NUÑEZ ROSA ISMAIRA</t>
+  </si>
+  <si>
+    <t>BARRIOS BADILLO WILFRIDO RAFAEL</t>
+  </si>
+  <si>
+    <t>BARROS FARFAN YIMI YESID</t>
+  </si>
+  <si>
+    <t>BASTIDAS BARRANCO MARLON JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEDOYA RESTREPO HERNANDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELAIDES PERALTA CELIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELTRAN ALVARADO GONZALO </t>
+  </si>
+  <si>
+    <t>BELTRAN MARTINEZ GLORIA ISABEL</t>
+  </si>
+  <si>
+    <t>BERMUDEZ BUENO WILLIAM RAFAEL</t>
+  </si>
+  <si>
+    <t>BERMUDEZ PIMIENTA CARLOS MANUEL</t>
+  </si>
+  <si>
+    <t>BERMUDEZ VILLAMIZAR ROGER DAVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERNAL MUÑOZ FELIX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERRIO CABALLERO HOBBER </t>
+  </si>
+  <si>
+    <t>BERTEL PALENCIA RAMON DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONILLA BLANCHAR EDGAR </t>
+  </si>
+  <si>
+    <t>BONIVENTO EPIAYU AURA AMELIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAVO MENDOZA ARIANNYS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITO CARRILLO CLARA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITO CASTAÑEDA ZENAIDA </t>
+  </si>
+  <si>
+    <t>BRITO CUADRADO OMAR ALONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITO DAZA ALBERTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUGES ALARCON NESTOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUENO GIRALDO ISIDRO </t>
+  </si>
+  <si>
+    <t>BUENO PEREZ LUZ ANGELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABALLERO AMADOR JORGE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABRALES BONIVENTO EDWIN </t>
+  </si>
+  <si>
+    <t>CABRERA PALACIO RUBEN DARIO</t>
+  </si>
+  <si>
+    <t>CADENA MARTINEZ LAURA MILENA</t>
+  </si>
+  <si>
+    <t>CAMPO RIVADENEIRA LEDIS ESTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARABALI ANGOLA ALEXIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARCAMO BERRIO ORLANDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDENAS CARDENAS ALAIN </t>
+  </si>
+  <si>
+    <t>CARDEÑO PORTELA EDWIN JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDEÑO PORTELA NORALBIS </t>
+  </si>
+  <si>
+    <t>CARRILLO CUJIA VIVIANA MILDRETH</t>
+  </si>
+  <si>
+    <t>CASTELLANOS  MARTHA LIGIA</t>
+  </si>
+  <si>
+    <t>CASTILLO PEREZ JAIME ANTONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTRILLON ROYS MARTHA </t>
+  </si>
+  <si>
+    <t>CASTRO ECHAVEZ FERNANDO LUIS</t>
+  </si>
+  <si>
+    <t>CEBALLOS MACIA MARIA GISELLE</t>
+  </si>
+  <si>
+    <t>CELEDON MARTINEZ DOGNA MARY</t>
+  </si>
+  <si>
+    <t>CELEDON MOLINARES ALBERTO PLACIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHIQUILLO RODELO JUANNYS </t>
+  </si>
+  <si>
+    <t>CHOLES ALMAZO HILDA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOLES MEJIA FRANKLIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOLES MONTENEGRO NAYIDIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOLES QUINTERO PATRICIA </t>
+  </si>
+  <si>
+    <t>CONSUEGRA TERAN MELISSA PAOLA</t>
+  </si>
+  <si>
+    <t>COTES SIERRA KARELIS BEATRIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTES SPROCKEL GILBERTO </t>
+  </si>
+  <si>
+    <t>CUAN ROJAS MARIA VICTORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUELLO DAZA EDITH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENTAS FIGUEROA RAFAEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUESTA LOPEZ ROSALBA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURIEL CORREA NEILY </t>
+  </si>
+  <si>
+    <t>CURIEL GOMEZ REBECA YANETH</t>
+  </si>
+  <si>
+    <t>DAZA AVILA RAFAEL GUILLERMO</t>
+  </si>
+  <si>
+    <t>DAZA DAZA ALCIDES RAFAEL</t>
+  </si>
+  <si>
+    <t>DAZA LUQUE JOSE FRANCISCO</t>
+  </si>
+  <si>
+    <t>DAZA MENDOZA JUAN JOSE</t>
+  </si>
+  <si>
+    <t>DAZA ORSINI SANDRA MILENA</t>
+  </si>
+  <si>
+    <t>DAZA REINES SAMMY DAVID</t>
+  </si>
+  <si>
+    <t>DELUQUE ATENCIO DAISY E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELUQUE DIAZ CRISPULO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELUQUE NUÑEZ LISBETH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELUQUE RODRIGUEZ ISIDRO </t>
+  </si>
+  <si>
+    <t>DIAZ BERTY SARA RAQUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAZ ESPITIA NUBIA </t>
+  </si>
+  <si>
+    <t>DIAZ FUENMAYOR KERRY JOHANA</t>
+  </si>
+  <si>
+    <t>DIAZ MENDOZA DIANA CAROLINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAZ RESTREPO ESPERANZA </t>
+  </si>
+  <si>
+    <t>DORIA ARGUMEDO CARLOS JULIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUARTE PEÑARANDA EDINA </t>
+  </si>
+  <si>
+    <t>ESPINOSA ROMERO ANA PATRICIA</t>
+  </si>
+  <si>
+    <t>FAJARDO CUADRADO EIDER RAFAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAJARDO GOMEZ REMEDIOS </t>
+  </si>
+  <si>
+    <t>FONSECA GUERRERO JOSE LUIS</t>
+  </si>
+  <si>
+    <t>FONSECA MENDOZA ALMA LUISA</t>
+  </si>
+  <si>
+    <t>FORERO ARREGOCES HERLINDA ISABEL</t>
+  </si>
+  <si>
+    <t>FREYLE PIMIENTA KEILY JOANA</t>
+  </si>
+  <si>
+    <t>FRIAS ACOSTA EDILMA CECILIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRIAS PEREZ RAIZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUENTES MOLINA NATALIA </t>
+  </si>
+  <si>
+    <t>FUENTES OROZCO ARINDA DE JESUS</t>
+  </si>
+  <si>
+    <t>FUENTES SANCHEZ LULIA PAULINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALINDO MONTERO ANDRES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCES MORELO DAGOBERTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOMEZ BERMUDEZ LORENA </t>
+  </si>
+  <si>
+    <t>GOMEZ JULIO OLENKA VIRGINIA</t>
+  </si>
+  <si>
+    <t>GOMEZ RAMOS JEINER DE JESUS</t>
+  </si>
+  <si>
+    <t>GONZALEZ BERMUDEZ JORGE LUIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALEZ CUESTAS LENIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANADILLO AYALA RAMIRO </t>
+  </si>
+  <si>
+    <t>GRISALES HENAO ROSA MARIA</t>
+  </si>
+  <si>
+    <t>GUERRA MAESTRE TULIO ENRIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUERRERO SARMIENTO MARGARITA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUTIERREZ AGUILAR HUGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUTIERREZ MONROY ELVIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUTIERREZ PACHECO JACQUELIN </t>
+  </si>
+  <si>
+    <t>GUTIERREZ RAMIREZ GAIL ALBERTO</t>
+  </si>
+  <si>
+    <t>GUTIERREZ SUAREZ EDUARDO ENRIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUZMAN VALDEBLANQUEZ FRANKLIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERNANDEZ DELUQUE RICARDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRERA ARRIOLA INES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERRERA RIAÑO JORGE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HINOJOSA GUTIERREZ LADIMIRO </t>
+  </si>
+  <si>
+    <t>HOYOS BENITEZ MARIO EDGAR</t>
+  </si>
+  <si>
+    <t>HOYOS SALGADO JULIO MIGUEL</t>
+  </si>
+  <si>
+    <t>IBAÑEZ ROSALES SOL MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBARRA IGUARAN TEOLINDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGUARAN MANJARREZ VICTOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGUARAN MONTIEL GABRIEL </t>
+  </si>
+  <si>
+    <t>JARAMILLO ACOSTA MARTHA CECILIA</t>
+  </si>
+  <si>
+    <t>JARAMILLO MENGUAL ROSA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIMENEZ BELEÑO ANDRES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIMENEZ CARDENAS MEREDITH </t>
+  </si>
+  <si>
+    <t>JIMENEZ PITRE IRIS AGUSTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIMENEZ RUIZ CARLOS </t>
+  </si>
+  <si>
+    <t>JOIRO PACHECO YOLEIDA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMMERER DAVID MARTHA </t>
+  </si>
+  <si>
+    <t>LADEUTH OSPINO YELENIS MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEON TEJADA PEDRO </t>
+  </si>
+  <si>
+    <t>LINDO OÑATE OSCAR JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ ATENCIO ADAULFO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ CORREA JUDITH </t>
+  </si>
+  <si>
+    <t>LOPEZ CORREA VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>LOPEZ FUENTES EDUIN JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ HERNANDEZ RICARDO </t>
+  </si>
+  <si>
+    <t>LOPEZ JUVINAO DANNY DANIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ RIVADENEIRA CLEIRYS </t>
+  </si>
+  <si>
+    <t>MACHADO CANTILLO ANA BEATRIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAESTRE DAZA BERONICA </t>
+  </si>
+  <si>
+    <t>MAGDANIEL AMAYA OLARYS JUDITH</t>
+  </si>
+  <si>
+    <t>MAGDANIEL HERNANDEZ LIRINA PATRICIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGDANIEL PABON OLARIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGDANIEL PALACIO RAQUEL </t>
+  </si>
+  <si>
+    <t>MANJARREZ BRITO MARYORI TARYN</t>
+  </si>
+  <si>
+    <t>MARTINEZ CARDONA JOSE CLEMENTE</t>
+  </si>
+  <si>
+    <t>MARTINEZ GIL JOSE MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINEZ GOMEZ TATIANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINEZ PINEDO HENITHZO </t>
+  </si>
+  <si>
+    <t>MARULANDA VALENCIA JOSE LUDDEY</t>
+  </si>
+  <si>
+    <t>MEDINA BRITO LUZ LEIDIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDINA DE FUENTES MARTHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDINA PALENCIA YEISON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDINA SIERRA ALTAGRACIA </t>
+  </si>
+  <si>
+    <t>MEJIA ACOSTA RAUL DAVID</t>
+  </si>
+  <si>
+    <t>MEJIA CABALLERO JOSE MARIA</t>
+  </si>
+  <si>
+    <t>MEJIA CANTILLO MILADIS MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJIA CURIEL EROTIDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJIA DE LA CRUZ ELIAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJIA GONZALEZ LORELEY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJIA JIMENEZ MILITZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJIA MENDOZA OLGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEJIA RIVEIRA NAYELI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELENDEZ SURMAY RAFAEL </t>
+  </si>
+  <si>
+    <t>MELO FREILE GELVIS MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENDOZA CABELLO ROBERTO </t>
+  </si>
+  <si>
+    <t>MENDOZA CATAÑO CARMENZA LEONOR</t>
+  </si>
+  <si>
+    <t>MENDOZA FERNANDEZ DARCY LUZ</t>
+  </si>
+  <si>
+    <t>MENDOZA PEÑARANDA MARBELIA ROSA</t>
+  </si>
+  <si>
+    <t>MENGUAL MEZA MARINELA MORELIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERCADO ROCHA CELIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERCADO VILLADIEGO ALEXANDER </t>
+  </si>
+  <si>
+    <t>MERIÑO MENDOZA DIBER ENRIQUE</t>
+  </si>
+  <si>
+    <t>MOLINA BOLIVAR GEOMAR ENRIQUE</t>
+  </si>
+  <si>
+    <t>MOLINA VEGA ALFETT JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLINARES RAFAEL DANILO </t>
+  </si>
+  <si>
+    <t>MONTAÑO MARIMON DIANA ROSA</t>
+  </si>
+  <si>
+    <t>MONTERO MONTERO MANUEL GERMAN</t>
+  </si>
+  <si>
+    <t>MORALES BUSTAMANTE JOSE GREGORIO</t>
+  </si>
+  <si>
+    <t>MORALES MENGUAL LUIS CARLOS</t>
+  </si>
+  <si>
+    <t>MORENO FERNANDEZ MALKA IRINA</t>
+  </si>
+  <si>
+    <t>MOSCARELLA ALMENAREZ MILENA PAOLA</t>
+  </si>
+  <si>
+    <t>MOYA CAMACHO FABIO ORLANDO</t>
+  </si>
+  <si>
+    <t>MUÑIZ RODRIGUEZ ROSA VIRGINIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUÑOZ ROJAS DELVIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATERA ESTRADA ANGEL </t>
+  </si>
+  <si>
+    <t>NUÑEZ VARGAS JULIA ROSA</t>
+  </si>
+  <si>
+    <t>OCHOA GARCIA ETILVIA ALICIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCHOA ROMERO CLARIBEL </t>
+  </si>
+  <si>
+    <t>OCHOA SALDARRIAGA CARLOS JULIO</t>
+  </si>
+  <si>
+    <t>OJEDA CAMARGO EDGAR ENRIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLIVEROS RICHOL JAQUELIN </t>
+  </si>
+  <si>
+    <t>OÑATE DIAZ GLENIA MERCEDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORSINI CUADRADO AUGUSTO </t>
+  </si>
+  <si>
+    <t>ORTEGA HERNANDEZ CARLOS MARIO</t>
+  </si>
+  <si>
+    <t>ORTIZ ROJAS ANGELA NAIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSPINO MERIÑO ISIDORO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALACIO PIMIENTA DILODIS </t>
+  </si>
+  <si>
+    <t>PALMEZANO IBARRA YAIRINA IDELKA</t>
+  </si>
+  <si>
+    <t>PANCIERA DI ZOPOLA MARTINEZ MIGUEL J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARRA  YOLANDA </t>
+  </si>
+  <si>
+    <t>PEDRAZA FERNANDEZ MELY LINDON</t>
+  </si>
+  <si>
+    <t>PEDRAZA REYES CARLOS JULIO</t>
+  </si>
+  <si>
+    <t>PEÑA CORTES LUISA FERNANDA</t>
+  </si>
+  <si>
+    <t>PEÑALVER VANEGAS CASTA GLORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERALTA SOLANO GUILLERMO </t>
+  </si>
+  <si>
+    <t>PEREZ CAMARGO CLIMACO ALBERTO</t>
+  </si>
+  <si>
+    <t>PEREZ GAMEZ BORYS DE JESUS</t>
+  </si>
+  <si>
+    <t>PEREZ JIMENEZ RONALD ANTONIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ MONTIEL JHONNY </t>
+  </si>
+  <si>
+    <t>PEREZ VAN-LEENDEN FRANCISCO JUSTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ VAN-LEENDEN MARIANO </t>
+  </si>
+  <si>
+    <t>PIMIENTA PRIETO MARIA MARGARITA</t>
+  </si>
+  <si>
+    <t>PINEDO GUERRA VICTOR MIGUEL</t>
+  </si>
+  <si>
+    <t>PINEDO VANEGAS AIRADIN ALONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINEDO VANEGAS DOMINGA </t>
+  </si>
+  <si>
+    <t>PINTO ANDRADE JOSE ALFONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINTO ARAGON ELVIS </t>
+  </si>
+  <si>
+    <t>PINTO COTES LAURA RITA</t>
+  </si>
+  <si>
+    <t>PINTO MENDOZA YAISY ROSA</t>
+  </si>
+  <si>
+    <t>PINTO MINDIOLA LACIDES RAFAEL</t>
+  </si>
+  <si>
+    <t>PINTO SANTOS ALBA RUTH</t>
+  </si>
+  <si>
+    <t>PITRE REDONDO MIGUEL FRANCISCO</t>
+  </si>
+  <si>
+    <t>PITRE REDONDO REMEDIOS CATALINA</t>
+  </si>
+  <si>
+    <t>PITRE RUIZ LEANETH RAFAELINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PITRE RUIZ LEANIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLO PERALTA JESUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POMARICO PIMIENTA PILAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSADA ORTIZ NORA </t>
+  </si>
+  <si>
+    <t>PUCHE PINTO LUIS ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTERO BUENO ATENAIDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTERO FUENTES NARLY </t>
+  </si>
+  <si>
+    <t>QUINTERO MENDOZA JAIDER JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAIGOZA ACUÑA YANETH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIREZ AYALA ANDERSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIREZ GONZALEZ RUDECINDO </t>
+  </si>
+  <si>
+    <t>RANGEL LUQUEZ OLIVIA ISABEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDONDO CHOLES MONICA </t>
+  </si>
+  <si>
+    <t>REDONDO SALAS DANNY DEXI</t>
+  </si>
+  <si>
+    <t>RICCIULLI PEREZ YESLITH VANESSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBLES BRITO DANIEL </t>
+  </si>
+  <si>
+    <t>ROBLES CAMARGO NILKA RIQUENA</t>
+  </si>
+  <si>
+    <t>ROBLES JULIO CARLOS ARTURO</t>
+  </si>
+  <si>
+    <t>ROBLES RIVEIRA HERMES ORLANDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ ACOSTA SAMUEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ CASTRO FREDY </t>
+  </si>
+  <si>
+    <t>RODRIGUEZ LOPEZ CIELO MARGARITA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ RIVERA MARIA EUGENIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJANO ALVARADO ROBERTO </t>
+  </si>
+  <si>
+    <t>ROJANO ALVARADO YOLMIS NICOLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJAS CARDENAS MIGDALIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMERO CUELLO SANDY </t>
+  </si>
+  <si>
+    <t>ROMERO MORA BORIS SANDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSADO BOTELLO JHONNY </t>
+  </si>
+  <si>
+    <t>ROSADO CASTAÑEDA ENEIDA LUZ</t>
+  </si>
+  <si>
+    <t>ROSADO VEGA JAIRO RAFAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSERO DE LA CRUZ AGUSTIN </t>
+  </si>
+  <si>
+    <t>RUIZ TORO DANIS EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALAZAR ARGEL ALEXIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALAZAR GARCIA MIRIAM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALCEDO ANDRADE JAIR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALCEDO DAVILA JAIRO </t>
+  </si>
+  <si>
+    <t>SALGADO CHAVEZ JOSE ALBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ CASTELLON EMILSE </t>
+  </si>
+  <si>
+    <t>SANCHEZ GONZALEZ JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>SANCHEZ PARDO FELIX RAMIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ RAMIREZ ABIMAEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANCHEZ ROYS DEUSENITH </t>
+  </si>
+  <si>
+    <t>SANCHEZ ROYS RUSDEN LENIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTIS AGUAS EVELIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTOS MORENO EDILBERTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIERRA MEZA EUCADIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIERRA MONTALVO ARIANNA </t>
+  </si>
+  <si>
+    <t>SIERRA TONCEL JUAN CARLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIERRA TONCEL WILMAR </t>
+  </si>
+  <si>
+    <t>SOCARRAS BERTIZ CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>SOLANO ARIÑO VIVIAN ELIANA</t>
+  </si>
+  <si>
+    <t>SOTO PEROZA VICTOR SEGUNDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPROKEL BROCHERO RAFAEL </t>
+  </si>
+  <si>
+    <t>SUAREZ BARROS HORACIO BIENVENIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAYLOR HENRIQUEZ SIDNEY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRADO MARTINEZ DAMARIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOBAR ORTIZ NUBIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TONCEL PACHECO ENRIQUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES BRUGES WILMER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES SALAZAR MILENIS </t>
+  </si>
+  <si>
+    <t>TOVAR TORO GRIZZLY DAYHANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCROS BRITO MARLENIS </t>
+  </si>
+  <si>
+    <t>URUETA BLANCO ZOILA MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALDIVIESO CLAVIJO GIOVANNY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALERO VALERO NELSON </t>
+  </si>
+  <si>
+    <t>VANEGAS PEREZ PAOLA ANDREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANEGAS SPROCKEL BELKIS </t>
+  </si>
+  <si>
+    <t>VARGAS ESCORCIA JOSE JORGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARGAS MUÑOZ LEDYS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASQUEZ MENDOZA MARIBETH </t>
+  </si>
+  <si>
+    <t>VASQUEZ SANCHEZ ELIS BEATRIZ</t>
+  </si>
+  <si>
+    <t>VEGA GAMEZ YAMIRA ISABEL</t>
+  </si>
+  <si>
+    <t>VEGA MENDOZA YOLEIDA MARIA</t>
+  </si>
+  <si>
+    <t>VIDAL  JAIDITH ENETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIDAL DURAN BETSY </t>
+  </si>
+  <si>
+    <t>VIDAL GOMEZ AMPARO CAROLINA</t>
+  </si>
+  <si>
+    <t>VIECCO RIVADENEIRA LUIS RAFAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLA AMAYA ERNELL </t>
+  </si>
+  <si>
+    <t>YAGUNA GUERRA MARIA ESTHER</t>
+  </si>
+  <si>
+    <t>ZABALETA MONTERO SOLEDAD MARINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAMBRANO ROJAS SAMUEL </t>
+  </si>
+  <si>
+    <t>ZAMORA CORTES LOIDA PATRICIA</t>
+  </si>
+  <si>
+    <t>ZUBIRIA VIECCO JAIRO EMILIO</t>
+  </si>
+  <si>
+    <t>ZULETA PEREZ MILVIA JOSE</t>
+  </si>
+  <si>
+    <t>ZULETA PEREZ VERA CECILIA</t>
   </si>
 </sst>
 </file>
@@ -773,7 +1340,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2"/>
@@ -803,1897 +1370,4569 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>56083464</v>
+        <v>40918469</v>
       </c>
       <c r="B2" s="1">
-        <v>3017100</v>
+        <v>5028070</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>236070240361</v>
+        <v>405138975</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>40916476</v>
+        <v>84039816</v>
       </c>
       <c r="B3" s="1">
-        <v>2475948</v>
+        <v>1903256</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>236070188305</v>
+        <v>405048687</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>72006262</v>
+        <v>40939700</v>
       </c>
       <c r="B4" s="1">
-        <v>2116574</v>
+        <v>3611309</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>236870000882</v>
+        <v>405179284</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3353189</v>
+        <v>40939978</v>
       </c>
       <c r="B5" s="1">
-        <v>2448047</v>
+        <v>1034004</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>236870008422</v>
+        <v>405149600</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>12436703</v>
+        <v>84071030</v>
       </c>
       <c r="B6" s="1">
-        <v>2693234</v>
+        <v>2997158</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>236070254206</v>
+        <v>304002546</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>85040779</v>
+        <v>13348956</v>
       </c>
       <c r="B7" s="1">
-        <v>2134661</v>
+        <v>3293366</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>236870004520</v>
+        <v>405055948</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>32655910</v>
+        <v>40936721</v>
       </c>
       <c r="B8" s="1">
-        <v>2600010</v>
+        <v>1135969</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>236070165923</v>
+        <v>405182627</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>50928222</v>
+        <v>40921929</v>
       </c>
       <c r="B9" s="1">
-        <v>2218581</v>
+        <v>3578903</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>236070201868</v>
+        <v>405180050</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>77171940</v>
+        <v>40916739</v>
       </c>
       <c r="B10" s="1">
-        <v>2532866</v>
+        <v>5295489</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>236800009045</v>
+        <v>405056011</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>84077038</v>
+        <v>84026931</v>
       </c>
       <c r="B11" s="1">
-        <v>1223394</v>
+        <v>3681146</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>236070228515</v>
+        <v>405002007</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>40975746</v>
+        <v>8701267</v>
       </c>
       <c r="B12" s="1">
-        <v>2727951</v>
+        <v>1247638</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>236070254453</v>
+        <v>405030826</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>56059416</v>
+        <v>50892018</v>
       </c>
       <c r="B13" s="1">
-        <v>2515489</v>
+        <v>4106899</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>256700040726</v>
+        <v>405769027</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>63550003</v>
+        <v>17952855</v>
       </c>
       <c r="B14" s="1">
-        <v>2398962</v>
+        <v>662015</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1">
-        <v>236070241690</v>
+        <v>405030388</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>241945</v>
+        <v>26965887</v>
       </c>
       <c r="B15" s="1">
-        <v>2442662</v>
+        <v>687114</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>236070197132</v>
+        <v>405044371</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>84083752</v>
+        <v>72042242</v>
       </c>
       <c r="B16" s="1">
-        <v>2102259</v>
+        <v>1656179</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>236070251392</v>
+        <v>405055468</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>7928182</v>
+        <v>5163377</v>
       </c>
       <c r="B17" s="1">
-        <v>2680759</v>
+        <v>1067041</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="1">
-        <v>256700032749</v>
+        <v>405044470</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>84090118</v>
+        <v>42493216</v>
       </c>
       <c r="B18" s="1">
-        <v>1565107</v>
+        <v>1181198</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="1">
-        <v>236070254552</v>
+        <v>405055740</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>64695644</v>
+        <v>5163080</v>
       </c>
       <c r="B19" s="1">
-        <v>2485317</v>
+        <v>5045747</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>236070244306</v>
+        <v>405044595</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1129567739</v>
+        <v>27004224</v>
       </c>
       <c r="B20" s="1">
-        <v>2102259</v>
+        <v>2705699</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="1">
-        <v>236870031259</v>
+        <v>405056383</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>17977001</v>
+        <v>73077183</v>
       </c>
       <c r="B21" s="1">
-        <v>2211283</v>
+        <v>4729259</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="1">
-        <v>340515303</v>
+        <v>405056052</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>84084498</v>
+        <v>40928682</v>
       </c>
       <c r="B22" s="1">
-        <v>2659387</v>
+        <v>1023228</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="1">
-        <v>176370028209</v>
+        <v>405048505</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>17809167</v>
+        <v>40931268</v>
       </c>
       <c r="B23" s="1">
-        <v>2074325</v>
+        <v>2462444</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="1">
-        <v>236070189287</v>
+        <v>405179870</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>17805480</v>
+        <v>17805887</v>
       </c>
       <c r="B24" s="1">
-        <v>2537867</v>
+        <v>2504326</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>236070227699</v>
+        <v>405753203</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>79433108</v>
+        <v>84101451</v>
       </c>
       <c r="B25" s="1">
-        <v>2688205</v>
+        <v>3860869</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="1">
-        <v>236870019833</v>
+        <v>300211059</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>40928509</v>
+        <v>77033581</v>
       </c>
       <c r="B26" s="1">
-        <v>2452277</v>
+        <v>3690516</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="1">
-        <v>236000127167</v>
+        <v>405179961</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>40931404</v>
+        <v>19092691</v>
       </c>
       <c r="B27" s="1">
-        <v>1351151</v>
+        <v>3333517</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="1">
-        <v>236070251988</v>
+        <v>405031378</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>1129534078</v>
+        <v>40933413</v>
       </c>
       <c r="B28" s="1">
-        <v>1769381</v>
+        <v>696267</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="1">
-        <v>236070240866</v>
+        <v>405157488</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>77022202</v>
+        <v>19461331</v>
       </c>
       <c r="B29" s="1">
-        <v>1587904</v>
+        <v>2226761</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="1">
-        <v>236070203187</v>
+        <v>405056433</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>72018762</v>
+        <v>35463698</v>
       </c>
       <c r="B30" s="1">
-        <v>2341685</v>
+        <v>3233776</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="1">
-        <v>236870008588</v>
+        <v>405055823</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>84089625</v>
+        <v>17807444</v>
       </c>
       <c r="B31" s="1">
-        <v>2457278</v>
+        <v>4618413</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="1">
-        <v>236070231873</v>
+        <v>405056441</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>40915981</v>
+        <v>84079431</v>
       </c>
       <c r="B32" s="1">
-        <v>2285427</v>
+        <v>913635</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="1">
-        <v>236070221148</v>
+        <v>405090531</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>40925567</v>
+        <v>84029482</v>
       </c>
       <c r="B33" s="1">
-        <v>2767226</v>
+        <v>2103243</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="1">
-        <v>236070188412</v>
+        <v>405750373</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>40917959</v>
+        <v>6882304</v>
       </c>
       <c r="B34" s="1">
-        <v>2836948</v>
+        <v>1286667</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="1">
-        <v>236070186622</v>
+        <v>405031261</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>40931473</v>
+        <v>84039854</v>
       </c>
       <c r="B35" s="1">
-        <v>2372753</v>
+        <v>3932954</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="1">
-        <v>236070225321</v>
+        <v>304002421</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>17847218</v>
+        <v>92508149</v>
       </c>
       <c r="B36" s="1">
-        <v>3183152</v>
+        <v>2976462</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="1">
-        <v>236070191085</v>
+        <v>405030990</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>1128325680</v>
+        <v>84036737</v>
       </c>
       <c r="B37" s="1">
-        <v>2102259</v>
+        <v>5479950</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="1">
-        <v>236070236385</v>
+        <v>405045949</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>8815886</v>
+        <v>40912637</v>
       </c>
       <c r="B38" s="1">
-        <v>2548446</v>
+        <v>942869</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="1">
-        <v>236070188834</v>
+        <v>405055666</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>7630378</v>
+        <v>40942508</v>
       </c>
       <c r="B39" s="1">
-        <v>3987340</v>
+        <v>828381</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="1">
-        <v>236870033438</v>
+        <v>405102203</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>27041971</v>
+        <v>37314692</v>
       </c>
       <c r="B40" s="1">
-        <v>2646138</v>
+        <v>3969647</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="1">
-        <v>236070221387</v>
+        <v>405056912</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>1032389676</v>
+        <v>26963364</v>
       </c>
       <c r="B41" s="1">
-        <v>2371398</v>
+        <v>4728376</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="1">
-        <v>236870019767</v>
+        <v>405753161</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>12646564</v>
+        <v>19496929</v>
       </c>
       <c r="B42" s="1">
-        <v>3251125</v>
+        <v>4096532</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="1">
-        <v>23300007236</v>
+        <v>405754847</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>9080934</v>
+        <v>6757157</v>
       </c>
       <c r="B43" s="1">
-        <v>3110805</v>
+        <v>4252204</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="1">
-        <v>236000684506</v>
+        <v>405750522</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>39492672</v>
+        <v>17802680</v>
       </c>
       <c r="B44" s="1">
-        <v>2102259</v>
+        <v>1195182</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="1">
-        <v>6100909057</v>
+        <v>405056276</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>7573426</v>
+        <v>12540363</v>
       </c>
       <c r="B45" s="1">
-        <v>2825719</v>
+        <v>3250902</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="1">
-        <v>236870033511</v>
+        <v>405056003</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>17807921</v>
+        <v>40927768</v>
       </c>
       <c r="B46" s="1">
-        <v>2319468</v>
+        <v>1157236</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="1">
-        <v>236070248711</v>
+        <v>405166901</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>36695870</v>
+        <v>9070606</v>
       </c>
       <c r="B47" s="1">
-        <v>2465977</v>
+        <v>2790628</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
       </c>
       <c r="D47" s="1">
-        <v>236870037751</v>
+        <v>405056250</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>84038022</v>
+        <v>84084156</v>
       </c>
       <c r="B48" s="1">
-        <v>2889840</v>
+        <v>2783619</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="1">
-        <v>236070186994</v>
+        <v>405140187</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>40937386</v>
+        <v>72150467</v>
       </c>
       <c r="B49" s="1">
-        <v>1864987</v>
+        <v>3693593</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="1">
-        <v>236000662577</v>
+        <v>405066481</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>84068359</v>
+        <v>56090201</v>
       </c>
       <c r="B50" s="1">
-        <v>2358032</v>
+        <v>2659387</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="1">
-        <v>236070190327</v>
+        <v>405182403</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>52690175</v>
+        <v>36551115</v>
       </c>
       <c r="B51" s="1">
-        <v>2158777</v>
+        <v>3946369</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51" s="1">
-        <v>236800004277</v>
+        <v>405055989</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>1766475</v>
+        <v>76269701</v>
       </c>
       <c r="B52" s="1">
-        <v>2147596</v>
+        <v>4189375</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
       </c>
       <c r="D52" s="1">
-        <v>236870011053</v>
+        <v>405055732</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>7601646</v>
+        <v>84046064</v>
       </c>
       <c r="B53" s="1">
-        <v>2168503</v>
+        <v>885211</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
       </c>
       <c r="D53" s="1">
-        <v>117100013350</v>
+        <v>405031063</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>17954352</v>
+        <v>84087841</v>
       </c>
       <c r="B54" s="1">
-        <v>2440738</v>
+        <v>799696</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="1">
-        <v>236070222617</v>
+        <v>405164898</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>17955242</v>
+        <v>84033855</v>
       </c>
       <c r="B55" s="1">
-        <v>1729103</v>
+        <v>3839374</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="1">
-        <v>236870002276</v>
+        <v>405137076</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>56055715</v>
+        <v>32689739</v>
       </c>
       <c r="B56" s="1">
-        <v>2442572</v>
+        <v>3110287</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="1">
-        <v>256700007386</v>
+        <v>405063934</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>22731863</v>
+        <v>1123998385</v>
       </c>
       <c r="B57" s="1">
-        <v>2229278</v>
+        <v>3152434</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="1">
-        <v>236870011046</v>
+        <v>405140229</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>36694209</v>
+        <v>31920603</v>
       </c>
       <c r="B58" s="1">
-        <v>2209621</v>
+        <v>5786129</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
       </c>
       <c r="D58" s="1">
-        <v>236000684746</v>
+        <v>405031782</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>8852594</v>
+        <v>92510967</v>
       </c>
       <c r="B59" s="1">
-        <v>2102259</v>
+        <v>6660871</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="1">
-        <v>236800011801</v>
+        <v>405031071</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>19354953</v>
+        <v>40922440</v>
       </c>
       <c r="B60" s="1">
-        <v>2602876</v>
+        <v>4147032</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
       </c>
       <c r="D60" s="1">
-        <v>236070238597</v>
+        <v>405071051</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>84091706</v>
+        <v>92511328</v>
       </c>
       <c r="B61" s="1">
-        <v>2185665</v>
+        <v>4522905</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
       </c>
       <c r="D61" s="1">
-        <v>236870006921</v>
+        <v>405031121</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>56057052</v>
+        <v>51828780</v>
       </c>
       <c r="B62" s="1">
-        <v>2370535</v>
+        <v>273099</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
       </c>
       <c r="D62" s="1">
-        <v>236070193891</v>
+        <v>405044462</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>84452442</v>
+        <v>40926769</v>
       </c>
       <c r="B63" s="1">
-        <v>2900762</v>
+        <v>695736</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" s="1">
-        <v>236870034386</v>
+        <v>405139726</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>56055470</v>
+        <v>12538766</v>
       </c>
       <c r="B64" s="1">
-        <v>2272567</v>
+        <v>4689343</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="1">
-        <v>236800017170</v>
+        <v>405049776</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>40801013</v>
+        <v>32741890</v>
       </c>
       <c r="B65" s="1">
-        <v>2375343</v>
+        <v>3223369</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
       </c>
       <c r="D65" s="1">
-        <v>236070193446</v>
+        <v>405057506</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>77169980</v>
+        <v>40919494</v>
       </c>
       <c r="B66" s="1">
-        <v>2680371</v>
+        <v>5043938</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
       </c>
       <c r="D66" s="1">
-        <v>236070196969</v>
+        <v>405055500</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>84026700</v>
+        <v>84042850</v>
       </c>
       <c r="B67" s="1">
-        <v>2378900</v>
+        <v>4516921</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
       </c>
       <c r="D67" s="1">
-        <v>236070244801</v>
+        <v>405053075</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>56097870</v>
+        <v>40924433</v>
       </c>
       <c r="B68" s="1">
-        <v>2149054</v>
+        <v>1493103</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="1">
-        <v>256800011361</v>
+        <v>405044587</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>17805992</v>
+        <v>40976770</v>
       </c>
       <c r="B69" s="1">
-        <v>2452277</v>
+        <v>5356687</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
       </c>
       <c r="D69" s="1">
-        <v>236070213244</v>
+        <v>405056532</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>40916440</v>
+        <v>1129577145</v>
       </c>
       <c r="B70" s="1">
-        <v>2730202</v>
+        <v>2996571</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
       </c>
       <c r="D70" s="1">
-        <v>236070069976</v>
+        <v>405176868</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>25786131</v>
+        <v>40926534</v>
       </c>
       <c r="B71" s="1">
-        <v>2102259</v>
+        <v>3437737</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
       </c>
       <c r="D71" s="1">
-        <v>236870015559</v>
+        <v>405076225</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>73098263</v>
+        <v>84081588</v>
       </c>
       <c r="B72" s="1">
-        <v>2491321</v>
+        <v>3386369</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
       </c>
       <c r="D72" s="1">
-        <v>236000132472</v>
+        <v>405126962</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>1065565065</v>
+        <v>40919704</v>
       </c>
       <c r="B73" s="1">
-        <v>2102259</v>
+        <v>3962218</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
       </c>
       <c r="D73" s="1">
-        <v>236000668210</v>
+        <v>405000548</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>84071015</v>
+        <v>27002170</v>
       </c>
       <c r="B74" s="1">
-        <v>2261155</v>
+        <v>2474738</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
       </c>
       <c r="D74" s="1">
-        <v>236070217914</v>
+        <v>405059247</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>84092320</v>
+        <v>7449339</v>
       </c>
       <c r="B75" s="1">
-        <v>2237758</v>
+        <v>7536434</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
       </c>
       <c r="D75" s="1">
-        <v>236070218847</v>
+        <v>405007931</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>32799776</v>
+        <v>33142746</v>
       </c>
       <c r="B76" s="1">
-        <v>724147</v>
+        <v>7287099</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
       </c>
       <c r="D76" s="1">
-        <v>236870023660</v>
+        <v>405049156</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>40944586</v>
+        <v>40916635</v>
       </c>
       <c r="B77" s="1">
-        <v>2272567</v>
+        <v>1028934</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
       </c>
       <c r="D77" s="1">
-        <v>236800012064</v>
+        <v>405031014</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>40925656</v>
+        <v>40922614</v>
       </c>
       <c r="B78" s="1">
-        <v>2550753</v>
+        <v>3764843</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
       </c>
       <c r="D78" s="1">
-        <v>236870005584</v>
+        <v>405049230</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>63543756</v>
+        <v>84033345</v>
       </c>
       <c r="B79" s="1">
-        <v>2356110</v>
+        <v>1121667</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
       </c>
       <c r="D79" s="1">
-        <v>236070203971</v>
+        <v>405031352</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>49762677</v>
+        <v>84088120</v>
       </c>
       <c r="B80" s="1">
-        <v>2839353</v>
+        <v>3747318</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
       </c>
       <c r="D80" s="1">
-        <v>6204549732</v>
+        <v>405125113</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>8702503</v>
+        <v>84037627</v>
       </c>
       <c r="B81" s="1">
-        <v>2571482</v>
+        <v>2253336</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
       </c>
       <c r="D81" s="1">
-        <v>236070189428</v>
+        <v>405055138</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>56075021</v>
+        <v>17975955</v>
       </c>
       <c r="B82" s="1">
-        <v>2214070</v>
+        <v>640339</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
       </c>
       <c r="D82" s="1">
-        <v>256800034272</v>
+        <v>405066309</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>40933239</v>
+        <v>49791756</v>
       </c>
       <c r="B83" s="1">
-        <v>2847672</v>
+        <v>3115531</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
       </c>
       <c r="D83" s="1">
-        <v>236070196407</v>
+        <v>405179805</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>84029261</v>
+        <v>17973791</v>
       </c>
       <c r="B84" s="1">
-        <v>2471510</v>
+        <v>3900352</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
       </c>
       <c r="D84" s="1">
-        <v>236070159439</v>
+        <v>405770348</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>56074548</v>
+        <v>40913813</v>
       </c>
       <c r="B85" s="1">
-        <v>2090708</v>
+        <v>923534</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
       </c>
       <c r="D85" s="1">
-        <v>256700012188</v>
+        <v>405030115</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>37864268</v>
+        <v>84084230</v>
       </c>
       <c r="B86" s="1">
-        <v>2578155</v>
+        <v>553629</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
       </c>
       <c r="D86" s="1">
-        <v>236000678870</v>
+        <v>405090036</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>40939364</v>
+        <v>40922080</v>
       </c>
       <c r="B87" s="1">
-        <v>2568871</v>
+        <v>1470114</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
       </c>
       <c r="D87" s="1">
-        <v>236070217799</v>
+        <v>405055088</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>17848788</v>
+        <v>84028941</v>
       </c>
       <c r="B88" s="1">
-        <v>2551521</v>
+        <v>5194754</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
       </c>
       <c r="D88" s="1">
-        <v>236070167168</v>
+        <v>405056342</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>19289352</v>
+        <v>40923874</v>
       </c>
       <c r="B89" s="1">
-        <v>2542277</v>
+        <v>1195643</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
       </c>
       <c r="D89" s="1">
-        <v>256700008020</v>
+        <v>405055781</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>40912287</v>
+        <v>40916312</v>
       </c>
       <c r="B90" s="1">
-        <v>2423427</v>
+        <v>1301667</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
       </c>
       <c r="D90" s="1">
-        <v>236070122247</v>
+        <v>405055575</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>1118817317</v>
+        <v>40927310</v>
       </c>
       <c r="B91" s="1">
-        <v>2220733</v>
+        <v>4965800</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
       </c>
       <c r="D91" s="1">
-        <v>236000672998</v>
+        <v>405123787</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>40925447</v>
+        <v>52702655</v>
       </c>
       <c r="B92" s="1">
-        <v>2670509</v>
+        <v>3452492</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
       </c>
       <c r="D92" s="1">
-        <v>236070192364</v>
+        <v>310081955</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>17805486</v>
+        <v>45445337</v>
       </c>
       <c r="B93" s="1">
-        <v>2536906</v>
+        <v>3273627</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
       </c>
       <c r="D93" s="1">
-        <v>236070186549</v>
+        <v>405055815</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>40918307</v>
+        <v>10893959</v>
       </c>
       <c r="B94" s="1">
-        <v>2298409</v>
+        <v>2726313</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
       </c>
       <c r="D94" s="1">
-        <v>236070228622</v>
+        <v>405055351</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>40929923</v>
+        <v>40925745</v>
       </c>
       <c r="B95" s="1">
-        <v>2356110</v>
+        <v>971509</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
       </c>
       <c r="D95" s="1">
-        <v>236070218003</v>
+        <v>405041716</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>45440345</v>
+        <v>1118805083</v>
       </c>
       <c r="B96" s="1">
-        <v>2579314</v>
+        <v>3452491</v>
       </c>
       <c r="C96" t="s">
         <v>97</v>
       </c>
       <c r="D96" s="1">
-        <v>236870004371</v>
+        <v>405179243</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>5159197</v>
+        <v>84026792</v>
       </c>
       <c r="B97" s="1">
-        <v>3210798</v>
+        <v>1820799</v>
       </c>
       <c r="C97" t="s">
         <v>98</v>
       </c>
       <c r="D97" s="1">
-        <v>256700064858</v>
+        <v>405044306</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>27003218</v>
+        <v>40792159</v>
       </c>
       <c r="B98" s="1">
-        <v>2291878</v>
+        <v>2079779</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
       </c>
       <c r="D98" s="1">
-        <v>256700003971</v>
+        <v>405044611</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>8532284</v>
+        <v>12546959</v>
       </c>
       <c r="B99" s="1">
-        <v>2243556</v>
+        <v>7220239</v>
       </c>
       <c r="C99" t="s">
         <v>100</v>
       </c>
       <c r="D99" s="1">
-        <v>236870011640</v>
+        <v>405754946</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>51560618</v>
+        <v>56069985</v>
       </c>
       <c r="B100" s="1">
-        <v>2877534</v>
+        <v>865951</v>
       </c>
       <c r="C100" t="s">
         <v>101</v>
       </c>
       <c r="D100" s="1">
-        <v>256800034249</v>
+        <v>405165036</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>55248484</v>
+        <v>40918603</v>
       </c>
       <c r="B101" s="1">
-        <v>1346882</v>
+        <v>727995</v>
       </c>
       <c r="C101" t="s">
         <v>102</v>
       </c>
       <c r="D101" s="1">
-        <v>236870021243</v>
+        <v>405049784</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>51748053</v>
+        <v>40933997</v>
       </c>
       <c r="B102" s="1">
-        <v>1709613</v>
+        <v>2148590</v>
       </c>
       <c r="C102" t="s">
         <v>103</v>
       </c>
       <c r="D102" s="1">
-        <v>236070222476</v>
+        <v>405183963</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>40978427</v>
+        <v>41477972</v>
       </c>
       <c r="B103" s="1">
-        <v>1096513</v>
+        <v>5855703</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
       </c>
       <c r="D103" s="1">
-        <v>236870019239</v>
+        <v>405053679</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>1082903902</v>
+        <v>40838476</v>
       </c>
       <c r="B104" s="1">
-        <v>2061759</v>
+        <v>2689471</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
       </c>
       <c r="D104" s="1">
-        <v>116270064300</v>
+        <v>405039967</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>40927309</v>
+        <v>56078338</v>
       </c>
       <c r="B105" s="1">
-        <v>2232530</v>
+        <v>4050199</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
       </c>
       <c r="D105" s="1">
-        <v>236870019726</v>
+        <v>405180191</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>17954528</v>
+        <v>40915762</v>
       </c>
       <c r="B106" s="1">
-        <v>2369273</v>
+        <v>2159987</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="1">
-        <v>236800011785</v>
+        <v>405055724</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>37723525</v>
+        <v>41672425</v>
       </c>
       <c r="B107" s="1">
-        <v>2193975</v>
+        <v>4084642</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
       </c>
       <c r="D107" s="1">
-        <v>236870025863</v>
+        <v>405061789</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>40928757</v>
+        <v>77034749</v>
       </c>
       <c r="B108" s="1">
-        <v>2356700</v>
+        <v>3196960</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
       </c>
       <c r="D108" s="1">
-        <v>236000667303</v>
+        <v>405020199</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>56055080</v>
+        <v>15020638</v>
       </c>
       <c r="B109" s="1">
-        <v>1613565</v>
+        <v>1265298</v>
       </c>
       <c r="C109" t="s">
         <v>110</v>
       </c>
       <c r="D109" s="1">
-        <v>256700007345</v>
+        <v>405031220</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>84091745</v>
+        <v>40917947</v>
       </c>
       <c r="B110" s="1">
-        <v>2650877</v>
+        <v>4147032</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
       </c>
       <c r="D110" s="1">
-        <v>236070253968</v>
+        <v>405060070</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>40924816</v>
+        <v>32785368</v>
       </c>
       <c r="B111" s="1">
-        <v>2591720</v>
+        <v>4808389</v>
       </c>
       <c r="C111" t="s">
         <v>112</v>
       </c>
       <c r="D111" s="1">
-        <v>236070238639</v>
+        <v>405081514</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>32607901</v>
+        <v>1010089455</v>
       </c>
       <c r="B112" s="1">
-        <v>2168503</v>
+        <v>1137176</v>
       </c>
       <c r="C112" t="s">
         <v>113</v>
       </c>
       <c r="D112" s="1">
-        <v>236070228416</v>
+        <v>405182619</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>45553996</v>
+        <v>12544915</v>
       </c>
       <c r="B113" s="1">
-        <v>2432712</v>
+        <v>2575918</v>
       </c>
       <c r="C113" t="s">
         <v>114</v>
       </c>
       <c r="D113" s="1">
-        <v>236070236146</v>
+        <v>405046723</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>39491023</v>
+        <v>84030977</v>
       </c>
       <c r="B114" s="1">
-        <v>2342723</v>
+        <v>605811</v>
       </c>
       <c r="C114" t="s">
         <v>115</v>
       </c>
       <c r="D114" s="1">
-        <v>236870028339</v>
+        <v>405054339</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>17802264</v>
+        <v>84030977</v>
       </c>
       <c r="B115" s="1">
-        <v>2812264</v>
+        <v>463922</v>
       </c>
       <c r="C115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D115" s="1">
-        <v>236070221460</v>
+        <v>405054339</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>72014850</v>
+        <v>5158707</v>
       </c>
       <c r="B116" s="1">
-        <v>2180484</v>
+        <v>3425485</v>
       </c>
       <c r="C116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D116" s="1">
-        <v>236870025673</v>
+        <v>405056540</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>52029926</v>
+        <v>24545047</v>
       </c>
       <c r="B117" s="1">
-        <v>2810827</v>
+        <v>3539363</v>
       </c>
       <c r="C117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D117" s="1">
-        <v>236870015385</v>
+        <v>405043985</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>84092580</v>
+        <v>12719194</v>
       </c>
       <c r="B118" s="1">
-        <v>1817179</v>
+        <v>3304092</v>
       </c>
       <c r="C118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D118" s="1">
-        <v>236800012478</v>
+        <v>405767450</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>64549993</v>
+        <v>57412938</v>
       </c>
       <c r="B119" s="1">
-        <v>2690291</v>
+        <v>4550488</v>
       </c>
       <c r="C119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D119" s="1">
-        <v>236070160668</v>
+        <v>405056557</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>40927027</v>
+        <v>17806728</v>
       </c>
       <c r="B120" s="1">
-        <v>2466702</v>
+        <v>3660528</v>
       </c>
       <c r="C120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D120" s="1">
-        <v>236070236328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>17958969</v>
+        <v>40942002</v>
       </c>
       <c r="B121" s="1">
-        <v>2090708</v>
+        <v>893522</v>
       </c>
       <c r="C121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D121" s="1">
-        <v>256700010232</v>
+        <v>405149733</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>84078652</v>
+        <v>40917742</v>
       </c>
       <c r="B122" s="1">
-        <v>2771913</v>
+        <v>829479</v>
       </c>
       <c r="C122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D122" s="1">
-        <v>236070176037</v>
+        <v>405040999</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>40924926</v>
+        <v>77172086</v>
       </c>
       <c r="B123" s="1">
-        <v>2548446</v>
+        <v>5667987</v>
       </c>
       <c r="C123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D123" s="1">
-        <v>236070213699</v>
+        <v>300125341</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>15704097</v>
+        <v>17974249</v>
       </c>
       <c r="B124" s="1">
-        <v>2448622</v>
+        <v>1150246</v>
       </c>
       <c r="C124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D124" s="1">
-        <v>236070220983</v>
+        <v>405028887</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>26985258</v>
+        <v>17808439</v>
       </c>
       <c r="B125" s="1">
-        <v>2841661</v>
+        <v>445899</v>
       </c>
       <c r="C125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D125" s="1">
-        <v>256700005521</v>
+        <v>405031022</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>56085266</v>
+        <v>84026213</v>
       </c>
       <c r="B126" s="1">
-        <v>2425832</v>
+        <v>1348010</v>
       </c>
       <c r="C126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D126" s="1">
-        <v>236070221312</v>
+        <v>405048703</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>39538146</v>
+        <v>22977169</v>
       </c>
       <c r="B127" s="1">
-        <v>2849162</v>
+        <v>2541334</v>
       </c>
       <c r="C127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D127" s="1">
-        <v>256370002717</v>
+        <v>405056102</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>40923367</v>
+        <v>7456239</v>
       </c>
       <c r="B128" s="1">
-        <v>1361992</v>
+        <v>1791421</v>
       </c>
       <c r="C128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D128" s="1">
-        <v>236870007895</v>
+        <v>405055872</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>84006422</v>
+        <v>84104058</v>
       </c>
       <c r="B129" s="1">
-        <v>2645850</v>
+        <v>2200455</v>
       </c>
       <c r="C129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D129" s="1">
-        <v>256700042631</v>
+        <v>405055583</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>36550740</v>
+        <v>19225173</v>
       </c>
       <c r="B130" s="1">
-        <v>2586913</v>
+        <v>5562177</v>
       </c>
       <c r="C130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D130" s="1">
-        <v>236070225685</v>
+        <v>405041542</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>84103715</v>
+        <v>15039137</v>
       </c>
       <c r="B131" s="1">
-        <v>1161212</v>
+        <v>575074</v>
       </c>
       <c r="C131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D131" s="1">
-        <v>236070187505</v>
+        <v>405056201</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>40928186</v>
+        <v>40914837</v>
       </c>
       <c r="B132" s="1">
-        <v>2886449</v>
+        <v>478306</v>
       </c>
       <c r="C132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D132" s="1">
-        <v>236070193842</v>
+        <v>405040445</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>77030133</v>
+        <v>40916124</v>
       </c>
       <c r="B133" s="1">
-        <v>2475067</v>
+        <v>5954743</v>
       </c>
       <c r="C133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D133" s="1">
-        <v>236870034782</v>
+        <v>405020504</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>40944602</v>
+        <v>84005124</v>
       </c>
       <c r="B134" s="1">
-        <v>2110156</v>
+        <v>2236839</v>
       </c>
       <c r="C134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D134" s="1">
-        <v>236800008708</v>
+        <v>405051285</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>12721447</v>
+        <v>5183086</v>
       </c>
       <c r="B135" s="1">
-        <v>3069675</v>
+        <v>3357221</v>
       </c>
       <c r="C135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D135" s="1">
-        <v>256070343361</v>
+        <v>405033515</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>7572198</v>
+        <v>24473753</v>
       </c>
       <c r="B136" s="1">
-        <v>2090708</v>
+        <v>7512752</v>
       </c>
       <c r="C136" t="s">
+        <v>136</v>
+      </c>
+      <c r="D136" s="1">
+        <v>405750605</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>40837882</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1050343</v>
+      </c>
+      <c r="C137" t="s">
         <v>137</v>
       </c>
-      <c r="D136" s="1">
-        <v>236070225628</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="B137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="D137" s="1">
+        <v>405054099</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>12543151</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4030556</v>
+      </c>
+      <c r="C138" t="s">
+        <v>138</v>
+      </c>
+      <c r="D138" s="1">
+        <v>405056458</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>49741390</v>
+      </c>
+      <c r="B139" s="1">
+        <v>3946369</v>
+      </c>
+      <c r="C139" t="s">
+        <v>139</v>
+      </c>
+      <c r="D139" s="1">
+        <v>300072444</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>56056146</v>
+      </c>
+      <c r="B140" s="1">
+        <v>3611845</v>
+      </c>
+      <c r="C140" t="s">
+        <v>140</v>
+      </c>
+      <c r="D140" s="1">
+        <v>405065947</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>8748985</v>
+      </c>
+      <c r="B141" s="1">
+        <v>6311042</v>
+      </c>
+      <c r="C141" t="s">
+        <v>141</v>
+      </c>
+      <c r="D141" s="1">
+        <v>405031105</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>40983796</v>
+      </c>
+      <c r="B142" s="1">
+        <v>745465</v>
+      </c>
+      <c r="C142" t="s">
+        <v>142</v>
+      </c>
+      <c r="D142" s="1">
+        <v>405149626</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>40797290</v>
+      </c>
+      <c r="B143" s="1">
+        <v>3287670</v>
+      </c>
+      <c r="C143" t="s">
+        <v>143</v>
+      </c>
+      <c r="D143" s="1">
+        <v>405085382</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>40938089</v>
+      </c>
+      <c r="B144" s="1">
+        <v>2432843</v>
+      </c>
+      <c r="C144" t="s">
+        <v>144</v>
+      </c>
+      <c r="D144" s="1">
+        <v>405179813</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>8662135</v>
+      </c>
+      <c r="B145" s="1">
+        <v>6524902</v>
+      </c>
+      <c r="C145" t="s">
+        <v>145</v>
+      </c>
+      <c r="D145" s="1">
+        <v>405030743</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>84035236</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1587842</v>
+      </c>
+      <c r="C146" t="s">
+        <v>146</v>
+      </c>
+      <c r="D146" s="1">
+        <v>405138199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>12720417</v>
+      </c>
+      <c r="B147" s="1">
+        <v>2486633</v>
+      </c>
+      <c r="C147" t="s">
+        <v>147</v>
+      </c>
+      <c r="D147" s="1">
+        <v>405055914</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>40915007</v>
+      </c>
+      <c r="B148" s="1">
+        <v>2537140</v>
+      </c>
+      <c r="C148" t="s">
+        <v>148</v>
+      </c>
+      <c r="D148" s="1">
+        <v>405055922</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>84028500</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2900474</v>
+      </c>
+      <c r="C149" t="s">
+        <v>149</v>
+      </c>
+      <c r="D149" s="1">
+        <v>405057985</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>84034370</v>
+      </c>
+      <c r="B150" s="1">
+        <v>4880205</v>
+      </c>
+      <c r="C150" t="s">
+        <v>150</v>
+      </c>
+      <c r="D150" s="1">
+        <v>405087438</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>91528139</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1909809</v>
+      </c>
+      <c r="C151" t="s">
+        <v>151</v>
+      </c>
+      <c r="D151" s="1">
+        <v>405153487</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>17904729</v>
+      </c>
+      <c r="B152" s="1">
+        <v>4357742</v>
+      </c>
+      <c r="C152" t="s">
+        <v>152</v>
+      </c>
+      <c r="D152" s="1">
+        <v>304002454</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>40941561</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1177936</v>
+      </c>
+      <c r="C153" t="s">
+        <v>153</v>
+      </c>
+      <c r="D153" s="1">
+        <v>405142209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>57446153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2950906</v>
+      </c>
+      <c r="C154" t="s">
+        <v>154</v>
+      </c>
+      <c r="D154" s="1">
+        <v>405056193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>40938567</v>
+      </c>
+      <c r="B155" s="1">
+        <v>651948</v>
+      </c>
+      <c r="C155" t="s">
+        <v>155</v>
+      </c>
+      <c r="D155" s="1">
+        <v>405766999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>32710942</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1784299</v>
+      </c>
+      <c r="C156" t="s">
+        <v>156</v>
+      </c>
+      <c r="D156" s="1">
+        <v>405053984</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>40923820</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1163564</v>
+      </c>
+      <c r="C157" t="s">
+        <v>157</v>
+      </c>
+      <c r="D157" s="1">
+        <v>405174061</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>40924537</v>
+      </c>
+      <c r="B158" s="1">
+        <v>702430</v>
+      </c>
+      <c r="C158" t="s">
+        <v>158</v>
+      </c>
+      <c r="D158" s="1">
+        <v>405040064</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>40924429</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1665440</v>
+      </c>
+      <c r="C159" t="s">
+        <v>159</v>
+      </c>
+      <c r="D159" s="1">
+        <v>405056326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>56057668</v>
+      </c>
+      <c r="B160" s="1">
+        <v>3352814</v>
+      </c>
+      <c r="C160" t="s">
+        <v>160</v>
+      </c>
+      <c r="D160" s="1">
+        <v>405176934</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>19082949</v>
+      </c>
+      <c r="B161" s="1">
+        <v>2761458</v>
+      </c>
+      <c r="C161" t="s">
+        <v>161</v>
+      </c>
+      <c r="D161" s="1">
+        <v>405056565</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>19591473</v>
+      </c>
+      <c r="B162" s="1">
+        <v>4365157</v>
+      </c>
+      <c r="C162" t="s">
+        <v>162</v>
+      </c>
+      <c r="D162" s="1">
+        <v>400120820</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>32181130</v>
+      </c>
+      <c r="B163" s="1">
+        <v>4086404</v>
+      </c>
+      <c r="C163" t="s">
+        <v>163</v>
+      </c>
+      <c r="D163" s="1">
+        <v>405164013</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>17855558</v>
+      </c>
+      <c r="B164" s="1">
+        <v>4579875</v>
+      </c>
+      <c r="C164" t="s">
+        <v>164</v>
+      </c>
+      <c r="D164" s="1">
+        <v>405029851</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>4509294</v>
+      </c>
+      <c r="B165" s="1">
+        <v>10076577</v>
+      </c>
+      <c r="C165" t="s">
+        <v>165</v>
+      </c>
+      <c r="D165" s="1">
+        <v>405030230</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>40927723</v>
+      </c>
+      <c r="B166" s="1">
+        <v>3405241</v>
+      </c>
+      <c r="C166" t="s">
+        <v>166</v>
+      </c>
+      <c r="D166" s="1">
+        <v>405182916</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>40917726</v>
+      </c>
+      <c r="B167" s="1">
+        <v>649060</v>
+      </c>
+      <c r="C167" t="s">
+        <v>167</v>
+      </c>
+      <c r="D167" s="1">
+        <v>405044330</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>84085182</v>
+      </c>
+      <c r="B168" s="1">
+        <v>3150983</v>
+      </c>
+      <c r="C168" t="s">
+        <v>168</v>
+      </c>
+      <c r="D168" s="1">
+        <v>405179938</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>40912575</v>
+      </c>
+      <c r="B169" s="1">
+        <v>2567563</v>
+      </c>
+      <c r="C169" t="s">
+        <v>169</v>
+      </c>
+      <c r="D169" s="1">
+        <v>405055708</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>84092791</v>
+      </c>
+      <c r="B170" s="1">
+        <v>2213388</v>
+      </c>
+      <c r="C170" t="s">
+        <v>170</v>
+      </c>
+      <c r="D170" s="1">
+        <v>405124462</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>84032706</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1524157</v>
+      </c>
+      <c r="C171" t="s">
+        <v>171</v>
+      </c>
+      <c r="D171" s="1">
+        <v>405055435</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>40913846</v>
+      </c>
+      <c r="B172" s="1">
+        <v>627444</v>
+      </c>
+      <c r="C172" t="s">
+        <v>172</v>
+      </c>
+      <c r="D172" s="1">
+        <v>405031154</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>40924959</v>
+      </c>
+      <c r="B173" s="1">
+        <v>4804777</v>
+      </c>
+      <c r="C173" t="s">
+        <v>173</v>
+      </c>
+      <c r="D173" s="1">
+        <v>405061706</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>84031046</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1246442</v>
+      </c>
+      <c r="C174" t="s">
+        <v>174</v>
+      </c>
+      <c r="D174" s="1">
+        <v>405042482</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>56057030</v>
+      </c>
+      <c r="B175" s="1">
+        <v>3622119</v>
+      </c>
+      <c r="C175" t="s">
+        <v>175</v>
+      </c>
+      <c r="D175" s="1">
+        <v>405180183</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>57440533</v>
+      </c>
+      <c r="B176" s="1">
+        <v>3452492</v>
+      </c>
+      <c r="C176" t="s">
+        <v>176</v>
+      </c>
+      <c r="D176" s="1">
+        <v>405171752</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>40789011</v>
+      </c>
+      <c r="B177" s="1">
+        <v>4820043</v>
+      </c>
+      <c r="C177" t="s">
+        <v>177</v>
+      </c>
+      <c r="D177" s="1">
+        <v>405126756</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>40932743</v>
+      </c>
+      <c r="B178" s="1">
+        <v>3678819</v>
+      </c>
+      <c r="C178" t="s">
+        <v>178</v>
+      </c>
+      <c r="D178" s="1">
+        <v>405179821</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>72134510</v>
+      </c>
+      <c r="B179" s="1">
+        <v>7383363</v>
+      </c>
+      <c r="C179" t="s">
+        <v>179</v>
+      </c>
+      <c r="D179" s="1">
+        <v>405056722</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>84033224</v>
+      </c>
+      <c r="B180" s="1">
+        <v>3485754</v>
+      </c>
+      <c r="C180" t="s">
+        <v>180</v>
+      </c>
+      <c r="D180" s="1">
+        <v>405179920</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>3717537</v>
+      </c>
+      <c r="B181" s="1">
+        <v>3090937</v>
+      </c>
+      <c r="C181" t="s">
+        <v>181</v>
+      </c>
+      <c r="D181" s="1">
+        <v>405056508</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>56073872</v>
+      </c>
+      <c r="B182" s="1">
+        <v>5016571</v>
+      </c>
+      <c r="C182" t="s">
+        <v>182</v>
+      </c>
+      <c r="D182" s="1">
+        <v>405070467</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>26995329</v>
+      </c>
+      <c r="B183" s="1">
+        <v>4247695</v>
+      </c>
+      <c r="C183" t="s">
+        <v>183</v>
+      </c>
+      <c r="D183" s="1">
+        <v>405047333</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>40923961</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1202236</v>
+      </c>
+      <c r="C184" t="s">
+        <v>184</v>
+      </c>
+      <c r="D184" s="1">
+        <v>405182643</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>32655352</v>
+      </c>
+      <c r="B185" s="1">
+        <v>4052813</v>
+      </c>
+      <c r="C185" t="s">
+        <v>185</v>
+      </c>
+      <c r="D185" s="1">
+        <v>405056110</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>32632763</v>
+      </c>
+      <c r="B186" s="1">
+        <v>7288586</v>
+      </c>
+      <c r="C186" t="s">
+        <v>186</v>
+      </c>
+      <c r="D186" s="1">
+        <v>405056409</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>84078019</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1564459</v>
+      </c>
+      <c r="C187" t="s">
+        <v>187</v>
+      </c>
+      <c r="D187" s="1">
+        <v>405767534</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>84032581</v>
+      </c>
+      <c r="B188" s="1">
+        <v>2975417</v>
+      </c>
+      <c r="C188" t="s">
+        <v>188</v>
+      </c>
+      <c r="D188" s="1">
+        <v>405055328</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>12560254</v>
+      </c>
+      <c r="B189" s="1">
+        <v>2856371</v>
+      </c>
+      <c r="C189" t="s">
+        <v>189</v>
+      </c>
+      <c r="D189" s="1">
+        <v>405077306</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>17954966</v>
+      </c>
+      <c r="B190" s="1">
+        <v>2540272</v>
+      </c>
+      <c r="C190" t="s">
+        <v>190</v>
+      </c>
+      <c r="D190" s="1">
+        <v>405154998</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>8713774</v>
+      </c>
+      <c r="B191" s="1">
+        <v>5862834</v>
+      </c>
+      <c r="C191" t="s">
+        <v>191</v>
+      </c>
+      <c r="D191" s="1">
+        <v>405056268</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>40839704</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2009485</v>
+      </c>
+      <c r="C192" t="s">
+        <v>192</v>
+      </c>
+      <c r="D192" s="1">
+        <v>405033374</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>5171041</v>
+      </c>
+      <c r="B193" s="1">
+        <v>3315960</v>
+      </c>
+      <c r="C193" t="s">
+        <v>193</v>
+      </c>
+      <c r="D193" s="1">
+        <v>405055534</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>84035424</v>
+      </c>
+      <c r="B194" s="1">
+        <v>3962218</v>
+      </c>
+      <c r="C194" t="s">
+        <v>194</v>
+      </c>
+      <c r="D194" s="1">
+        <v>405180035</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>84034602</v>
+      </c>
+      <c r="B195" s="1">
+        <v>2076701</v>
+      </c>
+      <c r="C195" t="s">
+        <v>195</v>
+      </c>
+      <c r="D195" s="1">
+        <v>405055690</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>39490945</v>
+      </c>
+      <c r="B196" s="1">
+        <v>2655763</v>
+      </c>
+      <c r="C196" t="s">
+        <v>196</v>
+      </c>
+      <c r="D196" s="1">
+        <v>405123639</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>53011597</v>
+      </c>
+      <c r="B197" s="1">
+        <v>2187262</v>
+      </c>
+      <c r="C197" t="s">
+        <v>197</v>
+      </c>
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>73114368</v>
+      </c>
+      <c r="B198" s="1">
+        <v>5077014</v>
+      </c>
+      <c r="C198" t="s">
+        <v>198</v>
+      </c>
+      <c r="D198" s="1">
+        <v>405180001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>40942871</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1229562</v>
+      </c>
+      <c r="C199" t="s">
+        <v>199</v>
+      </c>
+      <c r="D199" s="1">
+        <v>405182854</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>40917736</v>
+      </c>
+      <c r="B200" s="1">
+        <v>4160410</v>
+      </c>
+      <c r="C200" t="s">
+        <v>200</v>
+      </c>
+      <c r="D200" s="1">
+        <v>405180118</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <v>84026238</v>
+      </c>
+      <c r="B201" s="1">
+        <v>1017595</v>
+      </c>
+      <c r="C201" t="s">
+        <v>201</v>
+      </c>
+      <c r="D201" s="1">
+        <v>405056284</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202">
+        <v>40914786</v>
+      </c>
+      <c r="B202" s="1">
+        <v>683977</v>
+      </c>
+      <c r="C202" t="s">
+        <v>202</v>
+      </c>
+      <c r="D202" s="1">
+        <v>405029885</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>40925643</v>
+      </c>
+      <c r="B203" s="1">
+        <v>185443</v>
+      </c>
+      <c r="C203" t="s">
+        <v>203</v>
+      </c>
+      <c r="D203" s="1">
+        <v>405149253</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>26964861</v>
+      </c>
+      <c r="B204" s="1">
+        <v>3896147</v>
+      </c>
+      <c r="C204" t="s">
+        <v>204</v>
+      </c>
+      <c r="D204" s="1">
+        <v>405030404</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
+        <v>70070562</v>
+      </c>
+      <c r="B205" s="1">
+        <v>6016142</v>
+      </c>
+      <c r="C205" t="s">
+        <v>205</v>
+      </c>
+      <c r="D205" s="1">
+        <v>405056177</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <v>84032386</v>
+      </c>
+      <c r="B206" s="1">
+        <v>3192769</v>
+      </c>
+      <c r="C206" t="s">
+        <v>206</v>
+      </c>
+      <c r="D206" s="1">
+        <v>405056375</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <v>32704787</v>
+      </c>
+      <c r="B207" s="1">
+        <v>214567</v>
+      </c>
+      <c r="C207" t="s">
+        <v>207</v>
+      </c>
+      <c r="D207" s="1">
+        <v>405030180</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <v>32704787</v>
+      </c>
+      <c r="B208" s="1">
+        <v>605811</v>
+      </c>
+      <c r="C208" t="s">
+        <v>207</v>
+      </c>
+      <c r="D208" s="1">
+        <v>405030180</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>40976795</v>
+      </c>
+      <c r="B209" s="1">
+        <v>2192358</v>
+      </c>
+      <c r="C209" t="s">
+        <v>208</v>
+      </c>
+      <c r="D209" s="1">
+        <v>405030982</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>12712692</v>
+      </c>
+      <c r="B210" s="1">
+        <v>2738665</v>
+      </c>
+      <c r="C210" t="s">
+        <v>209</v>
+      </c>
+      <c r="D210" s="1">
+        <v>405055856</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>71597186</v>
+      </c>
+      <c r="B211" s="1">
+        <v>3803431</v>
+      </c>
+      <c r="C211" t="s">
+        <v>210</v>
+      </c>
+      <c r="D211" s="1">
+        <v>405023334</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>40918605</v>
+      </c>
+      <c r="B212" s="1">
+        <v>4320526</v>
+      </c>
+      <c r="C212" t="s">
+        <v>211</v>
+      </c>
+      <c r="D212" s="1">
+        <v>405028515</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>73080431</v>
+      </c>
+      <c r="B213" s="1">
+        <v>4299507</v>
+      </c>
+      <c r="C213" t="s">
+        <v>212</v>
+      </c>
+      <c r="D213" s="1">
+        <v>405055898</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>40915068</v>
+      </c>
+      <c r="B214" s="1">
+        <v>1910785</v>
+      </c>
+      <c r="C214" t="s">
+        <v>213</v>
+      </c>
+      <c r="D214" s="1">
+        <v>405043035</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>40937339</v>
+      </c>
+      <c r="B215" s="1">
+        <v>2603563</v>
+      </c>
+      <c r="C215" t="s">
+        <v>214</v>
+      </c>
+      <c r="D215" s="1">
+        <v>405182668</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>84080209</v>
+      </c>
+      <c r="B216" s="1">
+        <v>3633178</v>
+      </c>
+      <c r="C216" t="s">
+        <v>215</v>
+      </c>
+      <c r="D216" s="1">
+        <v>405096520</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>21238226</v>
+      </c>
+      <c r="B217" s="1">
+        <v>4452457</v>
+      </c>
+      <c r="C217" t="s">
+        <v>216</v>
+      </c>
+      <c r="D217" s="1">
+        <v>405179854</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>84028958</v>
+      </c>
+      <c r="B218" s="1">
+        <v>837769</v>
+      </c>
+      <c r="C218" t="s">
+        <v>217</v>
+      </c>
+      <c r="D218" s="1">
+        <v>400783940</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>19443502</v>
+      </c>
+      <c r="B219" s="1">
+        <v>4275530</v>
+      </c>
+      <c r="C219" t="s">
+        <v>218</v>
+      </c>
+      <c r="D219" s="1">
+        <v>405179862</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>52266796</v>
+      </c>
+      <c r="B220" s="1">
+        <v>3733889</v>
+      </c>
+      <c r="C220" t="s">
+        <v>219</v>
+      </c>
+      <c r="D220" s="1">
+        <v>405180019</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>40928745</v>
+      </c>
+      <c r="B221" s="1">
+        <v>2478055</v>
+      </c>
+      <c r="C221" t="s">
+        <v>220</v>
+      </c>
+      <c r="D221" s="1">
+        <v>405089905</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222">
+        <v>72174199</v>
+      </c>
+      <c r="B222" s="1">
+        <v>2525370</v>
+      </c>
+      <c r="C222" t="s">
+        <v>221</v>
+      </c>
+      <c r="D222" s="1">
+        <v>405055195</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
+        <v>19193790</v>
+      </c>
+      <c r="B223" s="1">
+        <v>1205334</v>
+      </c>
+      <c r="C223" t="s">
+        <v>222</v>
+      </c>
+      <c r="D223" s="1">
+        <v>405031147</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>17855736</v>
+      </c>
+      <c r="B224" s="1">
+        <v>2240669</v>
+      </c>
+      <c r="C224" t="s">
+        <v>223</v>
+      </c>
+      <c r="D224" s="1">
+        <v>405161464</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>8534287</v>
+      </c>
+      <c r="B225" s="1">
+        <v>3642862</v>
+      </c>
+      <c r="C225" t="s">
+        <v>224</v>
+      </c>
+      <c r="D225" s="1">
+        <v>405044009</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226">
+        <v>2760943</v>
+      </c>
+      <c r="B226" s="1">
+        <v>5458674</v>
+      </c>
+      <c r="C226" t="s">
+        <v>225</v>
+      </c>
+      <c r="D226" s="1">
+        <v>405055153</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227">
+        <v>17802053</v>
+      </c>
+      <c r="B227" s="1">
+        <v>6748098</v>
+      </c>
+      <c r="C227" t="s">
+        <v>226</v>
+      </c>
+      <c r="D227" s="1">
+        <v>405056581</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228">
+        <v>9078794</v>
+      </c>
+      <c r="B228" s="1">
+        <v>4080146</v>
+      </c>
+      <c r="C228" t="s">
+        <v>227</v>
+      </c>
+      <c r="D228" s="1">
+        <v>405023383</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229">
+        <v>36548894</v>
+      </c>
+      <c r="B229" s="1">
+        <v>2027501</v>
+      </c>
+      <c r="C229" t="s">
+        <v>228</v>
+      </c>
+      <c r="D229" s="1">
+        <v>405043084</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230">
+        <v>17804185</v>
+      </c>
+      <c r="B230" s="1">
+        <v>3347492</v>
+      </c>
+      <c r="C230" t="s">
+        <v>229</v>
+      </c>
+      <c r="D230" s="1">
+        <v>405059361</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231">
+        <v>84026629</v>
+      </c>
+      <c r="B231" s="1">
+        <v>4369876</v>
+      </c>
+      <c r="C231" t="s">
+        <v>230</v>
+      </c>
+      <c r="D231" s="1">
+        <v>405055401</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>40914203</v>
+      </c>
+      <c r="B232" s="1">
+        <v>1439698</v>
+      </c>
+      <c r="C232" t="s">
+        <v>231</v>
+      </c>
+      <c r="D232" s="1">
+        <v>405055245</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>77022224</v>
+      </c>
+      <c r="B233" s="1">
+        <v>989162</v>
+      </c>
+      <c r="C233" t="s">
+        <v>232</v>
+      </c>
+      <c r="D233" s="1">
+        <v>405158411</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>40978774</v>
+      </c>
+      <c r="B234" s="1">
+        <v>2707773</v>
+      </c>
+      <c r="C234" t="s">
+        <v>233</v>
+      </c>
+      <c r="D234" s="1">
+        <v>405044223</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235">
+        <v>40936726</v>
+      </c>
+      <c r="B235" s="1">
+        <v>2125344</v>
+      </c>
+      <c r="C235" t="s">
+        <v>234</v>
+      </c>
+      <c r="D235" s="1">
+        <v>405179268</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236">
+        <v>40922011</v>
+      </c>
+      <c r="B236" s="1">
+        <v>767829</v>
+      </c>
+      <c r="C236" t="s">
+        <v>235</v>
+      </c>
+      <c r="D236" s="1">
+        <v>405052903</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237">
+        <v>12526163</v>
+      </c>
+      <c r="B237" s="1">
+        <v>4129081</v>
+      </c>
+      <c r="C237" t="s">
+        <v>236</v>
+      </c>
+      <c r="D237" s="1">
+        <v>405179797</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>32845456</v>
+      </c>
+      <c r="B238" s="1">
+        <v>2515596</v>
+      </c>
+      <c r="C238" t="s">
+        <v>237</v>
+      </c>
+      <c r="D238" s="1">
+        <v>304002520</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239">
+        <v>17804528</v>
+      </c>
+      <c r="B239" s="1">
+        <v>4080146</v>
+      </c>
+      <c r="C239" t="s">
+        <v>238</v>
+      </c>
+      <c r="D239" s="1">
+        <v>405059528</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240">
+        <v>40927400</v>
+      </c>
+      <c r="B240" s="1">
+        <v>3946369</v>
+      </c>
+      <c r="C240" t="s">
+        <v>239</v>
+      </c>
+      <c r="D240" s="1">
+        <v>405071242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>49720755</v>
+      </c>
+      <c r="B241" s="1">
+        <v>4002514</v>
+      </c>
+      <c r="C241" t="s">
+        <v>240</v>
+      </c>
+      <c r="D241" s="1">
+        <v>405180092</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>40934523</v>
+      </c>
+      <c r="B242" s="1">
+        <v>3573942</v>
+      </c>
+      <c r="C242" t="s">
+        <v>241</v>
+      </c>
+      <c r="D242" s="1">
+        <v>405104761</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>5159322</v>
+      </c>
+      <c r="B243" s="1">
+        <v>3714688</v>
+      </c>
+      <c r="C243" t="s">
+        <v>242</v>
+      </c>
+      <c r="D243" s="1">
+        <v>405012113</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <v>32683605</v>
+      </c>
+      <c r="B244" s="1">
+        <v>3757687</v>
+      </c>
+      <c r="C244" t="s">
+        <v>243</v>
+      </c>
+      <c r="D244" s="1">
+        <v>405055286</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <v>42677500</v>
+      </c>
+      <c r="B245" s="1">
+        <v>6145453</v>
+      </c>
+      <c r="C245" t="s">
+        <v>244</v>
+      </c>
+      <c r="D245" s="1">
+        <v>405056219</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>19456447</v>
+      </c>
+      <c r="B246" s="1">
+        <v>1873117</v>
+      </c>
+      <c r="C246" t="s">
+        <v>245</v>
+      </c>
+      <c r="D246" s="1">
+        <v>405753518</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
+        <v>26962896</v>
+      </c>
+      <c r="B247" s="1">
+        <v>3246127</v>
+      </c>
+      <c r="C247" t="s">
+        <v>246</v>
+      </c>
+      <c r="D247" s="1">
+        <v>405043977</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
+        <v>40924637</v>
+      </c>
+      <c r="B248" s="1">
+        <v>640710</v>
+      </c>
+      <c r="C248" t="s">
+        <v>247</v>
+      </c>
+      <c r="D248" s="1">
+        <v>405055476</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>84035444</v>
+      </c>
+      <c r="B249" s="1">
+        <v>5043326</v>
+      </c>
+      <c r="C249" t="s">
+        <v>248</v>
+      </c>
+      <c r="D249" s="1">
+        <v>405179946</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>36719109</v>
+      </c>
+      <c r="B250" s="1">
+        <v>3410492</v>
+      </c>
+      <c r="C250" t="s">
+        <v>249</v>
+      </c>
+      <c r="D250" s="1">
+        <v>405067208</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>77025705</v>
+      </c>
+      <c r="B251" s="1">
+        <v>3774182</v>
+      </c>
+      <c r="C251" t="s">
+        <v>250</v>
+      </c>
+      <c r="D251" s="1">
+        <v>300125432</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252">
+        <v>84039896</v>
+      </c>
+      <c r="B252" s="1">
+        <v>5890657</v>
+      </c>
+      <c r="C252" t="s">
+        <v>251</v>
+      </c>
+      <c r="D252" s="1">
+        <v>405055997</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253">
+        <v>49736403</v>
+      </c>
+      <c r="B253" s="1">
+        <v>3435383</v>
+      </c>
+      <c r="C253" t="s">
+        <v>252</v>
+      </c>
+      <c r="D253" s="1">
+        <v>405180076</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>40923678</v>
+      </c>
+      <c r="B254" s="1">
+        <v>2743500</v>
+      </c>
+      <c r="C254" t="s">
+        <v>253</v>
+      </c>
+      <c r="D254" s="1">
+        <v>405031287</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>40926822</v>
+      </c>
+      <c r="B255" s="1">
+        <v>2775948</v>
+      </c>
+      <c r="C255" t="s">
+        <v>254</v>
+      </c>
+      <c r="D255" s="1">
+        <v>405772559</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>1118810845</v>
+      </c>
+      <c r="B256" s="1">
+        <v>3452491</v>
+      </c>
+      <c r="C256" t="s">
+        <v>255</v>
+      </c>
+      <c r="D256" s="1">
+        <v>405183864</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257">
+        <v>17807106</v>
+      </c>
+      <c r="B257" s="1">
+        <v>5672318</v>
+      </c>
+      <c r="C257" t="s">
+        <v>256</v>
+      </c>
+      <c r="D257" s="1">
+        <v>405008079</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
+        <v>49786864</v>
+      </c>
+      <c r="B258" s="1">
+        <v>3622119</v>
+      </c>
+      <c r="C258" t="s">
+        <v>257</v>
+      </c>
+      <c r="D258" s="1">
+        <v>405180209</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>84032882</v>
+      </c>
+      <c r="B259" s="1">
+        <v>10367440</v>
+      </c>
+      <c r="C259" t="s">
+        <v>258</v>
+      </c>
+      <c r="D259" s="1">
+        <v>405136433</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>8798450</v>
+      </c>
+      <c r="B260" s="1">
+        <v>1127086</v>
+      </c>
+      <c r="C260" t="s">
+        <v>259</v>
+      </c>
+      <c r="D260" s="1">
+        <v>405182635</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>84083636</v>
+      </c>
+      <c r="B261" s="1">
+        <v>490403</v>
+      </c>
+      <c r="C261" t="s">
+        <v>260</v>
+      </c>
+      <c r="D261" s="1">
+        <v>405051269</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>84033695</v>
+      </c>
+      <c r="B262" s="1">
+        <v>1847456</v>
+      </c>
+      <c r="C262" t="s">
+        <v>261</v>
+      </c>
+      <c r="D262" s="1">
+        <v>405067091</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>40936413</v>
+      </c>
+      <c r="B263" s="1">
+        <v>3962218</v>
+      </c>
+      <c r="C263" t="s">
+        <v>262</v>
+      </c>
+      <c r="D263" s="1">
+        <v>304002561</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>40923400</v>
+      </c>
+      <c r="B264" s="1">
+        <v>2496573</v>
+      </c>
+      <c r="C264" t="s">
+        <v>263</v>
+      </c>
+      <c r="D264" s="1">
+        <v>405030362</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
+        <v>85455312</v>
+      </c>
+      <c r="B265" s="1">
+        <v>4425075</v>
+      </c>
+      <c r="C265" t="s">
+        <v>264</v>
+      </c>
+      <c r="D265" s="1">
+        <v>405055179</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266">
+        <v>84035262</v>
+      </c>
+      <c r="B266" s="1">
+        <v>4481470</v>
+      </c>
+      <c r="C266" t="s">
+        <v>265</v>
+      </c>
+      <c r="D266" s="1">
+        <v>405055187</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>42498983</v>
+      </c>
+      <c r="B267" s="1">
+        <v>4565408</v>
+      </c>
+      <c r="C267" t="s">
+        <v>266</v>
+      </c>
+      <c r="D267" s="1">
+        <v>405046657</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268">
+        <v>40927910</v>
+      </c>
+      <c r="B268" s="1">
+        <v>4454717</v>
+      </c>
+      <c r="C268" t="s">
+        <v>267</v>
+      </c>
+      <c r="D268" s="1">
+        <v>405049958</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>17844731</v>
+      </c>
+      <c r="B269" s="1">
+        <v>4414702</v>
+      </c>
+      <c r="C269" t="s">
+        <v>268</v>
+      </c>
+      <c r="D269" s="1">
+        <v>405009267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>10234384</v>
+      </c>
+      <c r="B270" s="1">
+        <v>655044</v>
+      </c>
+      <c r="C270" t="s">
+        <v>269</v>
+      </c>
+      <c r="D270" s="1">
+        <v>405044603</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271">
+        <v>27015139</v>
+      </c>
+      <c r="B271" s="1">
+        <v>3276474</v>
+      </c>
+      <c r="C271" t="s">
+        <v>270</v>
+      </c>
+      <c r="D271" s="1">
+        <v>405056334</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
+        <v>8278413</v>
+      </c>
+      <c r="B272" s="1">
+        <v>6319151</v>
+      </c>
+      <c r="C272" t="s">
+        <v>271</v>
+      </c>
+      <c r="D272" s="1">
+        <v>405035304</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>4034483</v>
+      </c>
+      <c r="B273" s="1">
+        <v>4306532</v>
+      </c>
+      <c r="C273" t="s">
+        <v>272</v>
+      </c>
+      <c r="D273" s="1">
+        <v>405056094</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>73006038</v>
+      </c>
+      <c r="B274" s="1">
+        <v>2961040</v>
+      </c>
+      <c r="C274" t="s">
+        <v>273</v>
+      </c>
+      <c r="D274" s="1">
+        <v>405180175</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>84084238</v>
+      </c>
+      <c r="B275" s="1">
+        <v>1774751</v>
+      </c>
+      <c r="C275" t="s">
+        <v>274</v>
+      </c>
+      <c r="D275" s="1">
+        <v>405089202</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>40976465</v>
+      </c>
+      <c r="B276" s="1">
+        <v>673553</v>
+      </c>
+      <c r="C276" t="s">
+        <v>275</v>
+      </c>
+      <c r="D276" s="1">
+        <v>405044439</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>84091531</v>
+      </c>
+      <c r="B277" s="1">
+        <v>3033593</v>
+      </c>
+      <c r="C277" t="s">
+        <v>276</v>
+      </c>
+      <c r="D277" s="1">
+        <v>405179839</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>17805759</v>
+      </c>
+      <c r="B278" s="1">
+        <v>5606887</v>
+      </c>
+      <c r="C278" t="s">
+        <v>277</v>
+      </c>
+      <c r="D278" s="1">
+        <v>405056037</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>10781860</v>
+      </c>
+      <c r="B279" s="1">
+        <v>3758717</v>
+      </c>
+      <c r="C279" t="s">
+        <v>278</v>
+      </c>
+      <c r="D279" s="1">
+        <v>405180159</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>36537160</v>
+      </c>
+      <c r="B280" s="1">
+        <v>3626282</v>
+      </c>
+      <c r="C280" t="s">
+        <v>279</v>
+      </c>
+      <c r="D280" s="1">
+        <v>405753450</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>17855825</v>
+      </c>
+      <c r="B281" s="1">
+        <v>3136875</v>
+      </c>
+      <c r="C281" t="s">
+        <v>280</v>
+      </c>
+      <c r="D281" s="1">
+        <v>405054446</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>13015884</v>
+      </c>
+      <c r="B282" s="1">
+        <v>7765208</v>
+      </c>
+      <c r="C282" t="s">
+        <v>281</v>
+      </c>
+      <c r="D282" s="1">
+        <v>405156142</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>7458062</v>
+      </c>
+      <c r="B283" s="1">
+        <v>2913558</v>
+      </c>
+      <c r="C283" t="s">
+        <v>282</v>
+      </c>
+      <c r="D283" s="1">
+        <v>405010976</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>40914811</v>
+      </c>
+      <c r="B284" s="1">
+        <v>6077637</v>
+      </c>
+      <c r="C284" t="s">
+        <v>283</v>
+      </c>
+      <c r="D284" s="1">
+        <v>405056466</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>84078447</v>
+      </c>
+      <c r="B285" s="1">
+        <v>861400</v>
+      </c>
+      <c r="C285" t="s">
+        <v>284</v>
+      </c>
+      <c r="D285" s="1">
+        <v>405112285</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>70120295</v>
+      </c>
+      <c r="B286" s="1">
+        <v>7027394</v>
+      </c>
+      <c r="C286" t="s">
+        <v>285</v>
+      </c>
+      <c r="D286" s="1">
+        <v>405030198</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>9307957</v>
+      </c>
+      <c r="B287" s="1">
+        <v>4976838</v>
+      </c>
+      <c r="C287" t="s">
+        <v>286</v>
+      </c>
+      <c r="D287" s="1">
+        <v>405030784</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>40912245</v>
+      </c>
+      <c r="B288" s="1">
+        <v>875980</v>
+      </c>
+      <c r="C288" t="s">
+        <v>287</v>
+      </c>
+      <c r="D288" s="1">
+        <v>405056243</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289">
+        <v>40942067</v>
+      </c>
+      <c r="B289" s="1">
+        <v>503155</v>
+      </c>
+      <c r="C289" t="s">
+        <v>288</v>
+      </c>
+      <c r="D289" s="1">
+        <v>405149618</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>17955129</v>
+      </c>
+      <c r="B290" s="1">
+        <v>4190021</v>
+      </c>
+      <c r="C290" t="s">
+        <v>289</v>
+      </c>
+      <c r="D290" s="1">
+        <v>405067109</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>17951142</v>
+      </c>
+      <c r="B291" s="1">
+        <v>4978246</v>
+      </c>
+      <c r="C291" t="s">
+        <v>290</v>
+      </c>
+      <c r="D291" s="1">
+        <v>405056417</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>84035760</v>
+      </c>
+      <c r="B292" s="1">
+        <v>3129369</v>
+      </c>
+      <c r="C292" t="s">
+        <v>291</v>
+      </c>
+      <c r="D292" s="1">
+        <v>405067182</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>56056923</v>
+      </c>
+      <c r="B293" s="1">
+        <v>1165220</v>
+      </c>
+      <c r="C293" t="s">
+        <v>292</v>
+      </c>
+      <c r="D293" s="1">
+        <v>405129578</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>84079400</v>
+      </c>
+      <c r="B294" s="1">
+        <v>3670457</v>
+      </c>
+      <c r="C294" t="s">
+        <v>293</v>
+      </c>
+      <c r="D294" s="1">
+        <v>405123563</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>17807159</v>
+      </c>
+      <c r="B295" s="1">
+        <v>5743333</v>
+      </c>
+      <c r="C295" t="s">
+        <v>294</v>
+      </c>
+      <c r="D295" s="1">
+        <v>405040270</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>84035580</v>
+      </c>
+      <c r="B296" s="1">
+        <v>4768093</v>
+      </c>
+      <c r="C296" t="s">
+        <v>295</v>
+      </c>
+      <c r="D296" s="1">
+        <v>405078791</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>17806498</v>
+      </c>
+      <c r="B297" s="1">
+        <v>1849754</v>
+      </c>
+      <c r="C297" t="s">
+        <v>296</v>
+      </c>
+      <c r="D297" s="1">
+        <v>405055955</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>26995818</v>
+      </c>
+      <c r="B298" s="1">
+        <v>2101524</v>
+      </c>
+      <c r="C298" t="s">
+        <v>297</v>
+      </c>
+      <c r="D298" s="1">
+        <v>405055880</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>41693733</v>
+      </c>
+      <c r="B299" s="1">
+        <v>2704642</v>
+      </c>
+      <c r="C299" t="s">
+        <v>298</v>
+      </c>
+      <c r="D299" s="1">
+        <v>405056151</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>17953767</v>
+      </c>
+      <c r="B300" s="1">
+        <v>3570503</v>
+      </c>
+      <c r="C300" t="s">
+        <v>299</v>
+      </c>
+      <c r="D300" s="1">
+        <v>405055120</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>84033035</v>
+      </c>
+      <c r="B301" s="1">
+        <v>2505759</v>
+      </c>
+      <c r="C301" t="s">
+        <v>300</v>
+      </c>
+      <c r="D301" s="1">
+        <v>405061763</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>40930225</v>
+      </c>
+      <c r="B302" s="1">
+        <v>847836</v>
+      </c>
+      <c r="C302" t="s">
+        <v>301</v>
+      </c>
+      <c r="D302" s="1">
+        <v>405101643</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>40935344</v>
+      </c>
+      <c r="B303" s="1">
+        <v>2349100</v>
+      </c>
+      <c r="C303" t="s">
+        <v>302</v>
+      </c>
+      <c r="D303" s="1">
+        <v>405184466</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <v>26982790</v>
+      </c>
+      <c r="B304" s="1">
+        <v>3302675</v>
+      </c>
+      <c r="C304" t="s">
+        <v>303</v>
+      </c>
+      <c r="D304" s="1">
+        <v>405052515</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <v>32628773</v>
+      </c>
+      <c r="B305" s="1">
+        <v>3946369</v>
+      </c>
+      <c r="C305" t="s">
+        <v>304</v>
+      </c>
+      <c r="D305" s="1">
+        <v>405090432</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>18922505</v>
+      </c>
+      <c r="B306" s="1">
+        <v>2553592</v>
+      </c>
+      <c r="C306" t="s">
+        <v>305</v>
+      </c>
+      <c r="D306" s="1">
+        <v>405041161</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307">
+        <v>79689715</v>
+      </c>
+      <c r="B307" s="1">
+        <v>6037350</v>
+      </c>
+      <c r="C307" t="s">
+        <v>306</v>
+      </c>
+      <c r="D307" s="1">
+        <v>405179953</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308">
+        <v>1118805345</v>
+      </c>
+      <c r="B308" s="1">
+        <v>2830174</v>
+      </c>
+      <c r="C308" t="s">
+        <v>307</v>
+      </c>
+      <c r="D308" s="1">
+        <v>405172016</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309">
+        <v>40920939</v>
+      </c>
+      <c r="B309" s="1">
+        <v>3590667</v>
+      </c>
+      <c r="C309" t="s">
+        <v>308</v>
+      </c>
+      <c r="D309" s="1">
+        <v>405055765</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>77187962</v>
+      </c>
+      <c r="B310" s="1">
+        <v>3343007</v>
+      </c>
+      <c r="C310" t="s">
+        <v>309</v>
+      </c>
+      <c r="D310" s="1">
+        <v>405089103</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311">
+        <v>40917557</v>
+      </c>
+      <c r="B311" s="1">
+        <v>3615992</v>
+      </c>
+      <c r="C311" t="s">
+        <v>310</v>
+      </c>
+      <c r="D311" s="1">
+        <v>405015215</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312">
+        <v>26994996</v>
+      </c>
+      <c r="B312" s="1">
+        <v>639212</v>
+      </c>
+      <c r="C312" t="s">
+        <v>311</v>
+      </c>
+      <c r="D312" s="1">
+        <v>405029844</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313">
+        <v>56085314</v>
+      </c>
+      <c r="B313" s="1">
+        <v>2726163</v>
+      </c>
+      <c r="C313" t="s">
+        <v>312</v>
+      </c>
+      <c r="D313" s="1">
+        <v>405087362</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314">
+        <v>40919703</v>
+      </c>
+      <c r="B314" s="1">
+        <v>1482686</v>
+      </c>
+      <c r="C314" t="s">
+        <v>313</v>
+      </c>
+      <c r="D314" s="1">
+        <v>405040858</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315">
+        <v>27004816</v>
+      </c>
+      <c r="B315" s="1">
+        <v>3962218</v>
+      </c>
+      <c r="C315" t="s">
+        <v>314</v>
+      </c>
+      <c r="D315" s="1">
+        <v>405123522</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>56085519</v>
+      </c>
+      <c r="B316" s="1">
+        <v>3962218</v>
+      </c>
+      <c r="C316" t="s">
+        <v>315</v>
+      </c>
+      <c r="D316" s="1">
+        <v>304002447</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317">
+        <v>40914803</v>
+      </c>
+      <c r="B317" s="1">
+        <v>3623369</v>
+      </c>
+      <c r="C317" t="s">
+        <v>316</v>
+      </c>
+      <c r="D317" s="1">
+        <v>405083247</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318">
+        <v>40937619</v>
+      </c>
+      <c r="B318" s="1">
+        <v>2367870</v>
+      </c>
+      <c r="C318" t="s">
+        <v>317</v>
+      </c>
+      <c r="D318" s="1">
+        <v>405112095</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319">
+        <v>84082367</v>
+      </c>
+      <c r="B319" s="1">
+        <v>3290535</v>
+      </c>
+      <c r="C319" t="s">
+        <v>318</v>
+      </c>
+      <c r="D319" s="1">
+        <v>405102989</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320">
+        <v>6772256</v>
+      </c>
+      <c r="B320" s="1">
+        <v>4794955</v>
+      </c>
+      <c r="C320" t="s">
+        <v>319</v>
+      </c>
+      <c r="D320" s="1">
+        <v>300308194</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321">
+        <v>40799640</v>
+      </c>
+      <c r="B321" s="1">
+        <v>1272408</v>
+      </c>
+      <c r="C321" t="s">
+        <v>320</v>
+      </c>
+      <c r="D321" s="1">
+        <v>405065178</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322">
+        <v>27015180</v>
+      </c>
+      <c r="B322" s="1">
+        <v>2028187</v>
+      </c>
+      <c r="C322" t="s">
+        <v>321</v>
+      </c>
+      <c r="D322" s="1">
+        <v>300779162</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323">
+        <v>7475678</v>
+      </c>
+      <c r="B323" s="1">
+        <v>7959169</v>
+      </c>
+      <c r="C323" t="s">
+        <v>322</v>
+      </c>
+      <c r="D323" s="1">
+        <v>405009515</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324">
+        <v>45518038</v>
+      </c>
+      <c r="B324" s="1">
+        <v>2704041</v>
+      </c>
+      <c r="C324" t="s">
+        <v>323</v>
+      </c>
+      <c r="D324" s="1">
+        <v>405179250</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325">
+        <v>12593221</v>
+      </c>
+      <c r="B325" s="1">
+        <v>1109371</v>
+      </c>
+      <c r="C325" t="s">
+        <v>324</v>
+      </c>
+      <c r="D325" s="1">
+        <v>405024092</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326">
+        <v>40937690</v>
+      </c>
+      <c r="B326" s="1">
+        <v>3590637</v>
+      </c>
+      <c r="C326" t="s">
+        <v>325</v>
+      </c>
+      <c r="D326" s="1">
+        <v>405179276</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327">
+        <v>40858003</v>
+      </c>
+      <c r="B327" s="1">
+        <v>1202236</v>
+      </c>
+      <c r="C327" t="s">
+        <v>326</v>
+      </c>
+      <c r="D327" s="1">
+        <v>405124033</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="B328" s="1"/>
+      <c r="D328" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
